--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AC5C75-6A7D-F745-B538-04875B885407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F077709-A1B8-2B41-B2A2-6CD76EC25131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СПРАВОЧНИК -1" sheetId="1" r:id="rId1"/>
     <sheet name="СПРАВОЧНИК -2" sheetId="2" r:id="rId2"/>
-    <sheet name="ПОЛЬЗОВАТЕЛИ" sheetId="8" r:id="rId3"/>
-    <sheet name="СПРАВОЧНИК -3" sheetId="3" r:id="rId4"/>
+    <sheet name="СПРАВОЧНИК -3" sheetId="3" r:id="rId3"/>
+    <sheet name="ПОЛЬЗОВАТЕЛИ" sheetId="8" r:id="rId4"/>
     <sheet name="ЗАПРОСЫ" sheetId="4" r:id="rId5"/>
     <sheet name="Расчет по габаритам" sheetId="5" r:id="rId6"/>
     <sheet name="Расчетом расходов материалов" sheetId="6" r:id="rId7"/>
@@ -1979,14 +1979,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y853"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2001,7 +2001,7 @@
     <col min="15" max="15" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1">
+    <row r="1" spans="1:25" ht="40" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" hidden="1" customHeight="1">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.75" hidden="1" customHeight="1">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" hidden="1" customHeight="1">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15.75" hidden="1" customHeight="1">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15.75" hidden="1" customHeight="1">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" hidden="1" customHeight="1">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75" hidden="1" customHeight="1">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15.75" hidden="1" customHeight="1">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75" hidden="1" customHeight="1">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="21" spans="1:20" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>103</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="22" spans="1:20" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>103</v>
       </c>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="23" spans="1:20" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>103</v>
       </c>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="P23" s="12"/>
     </row>
-    <row r="24" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="24" spans="1:20" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>103</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="28" spans="1:20" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>15</v>
       </c>
@@ -3271,7 +3271,7 @@
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
     </row>
-    <row r="29" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="29" spans="1:20" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>15</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
     </row>
-    <row r="30" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" spans="1:20" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>15</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="31" spans="1:20" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>15</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="32" spans="1:20" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>15</v>
       </c>
@@ -3467,7 +3467,7 @@
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
     </row>
-    <row r="33" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="33" spans="1:20" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>15</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
     </row>
-    <row r="34" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="34" spans="1:20" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>15</v>
       </c>
@@ -3908,7 +3908,7 @@
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
     </row>
-    <row r="42" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="42" spans="1:20" ht="15.75" customHeight="1">
       <c r="A42" s="7" t="s">
         <v>103</v>
       </c>
@@ -4202,7 +4202,7 @@
       <c r="S47" s="12"/>
       <c r="T47" s="12"/>
     </row>
-    <row r="48" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="48" spans="1:20" ht="15.75" customHeight="1">
       <c r="A48" s="7" t="s">
         <v>103</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
     </row>
-    <row r="49" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="49" spans="1:20" ht="15.75" customHeight="1">
       <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
@@ -4300,7 +4300,7 @@
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
     </row>
-    <row r="50" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="50" spans="1:20" ht="15.75" customHeight="1">
       <c r="A50" s="7" t="s">
         <v>103</v>
       </c>
@@ -4349,7 +4349,7 @@
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
     </row>
-    <row r="51" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="51" spans="1:20" ht="15.75" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>103</v>
       </c>
@@ -4643,7 +4643,7 @@
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
     </row>
-    <row r="57" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="57" spans="1:20" ht="13" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>103</v>
       </c>
@@ -4839,7 +4839,7 @@
       <c r="S60" s="12"/>
       <c r="T60" s="12"/>
     </row>
-    <row r="61" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="61" spans="1:20" ht="13" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>103</v>
       </c>
@@ -4888,7 +4888,7 @@
       <c r="S61" s="12"/>
       <c r="T61" s="12"/>
     </row>
-    <row r="62" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="62" spans="1:20" ht="13" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>103</v>
       </c>
@@ -4937,7 +4937,7 @@
       <c r="S62" s="12"/>
       <c r="T62" s="12"/>
     </row>
-    <row r="63" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="63" spans="1:20" ht="13" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>103</v>
       </c>
@@ -4986,7 +4986,7 @@
       <c r="S63" s="12"/>
       <c r="T63" s="12"/>
     </row>
-    <row r="64" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="64" spans="1:20" ht="13" customHeight="1">
       <c r="A64" s="7" t="s">
         <v>103</v>
       </c>
@@ -5035,7 +5035,7 @@
       <c r="S64" s="12"/>
       <c r="T64" s="12"/>
     </row>
-    <row r="65" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="65" spans="1:20" ht="13" customHeight="1">
       <c r="A65" s="7" t="s">
         <v>103</v>
       </c>
@@ -5084,7 +5084,7 @@
       <c r="S65" s="12"/>
       <c r="T65" s="12"/>
     </row>
-    <row r="66" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="66" spans="1:20" ht="13" customHeight="1">
       <c r="A66" s="7" t="s">
         <v>103</v>
       </c>
@@ -5133,7 +5133,7 @@
       <c r="S66" s="12"/>
       <c r="T66" s="12"/>
     </row>
-    <row r="67" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="67" spans="1:20" ht="13" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>103</v>
       </c>
@@ -5182,7 +5182,7 @@
       <c r="S67" s="12"/>
       <c r="T67" s="12"/>
     </row>
-    <row r="68" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="68" spans="1:20" ht="13" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>103</v>
       </c>
@@ -5476,7 +5476,7 @@
       <c r="S73" s="12"/>
       <c r="T73" s="12"/>
     </row>
-    <row r="74" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="74" spans="1:20" ht="13" customHeight="1">
       <c r="A74" s="7" t="s">
         <v>103</v>
       </c>
@@ -5525,7 +5525,7 @@
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
     </row>
-    <row r="75" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="75" spans="1:20" ht="13" customHeight="1">
       <c r="A75" s="7" t="s">
         <v>103</v>
       </c>
@@ -5574,7 +5574,7 @@
       <c r="S75" s="12"/>
       <c r="T75" s="12"/>
     </row>
-    <row r="76" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="76" spans="1:20" ht="13" customHeight="1">
       <c r="A76" s="7" t="s">
         <v>103</v>
       </c>
@@ -5623,7 +5623,7 @@
       <c r="S76" s="12"/>
       <c r="T76" s="12"/>
     </row>
-    <row r="77" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="77" spans="1:20" ht="13" customHeight="1">
       <c r="A77" s="7" t="s">
         <v>103</v>
       </c>
@@ -5868,7 +5868,7 @@
       <c r="S81" s="12"/>
       <c r="T81" s="12"/>
     </row>
-    <row r="82" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="82" spans="1:20" ht="13" customHeight="1">
       <c r="A82" s="7" t="s">
         <v>103</v>
       </c>
@@ -5917,7 +5917,7 @@
       <c r="S82" s="12"/>
       <c r="T82" s="12"/>
     </row>
-    <row r="83" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="83" spans="1:20" ht="13" customHeight="1">
       <c r="A83" s="7" t="s">
         <v>103</v>
       </c>
@@ -5966,7 +5966,7 @@
       <c r="S83" s="12"/>
       <c r="T83" s="12"/>
     </row>
-    <row r="84" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="84" spans="1:20" ht="13" customHeight="1">
       <c r="A84" s="7" t="s">
         <v>103</v>
       </c>
@@ -6211,7 +6211,7 @@
       <c r="S88" s="12"/>
       <c r="T88" s="12"/>
     </row>
-    <row r="89" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="89" spans="1:20" ht="13" customHeight="1">
       <c r="A89" s="7" t="s">
         <v>103</v>
       </c>
@@ -6260,7 +6260,7 @@
       <c r="S89" s="12"/>
       <c r="T89" s="12"/>
     </row>
-    <row r="90" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="90" spans="1:20" ht="13" customHeight="1">
       <c r="A90" s="7" t="s">
         <v>103</v>
       </c>
@@ -6309,7 +6309,7 @@
       <c r="S90" s="12"/>
       <c r="T90" s="12"/>
     </row>
-    <row r="91" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="91" spans="1:20" ht="13" customHeight="1">
       <c r="A91" s="7" t="s">
         <v>103</v>
       </c>
@@ -6358,7 +6358,7 @@
       <c r="S91" s="12"/>
       <c r="T91" s="12"/>
     </row>
-    <row r="92" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="92" spans="1:20" ht="13" customHeight="1">
       <c r="A92" s="7" t="s">
         <v>103</v>
       </c>
@@ -6407,7 +6407,7 @@
       <c r="S92" s="12"/>
       <c r="T92" s="12"/>
     </row>
-    <row r="93" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="93" spans="1:20" ht="13" customHeight="1">
       <c r="A93" s="7" t="s">
         <v>103</v>
       </c>
@@ -6456,7 +6456,7 @@
       <c r="S93" s="12"/>
       <c r="T93" s="12"/>
     </row>
-    <row r="94" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="94" spans="1:20" ht="13" customHeight="1">
       <c r="A94" s="7" t="s">
         <v>103</v>
       </c>
@@ -6505,7 +6505,7 @@
       <c r="S94" s="12"/>
       <c r="T94" s="12"/>
     </row>
-    <row r="95" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="95" spans="1:20" ht="13" customHeight="1">
       <c r="A95" s="7" t="s">
         <v>103</v>
       </c>
@@ -6554,7 +6554,7 @@
       <c r="S95" s="12"/>
       <c r="T95" s="12"/>
     </row>
-    <row r="96" spans="1:20" ht="13" hidden="1" customHeight="1">
+    <row r="96" spans="1:20" ht="13" customHeight="1">
       <c r="A96" s="7" t="s">
         <v>103</v>
       </c>
@@ -6603,7 +6603,7 @@
       <c r="S96" s="12"/>
       <c r="T96" s="12"/>
     </row>
-    <row r="97" spans="1:21" ht="13" hidden="1" customHeight="1">
+    <row r="97" spans="1:21" ht="13" customHeight="1">
       <c r="A97" s="7" t="s">
         <v>103</v>
       </c>
@@ -6898,7 +6898,7 @@
       <c r="T102" s="12"/>
       <c r="U102" s="12"/>
     </row>
-    <row r="103" spans="1:21" ht="13" hidden="1" customHeight="1">
+    <row r="103" spans="1:21" ht="13" customHeight="1">
       <c r="A103" s="7" t="s">
         <v>103</v>
       </c>
@@ -7145,7 +7145,7 @@
       <c r="T107" s="12"/>
       <c r="U107" s="12"/>
     </row>
-    <row r="108" spans="1:21" ht="13" hidden="1" customHeight="1">
+    <row r="108" spans="1:21" ht="13" customHeight="1">
       <c r="A108" s="7" t="s">
         <v>103</v>
       </c>
@@ -7195,7 +7195,7 @@
       <c r="T108" s="12"/>
       <c r="U108" s="12"/>
     </row>
-    <row r="109" spans="1:21" ht="13" hidden="1" customHeight="1">
+    <row r="109" spans="1:21" ht="13" customHeight="1">
       <c r="A109" s="7" t="s">
         <v>103</v>
       </c>
@@ -7245,7 +7245,7 @@
       <c r="T109" s="12"/>
       <c r="U109" s="12"/>
     </row>
-    <row r="110" spans="1:21" ht="13" hidden="1" customHeight="1">
+    <row r="110" spans="1:21" ht="13" customHeight="1">
       <c r="A110" s="7" t="s">
         <v>103</v>
       </c>
@@ -7295,7 +7295,7 @@
       <c r="T110" s="12"/>
       <c r="U110" s="12"/>
     </row>
-    <row r="111" spans="1:21" ht="13" hidden="1" customHeight="1">
+    <row r="111" spans="1:21" ht="13" customHeight="1">
       <c r="A111" s="7" t="s">
         <v>103</v>
       </c>
@@ -7345,7 +7345,7 @@
       <c r="T111" s="12"/>
       <c r="U111" s="12"/>
     </row>
-    <row r="112" spans="1:21" ht="13" hidden="1" customHeight="1">
+    <row r="112" spans="1:21" ht="13" customHeight="1">
       <c r="A112" s="7" t="s">
         <v>103</v>
       </c>
@@ -7395,7 +7395,7 @@
       <c r="T112" s="12"/>
       <c r="U112" s="12"/>
     </row>
-    <row r="113" spans="1:21" ht="13" hidden="1" customHeight="1">
+    <row r="113" spans="1:21" ht="13" customHeight="1">
       <c r="A113" s="7" t="s">
         <v>103</v>
       </c>
@@ -7445,7 +7445,7 @@
       <c r="T113" s="12"/>
       <c r="U113" s="12"/>
     </row>
-    <row r="114" spans="1:21" ht="13" hidden="1" customHeight="1">
+    <row r="114" spans="1:21" ht="13" customHeight="1">
       <c r="A114" s="7" t="s">
         <v>103</v>
       </c>
@@ -7495,7 +7495,7 @@
       <c r="T114" s="12"/>
       <c r="U114" s="12"/>
     </row>
-    <row r="115" spans="1:21" ht="13" hidden="1" customHeight="1">
+    <row r="115" spans="1:21" ht="13" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>103</v>
       </c>
@@ -7545,7 +7545,7 @@
       <c r="T115" s="12"/>
       <c r="U115" s="12"/>
     </row>
-    <row r="116" spans="1:21" ht="13" hidden="1" customHeight="1">
+    <row r="116" spans="1:21" ht="13" customHeight="1">
       <c r="A116" s="7" t="s">
         <v>103</v>
       </c>
@@ -7595,7 +7595,7 @@
       <c r="T116" s="12"/>
       <c r="U116" s="12"/>
     </row>
-    <row r="117" spans="1:21" ht="13" hidden="1" customHeight="1">
+    <row r="117" spans="1:21" ht="13" customHeight="1">
       <c r="A117" s="7" t="s">
         <v>103</v>
       </c>
@@ -7645,7 +7645,7 @@
       <c r="T117" s="12"/>
       <c r="U117" s="12"/>
     </row>
-    <row r="118" spans="1:21" ht="13" hidden="1" customHeight="1">
+    <row r="118" spans="1:21" ht="13" customHeight="1">
       <c r="A118" s="7" t="s">
         <v>103</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="13" hidden="1" customHeight="1">
+    <row r="119" spans="1:21" ht="13" customHeight="1">
       <c r="A119" s="7" t="s">
         <v>103</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="13" hidden="1" customHeight="1">
+    <row r="120" spans="1:21" ht="13" customHeight="1">
       <c r="A120" s="7" t="s">
         <v>103</v>
       </c>
@@ -12186,13 +12186,6 @@
       <c r="N853" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y120" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="м"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12205,7 +12198,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -12355,130 +12348,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EC6FB2-1903-0042-ACE8-47D7240CC83A}">
-  <dimension ref="A1:G47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16">
-      <c r="A2" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16">
-      <c r="A3" s="27" t="s">
-        <v>510</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>509</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16">
-      <c r="A4" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>513</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16">
-      <c r="A5" s="27" t="s">
-        <v>514</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>515</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16">
-      <c r="A6" s="27" t="s">
-        <v>516</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>517</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-    </row>
-    <row r="8" spans="1:3" ht="16">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-    </row>
-    <row r="9" spans="1:3" ht="16">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-    </row>
-    <row r="10" spans="1:3" ht="16">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-    </row>
-    <row r="11" spans="1:3" ht="16">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-    </row>
-    <row r="47" spans="7:7">
-      <c r="G47" s="12"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{BF75923F-2700-EA40-8D2C-95CD49C77160}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -40644,6 +40520,123 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EC6FB2-1903-0042-ACE8-47D7240CC83A}">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16">
+      <c r="A4" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16">
+      <c r="A5" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16">
+      <c r="A6" s="27" t="s">
+        <v>516</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" ht="16">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" ht="16">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" ht="16">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" ht="16">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="47" spans="7:7">
+      <c r="G47" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{BF75923F-2700-EA40-8D2C-95CD49C77160}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:V10"/>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F077709-A1B8-2B41-B2A2-6CD76EC25131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{425C12A5-5DC0-724A-A9D3-2CDDCBEAE4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СПРАВОЧНИК -1" sheetId="1" r:id="rId1"/>
@@ -12354,7 +12354,7 @@
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -40524,7 +40524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EC6FB2-1903-0042-ACE8-47D7240CC83A}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586E4E92-76A9-5446-BE8B-FBBFDDCECD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0AF3FD2-54D8-3948-A116-2605413440B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC2D7C72-8375-264E-B536-6340FEC0159D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C070523-776B-4A42-96FF-2177B8851E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СПРАВОЧНИК -1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2854" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="711">
   <si>
     <t>Тип изделия:</t>
   </si>
@@ -2603,8 +2603,8 @@
   </sheetPr>
   <dimension ref="A1:Z570"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O220" sqref="O220"/>
     </sheetView>
   </sheetViews>
@@ -15892,20 +15892,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="47.5" customWidth="1"/>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="109" customHeight="1">
+    <row r="1" spans="1:14" ht="109" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>342</v>
       </c>
@@ -15913,227 +15913,243 @@
         <v>343</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B2" s="9">
         <v>9000</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D2" s="7">
+      <c r="E2" s="7">
         <v>2000</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>10000</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>10000</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="J2" s="24">
+      <c r="K2" s="24">
         <v>4142</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="L2" s="24">
+      <c r="M2" s="24">
         <v>13025</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>354</v>
       </c>
       <c r="B3" s="9">
         <v>14000</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="J3" s="24">
+      <c r="K3" s="24">
         <v>12977</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="L3" s="24">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="24">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B4" s="9">
         <v>12000</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="11"/>
+      <c r="H4" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>12000</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="J4" s="24">
+      <c r="K4" s="24">
         <v>3531</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="11" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="11" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>357</v>
       </c>
       <c r="B5" s="9">
         <v>15000</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="C5" s="9"/>
+      <c r="H5" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>15000</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="J5" s="24">
+      <c r="K5" s="24">
         <v>12977</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L5" s="11"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>425</v>
       </c>
       <c r="B6" s="9">
         <v>4000</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="C6" s="9"/>
+      <c r="J6" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="J6" s="24">
+      <c r="K6" s="24">
         <v>12977</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L6" s="11"/>
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>426</v>
       </c>
       <c r="B7" s="9">
         <v>6000</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="C7" s="9"/>
+      <c r="J7" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="K7" s="26" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>427</v>
       </c>
       <c r="B8" s="9">
         <v>6000</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="C8" s="9"/>
+      <c r="J8" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="J8" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="K8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>428</v>
       </c>
       <c r="B9" s="9">
         <v>8500</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>355</v>
       </c>
       <c r="B10" s="9">
         <v>0</v>
       </c>
+      <c r="C10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16147,8 +16163,8 @@
   </sheetPr>
   <dimension ref="A1:Y998"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C070523-776B-4A42-96FF-2177B8851E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{927DB9B5-F2BE-DC46-8DD4-6FF9CFD86F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="29400" windowHeight="17160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СПРАВОЧНИК -1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="711">
   <si>
     <t>Тип изделия:</t>
   </si>
@@ -2168,20 +2168,20 @@
     <t>Новая Формула_Python</t>
   </si>
   <si>
-    <t>45 Руит Ламбри 11 мм RAL 7024 мат</t>
-  </si>
-  <si>
-    <t>55 Ламбри с термо-барьерами 24 мм RAL 7024 мат</t>
-  </si>
-  <si>
-    <t>I = 2·(W + H)/1000 · Nwin</t>
+    <t xml:space="preserve">Стоимость заполнения </t>
+  </si>
+  <si>
+    <t>Ламбри без термо</t>
+  </si>
+  <si>
+    <t>Ламбри с термо</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2271,12 +2271,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2305,7 +2299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2369,9 +2363,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -2601,11 +2592,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z570"/>
+  <dimension ref="A1:Z568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O220" sqref="O220"/>
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A215" sqref="A215:XFD216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2616,9 +2607,9 @@
     <col min="4" max="4" width="35.5" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="33"/>
+    <col min="7" max="7" width="12.6640625" style="32"/>
     <col min="8" max="8" width="12.6640625" style="25"/>
-    <col min="9" max="9" width="12.6640625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="32" customWidth="1"/>
     <col min="15" max="15" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7979,13 +7970,13 @@
       <c r="F112" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G112" s="32" t="s">
+      <c r="G112" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H112" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="I112" s="32" t="s">
+      <c r="I112" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J112" s="11"/>
@@ -8035,13 +8026,13 @@
       <c r="F113" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G113" s="32" t="s">
+      <c r="G113" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H113" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="I113" s="32" t="s">
+      <c r="I113" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J113" s="11"/>
@@ -8091,13 +8082,13 @@
       <c r="F114" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G114" s="32" t="s">
+      <c r="G114" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H114" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="I114" s="32" t="s">
+      <c r="I114" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J114" s="11"/>
@@ -8147,13 +8138,13 @@
       <c r="F115" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G115" s="32" t="s">
+      <c r="G115" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H115" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="I115" s="32" t="s">
+      <c r="I115" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J115" s="11"/>
@@ -8203,13 +8194,13 @@
       <c r="F116" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G116" s="32" t="s">
+      <c r="G116" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H116" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="I116" s="32" t="s">
+      <c r="I116" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J116" s="11"/>
@@ -8259,13 +8250,13 @@
       <c r="F117" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G117" s="32" t="s">
+      <c r="G117" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H117" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="I117" s="32" t="s">
+      <c r="I117" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J117" s="11"/>
@@ -8315,13 +8306,13 @@
       <c r="F118" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="G118" s="32" t="s">
+      <c r="G118" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H118" s="27" t="s">
         <v>593</v>
       </c>
-      <c r="I118" s="32" t="s">
+      <c r="I118" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J118" s="11"/>
@@ -8371,13 +8362,13 @@
       <c r="F119" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G119" s="32" t="s">
+      <c r="G119" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H119" s="27" t="s">
         <v>596</v>
       </c>
-      <c r="I119" s="32" t="s">
+      <c r="I119" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J119" s="11"/>
@@ -8427,13 +8418,13 @@
       <c r="F120" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G120" s="32" t="s">
+      <c r="G120" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H120" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="I120" s="32" t="s">
+      <c r="I120" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J120" s="11"/>
@@ -8483,13 +8474,13 @@
       <c r="F121" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G121" s="32" t="s">
+      <c r="G121" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H121" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="I121" s="32" t="s">
+      <c r="I121" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J121" s="11"/>
@@ -8539,13 +8530,13 @@
       <c r="F122" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G122" s="32" t="s">
+      <c r="G122" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H122" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="I122" s="32" t="s">
+      <c r="I122" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J122" s="11"/>
@@ -8595,13 +8586,13 @@
       <c r="F123" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G123" s="32" t="s">
+      <c r="G123" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H123" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="I123" s="32" t="s">
+      <c r="I123" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J123" s="11"/>
@@ -8651,13 +8642,13 @@
       <c r="F124" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G124" s="32" t="s">
+      <c r="G124" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H124" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="I124" s="32" t="s">
+      <c r="I124" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J124" s="11"/>
@@ -8707,13 +8698,13 @@
       <c r="F125" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G125" s="32" t="s">
+      <c r="G125" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H125" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="I125" s="32" t="s">
+      <c r="I125" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J125" s="11"/>
@@ -8763,13 +8754,13 @@
       <c r="F126" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="G126" s="32" t="s">
+      <c r="G126" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H126" s="27" t="s">
         <v>593</v>
       </c>
-      <c r="I126" s="32" t="s">
+      <c r="I126" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J126" s="11"/>
@@ -8819,13 +8810,13 @@
       <c r="F127" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G127" s="32" t="s">
+      <c r="G127" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H127" s="27" t="s">
         <v>596</v>
       </c>
-      <c r="I127" s="32" t="s">
+      <c r="I127" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J127" s="11"/>
@@ -8875,13 +8866,13 @@
       <c r="F128" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G128" s="32" t="s">
+      <c r="G128" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H128" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="I128" s="32" t="s">
+      <c r="I128" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J128" s="11"/>
@@ -8931,13 +8922,13 @@
       <c r="F129" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G129" s="32" t="s">
+      <c r="G129" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H129" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="I129" s="32" t="s">
+      <c r="I129" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J129" s="11"/>
@@ -8987,13 +8978,13 @@
       <c r="F130" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G130" s="32" t="s">
+      <c r="G130" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H130" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="I130" s="32" t="s">
+      <c r="I130" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J130" s="11"/>
@@ -9043,13 +9034,13 @@
       <c r="F131" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G131" s="32" t="s">
+      <c r="G131" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H131" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="I131" s="32" t="s">
+      <c r="I131" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J131" s="11"/>
@@ -9099,13 +9090,13 @@
       <c r="F132" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G132" s="32" t="s">
+      <c r="G132" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H132" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="I132" s="32" t="s">
+      <c r="I132" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J132" s="11"/>
@@ -9155,13 +9146,13 @@
       <c r="F133" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G133" s="32" t="s">
+      <c r="G133" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H133" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="I133" s="32" t="s">
+      <c r="I133" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J133" s="11"/>
@@ -9211,13 +9202,13 @@
       <c r="F134" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="G134" s="32" t="s">
+      <c r="G134" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H134" s="27" t="s">
         <v>593</v>
       </c>
-      <c r="I134" s="32" t="s">
+      <c r="I134" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J134" s="11"/>
@@ -9267,13 +9258,13 @@
       <c r="F135" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G135" s="32" t="s">
+      <c r="G135" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H135" s="27" t="s">
         <v>596</v>
       </c>
-      <c r="I135" s="32" t="s">
+      <c r="I135" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J135" s="11"/>
@@ -9323,13 +9314,13 @@
       <c r="F136" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G136" s="32" t="s">
+      <c r="G136" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H136" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="I136" s="32" t="s">
+      <c r="I136" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J136" s="11"/>
@@ -9379,13 +9370,13 @@
       <c r="F137" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G137" s="32" t="s">
+      <c r="G137" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H137" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="I137" s="32" t="s">
+      <c r="I137" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J137" s="11"/>
@@ -9435,13 +9426,13 @@
       <c r="F138" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G138" s="32" t="s">
+      <c r="G138" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H138" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="I138" s="32" t="s">
+      <c r="I138" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J138" s="11"/>
@@ -9491,13 +9482,13 @@
       <c r="F139" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G139" s="32" t="s">
+      <c r="G139" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H139" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="I139" s="32" t="s">
+      <c r="I139" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J139" s="11"/>
@@ -9547,13 +9538,13 @@
       <c r="F140" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G140" s="32" t="s">
+      <c r="G140" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H140" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="I140" s="32" t="s">
+      <c r="I140" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J140" s="11"/>
@@ -9603,13 +9594,13 @@
       <c r="F141" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G141" s="32" t="s">
+      <c r="G141" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H141" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="I141" s="32" t="s">
+      <c r="I141" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J141" s="11"/>
@@ -9659,13 +9650,13 @@
       <c r="F142" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="G142" s="32" t="s">
+      <c r="G142" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H142" s="27" t="s">
         <v>593</v>
       </c>
-      <c r="I142" s="32" t="s">
+      <c r="I142" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J142" s="11"/>
@@ -9715,13 +9706,13 @@
       <c r="F143" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G143" s="32" t="s">
+      <c r="G143" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H143" s="27" t="s">
         <v>596</v>
       </c>
-      <c r="I143" s="32" t="s">
+      <c r="I143" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J143" s="11"/>
@@ -9771,13 +9762,13 @@
       <c r="F144" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G144" s="32" t="s">
+      <c r="G144" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H144" s="27" t="s">
         <v>599</v>
       </c>
-      <c r="I144" s="32" t="s">
+      <c r="I144" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J144" s="11"/>
@@ -9827,13 +9818,13 @@
       <c r="F145" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G145" s="32" t="s">
+      <c r="G145" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H145" s="27" t="s">
         <v>599</v>
       </c>
-      <c r="I145" s="32" t="s">
+      <c r="I145" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J145" s="11"/>
@@ -9883,13 +9874,13 @@
       <c r="F146" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G146" s="32" t="s">
+      <c r="G146" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H146" s="27" t="s">
         <v>599</v>
       </c>
-      <c r="I146" s="32" t="s">
+      <c r="I146" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J146" s="11"/>
@@ -9939,13 +9930,13 @@
       <c r="F147" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G147" s="32" t="s">
+      <c r="G147" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H147" s="27" t="s">
         <v>599</v>
       </c>
-      <c r="I147" s="32" t="s">
+      <c r="I147" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J147" s="11"/>
@@ -9994,13 +9985,13 @@
       <c r="F148" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="G148" s="32" t="s">
+      <c r="G148" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H148" s="27">
         <v>412</v>
       </c>
-      <c r="I148" s="32" t="s">
+      <c r="I148" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J148" s="11"/>
@@ -10049,13 +10040,13 @@
       <c r="F149" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="G149" s="32" t="s">
+      <c r="G149" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H149" s="27">
         <v>384</v>
       </c>
-      <c r="I149" s="32" t="s">
+      <c r="I149" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J149" s="11"/>
@@ -10104,13 +10095,13 @@
       <c r="F150" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G150" s="32" t="s">
+      <c r="G150" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H150" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="I150" s="32" t="s">
+      <c r="I150" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J150" s="11"/>
@@ -10159,13 +10150,13 @@
       <c r="F151" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="G151" s="32" t="s">
+      <c r="G151" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H151" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="I151" s="32" t="s">
+      <c r="I151" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J151" s="11"/>
@@ -10214,13 +10205,13 @@
       <c r="F152" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="G152" s="32" t="s">
+      <c r="G152" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H152" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="I152" s="32" t="s">
+      <c r="I152" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J152" s="11"/>
@@ -10269,13 +10260,13 @@
       <c r="F153" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G153" s="32" t="s">
+      <c r="G153" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H153" s="27" t="s">
         <v>463</v>
       </c>
-      <c r="I153" s="32" t="s">
+      <c r="I153" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J153" s="11"/>
@@ -10324,13 +10315,13 @@
       <c r="F154" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G154" s="32" t="s">
+      <c r="G154" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H154" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="I154" s="32" t="s">
+      <c r="I154" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J154" s="11"/>
@@ -10379,13 +10370,13 @@
       <c r="F155" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="G155" s="32" t="s">
+      <c r="G155" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H155" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="I155" s="32" t="s">
+      <c r="I155" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J155" s="11"/>
@@ -10434,13 +10425,13 @@
       <c r="F156" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="G156" s="32" t="s">
+      <c r="G156" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H156" s="27">
         <v>992</v>
       </c>
-      <c r="I156" s="32" t="s">
+      <c r="I156" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J156" s="11"/>
@@ -10489,13 +10480,13 @@
       <c r="F157" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="G157" s="32" t="s">
+      <c r="G157" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H157" s="27" t="s">
         <v>478</v>
       </c>
-      <c r="I157" s="32" t="s">
+      <c r="I157" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J157" s="11"/>
@@ -10544,13 +10535,13 @@
       <c r="F158" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="G158" s="32" t="s">
+      <c r="G158" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H158" s="27">
         <v>153</v>
       </c>
-      <c r="I158" s="32" t="s">
+      <c r="I158" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J158" s="11"/>
@@ -10599,13 +10590,13 @@
       <c r="F159" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G159" s="32" t="s">
+      <c r="G159" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H159" s="27">
         <v>196</v>
       </c>
-      <c r="I159" s="32" t="s">
+      <c r="I159" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J159" s="11"/>
@@ -10654,13 +10645,13 @@
       <c r="F160" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="G160" s="32" t="s">
+      <c r="G160" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H160" s="27">
         <v>313</v>
       </c>
-      <c r="I160" s="32" t="s">
+      <c r="I160" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J160" s="11"/>
@@ -10709,13 +10700,13 @@
       <c r="F161" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="G161" s="32" t="s">
+      <c r="G161" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H161" s="27">
         <v>116</v>
       </c>
-      <c r="I161" s="32" t="s">
+      <c r="I161" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J161" s="11"/>
@@ -10764,13 +10755,13 @@
       <c r="F162" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="G162" s="32" t="s">
+      <c r="G162" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H162" s="27">
         <v>102</v>
       </c>
-      <c r="I162" s="32" t="s">
+      <c r="I162" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J162" s="11"/>
@@ -10819,13 +10810,13 @@
       <c r="F163" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="G163" s="32" t="s">
+      <c r="G163" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H163" s="27">
         <v>184</v>
       </c>
-      <c r="I163" s="32" t="s">
+      <c r="I163" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J163" s="11"/>
@@ -10874,13 +10865,13 @@
       <c r="F164" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="G164" s="32" t="s">
+      <c r="G164" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H164" s="27">
         <v>581</v>
       </c>
-      <c r="I164" s="32" t="s">
+      <c r="I164" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J164" s="11"/>
@@ -10929,13 +10920,13 @@
       <c r="F165" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="G165" s="32" t="s">
+      <c r="G165" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H165" s="27">
         <v>367</v>
       </c>
-      <c r="I165" s="32" t="s">
+      <c r="I165" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J165" s="11"/>
@@ -10984,13 +10975,13 @@
       <c r="F166" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="G166" s="32" t="s">
+      <c r="G166" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H166" s="27">
         <v>217</v>
       </c>
-      <c r="I166" s="32" t="s">
+      <c r="I166" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J166" s="11"/>
@@ -11039,13 +11030,13 @@
       <c r="F167" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="G167" s="32" t="s">
+      <c r="G167" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H167" s="27">
         <v>200</v>
       </c>
-      <c r="I167" s="32" t="s">
+      <c r="I167" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J167" s="11"/>
@@ -11094,13 +11085,13 @@
       <c r="F168" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="G168" s="32" t="s">
+      <c r="G168" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H168" s="27">
         <v>150</v>
       </c>
-      <c r="I168" s="32" t="s">
+      <c r="I168" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J168" s="11"/>
@@ -11149,13 +11140,13 @@
       <c r="F169" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="G169" s="32" t="s">
+      <c r="G169" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H169" s="27">
         <v>184</v>
       </c>
-      <c r="I169" s="32" t="s">
+      <c r="I169" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J169" s="11"/>
@@ -11204,13 +11195,13 @@
       <c r="F170" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="G170" s="32" t="s">
+      <c r="G170" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H170" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="I170" s="32" t="s">
+      <c r="I170" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J170" s="11"/>
@@ -11259,13 +11250,13 @@
       <c r="F171" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="G171" s="32" t="s">
+      <c r="G171" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H171" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="I171" s="32" t="s">
+      <c r="I171" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J171" s="11"/>
@@ -11314,13 +11305,13 @@
       <c r="F172" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="G172" s="32" t="s">
+      <c r="G172" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H172" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="I172" s="32" t="s">
+      <c r="I172" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J172" s="11"/>
@@ -11369,13 +11360,13 @@
       <c r="F173" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="G173" s="32" t="s">
+      <c r="G173" s="31" t="s">
         <v>119</v>
       </c>
       <c r="H173" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="I173" s="32" t="s">
+      <c r="I173" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J173" s="11"/>
@@ -11424,13 +11415,13 @@
       <c r="F174" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="G174" s="32" t="s">
+      <c r="G174" s="31" t="s">
         <v>119</v>
       </c>
       <c r="H174" s="27" t="s">
         <v>516</v>
       </c>
-      <c r="I174" s="32" t="s">
+      <c r="I174" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J174" s="11"/>
@@ -11479,13 +11470,13 @@
       <c r="F175" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="G175" s="32" t="s">
+      <c r="G175" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H175" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="I175" s="32" t="s">
+      <c r="I175" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J175" s="11"/>
@@ -11534,13 +11525,13 @@
       <c r="F176" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="G176" s="32" t="s">
+      <c r="G176" s="31" t="s">
         <v>119</v>
       </c>
       <c r="H176" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="I176" s="32" t="s">
+      <c r="I176" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J176" s="11"/>
@@ -11589,13 +11580,13 @@
       <c r="F177" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="G177" s="32" t="s">
+      <c r="G177" s="31" t="s">
         <v>504</v>
       </c>
       <c r="H177" s="27">
         <v>230</v>
       </c>
-      <c r="I177" s="32" t="s">
+      <c r="I177" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J177" s="11"/>
@@ -11644,13 +11635,13 @@
       <c r="F178" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="G178" s="32" t="s">
+      <c r="G178" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H178" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="I178" s="32" t="s">
+      <c r="I178" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J178" s="11"/>
@@ -11699,13 +11690,13 @@
       <c r="F179" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="G179" s="32" t="s">
+      <c r="G179" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H179" s="27" t="s">
         <v>531</v>
       </c>
-      <c r="I179" s="32" t="s">
+      <c r="I179" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J179" s="11"/>
@@ -11754,13 +11745,13 @@
       <c r="F180" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="G180" s="32" t="s">
+      <c r="G180" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H180" s="27" t="s">
         <v>535</v>
       </c>
-      <c r="I180" s="32" t="s">
+      <c r="I180" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J180" s="11"/>
@@ -11809,13 +11800,13 @@
       <c r="F181" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="G181" s="32" t="s">
+      <c r="G181" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H181" s="27" t="s">
         <v>537</v>
       </c>
-      <c r="I181" s="32" t="s">
+      <c r="I181" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J181" s="11"/>
@@ -11864,13 +11855,13 @@
       <c r="F182" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="G182" s="32" t="s">
+      <c r="G182" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H182" s="27" t="s">
         <v>540</v>
       </c>
-      <c r="I182" s="32" t="s">
+      <c r="I182" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J182" s="11"/>
@@ -11919,13 +11910,13 @@
       <c r="F183" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="G183" s="32" t="s">
+      <c r="G183" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H183" s="27" t="s">
         <v>542</v>
       </c>
-      <c r="I183" s="32" t="s">
+      <c r="I183" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J183" s="11"/>
@@ -11974,13 +11965,13 @@
       <c r="F184" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="G184" s="32" t="s">
+      <c r="G184" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H184" s="27">
         <v>810</v>
       </c>
-      <c r="I184" s="32" t="s">
+      <c r="I184" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J184" s="11"/>
@@ -12029,13 +12020,13 @@
       <c r="F185" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="G185" s="32" t="s">
+      <c r="G185" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H185" s="27">
         <v>384</v>
       </c>
-      <c r="I185" s="32" t="s">
+      <c r="I185" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J185" s="11"/>
@@ -12084,13 +12075,13 @@
       <c r="F186" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="G186" s="32" t="s">
+      <c r="G186" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H186" s="27">
         <v>161</v>
       </c>
-      <c r="I186" s="32" t="s">
+      <c r="I186" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J186" s="11"/>
@@ -12139,13 +12130,13 @@
       <c r="F187" s="11">
         <v>4</v>
       </c>
-      <c r="G187" s="32" t="s">
+      <c r="G187" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H187" s="27">
         <v>742</v>
       </c>
-      <c r="I187" s="32" t="s">
+      <c r="I187" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J187" s="11"/>
@@ -12194,13 +12185,13 @@
       <c r="F188" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="G188" s="32" t="s">
+      <c r="G188" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H188" s="27">
         <v>945</v>
       </c>
-      <c r="I188" s="32" t="s">
+      <c r="I188" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J188" s="11"/>
@@ -12249,13 +12240,13 @@
       <c r="F189" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="G189" s="32" t="s">
+      <c r="G189" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H189" s="27">
         <v>959</v>
       </c>
-      <c r="I189" s="32" t="s">
+      <c r="I189" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J189" s="11"/>
@@ -12304,13 +12295,13 @@
       <c r="F190" s="11">
         <v>4</v>
       </c>
-      <c r="G190" s="32" t="s">
+      <c r="G190" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H190" s="27">
         <v>184</v>
       </c>
-      <c r="I190" s="32" t="s">
+      <c r="I190" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J190" s="11"/>
@@ -12359,13 +12350,13 @@
       <c r="F191" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="G191" s="32" t="s">
+      <c r="G191" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H191" s="27">
         <v>217</v>
       </c>
-      <c r="I191" s="32" t="s">
+      <c r="I191" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J191" s="11"/>
@@ -12414,13 +12405,13 @@
       <c r="F192" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="G192" s="32" t="s">
+      <c r="G192" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H192" s="27">
         <v>184</v>
       </c>
-      <c r="I192" s="32" t="s">
+      <c r="I192" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J192" s="11"/>
@@ -12469,13 +12460,13 @@
       <c r="F193" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="G193" s="32" t="s">
+      <c r="G193" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H193" s="27">
         <v>184</v>
       </c>
-      <c r="I193" s="32" t="s">
+      <c r="I193" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J193" s="11"/>
@@ -12524,13 +12515,13 @@
       <c r="F194" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="G194" s="32" t="s">
+      <c r="G194" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H194" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="I194" s="32" t="s">
+      <c r="I194" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J194" s="11"/>
@@ -12579,13 +12570,13 @@
       <c r="F195" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="G195" s="32" t="s">
+      <c r="G195" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H195" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="I195" s="32" t="s">
+      <c r="I195" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J195" s="11"/>
@@ -12634,13 +12625,13 @@
       <c r="F196" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="G196" s="32" t="s">
+      <c r="G196" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H196" s="27" t="s">
         <v>567</v>
       </c>
-      <c r="I196" s="32" t="s">
+      <c r="I196" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J196" s="11"/>
@@ -12689,13 +12680,13 @@
       <c r="F197" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="G197" s="32" t="s">
+      <c r="G197" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H197" s="27" t="s">
         <v>569</v>
       </c>
-      <c r="I197" s="32" t="s">
+      <c r="I197" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J197" s="11"/>
@@ -12744,13 +12735,13 @@
       <c r="F198" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="G198" s="32" t="s">
+      <c r="G198" s="31" t="s">
         <v>119</v>
       </c>
       <c r="H198" s="27" t="s">
         <v>516</v>
       </c>
-      <c r="I198" s="32" t="s">
+      <c r="I198" s="31" t="s">
         <v>119</v>
       </c>
       <c r="J198" s="11"/>
@@ -12799,13 +12790,13 @@
       <c r="F199" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="G199" s="32" t="s">
+      <c r="G199" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H199" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="I199" s="32" t="s">
+      <c r="I199" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J199" s="11"/>
@@ -12854,13 +12845,13 @@
       <c r="F200" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="G200" s="32" t="s">
+      <c r="G200" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H200" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="I200" s="32" t="s">
+      <c r="I200" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J200" s="11"/>
@@ -12909,13 +12900,13 @@
       <c r="F201" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="G201" s="32" t="s">
+      <c r="G201" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H201" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="I201" s="32" t="s">
+      <c r="I201" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J201" s="11"/>
@@ -12966,13 +12957,13 @@
       <c r="F202" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="G202" s="32" t="s">
+      <c r="G202" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H202" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="I202" s="32" t="s">
+      <c r="I202" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J202" s="11"/>
@@ -13023,13 +13014,13 @@
       <c r="F203" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="G203" s="32" t="s">
+      <c r="G203" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H203" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="I203" s="32" t="s">
+      <c r="I203" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J203" s="11"/>
@@ -13080,13 +13071,13 @@
       <c r="F204" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="G204" s="32" t="s">
+      <c r="G204" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H204" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="I204" s="32" t="s">
+      <c r="I204" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J204" s="11"/>
@@ -13137,13 +13128,13 @@
       <c r="F205" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="G205" s="32" t="s">
+      <c r="G205" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H205" s="27" t="s">
         <v>593</v>
       </c>
-      <c r="I205" s="32" t="s">
+      <c r="I205" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J205" s="11"/>
@@ -13194,13 +13185,13 @@
       <c r="F206" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="G206" s="32" t="s">
+      <c r="G206" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H206" s="27" t="s">
         <v>596</v>
       </c>
-      <c r="I206" s="32" t="s">
+      <c r="I206" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J206" s="11"/>
@@ -13251,13 +13242,13 @@
       <c r="F207" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="G207" s="32" t="s">
+      <c r="G207" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H207" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="I207" s="32" t="s">
+      <c r="I207" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J207" s="11"/>
@@ -13308,13 +13299,13 @@
       <c r="F208" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="G208" s="32" t="s">
+      <c r="G208" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H208" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="I208" s="32" t="s">
+      <c r="I208" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J208" s="11"/>
@@ -13365,13 +13356,13 @@
       <c r="F209" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="G209" s="32" t="s">
+      <c r="G209" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H209" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="I209" s="32" t="s">
+      <c r="I209" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J209" s="11"/>
@@ -13422,13 +13413,13 @@
       <c r="F210" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="G210" s="32" t="s">
+      <c r="G210" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H210" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="I210" s="32" t="s">
+      <c r="I210" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J210" s="11"/>
@@ -13479,13 +13470,13 @@
       <c r="F211" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="G211" s="32" t="s">
+      <c r="G211" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H211" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="I211" s="32" t="s">
+      <c r="I211" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J211" s="11"/>
@@ -13536,13 +13527,13 @@
       <c r="F212" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="G212" s="32" t="s">
+      <c r="G212" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H212" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="I212" s="32" t="s">
+      <c r="I212" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J212" s="11"/>
@@ -13593,13 +13584,13 @@
       <c r="F213" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="G213" s="32" t="s">
+      <c r="G213" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H213" s="27" t="s">
         <v>593</v>
       </c>
-      <c r="I213" s="32" t="s">
+      <c r="I213" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J213" s="11"/>
@@ -13650,13 +13641,13 @@
       <c r="F214" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="G214" s="32" t="s">
+      <c r="G214" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H214" s="27" t="s">
         <v>596</v>
       </c>
-      <c r="I214" s="32" t="s">
+      <c r="I214" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J214" s="11"/>
@@ -13688,78 +13679,20 @@
       <c r="Y214" s="11"/>
     </row>
     <row r="215" spans="1:26" ht="13" customHeight="1">
-      <c r="C215" s="30" t="s">
-        <v>708</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="F215" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="G215" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H215" s="31">
-        <v>2248</v>
-      </c>
-      <c r="I215" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K215" s="11">
-        <v>6</v>
-      </c>
-      <c r="L215" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M215" s="11">
-        <v>0</v>
-      </c>
-      <c r="N215" s="11">
-        <v>0</v>
-      </c>
-      <c r="O215" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="D215" s="8"/>
+      <c r="F215" s="11"/>
+      <c r="G215" s="8"/>
+      <c r="L215" s="8"/>
+      <c r="N215" s="13"/>
     </row>
     <row r="216" spans="1:26" ht="13" customHeight="1">
-      <c r="C216" s="30" t="s">
-        <v>709</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="F216" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="G216" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H216" s="31">
-        <v>4588</v>
-      </c>
-      <c r="I216" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K216" s="11">
-        <v>6</v>
-      </c>
-      <c r="L216" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M216" s="11">
-        <v>0</v>
-      </c>
-      <c r="N216" s="11">
-        <v>0</v>
-      </c>
-      <c r="O216" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="D216" s="8"/>
+      <c r="G216" s="8"/>
+      <c r="L216" s="8"/>
+      <c r="N216" s="13"/>
     </row>
     <row r="217" spans="1:26" ht="13" customHeight="1">
       <c r="D217" s="8"/>
-      <c r="F217" s="11"/>
       <c r="G217" s="8"/>
       <c r="L217" s="8"/>
       <c r="N217" s="13"/>
@@ -15869,18 +15802,6 @@
       <c r="G568" s="8"/>
       <c r="L568" s="8"/>
       <c r="N568" s="13"/>
-    </row>
-    <row r="569" spans="4:14" ht="13" customHeight="1">
-      <c r="D569" s="8"/>
-      <c r="G569" s="8"/>
-      <c r="L569" s="8"/>
-      <c r="N569" s="13"/>
-    </row>
-    <row r="570" spans="4:14" ht="13" customHeight="1">
-      <c r="D570" s="8"/>
-      <c r="G570" s="8"/>
-      <c r="L570" s="8"/>
-      <c r="N570" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15892,20 +15813,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="47.5" customWidth="1"/>
+    <col min="2" max="4" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="109" customHeight="1">
+    <row r="1" spans="1:15" ht="109" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>342</v>
       </c>
@@ -15916,40 +15837,43 @@
         <v>387</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>351</v>
       </c>
@@ -15957,43 +15881,47 @@
         <v>9000</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>682</v>
-      </c>
-      <c r="D2" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2" s="30">
+        <f>2248</f>
+        <v>2248</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="E2" s="7">
+      <c r="F2" s="7">
         <v>2000</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>10000</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="I2" s="7">
+      <c r="J2" s="7">
         <v>10000</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="24">
+      <c r="L2" s="24">
         <v>4142</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="M2" s="24">
+      <c r="N2" s="24">
         <v>13025</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>354</v>
       </c>
@@ -16003,67 +15931,76 @@
       <c r="C3" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K3" s="24">
+      <c r="L3" s="24">
         <v>12977</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="M3" s="24">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="24">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B4" s="9">
         <v>12000</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="H4" s="11" t="s">
+      <c r="C4" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="D4" s="30">
+        <f>4588</f>
+        <v>4588</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>12000</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K4" s="24">
+      <c r="L4" s="24">
         <v>3531</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="11" t="s">
+      <c r="M4" s="7"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="11" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>357</v>
       </c>
@@ -16071,22 +16008,23 @@
         <v>15000</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="H5" s="11" t="s">
+      <c r="D5" s="9"/>
+      <c r="I5" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>15000</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K5" s="24">
+      <c r="L5" s="24">
         <v>12977</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+      <c r="M5" s="11"/>
+      <c r="N5" s="26"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>425</v>
       </c>
@@ -16094,16 +16032,17 @@
         <v>4000</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="J6" s="7" t="s">
+      <c r="D6" s="9"/>
+      <c r="K6" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K6" s="24">
+      <c r="L6" s="24">
         <v>12977</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="M6" s="11"/>
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>426</v>
       </c>
@@ -16111,14 +16050,15 @@
         <v>6000</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="J7" s="11" t="s">
+      <c r="D7" s="9"/>
+      <c r="K7" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="L7" s="26" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>427</v>
       </c>
@@ -16126,14 +16066,15 @@
         <v>6000</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="J8" s="7" t="s">
+      <c r="D8" s="9"/>
+      <c r="K8" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K8" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+      <c r="L8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>428</v>
       </c>
@@ -16141,8 +16082,9 @@
         <v>8500</v>
       </c>
       <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>355</v>
       </c>
@@ -16150,6 +16092,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38511,7 +38454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EC6FB2-1903-0042-ACE8-47D7240CC83A}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{927DB9B5-F2BE-DC46-8DD4-6FF9CFD86F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0256FF9D-2E1D-D743-9E52-AB15B97DDCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="29400" windowHeight="17160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СПРАВОЧНИК -1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="712">
   <si>
     <t>Тип изделия:</t>
   </si>
@@ -2175,6 +2175,9 @@
   </si>
   <si>
     <t>Ламбри с термо</t>
+  </si>
+  <si>
+    <t>НЕТ</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2367,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -15815,8 +15818,8 @@
   </sheetPr>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -15932,7 +15935,7 @@
         <v>681</v>
       </c>
       <c r="D3" s="11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>355</v>
@@ -16007,8 +16010,12 @@
       <c r="B5" s="9">
         <v>15000</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
       <c r="I5" s="11" t="s">
         <v>674</v>
       </c>
@@ -38454,7 +38461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EC6FB2-1903-0042-ACE8-47D7240CC83A}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0256FF9D-2E1D-D743-9E52-AB15B97DDCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADBA6866-7372-EF4E-86C3-926052CD8626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="29400" windowHeight="17160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СПРАВОЧНИК -1" sheetId="1" r:id="rId1"/>
@@ -1349,33 +1349,18 @@
     <t>airiskanat@gmail.com</t>
   </si>
   <si>
-    <t>QWER123*</t>
-  </si>
-  <si>
     <t>aizhanaitmaganbetova383@gmail.com</t>
   </si>
   <si>
-    <t>QWER2020*</t>
-  </si>
-  <si>
     <t>lia-369@mail.ru</t>
   </si>
   <si>
-    <t>Qwer890*</t>
-  </si>
-  <si>
     <t>orazaliyeva865@gmail.com</t>
   </si>
   <si>
-    <t>Qwer567*</t>
-  </si>
-  <si>
     <t>axisokna.kz@mail.ru</t>
   </si>
   <si>
-    <t>Qwer234*</t>
-  </si>
-  <si>
     <t>Тамбур</t>
   </si>
   <si>
@@ -2178,6 +2163,21 @@
   </si>
   <si>
     <t>НЕТ</t>
+  </si>
+  <si>
+    <t>QWER2020</t>
+  </si>
+  <si>
+    <t>QWER123</t>
+  </si>
+  <si>
+    <t>Qwer890</t>
+  </si>
+  <si>
+    <t>Qwer567</t>
+  </si>
+  <si>
+    <t>Qwer234</t>
   </si>
 </sst>
 </file>
@@ -7962,22 +7962,22 @@
         <v>16</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>304</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G112" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H112" s="27" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I112" s="31" t="s">
         <v>48</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P112" s="11"/>
       <c r="Q112" s="11"/>
@@ -8018,22 +8018,22 @@
         <v>16</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>229</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G113" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H113" s="27" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I113" s="31" t="s">
         <v>48</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P113" s="11"/>
       <c r="Q113" s="11"/>
@@ -8074,22 +8074,22 @@
         <v>16</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D114" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="F114" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="G114" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H114" s="27" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I114" s="31" t="s">
         <v>48</v>
@@ -8108,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="O114" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P114" s="11"/>
       <c r="Q114" s="11"/>
@@ -8130,22 +8130,22 @@
         <v>16</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D115" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="F115" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="G115" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H115" s="27" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I115" s="31" t="s">
         <v>48</v>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
       <c r="O115" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P115" s="11"/>
       <c r="Q115" s="11"/>
@@ -8186,22 +8186,22 @@
         <v>16</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G116" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H116" s="27" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I116" s="31" t="s">
         <v>48</v>
@@ -8220,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P116" s="11"/>
       <c r="Q116" s="11"/>
@@ -8242,22 +8242,22 @@
         <v>16</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G117" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H117" s="27" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I117" s="31" t="s">
         <v>48</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="O117" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P117" s="11"/>
       <c r="Q117" s="11"/>
@@ -8298,22 +8298,22 @@
         <v>16</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G118" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H118" s="27" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I118" s="31" t="s">
         <v>48</v>
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="O118" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P118" s="11"/>
       <c r="Q118" s="11"/>
@@ -8354,22 +8354,22 @@
         <v>16</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D119" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F119" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="G119" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H119" s="27" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="I119" s="31" t="s">
         <v>48</v>
@@ -8388,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="O119" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P119" s="11"/>
       <c r="Q119" s="11"/>
@@ -8410,22 +8410,22 @@
         <v>101</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>304</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G120" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H120" s="27" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I120" s="31" t="s">
         <v>48</v>
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="O120" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P120" s="11"/>
       <c r="Q120" s="11"/>
@@ -8466,22 +8466,22 @@
         <v>101</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>229</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G121" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H121" s="27" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I121" s="31" t="s">
         <v>48</v>
@@ -8500,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="O121" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P121" s="11"/>
       <c r="Q121" s="11"/>
@@ -8522,22 +8522,22 @@
         <v>101</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D122" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="F122" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="G122" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H122" s="27" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I122" s="31" t="s">
         <v>48</v>
@@ -8556,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P122" s="11"/>
       <c r="Q122" s="11"/>
@@ -8578,22 +8578,22 @@
         <v>101</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D123" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="F123" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="G123" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H123" s="27" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I123" s="31" t="s">
         <v>48</v>
@@ -8612,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P123" s="11"/>
       <c r="Q123" s="11"/>
@@ -8634,22 +8634,22 @@
         <v>101</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G124" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H124" s="27" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I124" s="31" t="s">
         <v>48</v>
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="O124" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P124" s="11"/>
       <c r="Q124" s="11"/>
@@ -8690,22 +8690,22 @@
         <v>101</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G125" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H125" s="27" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I125" s="31" t="s">
         <v>48</v>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="O125" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P125" s="11"/>
       <c r="Q125" s="11"/>
@@ -8746,22 +8746,22 @@
         <v>101</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G126" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H126" s="27" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I126" s="31" t="s">
         <v>48</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="O126" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P126" s="11"/>
       <c r="Q126" s="11"/>
@@ -8802,22 +8802,22 @@
         <v>101</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D127" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F127" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="G127" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H127" s="27" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="I127" s="31" t="s">
         <v>48</v>
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="O127" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P127" s="11"/>
       <c r="Q127" s="11"/>
@@ -8858,22 +8858,22 @@
         <v>120</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E128" s="11" t="s">
         <v>304</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G128" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H128" s="27" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I128" s="31" t="s">
         <v>48</v>
@@ -8892,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="O128" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P128" s="11"/>
       <c r="Q128" s="11"/>
@@ -8914,22 +8914,22 @@
         <v>120</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>229</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G129" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H129" s="27" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I129" s="31" t="s">
         <v>48</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="O129" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P129" s="11"/>
       <c r="Q129" s="11"/>
@@ -8970,22 +8970,22 @@
         <v>120</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D130" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="F130" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="G130" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H130" s="27" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I130" s="31" t="s">
         <v>48</v>
@@ -9004,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="O130" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P130" s="11"/>
       <c r="Q130" s="11"/>
@@ -9026,22 +9026,22 @@
         <v>120</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D131" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="F131" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="F131" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="G131" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H131" s="27" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I131" s="31" t="s">
         <v>48</v>
@@ -9060,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="O131" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P131" s="11"/>
       <c r="Q131" s="11"/>
@@ -9082,22 +9082,22 @@
         <v>120</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G132" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H132" s="27" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I132" s="31" t="s">
         <v>48</v>
@@ -9116,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P132" s="11"/>
       <c r="Q132" s="11"/>
@@ -9138,22 +9138,22 @@
         <v>120</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G133" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H133" s="27" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I133" s="31" t="s">
         <v>48</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="O133" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P133" s="11"/>
       <c r="Q133" s="11"/>
@@ -9194,22 +9194,22 @@
         <v>120</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G134" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H134" s="27" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I134" s="31" t="s">
         <v>48</v>
@@ -9228,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="O134" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P134" s="11"/>
       <c r="Q134" s="11"/>
@@ -9250,22 +9250,22 @@
         <v>120</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D135" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F135" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="G135" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H135" s="27" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="I135" s="31" t="s">
         <v>48</v>
@@ -9284,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="O135" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P135" s="11"/>
       <c r="Q135" s="11"/>
@@ -9306,22 +9306,22 @@
         <v>120</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E136" s="11" t="s">
         <v>304</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G136" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H136" s="27" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I136" s="31" t="s">
         <v>48</v>
@@ -9340,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="O136" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P136" s="11"/>
       <c r="Q136" s="11"/>
@@ -9362,22 +9362,22 @@
         <v>120</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E137" s="11" t="s">
         <v>229</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G137" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H137" s="27" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I137" s="31" t="s">
         <v>48</v>
@@ -9396,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="O137" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P137" s="11"/>
       <c r="Q137" s="11"/>
@@ -9418,22 +9418,22 @@
         <v>120</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D138" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="F138" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="F138" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="G138" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H138" s="27" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I138" s="31" t="s">
         <v>48</v>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="O138" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P138" s="11"/>
       <c r="Q138" s="11"/>
@@ -9474,22 +9474,22 @@
         <v>120</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D139" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="F139" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="F139" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="G139" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H139" s="27" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I139" s="31" t="s">
         <v>48</v>
@@ -9508,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="O139" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P139" s="11"/>
       <c r="Q139" s="11"/>
@@ -9530,22 +9530,22 @@
         <v>120</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G140" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H140" s="27" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I140" s="31" t="s">
         <v>48</v>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="O140" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P140" s="11"/>
       <c r="Q140" s="11"/>
@@ -9586,22 +9586,22 @@
         <v>120</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G141" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H141" s="27" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I141" s="31" t="s">
         <v>48</v>
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="O141" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P141" s="11"/>
       <c r="Q141" s="11"/>
@@ -9642,22 +9642,22 @@
         <v>120</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G142" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H142" s="27" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I142" s="31" t="s">
         <v>48</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="O142" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P142" s="11"/>
       <c r="Q142" s="11"/>
@@ -9698,22 +9698,22 @@
         <v>120</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D143" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F143" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="F143" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="G143" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H143" s="27" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="I143" s="31" t="s">
         <v>48</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="O143" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P143" s="11"/>
       <c r="Q143" s="11"/>
@@ -9754,22 +9754,22 @@
         <v>16</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D144" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="F144" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="G144" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H144" s="27" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="I144" s="31" t="s">
         <v>48</v>
@@ -9788,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="O144" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P144" s="11"/>
       <c r="Q144" s="11"/>
@@ -9810,22 +9810,22 @@
         <v>16</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D145" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="F145" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="F145" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="G145" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H145" s="27" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="I145" s="31" t="s">
         <v>48</v>
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="O145" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P145" s="11"/>
       <c r="Q145" s="11"/>
@@ -9866,22 +9866,22 @@
         <v>120</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D146" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="F146" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="F146" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="G146" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H146" s="27" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="I146" s="31" t="s">
         <v>48</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="O146" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P146" s="11"/>
       <c r="Q146" s="11"/>
@@ -9922,22 +9922,22 @@
         <v>120</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D147" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="F147" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="F147" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="G147" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H147" s="27" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="I147" s="31" t="s">
         <v>48</v>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="O147" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P147" s="11"/>
       <c r="Q147" s="11"/>
@@ -9971,22 +9971,22 @@
     </row>
     <row r="148" spans="1:26" ht="13" customHeight="1">
       <c r="A148" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D148" s="11" t="s">
         <v>172</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="G148" s="31" t="s">
         <v>21</v>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="O148" s="11" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="Q148" s="11"/>
       <c r="R148" s="11"/>
@@ -10026,7 +10026,7 @@
     </row>
     <row r="149" spans="1:26" ht="13" customHeight="1">
       <c r="A149" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>101</v>
@@ -10035,13 +10035,13 @@
         <v>214</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E149" s="11" t="s">
         <v>216</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G149" s="31" t="s">
         <v>21</v>
@@ -10066,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="O149" s="11" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="Q149" s="11"/>
       <c r="R149" s="11"/>
@@ -10081,19 +10081,19 @@
     </row>
     <row r="150" spans="1:26" ht="13" customHeight="1">
       <c r="A150" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D150" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F150" s="11" t="s">
         <v>123</v>
@@ -10102,7 +10102,7 @@
         <v>21</v>
       </c>
       <c r="H150" s="27" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I150" s="31" t="s">
         <v>21</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="O150" s="11" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="Q150" s="11"/>
       <c r="R150" s="11"/>
@@ -10136,28 +10136,28 @@
     </row>
     <row r="151" spans="1:26" ht="13" customHeight="1">
       <c r="A151" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G151" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H151" s="27" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="I151" s="31" t="s">
         <v>21</v>
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="O151" s="11" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="Q151" s="11"/>
       <c r="R151" s="11"/>
@@ -10191,28 +10191,28 @@
     </row>
     <row r="152" spans="1:26" ht="13" customHeight="1">
       <c r="A152" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G152" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H152" s="27" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="I152" s="31" t="s">
         <v>21</v>
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="O152" s="11" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="Q152" s="11"/>
       <c r="R152" s="11"/>
@@ -10246,19 +10246,19 @@
     </row>
     <row r="153" spans="1:26" ht="13" customHeight="1">
       <c r="A153" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>156</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F153" s="11" t="s">
         <v>130</v>
@@ -10267,7 +10267,7 @@
         <v>21</v>
       </c>
       <c r="H153" s="27" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I153" s="31" t="s">
         <v>21</v>
@@ -10286,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="O153" s="11" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="Q153" s="11"/>
       <c r="R153" s="11"/>
@@ -10301,19 +10301,19 @@
     </row>
     <row r="154" spans="1:26" ht="13" customHeight="1">
       <c r="A154" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B154" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F154" s="11" t="s">
         <v>130</v>
@@ -10322,7 +10322,7 @@
         <v>21</v>
       </c>
       <c r="H154" s="27" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="I154" s="31" t="s">
         <v>21</v>
@@ -10341,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="O154" s="11" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="Q154" s="11"/>
       <c r="R154" s="11"/>
@@ -10356,28 +10356,28 @@
     </row>
     <row r="155" spans="1:26" ht="13" customHeight="1">
       <c r="A155" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G155" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H155" s="27" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I155" s="31" t="s">
         <v>21</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="O155" s="11" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="Q155" s="11"/>
       <c r="R155" s="11"/>
@@ -10411,22 +10411,22 @@
     </row>
     <row r="156" spans="1:26" ht="13" customHeight="1">
       <c r="A156" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>287</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G156" s="31" t="s">
         <v>21</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="O156" s="11" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="Q156" s="11"/>
       <c r="R156" s="11"/>
@@ -10466,7 +10466,7 @@
     </row>
     <row r="157" spans="1:26" ht="13" customHeight="1">
       <c r="A157" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>101</v>
@@ -10481,13 +10481,13 @@
         <v>186</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G157" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H157" s="27" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="I157" s="31" t="s">
         <v>21</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="O157" s="11" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="Q157" s="11"/>
       <c r="R157" s="11"/>
@@ -10521,13 +10521,13 @@
     </row>
     <row r="158" spans="1:26" ht="13" customHeight="1">
       <c r="A158" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>62</v>
@@ -10561,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="O158" s="11" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="Q158" s="11"/>
       <c r="R158" s="11"/>
@@ -10576,16 +10576,16 @@
     </row>
     <row r="159" spans="1:26" ht="13" customHeight="1">
       <c r="A159" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E159" s="11" t="s">
         <v>189</v>
@@ -10616,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="O159" s="11" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="Q159" s="11"/>
       <c r="R159" s="11"/>
@@ -10631,13 +10631,13 @@
     </row>
     <row r="160" spans="1:26" ht="13" customHeight="1">
       <c r="A160" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B160" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>62</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="O160" s="11" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="Q160" s="11"/>
       <c r="R160" s="11"/>
@@ -10686,7 +10686,7 @@
     </row>
     <row r="161" spans="1:26" ht="13" customHeight="1">
       <c r="A161" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>101</v>
@@ -10695,10 +10695,10 @@
         <v>195</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F161" s="11" t="s">
         <v>200</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="O161" s="11" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="Q161" s="11"/>
       <c r="R161" s="11"/>
@@ -10741,7 +10741,7 @@
     </row>
     <row r="162" spans="1:26" ht="13" customHeight="1">
       <c r="A162" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>101</v>
@@ -10753,7 +10753,7 @@
         <v>52</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F162" s="11" t="s">
         <v>200</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="O162" s="11" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="Q162" s="11"/>
       <c r="R162" s="11"/>
@@ -10796,22 +10796,22 @@
     </row>
     <row r="163" spans="1:26" ht="13" customHeight="1">
       <c r="A163" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>197</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G163" s="31" t="s">
         <v>48</v>
@@ -10851,13 +10851,13 @@
     </row>
     <row r="164" spans="1:26" ht="13" customHeight="1">
       <c r="A164" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B164" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>62</v>
@@ -10866,7 +10866,7 @@
         <v>199</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G164" s="31" t="s">
         <v>48</v>
@@ -10906,22 +10906,22 @@
     </row>
     <row r="165" spans="1:26" ht="13" customHeight="1">
       <c r="A165" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B165" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G165" s="31" t="s">
         <v>21</v>
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="O165" s="11" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="Q165" s="11"/>
       <c r="R165" s="11"/>
@@ -10961,22 +10961,22 @@
     </row>
     <row r="166" spans="1:26" ht="13" customHeight="1">
       <c r="A166" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B166" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>224</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G166" s="31" t="s">
         <v>21</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="O166" s="11" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="Q166" s="11"/>
       <c r="R166" s="11"/>
@@ -11016,13 +11016,13 @@
     </row>
     <row r="167" spans="1:26" ht="13" customHeight="1">
       <c r="A167" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B167" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D167" s="11" t="s">
         <v>93</v>
@@ -11031,7 +11031,7 @@
         <v>203</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G167" s="31" t="s">
         <v>21</v>
@@ -11056,7 +11056,7 @@
         <v>0</v>
       </c>
       <c r="O167" s="11" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="Q167" s="11"/>
       <c r="R167" s="11"/>
@@ -11071,7 +11071,7 @@
     </row>
     <row r="168" spans="1:26" ht="13" customHeight="1">
       <c r="A168" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B168" s="11" t="s">
         <v>101</v>
@@ -11086,7 +11086,7 @@
         <v>90</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="G168" s="31" t="s">
         <v>21</v>
@@ -11126,13 +11126,13 @@
     </row>
     <row r="169" spans="1:26" ht="13" customHeight="1">
       <c r="A169" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B169" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D169" s="11" t="s">
         <v>97</v>
@@ -11141,7 +11141,7 @@
         <v>98</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G169" s="31" t="s">
         <v>21</v>
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="O169" s="11" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="Q169" s="11"/>
       <c r="R169" s="11"/>
@@ -11181,28 +11181,28 @@
     </row>
     <row r="170" spans="1:26" ht="13" customHeight="1">
       <c r="A170" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B170" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E170" s="11" t="s">
         <v>304</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G170" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H170" s="27" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I170" s="31" t="s">
         <v>48</v>
@@ -11221,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="O170" s="11" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="Q170" s="11"/>
       <c r="R170" s="11"/>
@@ -11236,13 +11236,13 @@
     </row>
     <row r="171" spans="1:26" ht="13" customHeight="1">
       <c r="A171" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>236</v>
@@ -11251,13 +11251,13 @@
         <v>111</v>
       </c>
       <c r="F171" s="11" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="G171" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H171" s="27" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I171" s="31" t="s">
         <v>48</v>
@@ -11291,28 +11291,28 @@
     </row>
     <row r="172" spans="1:26" ht="13" customHeight="1">
       <c r="A172" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B172" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E172" s="11" t="s">
         <v>269</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="G172" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H172" s="27" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="I172" s="31" t="s">
         <v>48</v>
@@ -11346,28 +11346,28 @@
     </row>
     <row r="173" spans="1:26" ht="13" customHeight="1">
       <c r="A173" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B173" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E173" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="G173" s="31" t="s">
         <v>119</v>
       </c>
       <c r="H173" s="27" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="I173" s="31" t="s">
         <v>119</v>
@@ -11401,28 +11401,28 @@
     </row>
     <row r="174" spans="1:26" ht="13" customHeight="1">
       <c r="A174" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B174" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E174" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="G174" s="31" t="s">
         <v>119</v>
       </c>
       <c r="H174" s="27" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I174" s="31" t="s">
         <v>119</v>
@@ -11456,13 +11456,13 @@
     </row>
     <row r="175" spans="1:26" ht="13" customHeight="1">
       <c r="A175" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B175" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D175" s="11" t="s">
         <v>106</v>
@@ -11471,13 +11471,13 @@
         <v>313</v>
       </c>
       <c r="F175" s="11" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G175" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H175" s="27" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="I175" s="31" t="s">
         <v>48</v>
@@ -11511,28 +11511,28 @@
     </row>
     <row r="176" spans="1:26" ht="13" customHeight="1">
       <c r="A176" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B176" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D176" s="11" t="s">
         <v>168</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G176" s="31" t="s">
         <v>119</v>
       </c>
       <c r="H176" s="27" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="I176" s="31" t="s">
         <v>119</v>
@@ -11566,25 +11566,25 @@
     </row>
     <row r="177" spans="1:26" ht="13" customHeight="1">
       <c r="A177" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B177" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G177" s="31" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H177" s="27">
         <v>230</v>
@@ -11621,28 +11621,28 @@
     </row>
     <row r="178" spans="1:26" ht="13" customHeight="1">
       <c r="A178" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B178" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="G178" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H178" s="27" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="I178" s="31" t="s">
         <v>21</v>
@@ -11661,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="O178" s="11" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="Q178" s="11"/>
       <c r="R178" s="11"/>
@@ -11676,7 +11676,7 @@
     </row>
     <row r="179" spans="1:26" ht="13" customHeight="1">
       <c r="A179" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B179" s="11" t="s">
         <v>16</v>
@@ -11685,19 +11685,19 @@
         <v>151</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E179" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G179" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H179" s="27" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="I179" s="31" t="s">
         <v>21</v>
@@ -11716,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="O179" s="11" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="Q179" s="11"/>
       <c r="R179" s="11"/>
@@ -11731,28 +11731,28 @@
     </row>
     <row r="180" spans="1:26" ht="13" customHeight="1">
       <c r="A180" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B180" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E180" s="11" t="s">
         <v>157</v>
       </c>
       <c r="F180" s="11" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G180" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H180" s="27" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="I180" s="31" t="s">
         <v>21</v>
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="O180" s="11" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="Q180" s="11"/>
       <c r="R180" s="11"/>
@@ -11786,28 +11786,28 @@
     </row>
     <row r="181" spans="1:26" ht="13" customHeight="1">
       <c r="A181" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B181" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E181" s="11" t="s">
         <v>160</v>
       </c>
       <c r="F181" s="11" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G181" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H181" s="27" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="I181" s="31" t="s">
         <v>21</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="O181" s="11" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="Q181" s="11"/>
       <c r="R181" s="11"/>
@@ -11841,7 +11841,7 @@
     </row>
     <row r="182" spans="1:26" ht="13" customHeight="1">
       <c r="A182" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B182" s="23" t="s">
         <v>16</v>
@@ -11850,19 +11850,19 @@
         <v>24</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E182" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F182" s="11" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="G182" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H182" s="27" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="I182" s="31" t="s">
         <v>21</v>
@@ -11881,7 +11881,7 @@
         <v>0</v>
       </c>
       <c r="O182" s="11" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="Q182" s="11"/>
       <c r="R182" s="11"/>
@@ -11896,7 +11896,7 @@
     </row>
     <row r="183" spans="1:26" ht="13" customHeight="1">
       <c r="A183" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B183" s="23" t="s">
         <v>16</v>
@@ -11905,19 +11905,19 @@
         <v>29</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E183" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G183" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H183" s="27" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="I183" s="31" t="s">
         <v>21</v>
@@ -11936,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="O183" s="11" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="Q183" s="11"/>
       <c r="R183" s="11"/>
@@ -11951,7 +11951,7 @@
     </row>
     <row r="184" spans="1:26" ht="13" customHeight="1">
       <c r="A184" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B184" s="23" t="s">
         <v>16</v>
@@ -11960,13 +11960,13 @@
         <v>39</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E184" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G184" s="31" t="s">
         <v>21</v>
@@ -11991,7 +11991,7 @@
         <v>0</v>
       </c>
       <c r="O184" s="11" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="Q184" s="11"/>
       <c r="R184" s="11"/>
@@ -12006,7 +12006,7 @@
     </row>
     <row r="185" spans="1:26" ht="13" customHeight="1">
       <c r="A185" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B185" s="23" t="s">
         <v>16</v>
@@ -12015,13 +12015,13 @@
         <v>214</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E185" s="11" t="s">
         <v>216</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G185" s="31" t="s">
         <v>21</v>
@@ -12046,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="O185" s="11" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="Q185" s="11"/>
       <c r="R185" s="11"/>
@@ -12061,13 +12061,13 @@
     </row>
     <row r="186" spans="1:26" ht="13" customHeight="1">
       <c r="A186" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B186" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D186" s="11" t="s">
         <v>52</v>
@@ -12076,7 +12076,7 @@
         <v>53</v>
       </c>
       <c r="F186" s="11" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="G186" s="31" t="s">
         <v>48</v>
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="O186" s="11" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="Q186" s="11"/>
       <c r="R186" s="11"/>
@@ -12116,7 +12116,7 @@
     </row>
     <row r="187" spans="1:26" ht="13" customHeight="1">
       <c r="A187" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B187" s="23" t="s">
         <v>16</v>
@@ -12125,7 +12125,7 @@
         <v>335</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E187" s="11" t="s">
         <v>336</v>
@@ -12156,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="O187" s="11" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="Q187" s="11"/>
       <c r="R187" s="11"/>
@@ -12171,7 +12171,7 @@
     </row>
     <row r="188" spans="1:26" ht="13" customHeight="1">
       <c r="A188" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B188" s="23" t="s">
         <v>16</v>
@@ -12180,13 +12180,13 @@
         <v>337</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E188" s="11" t="s">
         <v>338</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G188" s="31" t="s">
         <v>48</v>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="O188" s="11" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="Q188" s="11"/>
       <c r="R188" s="11"/>
@@ -12226,7 +12226,7 @@
     </row>
     <row r="189" spans="1:26" ht="13" customHeight="1">
       <c r="A189" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B189" s="23" t="s">
         <v>16</v>
@@ -12235,13 +12235,13 @@
         <v>339</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E189" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F189" s="11" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G189" s="31" t="s">
         <v>48</v>
@@ -12281,16 +12281,16 @@
     </row>
     <row r="190" spans="1:26" ht="13" customHeight="1">
       <c r="A190" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B190" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E190" s="11" t="s">
         <v>80</v>
@@ -12321,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="O190" s="11" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="Q190" s="11"/>
       <c r="R190" s="11"/>
@@ -12336,22 +12336,22 @@
     </row>
     <row r="191" spans="1:26" ht="13" customHeight="1">
       <c r="A191" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B191" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E191" s="11" t="s">
         <v>224</v>
       </c>
       <c r="F191" s="11" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G191" s="31" t="s">
         <v>21</v>
@@ -12376,7 +12376,7 @@
         <v>0</v>
       </c>
       <c r="O191" s="11" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="Q191" s="11"/>
       <c r="R191" s="11"/>
@@ -12391,13 +12391,13 @@
     </row>
     <row r="192" spans="1:26" ht="13" customHeight="1">
       <c r="A192" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B192" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D192" s="11" t="s">
         <v>93</v>
@@ -12406,7 +12406,7 @@
         <v>94</v>
       </c>
       <c r="F192" s="11" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G192" s="31" t="s">
         <v>21</v>
@@ -12431,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="O192" s="11" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="Q192" s="11"/>
       <c r="R192" s="11"/>
@@ -12446,22 +12446,22 @@
     </row>
     <row r="193" spans="1:26" ht="13" customHeight="1">
       <c r="A193" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B193" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E193" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F193" s="11" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G193" s="31" t="s">
         <v>21</v>
@@ -12486,7 +12486,7 @@
         <v>0</v>
       </c>
       <c r="O193" s="11" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="Q193" s="11"/>
       <c r="R193" s="11"/>
@@ -12501,28 +12501,28 @@
     </row>
     <row r="194" spans="1:26" ht="13" customHeight="1">
       <c r="A194" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B194" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F194" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G194" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H194" s="27" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I194" s="31" t="s">
         <v>48</v>
@@ -12541,7 +12541,7 @@
         <v>0</v>
       </c>
       <c r="O194" s="11" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="Q194" s="11"/>
       <c r="R194" s="11"/>
@@ -12556,13 +12556,13 @@
     </row>
     <row r="195" spans="1:26" ht="13" customHeight="1">
       <c r="A195" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B195" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D195" s="11" t="s">
         <v>236</v>
@@ -12571,13 +12571,13 @@
         <v>237</v>
       </c>
       <c r="F195" s="11" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G195" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H195" s="27" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I195" s="31" t="s">
         <v>48</v>
@@ -12596,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="O195" s="11" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="Q195" s="11"/>
       <c r="R195" s="11"/>
@@ -12611,28 +12611,28 @@
     </row>
     <row r="196" spans="1:26" ht="13" customHeight="1">
       <c r="A196" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B196" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E196" s="11" t="s">
         <v>241</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G196" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H196" s="27" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="I196" s="31" t="s">
         <v>48</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="O196" s="11" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="Q196" s="11"/>
       <c r="R196" s="11"/>
@@ -12666,28 +12666,28 @@
     </row>
     <row r="197" spans="1:26" ht="13" customHeight="1">
       <c r="A197" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B197" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E197" s="11" t="s">
         <v>244</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G197" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H197" s="27" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I197" s="31" t="s">
         <v>48</v>
@@ -12706,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="O197" s="11" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="Q197" s="11"/>
       <c r="R197" s="11"/>
@@ -12721,28 +12721,28 @@
     </row>
     <row r="198" spans="1:26" ht="13" customHeight="1">
       <c r="A198" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B198" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G198" s="31" t="s">
         <v>119</v>
       </c>
       <c r="H198" s="27" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I198" s="31" t="s">
         <v>119</v>
@@ -12761,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="O198" s="11" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="Q198" s="11"/>
       <c r="R198" s="11"/>
@@ -12776,28 +12776,28 @@
     </row>
     <row r="199" spans="1:26" ht="13" customHeight="1">
       <c r="A199" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B199" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E199" s="11" t="s">
         <v>304</v>
       </c>
       <c r="F199" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G199" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H199" s="27" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I199" s="31" t="s">
         <v>48</v>
@@ -12816,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="O199" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Q199" s="11"/>
       <c r="R199" s="11"/>
@@ -12831,28 +12831,28 @@
     </row>
     <row r="200" spans="1:26" ht="13" customHeight="1">
       <c r="A200" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B200" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E200" s="11" t="s">
         <v>229</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G200" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H200" s="27" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I200" s="31" t="s">
         <v>48</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="O200" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Q200" s="11"/>
       <c r="R200" s="11"/>
@@ -12886,28 +12886,28 @@
     </row>
     <row r="201" spans="1:26" ht="13" customHeight="1">
       <c r="A201" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B201" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F201" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G201" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H201" s="27" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I201" s="31" t="s">
         <v>48</v>
@@ -12926,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="O201" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q201" s="11"/>
       <c r="R201" s="11"/>
@@ -12934,7 +12934,7 @@
       <c r="T201" s="11"/>
       <c r="U201" s="11"/>
       <c r="V201" s="19" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="W201" s="11"/>
       <c r="X201" s="11"/>
@@ -12943,28 +12943,28 @@
     </row>
     <row r="202" spans="1:26" ht="13" customHeight="1">
       <c r="A202" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B202" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F202" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G202" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H202" s="27" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I202" s="31" t="s">
         <v>48</v>
@@ -12983,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="O202" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q202" s="11"/>
       <c r="R202" s="11"/>
@@ -12991,7 +12991,7 @@
       <c r="T202" s="11"/>
       <c r="U202" s="11"/>
       <c r="V202" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="W202" s="11"/>
       <c r="X202" s="11"/>
@@ -13000,28 +13000,28 @@
     </row>
     <row r="203" spans="1:26" ht="13" customHeight="1">
       <c r="A203" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B203" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E203" s="11" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F203" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G203" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H203" s="27" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I203" s="31" t="s">
         <v>48</v>
@@ -13040,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="O203" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Q203" s="11"/>
       <c r="R203" s="11"/>
@@ -13048,7 +13048,7 @@
       <c r="T203" s="11"/>
       <c r="U203" s="11"/>
       <c r="V203" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="W203" s="11"/>
       <c r="X203" s="11"/>
@@ -13057,28 +13057,28 @@
     </row>
     <row r="204" spans="1:26" ht="13" customHeight="1">
       <c r="A204" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B204" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F204" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G204" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H204" s="27" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I204" s="31" t="s">
         <v>48</v>
@@ -13097,7 +13097,7 @@
         <v>0</v>
       </c>
       <c r="O204" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Q204" s="11"/>
       <c r="R204" s="11"/>
@@ -13105,7 +13105,7 @@
       <c r="T204" s="11"/>
       <c r="U204" s="11"/>
       <c r="V204" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="W204" s="11"/>
       <c r="X204" s="11"/>
@@ -13114,28 +13114,28 @@
     </row>
     <row r="205" spans="1:26" ht="13" customHeight="1">
       <c r="A205" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B205" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F205" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G205" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H205" s="27" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I205" s="31" t="s">
         <v>48</v>
@@ -13154,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="O205" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q205" s="11"/>
       <c r="R205" s="11"/>
@@ -13162,7 +13162,7 @@
       <c r="T205" s="11"/>
       <c r="U205" s="11"/>
       <c r="V205" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="W205" s="11"/>
       <c r="X205" s="11"/>
@@ -13171,28 +13171,28 @@
     </row>
     <row r="206" spans="1:26" ht="13" customHeight="1">
       <c r="A206" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B206" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F206" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G206" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H206" s="27" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="I206" s="31" t="s">
         <v>48</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="O206" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q206" s="11"/>
       <c r="R206" s="11"/>
@@ -13219,7 +13219,7 @@
       <c r="T206" s="11"/>
       <c r="U206" s="11"/>
       <c r="V206" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="W206" s="11"/>
       <c r="X206" s="11"/>
@@ -13228,28 +13228,28 @@
     </row>
     <row r="207" spans="1:26" ht="13" customHeight="1">
       <c r="A207" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B207" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E207" s="11" t="s">
         <v>304</v>
       </c>
       <c r="F207" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G207" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H207" s="27" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I207" s="31" t="s">
         <v>48</v>
@@ -13268,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="O207" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Q207" s="11"/>
       <c r="R207" s="11"/>
@@ -13276,7 +13276,7 @@
       <c r="T207" s="11"/>
       <c r="U207" s="11"/>
       <c r="V207" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="W207" s="11"/>
       <c r="X207" s="11"/>
@@ -13285,28 +13285,28 @@
     </row>
     <row r="208" spans="1:26" ht="13" customHeight="1">
       <c r="A208" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B208" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E208" s="11" t="s">
         <v>229</v>
       </c>
       <c r="F208" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G208" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H208" s="27" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I208" s="31" t="s">
         <v>48</v>
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="O208" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Q208" s="11"/>
       <c r="R208" s="11"/>
@@ -13333,7 +13333,7 @@
       <c r="T208" s="11"/>
       <c r="U208" s="11"/>
       <c r="V208" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="W208" s="11"/>
       <c r="X208" s="11"/>
@@ -13342,28 +13342,28 @@
     </row>
     <row r="209" spans="1:26" ht="13" customHeight="1">
       <c r="A209" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B209" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E209" s="11" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F209" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G209" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H209" s="27" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I209" s="31" t="s">
         <v>48</v>
@@ -13382,7 +13382,7 @@
         <v>0</v>
       </c>
       <c r="O209" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q209" s="11"/>
       <c r="R209" s="11"/>
@@ -13390,7 +13390,7 @@
       <c r="T209" s="11"/>
       <c r="U209" s="11"/>
       <c r="V209" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="W209" s="11"/>
       <c r="X209" s="11"/>
@@ -13399,28 +13399,28 @@
     </row>
     <row r="210" spans="1:26" ht="13" customHeight="1">
       <c r="A210" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B210" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G210" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H210" s="27" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I210" s="31" t="s">
         <v>48</v>
@@ -13439,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="O210" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q210" s="11"/>
       <c r="R210" s="11"/>
@@ -13447,7 +13447,7 @@
       <c r="T210" s="11"/>
       <c r="U210" s="11"/>
       <c r="V210" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="W210" s="11"/>
       <c r="X210" s="11"/>
@@ -13456,28 +13456,28 @@
     </row>
     <row r="211" spans="1:26" ht="13" customHeight="1">
       <c r="A211" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B211" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F211" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G211" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H211" s="27" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I211" s="31" t="s">
         <v>48</v>
@@ -13496,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="O211" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Q211" s="11"/>
       <c r="R211" s="11"/>
@@ -13504,7 +13504,7 @@
       <c r="T211" s="11"/>
       <c r="U211" s="11"/>
       <c r="V211" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="W211" s="11"/>
       <c r="X211" s="11"/>
@@ -13513,28 +13513,28 @@
     </row>
     <row r="212" spans="1:26" ht="13" customHeight="1">
       <c r="A212" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B212" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F212" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G212" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H212" s="27" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I212" s="31" t="s">
         <v>48</v>
@@ -13553,7 +13553,7 @@
         <v>0</v>
       </c>
       <c r="O212" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Q212" s="11"/>
       <c r="R212" s="11"/>
@@ -13561,7 +13561,7 @@
       <c r="T212" s="11"/>
       <c r="U212" s="11"/>
       <c r="V212" s="11" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="W212" s="11"/>
       <c r="X212" s="11"/>
@@ -13570,28 +13570,28 @@
     </row>
     <row r="213" spans="1:26" ht="13" customHeight="1">
       <c r="A213" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B213" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F213" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G213" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H213" s="27" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I213" s="31" t="s">
         <v>48</v>
@@ -13610,7 +13610,7 @@
         <v>0</v>
       </c>
       <c r="O213" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q213" s="11"/>
       <c r="R213" s="11"/>
@@ -13618,7 +13618,7 @@
       <c r="T213" s="11"/>
       <c r="U213" s="11"/>
       <c r="V213" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="W213" s="11"/>
       <c r="X213" s="11"/>
@@ -13627,28 +13627,28 @@
     </row>
     <row r="214" spans="1:26" ht="13" customHeight="1">
       <c r="A214" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B214" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F214" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G214" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H214" s="27" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="I214" s="31" t="s">
         <v>48</v>
@@ -13667,7 +13667,7 @@
         <v>0</v>
       </c>
       <c r="O214" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q214" s="11"/>
       <c r="R214" s="11"/>
@@ -13675,7 +13675,7 @@
       <c r="T214" s="11"/>
       <c r="U214" s="11"/>
       <c r="V214" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="W214" s="11"/>
       <c r="X214" s="11"/>
@@ -15818,7 +15818,7 @@
   </sheetPr>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -15840,7 +15840,7 @@
         <v>387</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>345</v>
@@ -15861,16 +15861,16 @@
         <v>350</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>248</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>387</v>
@@ -15884,7 +15884,7 @@
         <v>9000</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D2" s="30">
         <f>2248</f>
@@ -15903,7 +15903,7 @@
         <v>10000</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="J2" s="7">
         <v>10000</v>
@@ -15932,7 +15932,7 @@
         <v>14000</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D3" s="11">
         <v>1000</v>
@@ -15962,13 +15962,13 @@
         <v>12977</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="N3" s="24">
         <v>0</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
@@ -15979,14 +15979,14 @@
         <v>12000</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D4" s="30">
         <f>4588</f>
         <v>4588</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="J4">
         <v>12000</v>
@@ -16000,7 +16000,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="24"/>
       <c r="O4" s="11" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
@@ -16011,13 +16011,13 @@
         <v>15000</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="J5">
         <v>15000</v>
@@ -16059,10 +16059,10 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="K7" s="11" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="L7" s="26" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
@@ -16160,16 +16160,16 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C2" t="s">
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E2" s="14"/>
       <c r="K2" s="14"/>
@@ -16190,16 +16190,16 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B3" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C3" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D3" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E3" s="14"/>
       <c r="K3" s="14"/>
@@ -16223,13 +16223,13 @@
         <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E4" s="14"/>
       <c r="K4" s="14"/>
@@ -16253,13 +16253,13 @@
         <v>256</v>
       </c>
       <c r="B5" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C5" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D5" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E5" s="14"/>
       <c r="K5" s="14"/>
@@ -16280,16 +16280,16 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B6" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C6" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D6" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E6" s="14"/>
       <c r="K6" s="14"/>
@@ -16310,16 +16310,16 @@
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E7" s="14"/>
       <c r="K7" s="14"/>
@@ -16343,13 +16343,13 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C8" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D8" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E8" s="14"/>
       <c r="K8" s="14"/>
@@ -16373,13 +16373,13 @@
         <v>243</v>
       </c>
       <c r="B9" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C9" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D9" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E9" s="14"/>
       <c r="K9" s="14"/>
@@ -16400,16 +16400,16 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B10" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C10" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D10" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E10" s="14"/>
       <c r="K10" s="14"/>
@@ -16433,13 +16433,13 @@
         <v>311</v>
       </c>
       <c r="B11" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C11" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D11" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E11" s="14"/>
       <c r="K11" s="14"/>
@@ -16463,13 +16463,13 @@
         <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E12" s="14"/>
       <c r="K12" s="14"/>
@@ -16493,13 +16493,13 @@
         <v>271</v>
       </c>
       <c r="B13" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C13" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D13" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E13" s="14"/>
       <c r="K13" s="14"/>
@@ -16520,16 +16520,16 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B14" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C14" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D14" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E14" s="14"/>
       <c r="K14" s="14"/>
@@ -16553,13 +16553,13 @@
         <v>183</v>
       </c>
       <c r="B15" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C15" t="s">
         <v>371</v>
       </c>
       <c r="D15" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E15" s="14"/>
       <c r="K15" s="14"/>
@@ -16580,16 +16580,16 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B16" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C16" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D16" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E16" s="14"/>
       <c r="K16" s="14"/>
@@ -16610,16 +16610,16 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B17" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C17" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D17" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E17" s="14"/>
       <c r="K17" s="14"/>
@@ -16643,13 +16643,13 @@
         <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C18" t="s">
         <v>360</v>
       </c>
       <c r="D18" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E18" s="14"/>
       <c r="K18" s="14"/>
@@ -16673,13 +16673,13 @@
         <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E19" s="14"/>
       <c r="K19" s="14"/>
@@ -16700,16 +16700,16 @@
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B20" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C20" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D20" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E20" s="14"/>
       <c r="K20" s="14"/>
@@ -16730,16 +16730,16 @@
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B21" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C21" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D21" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E21" s="14"/>
       <c r="K21" s="14"/>
@@ -16763,13 +16763,13 @@
         <v>196</v>
       </c>
       <c r="B22" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C22" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D22" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E22" s="14"/>
       <c r="K22" s="14"/>
@@ -16790,16 +16790,16 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B23" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C23" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D23" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E23" s="14"/>
       <c r="K23" s="14"/>
@@ -16823,13 +16823,13 @@
         <v>215</v>
       </c>
       <c r="B24" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E24" s="14"/>
       <c r="K24" s="14"/>
@@ -16853,13 +16853,13 @@
         <v>219</v>
       </c>
       <c r="B25" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C25" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D25" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E25" s="14"/>
       <c r="K25" s="14"/>
@@ -16880,16 +16880,16 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B26" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C26" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D26" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E26" s="14"/>
       <c r="K26" s="14"/>
@@ -16910,16 +16910,16 @@
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B27" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C27" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D27" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E27" s="14"/>
       <c r="K27" s="14"/>
@@ -16940,16 +16940,16 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B28" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C28" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D28" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E28" s="14"/>
       <c r="K28" s="14"/>
@@ -16970,16 +16970,16 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B29" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C29" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D29" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E29" s="14"/>
       <c r="K29" s="14"/>
@@ -17000,16 +17000,16 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B30" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C30" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D30" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E30" s="14"/>
       <c r="K30" s="14"/>
@@ -17030,16 +17030,16 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B31" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C31" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D31" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E31" s="14"/>
       <c r="K31" s="14"/>
@@ -17060,16 +17060,16 @@
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B32" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C32" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D32" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E32" s="14"/>
       <c r="K32" s="14"/>
@@ -17090,16 +17090,16 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B33" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C33" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D33" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E33" s="14"/>
       <c r="K33" s="14"/>
@@ -17120,16 +17120,16 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B34" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C34" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D34" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E34" s="14"/>
       <c r="K34" s="14"/>
@@ -17153,13 +17153,13 @@
         <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C35" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D35" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E35" s="14"/>
       <c r="K35" s="14"/>
@@ -17183,13 +17183,13 @@
         <v>302</v>
       </c>
       <c r="B36" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C36" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D36" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E36" s="14"/>
       <c r="K36" s="14"/>
@@ -17210,16 +17210,16 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B37" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C37" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D37" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E37" s="14"/>
       <c r="K37" s="14"/>
@@ -17240,16 +17240,16 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B38" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C38" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D38" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E38" s="14"/>
       <c r="K38" s="14"/>
@@ -17270,16 +17270,16 @@
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B39" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C39" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D39" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E39" s="14"/>
       <c r="K39" s="14"/>
@@ -17303,13 +17303,13 @@
         <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C40" t="s">
         <v>360</v>
       </c>
       <c r="D40" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E40" s="14"/>
       <c r="K40" s="14"/>
@@ -17333,13 +17333,13 @@
         <v>202</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C41" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D41" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E41" s="14"/>
       <c r="K41" s="14"/>
@@ -17360,16 +17360,16 @@
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B42" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C42" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D42" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E42" s="14"/>
       <c r="K42" s="14"/>
@@ -17393,13 +17393,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C43" t="s">
         <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E43" s="14"/>
       <c r="K43" s="14"/>
@@ -17420,16 +17420,16 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B44" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C44" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D44" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E44" s="14"/>
       <c r="K44" s="14"/>
@@ -17453,13 +17453,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C45" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D45" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E45" s="14"/>
       <c r="K45" s="14"/>
@@ -17480,16 +17480,16 @@
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B46" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C46" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D46" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="E46" s="14"/>
       <c r="K46" s="14"/>
@@ -38461,8 +38461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EC6FB2-1903-0042-ACE8-47D7240CC83A}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -38488,7 +38488,7 @@
         <v>434</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>437</v>
+        <v>707</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>432</v>
@@ -38496,10 +38496,10 @@
     </row>
     <row r="3" spans="1:3" ht="16">
       <c r="A3" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>435</v>
+        <v>708</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>432</v>
@@ -38507,10 +38507,10 @@
     </row>
     <row r="4" spans="1:3" ht="16">
       <c r="A4" s="22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>439</v>
+        <v>709</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>433</v>
@@ -38518,10 +38518,10 @@
     </row>
     <row r="5" spans="1:3" ht="16">
       <c r="A5" s="21" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>441</v>
+        <v>710</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>433</v>
@@ -38529,10 +38529,10 @@
     </row>
     <row r="6" spans="1:3" ht="16">
       <c r="A6" s="21" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>443</v>
+        <v>711</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>433</v>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADBA6866-7372-EF4E-86C3-926052CD8626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EDC7B8-6D54-5742-B97F-0C1D6E2E13F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="29400" windowHeight="17160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СПРАВОЧНИК -1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="710">
   <si>
     <t>Тип изделия:</t>
   </si>
@@ -2072,12 +2072,6 @@
     <t>Стоимость за шт доводчика</t>
   </si>
   <si>
-    <t>Сэндвич</t>
-  </si>
-  <si>
-    <t>Ламбри</t>
-  </si>
-  <si>
     <t>sum([2*door_height[i]/1000 for i in range(door_count)])</t>
   </si>
   <si>
@@ -2153,18 +2147,12 @@
     <t>Новая Формула_Python</t>
   </si>
   <si>
-    <t xml:space="preserve">Стоимость заполнения </t>
-  </si>
-  <si>
     <t>Ламбри без термо</t>
   </si>
   <si>
     <t>Ламбри с термо</t>
   </si>
   <si>
-    <t>НЕТ</t>
-  </si>
-  <si>
     <t>QWER2020</t>
   </si>
   <si>
@@ -2178,6 +2166,12 @@
   </si>
   <si>
     <t>Qwer234</t>
+  </si>
+  <si>
+    <t>Панели</t>
+  </si>
+  <si>
+    <t>Стоимость Панелей за 1 м в 6 м хлысте</t>
   </si>
 </sst>
 </file>
@@ -10011,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="O148" s="11" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="Q148" s="11"/>
       <c r="R148" s="11"/>
@@ -10066,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="O149" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="Q149" s="11"/>
       <c r="R149" s="11"/>
@@ -10121,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="O150" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q150" s="11"/>
       <c r="R150" s="11"/>
@@ -10176,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="O151" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="Q151" s="11"/>
       <c r="R151" s="11"/>
@@ -10231,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="O152" s="11" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="Q152" s="11"/>
       <c r="R152" s="11"/>
@@ -10286,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="O153" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="Q153" s="11"/>
       <c r="R153" s="11"/>
@@ -10341,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="O154" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="Q154" s="11"/>
       <c r="R154" s="11"/>
@@ -10396,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="O155" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q155" s="11"/>
       <c r="R155" s="11"/>
@@ -10451,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="O156" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q156" s="11"/>
       <c r="R156" s="11"/>
@@ -10506,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="O157" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="Q157" s="11"/>
       <c r="R157" s="11"/>
@@ -10561,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="O158" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="Q158" s="11"/>
       <c r="R158" s="11"/>
@@ -10616,7 +10610,7 @@
         <v>0</v>
       </c>
       <c r="O159" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Q159" s="11"/>
       <c r="R159" s="11"/>
@@ -10671,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="O160" s="11" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="Q160" s="11"/>
       <c r="R160" s="11"/>
@@ -10726,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="O161" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Q161" s="11"/>
       <c r="R161" s="11"/>
@@ -10781,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="O162" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Q162" s="11"/>
       <c r="R162" s="11"/>
@@ -10811,7 +10805,7 @@
         <v>197</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G163" s="31" t="s">
         <v>48</v>
@@ -10866,7 +10860,7 @@
         <v>199</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G164" s="31" t="s">
         <v>48</v>
@@ -10921,7 +10915,7 @@
         <v>486</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G165" s="31" t="s">
         <v>21</v>
@@ -10976,7 +10970,7 @@
         <v>224</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G166" s="31" t="s">
         <v>21</v>
@@ -11031,7 +11025,7 @@
         <v>203</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G167" s="31" t="s">
         <v>21</v>
@@ -11086,7 +11080,7 @@
         <v>90</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G168" s="31" t="s">
         <v>21</v>
@@ -11141,7 +11135,7 @@
         <v>98</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G169" s="31" t="s">
         <v>21</v>
@@ -11196,7 +11190,7 @@
         <v>304</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G170" s="31" t="s">
         <v>48</v>
@@ -11251,7 +11245,7 @@
         <v>111</v>
       </c>
       <c r="F171" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G171" s="31" t="s">
         <v>48</v>
@@ -11306,7 +11300,7 @@
         <v>269</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G172" s="31" t="s">
         <v>48</v>
@@ -11361,7 +11355,7 @@
         <v>118</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G173" s="31" t="s">
         <v>119</v>
@@ -11416,7 +11410,7 @@
         <v>247</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G174" s="31" t="s">
         <v>119</v>
@@ -11471,7 +11465,7 @@
         <v>313</v>
       </c>
       <c r="F175" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G175" s="31" t="s">
         <v>48</v>
@@ -11526,7 +11520,7 @@
         <v>515</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G176" s="31" t="s">
         <v>119</v>
@@ -11581,7 +11575,7 @@
         <v>519</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G177" s="31" t="s">
         <v>499</v>
@@ -11636,7 +11630,7 @@
         <v>523</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G178" s="31" t="s">
         <v>21</v>
@@ -11691,7 +11685,7 @@
         <v>153</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G179" s="31" t="s">
         <v>21</v>
@@ -11746,7 +11740,7 @@
         <v>157</v>
       </c>
       <c r="F180" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G180" s="31" t="s">
         <v>21</v>
@@ -11801,7 +11795,7 @@
         <v>160</v>
       </c>
       <c r="F181" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G181" s="31" t="s">
         <v>21</v>
@@ -11856,7 +11850,7 @@
         <v>26</v>
       </c>
       <c r="F182" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G182" s="31" t="s">
         <v>21</v>
@@ -11911,7 +11905,7 @@
         <v>31</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G183" s="31" t="s">
         <v>21</v>
@@ -11966,7 +11960,7 @@
         <v>41</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G184" s="31" t="s">
         <v>21</v>
@@ -12021,7 +12015,7 @@
         <v>216</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G185" s="31" t="s">
         <v>21</v>
@@ -12076,7 +12070,7 @@
         <v>53</v>
       </c>
       <c r="F186" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G186" s="31" t="s">
         <v>48</v>
@@ -12186,7 +12180,7 @@
         <v>338</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G188" s="31" t="s">
         <v>48</v>
@@ -12241,7 +12235,7 @@
         <v>63</v>
       </c>
       <c r="F189" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G189" s="31" t="s">
         <v>48</v>
@@ -12351,7 +12345,7 @@
         <v>224</v>
       </c>
       <c r="F191" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G191" s="31" t="s">
         <v>21</v>
@@ -12406,7 +12400,7 @@
         <v>94</v>
       </c>
       <c r="F192" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G192" s="31" t="s">
         <v>21</v>
@@ -12461,7 +12455,7 @@
         <v>98</v>
       </c>
       <c r="F193" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G193" s="31" t="s">
         <v>21</v>
@@ -12516,7 +12510,7 @@
         <v>557</v>
       </c>
       <c r="F194" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G194" s="31" t="s">
         <v>48</v>
@@ -12571,7 +12565,7 @@
         <v>237</v>
       </c>
       <c r="F195" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G195" s="31" t="s">
         <v>48</v>
@@ -12626,7 +12620,7 @@
         <v>241</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G196" s="31" t="s">
         <v>48</v>
@@ -12681,7 +12675,7 @@
         <v>244</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G197" s="31" t="s">
         <v>48</v>
@@ -12736,7 +12730,7 @@
         <v>567</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G198" s="31" t="s">
         <v>119</v>
@@ -12791,7 +12785,7 @@
         <v>304</v>
       </c>
       <c r="F199" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G199" s="31" t="s">
         <v>48</v>
@@ -12846,7 +12840,7 @@
         <v>229</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G200" s="31" t="s">
         <v>48</v>
@@ -12901,7 +12895,7 @@
         <v>575</v>
       </c>
       <c r="F201" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G201" s="31" t="s">
         <v>48</v>
@@ -12934,7 +12928,7 @@
       <c r="T201" s="11"/>
       <c r="U201" s="11"/>
       <c r="V201" s="19" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="W201" s="11"/>
       <c r="X201" s="11"/>
@@ -12958,7 +12952,7 @@
         <v>579</v>
       </c>
       <c r="F202" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G202" s="31" t="s">
         <v>48</v>
@@ -12991,7 +12985,7 @@
       <c r="T202" s="11"/>
       <c r="U202" s="11"/>
       <c r="V202" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="W202" s="11"/>
       <c r="X202" s="11"/>
@@ -13015,7 +13009,7 @@
         <v>581</v>
       </c>
       <c r="F203" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G203" s="31" t="s">
         <v>48</v>
@@ -13048,7 +13042,7 @@
       <c r="T203" s="11"/>
       <c r="U203" s="11"/>
       <c r="V203" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="W203" s="11"/>
       <c r="X203" s="11"/>
@@ -13072,7 +13066,7 @@
         <v>584</v>
       </c>
       <c r="F204" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G204" s="31" t="s">
         <v>48</v>
@@ -13105,7 +13099,7 @@
       <c r="T204" s="11"/>
       <c r="U204" s="11"/>
       <c r="V204" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="W204" s="11"/>
       <c r="X204" s="11"/>
@@ -13129,7 +13123,7 @@
         <v>586</v>
       </c>
       <c r="F205" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G205" s="31" t="s">
         <v>48</v>
@@ -13162,7 +13156,7 @@
       <c r="T205" s="11"/>
       <c r="U205" s="11"/>
       <c r="V205" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="W205" s="11"/>
       <c r="X205" s="11"/>
@@ -13186,7 +13180,7 @@
         <v>590</v>
       </c>
       <c r="F206" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G206" s="31" t="s">
         <v>48</v>
@@ -13219,7 +13213,7 @@
       <c r="T206" s="11"/>
       <c r="U206" s="11"/>
       <c r="V206" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="W206" s="11"/>
       <c r="X206" s="11"/>
@@ -13243,7 +13237,7 @@
         <v>304</v>
       </c>
       <c r="F207" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G207" s="31" t="s">
         <v>48</v>
@@ -13276,7 +13270,7 @@
       <c r="T207" s="11"/>
       <c r="U207" s="11"/>
       <c r="V207" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="W207" s="11"/>
       <c r="X207" s="11"/>
@@ -13300,7 +13294,7 @@
         <v>229</v>
       </c>
       <c r="F208" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G208" s="31" t="s">
         <v>48</v>
@@ -13333,7 +13327,7 @@
       <c r="T208" s="11"/>
       <c r="U208" s="11"/>
       <c r="V208" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="W208" s="11"/>
       <c r="X208" s="11"/>
@@ -13357,7 +13351,7 @@
         <v>575</v>
       </c>
       <c r="F209" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G209" s="31" t="s">
         <v>48</v>
@@ -13390,7 +13384,7 @@
       <c r="T209" s="11"/>
       <c r="U209" s="11"/>
       <c r="V209" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="W209" s="11"/>
       <c r="X209" s="11"/>
@@ -13414,7 +13408,7 @@
         <v>579</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G210" s="31" t="s">
         <v>48</v>
@@ -13447,7 +13441,7 @@
       <c r="T210" s="11"/>
       <c r="U210" s="11"/>
       <c r="V210" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="W210" s="11"/>
       <c r="X210" s="11"/>
@@ -13471,7 +13465,7 @@
         <v>581</v>
       </c>
       <c r="F211" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G211" s="31" t="s">
         <v>48</v>
@@ -13504,7 +13498,7 @@
       <c r="T211" s="11"/>
       <c r="U211" s="11"/>
       <c r="V211" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="W211" s="11"/>
       <c r="X211" s="11"/>
@@ -13528,7 +13522,7 @@
         <v>584</v>
       </c>
       <c r="F212" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G212" s="31" t="s">
         <v>48</v>
@@ -13561,7 +13555,7 @@
       <c r="T212" s="11"/>
       <c r="U212" s="11"/>
       <c r="V212" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="W212" s="11"/>
       <c r="X212" s="11"/>
@@ -13585,7 +13579,7 @@
         <v>586</v>
       </c>
       <c r="F213" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G213" s="31" t="s">
         <v>48</v>
@@ -13618,7 +13612,7 @@
       <c r="T213" s="11"/>
       <c r="U213" s="11"/>
       <c r="V213" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="W213" s="11"/>
       <c r="X213" s="11"/>
@@ -13642,7 +13636,7 @@
         <v>590</v>
       </c>
       <c r="F214" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G214" s="31" t="s">
         <v>48</v>
@@ -13675,7 +13669,7 @@
       <c r="T214" s="11"/>
       <c r="U214" s="11"/>
       <c r="V214" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="W214" s="11"/>
       <c r="X214" s="11"/>
@@ -15818,8 +15812,8 @@
   </sheetPr>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -15837,10 +15831,10 @@
         <v>343</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>387</v>
+        <v>708</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>345</v>
@@ -15872,9 +15866,7 @@
       <c r="N1" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>387</v>
-      </c>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -15884,7 +15876,7 @@
         <v>9000</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D2" s="30">
         <f>2248</f>
@@ -15920,9 +15912,7 @@
       <c r="N2" s="24">
         <v>13025</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>419</v>
-      </c>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
@@ -15932,10 +15922,11 @@
         <v>14000</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1000</v>
+        <v>702</v>
+      </c>
+      <c r="D3" s="30">
+        <f>4588</f>
+        <v>4588</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>355</v>
@@ -15967,9 +15958,7 @@
       <c r="N3" s="24">
         <v>0</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>676</v>
-      </c>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -15978,13 +15967,8 @@
       <c r="B4" s="9">
         <v>12000</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="D4" s="30">
-        <f>4588</f>
-        <v>4588</v>
-      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="30"/>
       <c r="I4" s="11" t="s">
         <v>671</v>
       </c>
@@ -15999,9 +15983,7 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="24"/>
-      <c r="O4" s="11" t="s">
-        <v>677</v>
-      </c>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
@@ -16009,12 +15991,6 @@
       </c>
       <c r="B5" s="9">
         <v>15000</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>669</v>
@@ -38461,8 +38437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EC6FB2-1903-0042-ACE8-47D7240CC83A}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -38488,7 +38464,7 @@
         <v>434</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>432</v>
@@ -38499,7 +38475,7 @@
         <v>435</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>432</v>
@@ -38510,7 +38486,7 @@
         <v>436</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>433</v>
@@ -38521,7 +38497,7 @@
         <v>437</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>433</v>
@@ -38532,7 +38508,7 @@
         <v>438</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>433</v>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EDC7B8-6D54-5742-B97F-0C1D6E2E13F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE27003D-EC96-4F4A-8793-C42F6AF10F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15813,7 +15813,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE27003D-EC96-4F4A-8793-C42F6AF10F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87379579-4C98-F84E-8707-B3674B8E820D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="29400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="29400" windowHeight="17160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СПРАВОЧНИК -1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2841" uniqueCount="710">
   <si>
     <t>Тип изделия:</t>
   </si>
@@ -15812,8 +15812,8 @@
   </sheetPr>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -15967,7 +15967,9 @@
       <c r="B4" s="9">
         <v>12000</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>419</v>
+      </c>
       <c r="D4" s="30"/>
       <c r="I4" s="11" t="s">
         <v>671</v>
@@ -38437,7 +38439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EC6FB2-1903-0042-ACE8-47D7240CC83A}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87379579-4C98-F84E-8707-B3674B8E820D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE9E595E-4996-BC4D-BBB2-5A3D4EECB81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="29400" windowHeight="17160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СПРАВОЧНИК -1" sheetId="1" r:id="rId1"/>
@@ -2178,7 +2178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2242,13 +2242,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2267,6 +2260,36 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2294,9 +2317,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2340,9 +2363,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2370,6 +2391,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2604,9 +2629,9 @@
     <col min="4" max="4" width="35.5" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="32"/>
-    <col min="8" max="8" width="12.6640625" style="25"/>
-    <col min="9" max="9" width="12.6640625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="30"/>
+    <col min="8" max="8" width="12.6640625" style="23"/>
+    <col min="9" max="9" width="12.6640625" style="30" customWidth="1"/>
     <col min="15" max="15" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2632,7 +2657,7 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -2689,7 +2714,7 @@
       <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="22">
         <v>594</v>
       </c>
       <c r="I2" s="8" t="s">
@@ -2733,7 +2758,7 @@
       <c r="G3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="22">
         <v>3435</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -2777,7 +2802,7 @@
       <c r="G4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="22">
         <v>6962</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -2821,7 +2846,7 @@
       <c r="G5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="22">
         <v>4099</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -2865,7 +2890,7 @@
       <c r="G6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="22">
         <v>810</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -2909,7 +2934,7 @@
       <c r="G7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="22">
         <v>317</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -2953,7 +2978,7 @@
       <c r="G8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="22">
         <v>102</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -2997,7 +3022,7 @@
       <c r="G9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="22">
         <v>1503</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -3041,7 +3066,7 @@
       <c r="G10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="22">
         <v>959</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -3085,7 +3110,7 @@
       <c r="G11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="22">
         <v>865</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -3129,7 +3154,7 @@
       <c r="G12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="22">
         <v>635</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -3173,7 +3198,7 @@
       <c r="G13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="22">
         <v>4114</v>
       </c>
       <c r="I13" s="8" t="s">
@@ -3217,7 +3242,7 @@
       <c r="G14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="22">
         <v>184</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -3261,7 +3286,7 @@
       <c r="G15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="22">
         <v>200</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -3305,7 +3330,7 @@
       <c r="G16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="22">
         <v>150</v>
       </c>
       <c r="I16" s="8" t="s">
@@ -3349,7 +3374,7 @@
       <c r="G17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="22">
         <v>184</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -3393,7 +3418,7 @@
       <c r="G18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="22">
         <v>184</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -3437,7 +3462,7 @@
       <c r="G19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="22">
         <v>150</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -3482,7 +3507,7 @@
       <c r="G20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="22">
         <v>2505</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -3527,7 +3552,7 @@
       <c r="G21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="22">
         <v>3429</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -3572,7 +3597,7 @@
       <c r="G22" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="22">
         <v>3670</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -3617,7 +3642,7 @@
       <c r="G23" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="22">
         <v>3120</v>
       </c>
       <c r="I23" s="8" t="s">
@@ -3662,7 +3687,7 @@
       <c r="G24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="22">
         <v>8330</v>
       </c>
       <c r="I24" s="8" t="s">
@@ -3711,7 +3736,7 @@
       <c r="G25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="22">
         <v>6962</v>
       </c>
       <c r="I25" s="8" t="s">
@@ -3760,7 +3785,7 @@
       <c r="G26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="22">
         <v>8728</v>
       </c>
       <c r="I26" s="8" t="s">
@@ -3809,7 +3834,7 @@
       <c r="G27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="22">
         <v>1503</v>
       </c>
       <c r="I27" s="8" t="s">
@@ -3858,7 +3883,7 @@
       <c r="G28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="22">
         <v>458</v>
       </c>
       <c r="I28" s="8" t="s">
@@ -3907,7 +3932,7 @@
       <c r="G29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="22">
         <v>151</v>
       </c>
       <c r="I29" s="8" t="s">
@@ -3956,7 +3981,7 @@
       <c r="G30" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="22">
         <v>635</v>
       </c>
       <c r="I30" s="8" t="s">
@@ -4005,7 +4030,7 @@
       <c r="G31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="22">
         <v>4114</v>
       </c>
       <c r="I31" s="8" t="s">
@@ -4054,7 +4079,7 @@
       <c r="G32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="22">
         <v>765</v>
       </c>
       <c r="I32" s="8" t="s">
@@ -4103,7 +4128,7 @@
       <c r="G33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="22">
         <v>130</v>
       </c>
       <c r="I33" s="8" t="s">
@@ -4152,7 +4177,7 @@
       <c r="G34" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="22">
         <v>919</v>
       </c>
       <c r="I34" s="8" t="s">
@@ -4201,7 +4226,7 @@
       <c r="G35" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="22">
         <v>152</v>
       </c>
       <c r="I35" s="8" t="s">
@@ -4250,7 +4275,7 @@
       <c r="G36" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="22">
         <v>2335</v>
       </c>
       <c r="I36" s="8" t="s">
@@ -4299,7 +4324,7 @@
       <c r="G37" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="22">
         <v>3086</v>
       </c>
       <c r="I37" s="8" t="s">
@@ -4348,7 +4373,7 @@
       <c r="G38" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="22">
         <v>4078</v>
       </c>
       <c r="I38" s="8" t="s">
@@ -4397,7 +4422,7 @@
       <c r="G39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="22">
         <v>2448</v>
       </c>
       <c r="I39" s="8" t="s">
@@ -4446,7 +4471,7 @@
       <c r="G40" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="22">
         <v>2448</v>
       </c>
       <c r="I40" s="8" t="s">
@@ -4495,7 +4520,7 @@
       <c r="G41" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="22">
         <v>6962</v>
       </c>
       <c r="I41" s="8" t="s">
@@ -4544,7 +4569,7 @@
       <c r="G42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H42" s="22">
         <v>6962</v>
       </c>
       <c r="I42" s="8" t="s">
@@ -4593,7 +4618,7 @@
       <c r="G43" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="22">
         <v>6962</v>
       </c>
       <c r="I43" s="8" t="s">
@@ -4642,7 +4667,7 @@
       <c r="G44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H44" s="22">
         <v>6962</v>
       </c>
       <c r="I44" s="8" t="s">
@@ -4691,7 +4716,7 @@
       <c r="G45" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="22">
         <v>2335</v>
       </c>
       <c r="I45" s="8" t="s">
@@ -4740,7 +4765,7 @@
       <c r="G46" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H46" s="22">
         <v>196</v>
       </c>
       <c r="I46" s="8" t="s">
@@ -4789,7 +4814,7 @@
       <c r="G47" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="22">
         <v>313</v>
       </c>
       <c r="I47" s="8" t="s">
@@ -4838,7 +4863,7 @@
       <c r="G48" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H48" s="24">
+      <c r="H48" s="22">
         <v>102</v>
       </c>
       <c r="I48" s="8" t="s">
@@ -4887,7 +4912,7 @@
       <c r="G49" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H49" s="24">
+      <c r="H49" s="22">
         <v>116</v>
       </c>
       <c r="I49" s="8" t="s">
@@ -4936,7 +4961,7 @@
       <c r="G50" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H50" s="24">
+      <c r="H50" s="22">
         <v>919</v>
       </c>
       <c r="I50" s="8" t="s">
@@ -4985,7 +5010,7 @@
       <c r="G51" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="22">
         <v>3086</v>
       </c>
       <c r="I51" s="8" t="s">
@@ -5034,7 +5059,7 @@
       <c r="G52" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H52" s="24">
+      <c r="H52" s="22">
         <v>4078</v>
       </c>
       <c r="I52" s="8" t="s">
@@ -5083,7 +5108,7 @@
       <c r="G53" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H53" s="24">
+      <c r="H53" s="22">
         <v>810</v>
       </c>
       <c r="I53" s="8" t="s">
@@ -5132,7 +5157,7 @@
       <c r="G54" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H54" s="24">
+      <c r="H54" s="22">
         <v>384</v>
       </c>
       <c r="I54" s="8" t="s">
@@ -5181,7 +5206,7 @@
       <c r="G55" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H55" s="24">
+      <c r="H55" s="22">
         <v>184</v>
       </c>
       <c r="I55" s="8" t="s">
@@ -5230,7 +5255,7 @@
       <c r="G56" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H56" s="24">
+      <c r="H56" s="22">
         <v>217</v>
       </c>
       <c r="I56" s="8" t="s">
@@ -5279,7 +5304,7 @@
       <c r="G57" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="22">
         <v>184</v>
       </c>
       <c r="I57" s="8" t="s">
@@ -5328,7 +5353,7 @@
       <c r="G58" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H58" s="24">
+      <c r="H58" s="22">
         <v>184</v>
       </c>
       <c r="I58" s="8" t="s">
@@ -5377,7 +5402,7 @@
       <c r="G59" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H59" s="24">
+      <c r="H59" s="22">
         <v>8959</v>
       </c>
       <c r="I59" s="8" t="s">
@@ -5426,7 +5451,7 @@
       <c r="G60" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H60" s="24">
+      <c r="H60" s="22">
         <v>3429</v>
       </c>
       <c r="I60" s="8" t="s">
@@ -5475,7 +5500,7 @@
       <c r="G61" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H61" s="24">
+      <c r="H61" s="22">
         <v>3247</v>
       </c>
       <c r="I61" s="8" t="s">
@@ -5524,7 +5549,7 @@
       <c r="G62" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H62" s="24">
+      <c r="H62" s="22">
         <v>2699</v>
       </c>
       <c r="I62" s="8" t="s">
@@ -5573,7 +5598,7 @@
       <c r="G63" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H63" s="24">
+      <c r="H63" s="22">
         <v>1336</v>
       </c>
       <c r="I63" s="8" t="s">
@@ -5622,7 +5647,7 @@
       <c r="G64" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H64" s="24">
+      <c r="H64" s="22">
         <v>384</v>
       </c>
       <c r="I64" s="8" t="s">
@@ -5671,7 +5696,7 @@
       <c r="G65" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H65" s="24">
+      <c r="H65" s="22">
         <v>7827</v>
       </c>
       <c r="I65" s="8" t="s">
@@ -5720,7 +5745,7 @@
       <c r="G66" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H66" s="24">
+      <c r="H66" s="22">
         <v>8225</v>
       </c>
       <c r="I66" s="8" t="s">
@@ -5769,7 +5794,7 @@
       <c r="G67" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H67" s="24">
+      <c r="H67" s="22">
         <v>992</v>
       </c>
       <c r="I67" s="8" t="s">
@@ -5818,7 +5843,7 @@
       <c r="G68" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H68" s="24">
+      <c r="H68" s="22">
         <v>153</v>
       </c>
       <c r="I68" s="8" t="s">
@@ -5867,7 +5892,7 @@
       <c r="G69" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H69" s="24">
+      <c r="H69" s="22">
         <v>196</v>
       </c>
       <c r="I69" s="8" t="s">
@@ -5916,7 +5941,7 @@
       <c r="G70" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H70" s="24">
+      <c r="H70" s="22">
         <v>62832</v>
       </c>
       <c r="I70" s="8" t="s">
@@ -5965,7 +5990,7 @@
       <c r="G71" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H71" s="24">
+      <c r="H71" s="22">
         <v>1453</v>
       </c>
       <c r="I71" s="8" t="s">
@@ -6014,7 +6039,7 @@
       <c r="G72" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H72" s="24">
+      <c r="H72" s="22">
         <v>2505</v>
       </c>
       <c r="I72" s="8" t="s">
@@ -6063,7 +6088,7 @@
       <c r="G73" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H73" s="24">
+      <c r="H73" s="22">
         <v>8330</v>
       </c>
       <c r="I73" s="8" t="s">
@@ -6112,7 +6137,7 @@
       <c r="G74" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H74" s="24">
+      <c r="H74" s="22">
         <v>8728</v>
       </c>
       <c r="I74" s="8" t="s">
@@ -6161,7 +6186,7 @@
       <c r="G75" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H75" s="24">
+      <c r="H75" s="22">
         <v>5809</v>
       </c>
       <c r="I75" s="8" t="s">
@@ -6210,7 +6235,7 @@
       <c r="G76" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H76" s="24">
+      <c r="H76" s="22">
         <v>992</v>
       </c>
       <c r="I76" s="8" t="s">
@@ -6259,7 +6284,7 @@
       <c r="G77" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H77" s="24">
+      <c r="H77" s="22">
         <v>153</v>
       </c>
       <c r="I77" s="8" t="s">
@@ -6308,7 +6333,7 @@
       <c r="G78" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H78" s="24">
+      <c r="H78" s="22">
         <v>184</v>
       </c>
       <c r="I78" s="8" t="s">
@@ -6357,7 +6382,7 @@
       <c r="G79" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H79" s="24">
+      <c r="H79" s="22">
         <v>581</v>
       </c>
       <c r="I79" s="8" t="s">
@@ -6406,7 +6431,7 @@
       <c r="G80" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H80" s="24">
+      <c r="H80" s="22">
         <v>217</v>
       </c>
       <c r="I80" s="8" t="s">
@@ -6455,7 +6480,7 @@
       <c r="G81" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H81" s="24">
+      <c r="H81" s="22">
         <v>150</v>
       </c>
       <c r="I81" s="8" t="s">
@@ -6504,7 +6529,7 @@
       <c r="G82" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H82" s="24">
+      <c r="H82" s="22">
         <v>150</v>
       </c>
       <c r="I82" s="8" t="s">
@@ -6553,7 +6578,7 @@
       <c r="G83" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H83" s="24">
+      <c r="H83" s="22">
         <v>184</v>
       </c>
       <c r="I83" s="8" t="s">
@@ -6602,7 +6627,7 @@
       <c r="G84" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H84" s="24">
+      <c r="H84" s="22">
         <v>8959</v>
       </c>
       <c r="I84" s="8" t="s">
@@ -6651,7 +6676,7 @@
       <c r="G85" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H85" s="24">
+      <c r="H85" s="22">
         <v>3429</v>
       </c>
       <c r="I85" s="8" t="s">
@@ -6700,7 +6725,7 @@
       <c r="G86" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H86" s="24">
+      <c r="H86" s="22">
         <v>3670</v>
       </c>
       <c r="I86" s="8" t="s">
@@ -6749,7 +6774,7 @@
       <c r="G87" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H87" s="24">
+      <c r="H87" s="22">
         <v>3120</v>
       </c>
       <c r="I87" s="8" t="s">
@@ -6798,7 +6823,7 @@
       <c r="G88" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H88" s="24">
+      <c r="H88" s="22">
         <v>1336</v>
       </c>
       <c r="I88" s="8" t="s">
@@ -6847,7 +6872,7 @@
       <c r="G89" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H89" s="24">
+      <c r="H89" s="22">
         <v>2505</v>
       </c>
       <c r="I89" s="8" t="s">
@@ -6896,7 +6921,7 @@
       <c r="G90" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H90" s="24">
+      <c r="H90" s="22">
         <v>2448</v>
       </c>
       <c r="I90" s="8" t="s">
@@ -6945,7 +6970,7 @@
       <c r="G91" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H91" s="24">
+      <c r="H91" s="22">
         <v>8330</v>
       </c>
       <c r="I91" s="8" t="s">
@@ -6994,7 +7019,7 @@
       <c r="G92" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H92" s="24">
+      <c r="H92" s="22">
         <v>8728</v>
       </c>
       <c r="I92" s="8" t="s">
@@ -7044,7 +7069,7 @@
       <c r="G93" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H93" s="24">
+      <c r="H93" s="22">
         <v>5809</v>
       </c>
       <c r="I93" s="8" t="s">
@@ -7093,7 +7118,7 @@
       <c r="G94" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H94" s="24">
+      <c r="H94" s="22">
         <v>992</v>
       </c>
       <c r="I94" s="8" t="s">
@@ -7142,7 +7167,7 @@
       <c r="G95" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H95" s="24">
+      <c r="H95" s="22">
         <v>4196</v>
       </c>
       <c r="I95" s="8" t="s">
@@ -7191,7 +7216,7 @@
       <c r="G96" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H96" s="24">
+      <c r="H96" s="22">
         <v>184</v>
       </c>
       <c r="I96" s="8" t="s">
@@ -7241,7 +7266,7 @@
       <c r="G97" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H97" s="24">
+      <c r="H97" s="22">
         <v>217</v>
       </c>
       <c r="I97" s="8" t="s">
@@ -7290,7 +7315,7 @@
       <c r="G98" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H98" s="24">
+      <c r="H98" s="22">
         <v>150</v>
       </c>
       <c r="I98" s="8" t="s">
@@ -7339,7 +7364,7 @@
       <c r="G99" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H99" s="24">
+      <c r="H99" s="22">
         <v>150</v>
       </c>
       <c r="I99" s="8" t="s">
@@ -7388,7 +7413,7 @@
       <c r="G100" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H100" s="24">
+      <c r="H100" s="22">
         <v>184</v>
       </c>
       <c r="I100" s="8" t="s">
@@ -7438,7 +7463,7 @@
       <c r="G101" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H101" s="24">
+      <c r="H101" s="22">
         <v>8959</v>
       </c>
       <c r="I101" s="8" t="s">
@@ -7488,7 +7513,7 @@
       <c r="G102" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H102" s="24">
+      <c r="H102" s="22">
         <v>3429</v>
       </c>
       <c r="I102" s="8" t="s">
@@ -7538,7 +7563,7 @@
       <c r="G103" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H103" s="24">
+      <c r="H103" s="22">
         <v>3670</v>
       </c>
       <c r="I103" s="8" t="s">
@@ -7588,7 +7613,7 @@
       <c r="G104" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H104" s="24">
+      <c r="H104" s="22">
         <v>3120</v>
       </c>
       <c r="I104" s="8" t="s">
@@ -7638,7 +7663,7 @@
       <c r="G105" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H105" s="24">
+      <c r="H105" s="22">
         <v>1336</v>
       </c>
       <c r="I105" s="8" t="s">
@@ -7688,7 +7713,7 @@
       <c r="G106" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H106" s="24">
+      <c r="H106" s="22">
         <v>2505</v>
       </c>
       <c r="I106" s="8" t="s">
@@ -7738,7 +7763,7 @@
       <c r="G107" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H107" s="24">
+      <c r="H107" s="22">
         <v>2448</v>
       </c>
       <c r="I107" s="8" t="s">
@@ -7788,7 +7813,7 @@
       <c r="G108" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H108" s="24">
+      <c r="H108" s="22">
         <v>398</v>
       </c>
       <c r="I108" s="8" t="s">
@@ -7838,7 +7863,7 @@
       <c r="G109" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H109" s="25">
+      <c r="H109" s="23">
         <v>742</v>
       </c>
       <c r="I109" s="8" t="s">
@@ -7882,7 +7907,7 @@
       <c r="G110" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H110" s="25">
+      <c r="H110" s="23">
         <v>945</v>
       </c>
       <c r="I110" s="8" t="s">
@@ -7926,7 +7951,7 @@
       <c r="G111" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H111" s="25">
+      <c r="H111" s="23">
         <v>959</v>
       </c>
       <c r="I111" s="8" t="s">
@@ -7967,13 +7992,13 @@
       <c r="F112" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G112" s="31" t="s">
+      <c r="G112" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H112" s="27" t="s">
+      <c r="H112" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="I112" s="31" t="s">
+      <c r="I112" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J112" s="11"/>
@@ -8023,13 +8048,13 @@
       <c r="F113" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G113" s="31" t="s">
+      <c r="G113" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H113" s="27" t="s">
+      <c r="H113" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="I113" s="31" t="s">
+      <c r="I113" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J113" s="11"/>
@@ -8079,13 +8104,13 @@
       <c r="F114" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G114" s="31" t="s">
+      <c r="G114" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H114" s="27" t="s">
+      <c r="H114" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="I114" s="31" t="s">
+      <c r="I114" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J114" s="11"/>
@@ -8135,13 +8160,13 @@
       <c r="F115" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G115" s="31" t="s">
+      <c r="G115" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H115" s="27" t="s">
+      <c r="H115" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="I115" s="31" t="s">
+      <c r="I115" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J115" s="11"/>
@@ -8191,13 +8216,13 @@
       <c r="F116" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G116" s="31" t="s">
+      <c r="G116" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H116" s="27" t="s">
+      <c r="H116" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="I116" s="31" t="s">
+      <c r="I116" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J116" s="11"/>
@@ -8247,13 +8272,13 @@
       <c r="F117" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G117" s="31" t="s">
+      <c r="G117" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H117" s="27" t="s">
+      <c r="H117" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="I117" s="31" t="s">
+      <c r="I117" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J117" s="11"/>
@@ -8303,13 +8328,13 @@
       <c r="F118" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="G118" s="31" t="s">
+      <c r="G118" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H118" s="27" t="s">
+      <c r="H118" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="I118" s="31" t="s">
+      <c r="I118" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J118" s="11"/>
@@ -8359,13 +8384,13 @@
       <c r="F119" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G119" s="31" t="s">
+      <c r="G119" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H119" s="27" t="s">
+      <c r="H119" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="I119" s="31" t="s">
+      <c r="I119" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J119" s="11"/>
@@ -8415,13 +8440,13 @@
       <c r="F120" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G120" s="31" t="s">
+      <c r="G120" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H120" s="27" t="s">
+      <c r="H120" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="I120" s="31" t="s">
+      <c r="I120" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J120" s="11"/>
@@ -8471,13 +8496,13 @@
       <c r="F121" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G121" s="31" t="s">
+      <c r="G121" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H121" s="27" t="s">
+      <c r="H121" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="I121" s="31" t="s">
+      <c r="I121" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J121" s="11"/>
@@ -8527,13 +8552,13 @@
       <c r="F122" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G122" s="31" t="s">
+      <c r="G122" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H122" s="27" t="s">
+      <c r="H122" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="I122" s="31" t="s">
+      <c r="I122" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J122" s="11"/>
@@ -8583,13 +8608,13 @@
       <c r="F123" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G123" s="31" t="s">
+      <c r="G123" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H123" s="27" t="s">
+      <c r="H123" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="I123" s="31" t="s">
+      <c r="I123" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J123" s="11"/>
@@ -8639,13 +8664,13 @@
       <c r="F124" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G124" s="31" t="s">
+      <c r="G124" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H124" s="27" t="s">
+      <c r="H124" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="I124" s="31" t="s">
+      <c r="I124" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J124" s="11"/>
@@ -8695,13 +8720,13 @@
       <c r="F125" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G125" s="31" t="s">
+      <c r="G125" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H125" s="27" t="s">
+      <c r="H125" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="I125" s="31" t="s">
+      <c r="I125" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J125" s="11"/>
@@ -8751,13 +8776,13 @@
       <c r="F126" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="G126" s="31" t="s">
+      <c r="G126" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H126" s="27" t="s">
+      <c r="H126" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="I126" s="31" t="s">
+      <c r="I126" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J126" s="11"/>
@@ -8807,13 +8832,13 @@
       <c r="F127" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G127" s="31" t="s">
+      <c r="G127" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H127" s="27" t="s">
+      <c r="H127" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="I127" s="31" t="s">
+      <c r="I127" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J127" s="11"/>
@@ -8863,13 +8888,13 @@
       <c r="F128" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G128" s="31" t="s">
+      <c r="G128" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H128" s="27" t="s">
+      <c r="H128" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="I128" s="31" t="s">
+      <c r="I128" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J128" s="11"/>
@@ -8919,13 +8944,13 @@
       <c r="F129" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G129" s="31" t="s">
+      <c r="G129" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H129" s="27" t="s">
+      <c r="H129" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="I129" s="31" t="s">
+      <c r="I129" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J129" s="11"/>
@@ -8975,13 +9000,13 @@
       <c r="F130" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G130" s="31" t="s">
+      <c r="G130" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H130" s="27" t="s">
+      <c r="H130" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="I130" s="31" t="s">
+      <c r="I130" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J130" s="11"/>
@@ -9031,13 +9056,13 @@
       <c r="F131" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G131" s="31" t="s">
+      <c r="G131" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H131" s="27" t="s">
+      <c r="H131" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="I131" s="31" t="s">
+      <c r="I131" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J131" s="11"/>
@@ -9087,13 +9112,13 @@
       <c r="F132" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G132" s="31" t="s">
+      <c r="G132" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H132" s="27" t="s">
+      <c r="H132" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="I132" s="31" t="s">
+      <c r="I132" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J132" s="11"/>
@@ -9143,13 +9168,13 @@
       <c r="F133" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G133" s="31" t="s">
+      <c r="G133" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H133" s="27" t="s">
+      <c r="H133" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="I133" s="31" t="s">
+      <c r="I133" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J133" s="11"/>
@@ -9199,13 +9224,13 @@
       <c r="F134" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="G134" s="31" t="s">
+      <c r="G134" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H134" s="27" t="s">
+      <c r="H134" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="I134" s="31" t="s">
+      <c r="I134" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J134" s="11"/>
@@ -9255,13 +9280,13 @@
       <c r="F135" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G135" s="31" t="s">
+      <c r="G135" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H135" s="27" t="s">
+      <c r="H135" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="I135" s="31" t="s">
+      <c r="I135" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J135" s="11"/>
@@ -9311,13 +9336,13 @@
       <c r="F136" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G136" s="31" t="s">
+      <c r="G136" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H136" s="27" t="s">
+      <c r="H136" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="I136" s="31" t="s">
+      <c r="I136" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J136" s="11"/>
@@ -9367,13 +9392,13 @@
       <c r="F137" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G137" s="31" t="s">
+      <c r="G137" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H137" s="27" t="s">
+      <c r="H137" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="I137" s="31" t="s">
+      <c r="I137" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J137" s="11"/>
@@ -9423,13 +9448,13 @@
       <c r="F138" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G138" s="31" t="s">
+      <c r="G138" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H138" s="27" t="s">
+      <c r="H138" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="I138" s="31" t="s">
+      <c r="I138" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J138" s="11"/>
@@ -9479,13 +9504,13 @@
       <c r="F139" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G139" s="31" t="s">
+      <c r="G139" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H139" s="27" t="s">
+      <c r="H139" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="I139" s="31" t="s">
+      <c r="I139" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J139" s="11"/>
@@ -9535,13 +9560,13 @@
       <c r="F140" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G140" s="31" t="s">
+      <c r="G140" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H140" s="27" t="s">
+      <c r="H140" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="I140" s="31" t="s">
+      <c r="I140" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J140" s="11"/>
@@ -9591,13 +9616,13 @@
       <c r="F141" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G141" s="31" t="s">
+      <c r="G141" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H141" s="27" t="s">
+      <c r="H141" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="I141" s="31" t="s">
+      <c r="I141" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J141" s="11"/>
@@ -9647,13 +9672,13 @@
       <c r="F142" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="G142" s="31" t="s">
+      <c r="G142" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H142" s="27" t="s">
+      <c r="H142" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="I142" s="31" t="s">
+      <c r="I142" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J142" s="11"/>
@@ -9703,13 +9728,13 @@
       <c r="F143" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G143" s="31" t="s">
+      <c r="G143" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H143" s="27" t="s">
+      <c r="H143" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="I143" s="31" t="s">
+      <c r="I143" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J143" s="11"/>
@@ -9759,13 +9784,13 @@
       <c r="F144" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G144" s="31" t="s">
+      <c r="G144" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H144" s="27" t="s">
+      <c r="H144" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="I144" s="31" t="s">
+      <c r="I144" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J144" s="11"/>
@@ -9815,13 +9840,13 @@
       <c r="F145" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G145" s="31" t="s">
+      <c r="G145" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H145" s="27" t="s">
+      <c r="H145" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="I145" s="31" t="s">
+      <c r="I145" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J145" s="11"/>
@@ -9871,13 +9896,13 @@
       <c r="F146" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G146" s="31" t="s">
+      <c r="G146" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H146" s="27" t="s">
+      <c r="H146" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="I146" s="31" t="s">
+      <c r="I146" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J146" s="11"/>
@@ -9927,13 +9952,13 @@
       <c r="F147" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G147" s="31" t="s">
+      <c r="G147" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H147" s="27" t="s">
+      <c r="H147" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="I147" s="31" t="s">
+      <c r="I147" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J147" s="11"/>
@@ -9982,13 +10007,13 @@
       <c r="F148" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="G148" s="31" t="s">
+      <c r="G148" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H148" s="27">
+      <c r="H148" s="25">
         <v>412</v>
       </c>
-      <c r="I148" s="31" t="s">
+      <c r="I148" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J148" s="11"/>
@@ -10037,13 +10062,13 @@
       <c r="F149" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="G149" s="31" t="s">
+      <c r="G149" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H149" s="27">
+      <c r="H149" s="25">
         <v>384</v>
       </c>
-      <c r="I149" s="31" t="s">
+      <c r="I149" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J149" s="11"/>
@@ -10092,13 +10117,13 @@
       <c r="F150" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G150" s="31" t="s">
+      <c r="G150" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H150" s="27" t="s">
+      <c r="H150" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="I150" s="31" t="s">
+      <c r="I150" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J150" s="11"/>
@@ -10147,13 +10172,13 @@
       <c r="F151" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G151" s="31" t="s">
+      <c r="G151" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H151" s="27" t="s">
+      <c r="H151" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="I151" s="31" t="s">
+      <c r="I151" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J151" s="11"/>
@@ -10202,13 +10227,13 @@
       <c r="F152" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="G152" s="31" t="s">
+      <c r="G152" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H152" s="27" t="s">
+      <c r="H152" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="I152" s="31" t="s">
+      <c r="I152" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J152" s="11"/>
@@ -10257,13 +10282,13 @@
       <c r="F153" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G153" s="31" t="s">
+      <c r="G153" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H153" s="27" t="s">
+      <c r="H153" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="I153" s="31" t="s">
+      <c r="I153" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J153" s="11"/>
@@ -10312,13 +10337,13 @@
       <c r="F154" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G154" s="31" t="s">
+      <c r="G154" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H154" s="27" t="s">
+      <c r="H154" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="I154" s="31" t="s">
+      <c r="I154" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J154" s="11"/>
@@ -10367,13 +10392,13 @@
       <c r="F155" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="G155" s="31" t="s">
+      <c r="G155" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H155" s="27" t="s">
+      <c r="H155" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="I155" s="31" t="s">
+      <c r="I155" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J155" s="11"/>
@@ -10422,13 +10447,13 @@
       <c r="F156" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="G156" s="31" t="s">
+      <c r="G156" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H156" s="27">
+      <c r="H156" s="25">
         <v>992</v>
       </c>
-      <c r="I156" s="31" t="s">
+      <c r="I156" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J156" s="11"/>
@@ -10477,13 +10502,13 @@
       <c r="F157" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="G157" s="31" t="s">
+      <c r="G157" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H157" s="27" t="s">
+      <c r="H157" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="I157" s="31" t="s">
+      <c r="I157" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J157" s="11"/>
@@ -10532,13 +10557,13 @@
       <c r="F158" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="G158" s="31" t="s">
+      <c r="G158" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H158" s="27">
+      <c r="H158" s="25">
         <v>153</v>
       </c>
-      <c r="I158" s="31" t="s">
+      <c r="I158" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J158" s="11"/>
@@ -10587,13 +10612,13 @@
       <c r="F159" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G159" s="31" t="s">
+      <c r="G159" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H159" s="27">
+      <c r="H159" s="25">
         <v>196</v>
       </c>
-      <c r="I159" s="31" t="s">
+      <c r="I159" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J159" s="11"/>
@@ -10642,13 +10667,13 @@
       <c r="F160" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="G160" s="31" t="s">
+      <c r="G160" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H160" s="27">
+      <c r="H160" s="25">
         <v>313</v>
       </c>
-      <c r="I160" s="31" t="s">
+      <c r="I160" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J160" s="11"/>
@@ -10697,13 +10722,13 @@
       <c r="F161" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="G161" s="31" t="s">
+      <c r="G161" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H161" s="27">
+      <c r="H161" s="25">
         <v>116</v>
       </c>
-      <c r="I161" s="31" t="s">
+      <c r="I161" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J161" s="11"/>
@@ -10752,13 +10777,13 @@
       <c r="F162" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="G162" s="31" t="s">
+      <c r="G162" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H162" s="27">
+      <c r="H162" s="25">
         <v>102</v>
       </c>
-      <c r="I162" s="31" t="s">
+      <c r="I162" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J162" s="11"/>
@@ -10807,13 +10832,13 @@
       <c r="F163" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="G163" s="31" t="s">
+      <c r="G163" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H163" s="27">
+      <c r="H163" s="25">
         <v>184</v>
       </c>
-      <c r="I163" s="31" t="s">
+      <c r="I163" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J163" s="11"/>
@@ -10862,13 +10887,13 @@
       <c r="F164" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="G164" s="31" t="s">
+      <c r="G164" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H164" s="27">
+      <c r="H164" s="25">
         <v>581</v>
       </c>
-      <c r="I164" s="31" t="s">
+      <c r="I164" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J164" s="11"/>
@@ -10917,13 +10942,13 @@
       <c r="F165" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="G165" s="31" t="s">
+      <c r="G165" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H165" s="27">
+      <c r="H165" s="25">
         <v>367</v>
       </c>
-      <c r="I165" s="31" t="s">
+      <c r="I165" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J165" s="11"/>
@@ -10972,13 +10997,13 @@
       <c r="F166" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="G166" s="31" t="s">
+      <c r="G166" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H166" s="27">
+      <c r="H166" s="25">
         <v>217</v>
       </c>
-      <c r="I166" s="31" t="s">
+      <c r="I166" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J166" s="11"/>
@@ -11027,13 +11052,13 @@
       <c r="F167" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="G167" s="31" t="s">
+      <c r="G167" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H167" s="27">
+      <c r="H167" s="25">
         <v>200</v>
       </c>
-      <c r="I167" s="31" t="s">
+      <c r="I167" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J167" s="11"/>
@@ -11082,13 +11107,13 @@
       <c r="F168" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="G168" s="31" t="s">
+      <c r="G168" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H168" s="27">
+      <c r="H168" s="25">
         <v>150</v>
       </c>
-      <c r="I168" s="31" t="s">
+      <c r="I168" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J168" s="11"/>
@@ -11137,13 +11162,13 @@
       <c r="F169" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="G169" s="31" t="s">
+      <c r="G169" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H169" s="27">
+      <c r="H169" s="25">
         <v>184</v>
       </c>
-      <c r="I169" s="31" t="s">
+      <c r="I169" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J169" s="11"/>
@@ -11192,13 +11217,13 @@
       <c r="F170" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="G170" s="31" t="s">
+      <c r="G170" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H170" s="27" t="s">
+      <c r="H170" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="I170" s="31" t="s">
+      <c r="I170" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J170" s="11"/>
@@ -11247,13 +11272,13 @@
       <c r="F171" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="G171" s="31" t="s">
+      <c r="G171" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H171" s="27" t="s">
+      <c r="H171" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="I171" s="31" t="s">
+      <c r="I171" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J171" s="11"/>
@@ -11302,13 +11327,13 @@
       <c r="F172" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="G172" s="31" t="s">
+      <c r="G172" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H172" s="27" t="s">
+      <c r="H172" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="I172" s="31" t="s">
+      <c r="I172" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J172" s="11"/>
@@ -11357,13 +11382,13 @@
       <c r="F173" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="G173" s="31" t="s">
+      <c r="G173" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="H173" s="27" t="s">
+      <c r="H173" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="I173" s="31" t="s">
+      <c r="I173" s="29" t="s">
         <v>119</v>
       </c>
       <c r="J173" s="11"/>
@@ -11412,13 +11437,13 @@
       <c r="F174" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="G174" s="31" t="s">
+      <c r="G174" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="H174" s="27" t="s">
+      <c r="H174" s="25" t="s">
         <v>511</v>
       </c>
-      <c r="I174" s="31" t="s">
+      <c r="I174" s="29" t="s">
         <v>119</v>
       </c>
       <c r="J174" s="11"/>
@@ -11467,13 +11492,13 @@
       <c r="F175" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="G175" s="31" t="s">
+      <c r="G175" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H175" s="27" t="s">
+      <c r="H175" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="I175" s="31" t="s">
+      <c r="I175" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J175" s="11"/>
@@ -11522,13 +11547,13 @@
       <c r="F176" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="G176" s="31" t="s">
+      <c r="G176" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="H176" s="27" t="s">
+      <c r="H176" s="25" t="s">
         <v>516</v>
       </c>
-      <c r="I176" s="31" t="s">
+      <c r="I176" s="29" t="s">
         <v>119</v>
       </c>
       <c r="J176" s="11"/>
@@ -11577,13 +11602,13 @@
       <c r="F177" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="G177" s="31" t="s">
+      <c r="G177" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="H177" s="27">
+      <c r="H177" s="25">
         <v>230</v>
       </c>
-      <c r="I177" s="31" t="s">
+      <c r="I177" s="29" t="s">
         <v>119</v>
       </c>
       <c r="J177" s="11"/>
@@ -11632,13 +11657,13 @@
       <c r="F178" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="G178" s="31" t="s">
+      <c r="G178" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H178" s="27" t="s">
+      <c r="H178" s="25" t="s">
         <v>524</v>
       </c>
-      <c r="I178" s="31" t="s">
+      <c r="I178" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J178" s="11"/>
@@ -11687,13 +11712,13 @@
       <c r="F179" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="G179" s="31" t="s">
+      <c r="G179" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H179" s="27" t="s">
+      <c r="H179" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="I179" s="31" t="s">
+      <c r="I179" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J179" s="11"/>
@@ -11727,7 +11752,7 @@
       <c r="A180" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B180" s="23" t="s">
+      <c r="B180" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C180" s="11" t="s">
@@ -11742,13 +11767,13 @@
       <c r="F180" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="G180" s="31" t="s">
+      <c r="G180" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H180" s="27" t="s">
+      <c r="H180" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="I180" s="31" t="s">
+      <c r="I180" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J180" s="11"/>
@@ -11782,7 +11807,7 @@
       <c r="A181" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B181" s="23" t="s">
+      <c r="B181" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C181" s="11" t="s">
@@ -11797,13 +11822,13 @@
       <c r="F181" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="G181" s="31" t="s">
+      <c r="G181" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H181" s="27" t="s">
+      <c r="H181" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="I181" s="31" t="s">
+      <c r="I181" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J181" s="11"/>
@@ -11837,7 +11862,7 @@
       <c r="A182" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B182" s="23" t="s">
+      <c r="B182" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C182" s="11" t="s">
@@ -11852,13 +11877,13 @@
       <c r="F182" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="G182" s="31" t="s">
+      <c r="G182" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H182" s="27" t="s">
+      <c r="H182" s="25" t="s">
         <v>535</v>
       </c>
-      <c r="I182" s="31" t="s">
+      <c r="I182" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J182" s="11"/>
@@ -11892,7 +11917,7 @@
       <c r="A183" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B183" s="23" t="s">
+      <c r="B183" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C183" s="11" t="s">
@@ -11907,13 +11932,13 @@
       <c r="F183" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="G183" s="31" t="s">
+      <c r="G183" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H183" s="27" t="s">
+      <c r="H183" s="25" t="s">
         <v>537</v>
       </c>
-      <c r="I183" s="31" t="s">
+      <c r="I183" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J183" s="11"/>
@@ -11947,7 +11972,7 @@
       <c r="A184" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B184" s="23" t="s">
+      <c r="B184" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C184" s="11" t="s">
@@ -11962,13 +11987,13 @@
       <c r="F184" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="G184" s="31" t="s">
+      <c r="G184" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H184" s="27">
+      <c r="H184" s="25">
         <v>810</v>
       </c>
-      <c r="I184" s="31" t="s">
+      <c r="I184" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J184" s="11"/>
@@ -12002,7 +12027,7 @@
       <c r="A185" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B185" s="23" t="s">
+      <c r="B185" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C185" s="11" t="s">
@@ -12017,13 +12042,13 @@
       <c r="F185" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="G185" s="31" t="s">
+      <c r="G185" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H185" s="27">
+      <c r="H185" s="25">
         <v>384</v>
       </c>
-      <c r="I185" s="31" t="s">
+      <c r="I185" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J185" s="11"/>
@@ -12057,7 +12082,7 @@
       <c r="A186" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B186" s="23" t="s">
+      <c r="B186" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C186" s="11" t="s">
@@ -12072,13 +12097,13 @@
       <c r="F186" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="G186" s="31" t="s">
+      <c r="G186" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H186" s="27">
+      <c r="H186" s="25">
         <v>161</v>
       </c>
-      <c r="I186" s="31" t="s">
+      <c r="I186" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J186" s="11"/>
@@ -12112,7 +12137,7 @@
       <c r="A187" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B187" s="23" t="s">
+      <c r="B187" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C187" s="11" t="s">
@@ -12127,13 +12152,13 @@
       <c r="F187" s="11">
         <v>4</v>
       </c>
-      <c r="G187" s="31" t="s">
+      <c r="G187" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H187" s="27">
+      <c r="H187" s="25">
         <v>742</v>
       </c>
-      <c r="I187" s="31" t="s">
+      <c r="I187" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J187" s="11"/>
@@ -12167,7 +12192,7 @@
       <c r="A188" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B188" s="23" t="s">
+      <c r="B188" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C188" s="11" t="s">
@@ -12182,13 +12207,13 @@
       <c r="F188" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="G188" s="31" t="s">
+      <c r="G188" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H188" s="27">
+      <c r="H188" s="25">
         <v>945</v>
       </c>
-      <c r="I188" s="31" t="s">
+      <c r="I188" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J188" s="11"/>
@@ -12222,7 +12247,7 @@
       <c r="A189" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B189" s="23" t="s">
+      <c r="B189" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C189" s="11" t="s">
@@ -12237,13 +12262,13 @@
       <c r="F189" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="G189" s="31" t="s">
+      <c r="G189" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H189" s="27">
+      <c r="H189" s="25">
         <v>959</v>
       </c>
-      <c r="I189" s="31" t="s">
+      <c r="I189" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J189" s="11"/>
@@ -12277,7 +12302,7 @@
       <c r="A190" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B190" s="23" t="s">
+      <c r="B190" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C190" s="11" t="s">
@@ -12292,13 +12317,13 @@
       <c r="F190" s="11">
         <v>4</v>
       </c>
-      <c r="G190" s="31" t="s">
+      <c r="G190" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H190" s="27">
+      <c r="H190" s="25">
         <v>184</v>
       </c>
-      <c r="I190" s="31" t="s">
+      <c r="I190" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J190" s="11"/>
@@ -12332,7 +12357,7 @@
       <c r="A191" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B191" s="23" t="s">
+      <c r="B191" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C191" s="11" t="s">
@@ -12347,13 +12372,13 @@
       <c r="F191" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="G191" s="31" t="s">
+      <c r="G191" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H191" s="27">
+      <c r="H191" s="25">
         <v>217</v>
       </c>
-      <c r="I191" s="31" t="s">
+      <c r="I191" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J191" s="11"/>
@@ -12387,7 +12412,7 @@
       <c r="A192" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B192" s="23" t="s">
+      <c r="B192" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C192" s="11" t="s">
@@ -12402,13 +12427,13 @@
       <c r="F192" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="G192" s="31" t="s">
+      <c r="G192" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H192" s="27">
+      <c r="H192" s="25">
         <v>184</v>
       </c>
-      <c r="I192" s="31" t="s">
+      <c r="I192" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J192" s="11"/>
@@ -12442,7 +12467,7 @@
       <c r="A193" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B193" s="23" t="s">
+      <c r="B193" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C193" s="11" t="s">
@@ -12457,13 +12482,13 @@
       <c r="F193" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="G193" s="31" t="s">
+      <c r="G193" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H193" s="27">
+      <c r="H193" s="25">
         <v>184</v>
       </c>
-      <c r="I193" s="31" t="s">
+      <c r="I193" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J193" s="11"/>
@@ -12497,7 +12522,7 @@
       <c r="A194" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B194" s="23" t="s">
+      <c r="B194" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C194" s="11" t="s">
@@ -12512,13 +12537,13 @@
       <c r="F194" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="G194" s="31" t="s">
+      <c r="G194" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H194" s="27" t="s">
+      <c r="H194" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="I194" s="31" t="s">
+      <c r="I194" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J194" s="11"/>
@@ -12552,7 +12577,7 @@
       <c r="A195" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B195" s="23" t="s">
+      <c r="B195" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C195" s="11" t="s">
@@ -12567,13 +12592,13 @@
       <c r="F195" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="G195" s="31" t="s">
+      <c r="G195" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H195" s="27" t="s">
+      <c r="H195" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="I195" s="31" t="s">
+      <c r="I195" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J195" s="11"/>
@@ -12607,7 +12632,7 @@
       <c r="A196" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B196" s="23" t="s">
+      <c r="B196" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C196" s="11" t="s">
@@ -12622,13 +12647,13 @@
       <c r="F196" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="G196" s="31" t="s">
+      <c r="G196" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H196" s="27" t="s">
+      <c r="H196" s="25" t="s">
         <v>562</v>
       </c>
-      <c r="I196" s="31" t="s">
+      <c r="I196" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J196" s="11"/>
@@ -12662,7 +12687,7 @@
       <c r="A197" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B197" s="23" t="s">
+      <c r="B197" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C197" s="11" t="s">
@@ -12677,13 +12702,13 @@
       <c r="F197" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="G197" s="31" t="s">
+      <c r="G197" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H197" s="27" t="s">
+      <c r="H197" s="25" t="s">
         <v>564</v>
       </c>
-      <c r="I197" s="31" t="s">
+      <c r="I197" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J197" s="11"/>
@@ -12717,7 +12742,7 @@
       <c r="A198" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B198" s="23" t="s">
+      <c r="B198" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C198" s="11" t="s">
@@ -12732,13 +12757,13 @@
       <c r="F198" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="G198" s="31" t="s">
+      <c r="G198" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="H198" s="27" t="s">
+      <c r="H198" s="25" t="s">
         <v>511</v>
       </c>
-      <c r="I198" s="31" t="s">
+      <c r="I198" s="29" t="s">
         <v>119</v>
       </c>
       <c r="J198" s="11"/>
@@ -12772,7 +12797,7 @@
       <c r="A199" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B199" s="23" t="s">
+      <c r="B199" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C199" s="11" t="s">
@@ -12787,13 +12812,13 @@
       <c r="F199" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="G199" s="31" t="s">
+      <c r="G199" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H199" s="27" t="s">
+      <c r="H199" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="I199" s="31" t="s">
+      <c r="I199" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J199" s="11"/>
@@ -12827,7 +12852,7 @@
       <c r="A200" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B200" s="23" t="s">
+      <c r="B200" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C200" s="11" t="s">
@@ -12842,13 +12867,13 @@
       <c r="F200" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="G200" s="31" t="s">
+      <c r="G200" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H200" s="27" t="s">
+      <c r="H200" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="I200" s="31" t="s">
+      <c r="I200" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J200" s="11"/>
@@ -12882,7 +12907,7 @@
       <c r="A201" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B201" s="23" t="s">
+      <c r="B201" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C201" s="11" t="s">
@@ -12897,13 +12922,13 @@
       <c r="F201" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="G201" s="31" t="s">
+      <c r="G201" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H201" s="27" t="s">
+      <c r="H201" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="I201" s="31" t="s">
+      <c r="I201" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J201" s="11"/>
@@ -12939,7 +12964,7 @@
       <c r="A202" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B202" s="23" t="s">
+      <c r="B202" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C202" s="11" t="s">
@@ -12954,13 +12979,13 @@
       <c r="F202" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="G202" s="31" t="s">
+      <c r="G202" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H202" s="27" t="s">
+      <c r="H202" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="I202" s="31" t="s">
+      <c r="I202" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J202" s="11"/>
@@ -13011,13 +13036,13 @@
       <c r="F203" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="G203" s="31" t="s">
+      <c r="G203" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H203" s="27" t="s">
+      <c r="H203" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="I203" s="31" t="s">
+      <c r="I203" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J203" s="11"/>
@@ -13068,13 +13093,13 @@
       <c r="F204" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="G204" s="31" t="s">
+      <c r="G204" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H204" s="27" t="s">
+      <c r="H204" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="I204" s="31" t="s">
+      <c r="I204" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J204" s="11"/>
@@ -13125,13 +13150,13 @@
       <c r="F205" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="G205" s="31" t="s">
+      <c r="G205" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H205" s="27" t="s">
+      <c r="H205" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="I205" s="31" t="s">
+      <c r="I205" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J205" s="11"/>
@@ -13182,13 +13207,13 @@
       <c r="F206" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="G206" s="31" t="s">
+      <c r="G206" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H206" s="27" t="s">
+      <c r="H206" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="I206" s="31" t="s">
+      <c r="I206" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J206" s="11"/>
@@ -13239,13 +13264,13 @@
       <c r="F207" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="G207" s="31" t="s">
+      <c r="G207" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H207" s="27" t="s">
+      <c r="H207" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="I207" s="31" t="s">
+      <c r="I207" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J207" s="11"/>
@@ -13296,13 +13321,13 @@
       <c r="F208" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="G208" s="31" t="s">
+      <c r="G208" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H208" s="27" t="s">
+      <c r="H208" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="I208" s="31" t="s">
+      <c r="I208" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J208" s="11"/>
@@ -13353,13 +13378,13 @@
       <c r="F209" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="G209" s="31" t="s">
+      <c r="G209" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H209" s="27" t="s">
+      <c r="H209" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="I209" s="31" t="s">
+      <c r="I209" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J209" s="11"/>
@@ -13410,13 +13435,13 @@
       <c r="F210" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="G210" s="31" t="s">
+      <c r="G210" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H210" s="27" t="s">
+      <c r="H210" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="I210" s="31" t="s">
+      <c r="I210" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J210" s="11"/>
@@ -13467,13 +13492,13 @@
       <c r="F211" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="G211" s="31" t="s">
+      <c r="G211" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H211" s="27" t="s">
+      <c r="H211" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="I211" s="31" t="s">
+      <c r="I211" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J211" s="11"/>
@@ -13524,13 +13549,13 @@
       <c r="F212" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="G212" s="31" t="s">
+      <c r="G212" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H212" s="27" t="s">
+      <c r="H212" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="I212" s="31" t="s">
+      <c r="I212" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J212" s="11"/>
@@ -13581,13 +13606,13 @@
       <c r="F213" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="G213" s="31" t="s">
+      <c r="G213" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H213" s="27" t="s">
+      <c r="H213" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="I213" s="31" t="s">
+      <c r="I213" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J213" s="11"/>
@@ -13638,13 +13663,13 @@
       <c r="F214" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="G214" s="31" t="s">
+      <c r="G214" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H214" s="27" t="s">
+      <c r="H214" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="I214" s="31" t="s">
+      <c r="I214" s="29" t="s">
         <v>48</v>
       </c>
       <c r="J214" s="11"/>
@@ -15878,7 +15903,7 @@
       <c r="C2" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="28">
         <f>2248</f>
         <v>2248</v>
       </c>
@@ -15903,13 +15928,13 @@
       <c r="K2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="22">
         <v>4142</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N2" s="22">
         <v>13025</v>
       </c>
       <c r="O2" s="11"/>
@@ -15924,7 +15949,7 @@
       <c r="C3" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="28">
         <f>4588</f>
         <v>4588</v>
       </c>
@@ -15949,13 +15974,13 @@
       <c r="K3" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="22">
         <v>12977</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="22">
         <v>0</v>
       </c>
       <c r="O3" s="11"/>
@@ -15970,7 +15995,7 @@
       <c r="C4" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="28"/>
       <c r="I4" s="11" t="s">
         <v>671</v>
       </c>
@@ -15980,11 +16005,11 @@
       <c r="K4" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="22">
         <v>3531</v>
       </c>
       <c r="M4" s="7"/>
-      <c r="N4" s="24"/>
+      <c r="N4" s="22"/>
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
@@ -16003,11 +16028,11 @@
       <c r="K5" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="22">
         <v>12977</v>
       </c>
       <c r="M5" s="11"/>
-      <c r="N5" s="26"/>
+      <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
@@ -16021,11 +16046,11 @@
       <c r="K6" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="22">
         <v>12977</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="26"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
@@ -16039,7 +16064,7 @@
       <c r="K7" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="24" t="s">
         <v>500</v>
       </c>
     </row>
@@ -16055,7 +16080,7 @@
       <c r="K8" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="22">
         <v>0</v>
       </c>
     </row>
@@ -16116,10 +16141,10 @@
         <v>359</v>
       </c>
       <c r="E1" s="14"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
@@ -38440,106 +38465,106 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="49.5" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" ht="18">
+      <c r="A1" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="31" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:3" ht="18">
+      <c r="A2" s="32" t="s">
         <v>434</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="33" t="s">
         <v>703</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="33" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:3" ht="18">
+      <c r="A3" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="33" t="s">
         <v>704</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="33" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:3" ht="18">
+      <c r="A4" s="34" t="s">
         <v>436</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="33" t="s">
         <v>705</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="33" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:3" ht="18">
+      <c r="A5" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="33" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:3" ht="18">
+      <c r="A6" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="33" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+    <row r="7" spans="1:3" ht="18">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" spans="1:3" ht="16">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:3" ht="16">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:3" ht="16">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" spans="1:3" ht="16">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" s="11"/>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19991059-8505-304B-BEB9-177AAD27E85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD685E8-FE59-9A42-B143-6C5FC2D5FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СПРАВОЧНИК -1" sheetId="1" r:id="rId1"/>
@@ -2665,7 +2665,7 @@
   </sheetPr>
   <dimension ref="A1:AA568"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Y164" sqref="Y164"/>
     </sheetView>
@@ -33676,8 +33676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EC6FB2-1903-0042-ACE8-47D7240CC83A}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD685E8-FE59-9A42-B143-6C5FC2D5FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E9DCE1-FC9C-3346-8A6A-D0F926B10CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СПРАВОЧНИК -1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Итоговый расчет с монтажом" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'СПРАВОЧНИК -1'!$A$1:$Z$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'СПРАВОЧНИК -1'!$A$1:$AA$214</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2177,13 +2177,13 @@
     <t>(n_imp_vert*height + n_imp_hor*width)/1000 * qty</t>
   </si>
   <si>
-    <t>P_SP * qty</t>
-  </si>
-  <si>
     <t>4 * qty</t>
   </si>
   <si>
     <t>2 * n_sash * qty</t>
+  </si>
+  <si>
+    <t>4 * n_frame_rect * qty или 4 * qty</t>
   </si>
 </sst>
 </file>
@@ -2665,9 +2665,9 @@
   </sheetPr>
   <dimension ref="A1:AA568"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y164" sqref="Y164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -11820,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="O179" s="11" t="s">
-        <v>474</v>
+        <v>23</v>
       </c>
       <c r="Q179" s="11"/>
       <c r="R179" s="11"/>
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="O180" s="11" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Q180" s="11"/>
       <c r="R180" s="11"/>
@@ -12099,8 +12099,8 @@
       <c r="N184" s="11">
         <v>0</v>
       </c>
-      <c r="O184" s="11" t="s">
-        <v>711</v>
+      <c r="O184" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="Q184" s="11"/>
       <c r="R184" s="11"/>
@@ -12267,8 +12267,8 @@
       <c r="N187" s="11">
         <v>0</v>
       </c>
-      <c r="O187" t="s">
-        <v>712</v>
+      <c r="O187" s="11" t="s">
+        <v>713</v>
       </c>
       <c r="Q187" s="11"/>
       <c r="R187" s="11"/>
@@ -12431,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="O190" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="Q190" s="11"/>
       <c r="R190" s="11"/>
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="O192" s="11" t="s">
-        <v>711</v>
+        <v>225</v>
       </c>
       <c r="Q192" s="11"/>
       <c r="R192" s="11"/>
@@ -12599,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="O193" s="11" t="s">
-        <v>711</v>
+        <v>225</v>
       </c>
       <c r="Q193" s="11"/>
       <c r="R193" s="11"/>
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="O201" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Q201" s="11"/>
       <c r="R201" s="11"/>
@@ -13105,7 +13105,7 @@
         <v>0</v>
       </c>
       <c r="O202" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Q202" s="11"/>
       <c r="R202" s="11"/>
@@ -13279,7 +13279,7 @@
         <v>0</v>
       </c>
       <c r="O205" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Q205" s="11"/>
       <c r="R205" s="11"/>
@@ -13337,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="O206" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Q206" s="11"/>
       <c r="R206" s="11"/>
@@ -13511,7 +13511,7 @@
         <v>0</v>
       </c>
       <c r="O209" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Q209" s="11"/>
       <c r="R209" s="11"/>
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="O210" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Q210" s="11"/>
       <c r="R210" s="11"/>
@@ -13743,7 +13743,7 @@
         <v>0</v>
       </c>
       <c r="O213" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Q213" s="11"/>
       <c r="R213" s="11"/>
@@ -13801,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="O214" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Q214" s="11"/>
       <c r="R214" s="11"/>
@@ -33676,7 +33676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EC6FB2-1903-0042-ACE8-47D7240CC83A}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F538A70-E4F5-E741-B46D-12752863A086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A008742F-C133-7A4E-8935-F4BF1EF8F1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2651,8 +2651,8 @@
   <dimension ref="A1:AA568"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N160" sqref="N160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15924,7 +15924,6 @@
       <c r="N568" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA214" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A008742F-C133-7A4E-8935-F4BF1EF8F1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E599377-048B-3A45-82DC-F93C40FFF636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'СПРАВОЧНИК -1'!$A$1:$AA$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'СПРАВОЧНИК -3'!$A$1:$Q$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="710">
   <si>
     <t>Тип изделия:</t>
   </si>
@@ -1157,9 +1158,6 @@
     <t>Периметр одной створки</t>
   </si>
   <si>
-    <t>2*(sash_width + sash_height)/1000</t>
-  </si>
-  <si>
     <t>Штапик общий (глух+створка+фрамуга)</t>
   </si>
   <si>
@@ -2072,9 +2070,6 @@
     <t>Длина профиля по ширине изделия</t>
   </si>
   <si>
-    <t>SW/1000 * N_sash</t>
-  </si>
-  <si>
     <t>Расход порога</t>
   </si>
   <si>
@@ -2118,9 +2113,6 @@
   </si>
   <si>
     <t>Сухари для 4 углов рамы</t>
-  </si>
-  <si>
-    <t>N_nodes_42</t>
   </si>
   <si>
     <t>Для крепления усилителей</t>
@@ -2651,8 +2643,8 @@
   <dimension ref="A1:AA568"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N160" sqref="N160"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O219" sqref="O219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8018,22 +8010,22 @@
         <v>16</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>304</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G112" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H112" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I112" s="24" t="s">
         <v>48</v>
@@ -8052,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P112" s="11"/>
       <c r="Q112" s="11"/>
@@ -8074,22 +8066,22 @@
         <v>16</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>229</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G113" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H113" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I113" s="24" t="s">
         <v>48</v>
@@ -8108,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P113" s="11"/>
       <c r="Q113" s="11"/>
@@ -8130,22 +8122,22 @@
         <v>16</v>
       </c>
       <c r="C114" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E114" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="D114" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E114" s="11" t="s">
+      <c r="F114" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="F114" s="11" t="s">
+      <c r="G114" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H114" s="21" t="s">
         <v>564</v>
-      </c>
-      <c r="G114" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H114" s="21" t="s">
-        <v>565</v>
       </c>
       <c r="I114" s="24" t="s">
         <v>48</v>
@@ -8164,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="O114" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P114" s="11"/>
       <c r="Q114" s="11"/>
@@ -8186,22 +8178,22 @@
         <v>16</v>
       </c>
       <c r="C115" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E115" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="D115" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>567</v>
-      </c>
       <c r="F115" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="G115" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H115" s="21" t="s">
         <v>564</v>
-      </c>
-      <c r="G115" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H115" s="21" t="s">
-        <v>565</v>
       </c>
       <c r="I115" s="24" t="s">
         <v>48</v>
@@ -8220,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="O115" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P115" s="11"/>
       <c r="Q115" s="11"/>
@@ -8242,22 +8234,22 @@
         <v>16</v>
       </c>
       <c r="C116" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E116" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="F116" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="G116" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H116" s="21" t="s">
         <v>569</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="G116" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H116" s="21" t="s">
-        <v>570</v>
       </c>
       <c r="I116" s="24" t="s">
         <v>48</v>
@@ -8276,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P116" s="11"/>
       <c r="Q116" s="11"/>
@@ -8298,22 +8290,22 @@
         <v>16</v>
       </c>
       <c r="C117" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E117" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="F117" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="E117" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>560</v>
-      </c>
       <c r="G117" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H117" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I117" s="24" t="s">
         <v>48</v>
@@ -8332,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="O117" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P117" s="11"/>
       <c r="Q117" s="11"/>
@@ -8354,22 +8346,22 @@
         <v>16</v>
       </c>
       <c r="C118" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E118" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="D118" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E118" s="11" t="s">
+      <c r="F118" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="F118" s="11" t="s">
+      <c r="G118" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H118" s="21" t="s">
         <v>575</v>
-      </c>
-      <c r="G118" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H118" s="21" t="s">
-        <v>576</v>
       </c>
       <c r="I118" s="24" t="s">
         <v>48</v>
@@ -8388,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="O118" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P118" s="11"/>
       <c r="Q118" s="11"/>
@@ -8410,22 +8402,22 @@
         <v>16</v>
       </c>
       <c r="C119" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E119" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="D119" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E119" s="11" t="s">
+      <c r="F119" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H119" s="21" t="s">
         <v>578</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="G119" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H119" s="21" t="s">
-        <v>579</v>
       </c>
       <c r="I119" s="24" t="s">
         <v>48</v>
@@ -8444,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="O119" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P119" s="11"/>
       <c r="Q119" s="11"/>
@@ -8466,22 +8458,22 @@
         <v>101</v>
       </c>
       <c r="C120" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="D120" s="11" t="s">
         <v>558</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>559</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>304</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G120" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H120" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I120" s="24" t="s">
         <v>48</v>
@@ -8500,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="O120" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P120" s="11"/>
       <c r="Q120" s="11"/>
@@ -8522,22 +8514,22 @@
         <v>101</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>229</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G121" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H121" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I121" s="24" t="s">
         <v>48</v>
@@ -8556,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="O121" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P121" s="11"/>
       <c r="Q121" s="11"/>
@@ -8578,22 +8570,22 @@
         <v>101</v>
       </c>
       <c r="C122" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E122" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="D122" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E122" s="11" t="s">
+      <c r="F122" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="F122" s="11" t="s">
+      <c r="G122" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H122" s="21" t="s">
         <v>564</v>
-      </c>
-      <c r="G122" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H122" s="21" t="s">
-        <v>565</v>
       </c>
       <c r="I122" s="24" t="s">
         <v>48</v>
@@ -8612,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P122" s="11"/>
       <c r="Q122" s="11"/>
@@ -8634,22 +8626,22 @@
         <v>101</v>
       </c>
       <c r="C123" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E123" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="D123" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>567</v>
-      </c>
       <c r="F123" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="G123" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H123" s="21" t="s">
         <v>564</v>
-      </c>
-      <c r="G123" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H123" s="21" t="s">
-        <v>565</v>
       </c>
       <c r="I123" s="24" t="s">
         <v>48</v>
@@ -8668,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P123" s="11"/>
       <c r="Q123" s="11"/>
@@ -8690,22 +8682,22 @@
         <v>101</v>
       </c>
       <c r="C124" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E124" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="F124" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="E124" s="11" t="s">
+      <c r="G124" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H124" s="21" t="s">
         <v>569</v>
-      </c>
-      <c r="F124" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="G124" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H124" s="21" t="s">
-        <v>570</v>
       </c>
       <c r="I124" s="24" t="s">
         <v>48</v>
@@ -8724,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="O124" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P124" s="11"/>
       <c r="Q124" s="11"/>
@@ -8746,22 +8738,22 @@
         <v>101</v>
       </c>
       <c r="C125" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E125" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="F125" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="E125" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>560</v>
-      </c>
       <c r="G125" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H125" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I125" s="24" t="s">
         <v>48</v>
@@ -8780,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="O125" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P125" s="11"/>
       <c r="Q125" s="11"/>
@@ -8802,22 +8794,22 @@
         <v>101</v>
       </c>
       <c r="C126" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E126" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="D126" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E126" s="11" t="s">
+      <c r="F126" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="F126" s="11" t="s">
+      <c r="G126" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H126" s="21" t="s">
         <v>575</v>
-      </c>
-      <c r="G126" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H126" s="21" t="s">
-        <v>576</v>
       </c>
       <c r="I126" s="24" t="s">
         <v>48</v>
@@ -8836,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="O126" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P126" s="11"/>
       <c r="Q126" s="11"/>
@@ -8858,22 +8850,22 @@
         <v>101</v>
       </c>
       <c r="C127" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E127" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="D127" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E127" s="11" t="s">
+      <c r="F127" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="G127" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H127" s="21" t="s">
         <v>578</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="G127" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H127" s="21" t="s">
-        <v>579</v>
       </c>
       <c r="I127" s="24" t="s">
         <v>48</v>
@@ -8892,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="O127" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P127" s="11"/>
       <c r="Q127" s="11"/>
@@ -8914,22 +8906,22 @@
         <v>120</v>
       </c>
       <c r="C128" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="D128" s="11" t="s">
         <v>558</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>559</v>
       </c>
       <c r="E128" s="11" t="s">
         <v>304</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G128" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H128" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I128" s="24" t="s">
         <v>48</v>
@@ -8948,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="O128" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P128" s="11"/>
       <c r="Q128" s="11"/>
@@ -8970,22 +8962,22 @@
         <v>120</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>229</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G129" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H129" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I129" s="24" t="s">
         <v>48</v>
@@ -9004,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="O129" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P129" s="11"/>
       <c r="Q129" s="11"/>
@@ -9026,22 +9018,22 @@
         <v>120</v>
       </c>
       <c r="C130" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E130" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="D130" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E130" s="11" t="s">
+      <c r="F130" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="F130" s="11" t="s">
+      <c r="G130" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H130" s="21" t="s">
         <v>564</v>
-      </c>
-      <c r="G130" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H130" s="21" t="s">
-        <v>565</v>
       </c>
       <c r="I130" s="24" t="s">
         <v>48</v>
@@ -9060,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="O130" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P130" s="11"/>
       <c r="Q130" s="11"/>
@@ -9082,22 +9074,22 @@
         <v>120</v>
       </c>
       <c r="C131" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E131" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="D131" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>567</v>
-      </c>
       <c r="F131" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="G131" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H131" s="21" t="s">
         <v>564</v>
-      </c>
-      <c r="G131" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H131" s="21" t="s">
-        <v>565</v>
       </c>
       <c r="I131" s="24" t="s">
         <v>48</v>
@@ -9116,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="O131" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P131" s="11"/>
       <c r="Q131" s="11"/>
@@ -9138,22 +9130,22 @@
         <v>120</v>
       </c>
       <c r="C132" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E132" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="F132" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="G132" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H132" s="21" t="s">
         <v>569</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="G132" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H132" s="21" t="s">
-        <v>570</v>
       </c>
       <c r="I132" s="24" t="s">
         <v>48</v>
@@ -9172,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P132" s="11"/>
       <c r="Q132" s="11"/>
@@ -9194,22 +9186,22 @@
         <v>120</v>
       </c>
       <c r="C133" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E133" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="F133" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="E133" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="F133" s="11" t="s">
-        <v>560</v>
-      </c>
       <c r="G133" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H133" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I133" s="24" t="s">
         <v>48</v>
@@ -9228,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="O133" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P133" s="11"/>
       <c r="Q133" s="11"/>
@@ -9250,22 +9242,22 @@
         <v>120</v>
       </c>
       <c r="C134" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E134" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="D134" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E134" s="11" t="s">
+      <c r="F134" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="F134" s="11" t="s">
+      <c r="G134" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H134" s="21" t="s">
         <v>575</v>
-      </c>
-      <c r="G134" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H134" s="21" t="s">
-        <v>576</v>
       </c>
       <c r="I134" s="24" t="s">
         <v>48</v>
@@ -9284,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="O134" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P134" s="11"/>
       <c r="Q134" s="11"/>
@@ -9306,22 +9298,22 @@
         <v>120</v>
       </c>
       <c r="C135" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E135" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="D135" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E135" s="11" t="s">
+      <c r="F135" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="G135" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H135" s="21" t="s">
         <v>578</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="G135" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H135" s="21" t="s">
-        <v>579</v>
       </c>
       <c r="I135" s="24" t="s">
         <v>48</v>
@@ -9340,7 +9332,7 @@
         <v>0</v>
       </c>
       <c r="O135" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P135" s="11"/>
       <c r="Q135" s="11"/>
@@ -9362,22 +9354,22 @@
         <v>120</v>
       </c>
       <c r="C136" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="D136" s="11" t="s">
         <v>558</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>559</v>
       </c>
       <c r="E136" s="11" t="s">
         <v>304</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G136" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H136" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I136" s="24" t="s">
         <v>48</v>
@@ -9396,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="O136" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P136" s="11"/>
       <c r="Q136" s="11"/>
@@ -9418,22 +9410,22 @@
         <v>120</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E137" s="11" t="s">
         <v>229</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G137" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H137" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I137" s="24" t="s">
         <v>48</v>
@@ -9452,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="O137" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P137" s="11"/>
       <c r="Q137" s="11"/>
@@ -9474,22 +9466,22 @@
         <v>120</v>
       </c>
       <c r="C138" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E138" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="D138" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E138" s="11" t="s">
+      <c r="F138" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="F138" s="11" t="s">
+      <c r="G138" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H138" s="21" t="s">
         <v>564</v>
-      </c>
-      <c r="G138" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H138" s="21" t="s">
-        <v>565</v>
       </c>
       <c r="I138" s="24" t="s">
         <v>48</v>
@@ -9508,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="O138" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P138" s="11"/>
       <c r="Q138" s="11"/>
@@ -9530,22 +9522,22 @@
         <v>120</v>
       </c>
       <c r="C139" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E139" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="D139" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>567</v>
-      </c>
       <c r="F139" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="G139" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H139" s="21" t="s">
         <v>564</v>
-      </c>
-      <c r="G139" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H139" s="21" t="s">
-        <v>565</v>
       </c>
       <c r="I139" s="24" t="s">
         <v>48</v>
@@ -9564,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="O139" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P139" s="11"/>
       <c r="Q139" s="11"/>
@@ -9586,22 +9578,22 @@
         <v>120</v>
       </c>
       <c r="C140" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E140" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="F140" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="G140" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H140" s="21" t="s">
         <v>569</v>
-      </c>
-      <c r="F140" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="G140" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H140" s="21" t="s">
-        <v>570</v>
       </c>
       <c r="I140" s="24" t="s">
         <v>48</v>
@@ -9620,7 +9612,7 @@
         <v>0</v>
       </c>
       <c r="O140" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P140" s="11"/>
       <c r="Q140" s="11"/>
@@ -9642,22 +9634,22 @@
         <v>120</v>
       </c>
       <c r="C141" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E141" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="F141" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="E141" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="F141" s="11" t="s">
-        <v>560</v>
-      </c>
       <c r="G141" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H141" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I141" s="24" t="s">
         <v>48</v>
@@ -9676,7 +9668,7 @@
         <v>0</v>
       </c>
       <c r="O141" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P141" s="11"/>
       <c r="Q141" s="11"/>
@@ -9698,22 +9690,22 @@
         <v>120</v>
       </c>
       <c r="C142" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E142" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="D142" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E142" s="11" t="s">
+      <c r="F142" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="F142" s="11" t="s">
+      <c r="G142" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H142" s="21" t="s">
         <v>575</v>
-      </c>
-      <c r="G142" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H142" s="21" t="s">
-        <v>576</v>
       </c>
       <c r="I142" s="24" t="s">
         <v>48</v>
@@ -9732,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="O142" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P142" s="11"/>
       <c r="Q142" s="11"/>
@@ -9754,22 +9746,22 @@
         <v>120</v>
       </c>
       <c r="C143" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E143" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="D143" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E143" s="11" t="s">
+      <c r="F143" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="G143" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H143" s="21" t="s">
         <v>578</v>
-      </c>
-      <c r="F143" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="G143" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H143" s="21" t="s">
-        <v>579</v>
       </c>
       <c r="I143" s="24" t="s">
         <v>48</v>
@@ -9788,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="O143" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P143" s="11"/>
       <c r="Q143" s="11"/>
@@ -9810,22 +9802,22 @@
         <v>16</v>
       </c>
       <c r="C144" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E144" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="D144" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E144" s="11" t="s">
+      <c r="F144" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="G144" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H144" s="21" t="s">
         <v>581</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="G144" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H144" s="21" t="s">
-        <v>582</v>
       </c>
       <c r="I144" s="24" t="s">
         <v>48</v>
@@ -9844,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="O144" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P144" s="11"/>
       <c r="Q144" s="11"/>
@@ -9866,22 +9858,22 @@
         <v>16</v>
       </c>
       <c r="C145" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E145" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="D145" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>584</v>
-      </c>
       <c r="F145" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G145" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H145" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I145" s="24" t="s">
         <v>48</v>
@@ -9900,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="O145" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P145" s="11"/>
       <c r="Q145" s="11"/>
@@ -9922,22 +9914,22 @@
         <v>120</v>
       </c>
       <c r="C146" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E146" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="D146" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E146" s="11" t="s">
+      <c r="F146" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="G146" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H146" s="21" t="s">
         <v>581</v>
-      </c>
-      <c r="F146" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="G146" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H146" s="21" t="s">
-        <v>582</v>
       </c>
       <c r="I146" s="24" t="s">
         <v>48</v>
@@ -9956,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="O146" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P146" s="11"/>
       <c r="Q146" s="11"/>
@@ -9978,22 +9970,22 @@
         <v>120</v>
       </c>
       <c r="C147" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E147" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="D147" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>584</v>
-      </c>
       <c r="F147" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G147" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H147" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I147" s="24" t="s">
         <v>48</v>
@@ -10012,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="O147" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P147" s="11"/>
       <c r="Q147" s="11"/>
@@ -10029,22 +10021,22 @@
     </row>
     <row r="148" spans="1:27" s="38" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B148" s="35" t="s">
         <v>101</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D148" s="35" t="s">
         <v>172</v>
       </c>
       <c r="E148" s="35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G148" s="36" t="s">
         <v>21</v>
@@ -10069,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="O148" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Q148" s="35"/>
       <c r="R148" s="35"/>
@@ -10085,7 +10077,7 @@
     </row>
     <row r="149" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>101</v>
@@ -10094,13 +10086,13 @@
         <v>214</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E149" s="11" t="s">
         <v>216</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G149" s="24" t="s">
         <v>21</v>
@@ -10125,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="O149" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Q149" s="11"/>
       <c r="R149" s="11"/>
@@ -10141,19 +10133,19 @@
     </row>
     <row r="150" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D150" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F150" s="11" t="s">
         <v>123</v>
@@ -10162,7 +10154,7 @@
         <v>21</v>
       </c>
       <c r="H150" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I150" s="24" t="s">
         <v>21</v>
@@ -10181,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="O150" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Q150" s="11"/>
       <c r="R150" s="11"/>
@@ -10197,28 +10189,28 @@
     </row>
     <row r="151" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C151" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D151" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="D151" s="11" t="s">
+      <c r="E151" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="F151" s="11" t="s">
         <v>447</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="F151" s="11" t="s">
-        <v>448</v>
       </c>
       <c r="G151" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H151" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I151" s="24" t="s">
         <v>21</v>
@@ -10237,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="O151" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Q151" s="11"/>
       <c r="R151" s="11"/>
@@ -10253,28 +10245,28 @@
     </row>
     <row r="152" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C152" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D152" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="D152" s="11" t="s">
+      <c r="E152" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="F152" s="11" t="s">
         <v>452</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>453</v>
       </c>
       <c r="G152" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H152" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I152" s="24" t="s">
         <v>21</v>
@@ -10293,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="O152" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q152" s="11"/>
       <c r="R152" s="11"/>
@@ -10309,19 +10301,19 @@
     </row>
     <row r="153" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>156</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F153" s="11" t="s">
         <v>130</v>
@@ -10330,7 +10322,7 @@
         <v>21</v>
       </c>
       <c r="H153" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I153" s="24" t="s">
         <v>21</v>
@@ -10349,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="O153" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Q153" s="11"/>
       <c r="R153" s="11"/>
@@ -10365,19 +10357,19 @@
     </row>
     <row r="154" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B154" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C154" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D154" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="D154" s="11" t="s">
+      <c r="E154" s="11" t="s">
         <v>461</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>462</v>
       </c>
       <c r="F154" s="11" t="s">
         <v>130</v>
@@ -10386,7 +10378,7 @@
         <v>21</v>
       </c>
       <c r="H154" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I154" s="24" t="s">
         <v>21</v>
@@ -10405,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="O154" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Q154" s="11"/>
       <c r="R154" s="11"/>
@@ -10421,28 +10413,28 @@
     </row>
     <row r="155" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C155" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D155" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="D155" s="11" t="s">
+      <c r="E155" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="F155" s="11" t="s">
         <v>465</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>466</v>
       </c>
       <c r="G155" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H155" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I155" s="24" t="s">
         <v>21</v>
@@ -10461,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="O155" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Q155" s="11"/>
       <c r="R155" s="11"/>
@@ -10477,22 +10469,22 @@
     </row>
     <row r="156" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C156" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D156" s="11" t="s">
         <v>469</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>470</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>287</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G156" s="24" t="s">
         <v>21</v>
@@ -10517,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="O156" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Q156" s="11"/>
       <c r="R156" s="11"/>
@@ -10533,7 +10525,7 @@
     </row>
     <row r="157" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>101</v>
@@ -10548,13 +10540,13 @@
         <v>186</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G157" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H157" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I157" s="24" t="s">
         <v>21</v>
@@ -10573,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="O157" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q157" s="11"/>
       <c r="R157" s="11"/>
@@ -10589,13 +10581,13 @@
     </row>
     <row r="158" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>62</v>
@@ -10629,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="O158" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="Q158" s="11"/>
       <c r="R158" s="11"/>
@@ -10645,16 +10637,16 @@
     </row>
     <row r="159" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C159" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="D159" s="11" t="s">
         <v>476</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>477</v>
       </c>
       <c r="E159" s="11" t="s">
         <v>189</v>
@@ -10685,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O159" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q159" s="11"/>
       <c r="R159" s="11"/>
@@ -10701,13 +10693,13 @@
     </row>
     <row r="160" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B160" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>62</v>
@@ -10741,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="O160" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="Q160" s="11"/>
       <c r="R160" s="11"/>
@@ -10757,7 +10749,7 @@
     </row>
     <row r="161" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>101</v>
@@ -10766,10 +10758,10 @@
         <v>195</v>
       </c>
       <c r="D161" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E161" s="11" t="s">
         <v>479</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>480</v>
       </c>
       <c r="F161" s="11" t="s">
         <v>200</v>
@@ -10797,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="O161" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="Q161" s="11"/>
       <c r="R161" s="11"/>
@@ -10813,7 +10805,7 @@
     </row>
     <row r="162" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>101</v>
@@ -10825,7 +10817,7 @@
         <v>52</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F162" s="11" t="s">
         <v>200</v>
@@ -10853,7 +10845,7 @@
         <v>0</v>
       </c>
       <c r="O162" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="Q162" s="11"/>
       <c r="R162" s="11"/>
@@ -10869,22 +10861,22 @@
     </row>
     <row r="163" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C163" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="D163" s="11" t="s">
         <v>482</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>483</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>197</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G163" s="24" t="s">
         <v>48</v>
@@ -10925,13 +10917,13 @@
     </row>
     <row r="164" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B164" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>62</v>
@@ -10940,7 +10932,7 @@
         <v>199</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G164" s="24" t="s">
         <v>48</v>
@@ -10981,22 +10973,22 @@
     </row>
     <row r="165" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B165" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D165" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="E165" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="E165" s="11" t="s">
-        <v>486</v>
-      </c>
       <c r="F165" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G165" s="24" t="s">
         <v>21</v>
@@ -11021,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="O165" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q165" s="11"/>
       <c r="R165" s="11"/>
@@ -11037,22 +11029,22 @@
     </row>
     <row r="166" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B166" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C166" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="D166" s="11" t="s">
         <v>487</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>488</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>224</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G166" s="24" t="s">
         <v>21</v>
@@ -11077,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="O166" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Q166" s="11"/>
       <c r="R166" s="11"/>
@@ -11093,13 +11085,13 @@
     </row>
     <row r="167" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B167" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D167" s="11" t="s">
         <v>93</v>
@@ -11108,7 +11100,7 @@
         <v>203</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G167" s="24" t="s">
         <v>21</v>
@@ -11133,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="O167" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q167" s="11"/>
       <c r="R167" s="11"/>
@@ -11149,7 +11141,7 @@
     </row>
     <row r="168" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B168" s="11" t="s">
         <v>101</v>
@@ -11164,7 +11156,7 @@
         <v>90</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G168" s="24" t="s">
         <v>21</v>
@@ -11205,13 +11197,13 @@
     </row>
     <row r="169" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B169" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D169" s="11" t="s">
         <v>97</v>
@@ -11220,7 +11212,7 @@
         <v>98</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G169" s="24" t="s">
         <v>21</v>
@@ -11245,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="O169" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q169" s="11"/>
       <c r="R169" s="11"/>
@@ -11261,28 +11253,28 @@
     </row>
     <row r="170" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B170" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C170" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="D170" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>494</v>
       </c>
       <c r="E170" s="11" t="s">
         <v>304</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G170" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H170" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I170" s="24" t="s">
         <v>48</v>
@@ -11301,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="O170" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q170" s="11"/>
       <c r="R170" s="11"/>
@@ -11317,13 +11309,13 @@
     </row>
     <row r="171" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>236</v>
@@ -11332,13 +11324,13 @@
         <v>111</v>
       </c>
       <c r="F171" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G171" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H171" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I171" s="24" t="s">
         <v>48</v>
@@ -11373,28 +11365,28 @@
     </row>
     <row r="172" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B172" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C172" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="D172" s="11" t="s">
         <v>502</v>
-      </c>
-      <c r="D172" s="11" t="s">
-        <v>503</v>
       </c>
       <c r="E172" s="11" t="s">
         <v>269</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G172" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H172" s="21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I172" s="24" t="s">
         <v>48</v>
@@ -11429,28 +11421,28 @@
     </row>
     <row r="173" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B173" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C173" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D173" s="11" t="s">
         <v>505</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>506</v>
       </c>
       <c r="E173" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G173" s="24" t="s">
         <v>119</v>
       </c>
       <c r="H173" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I173" s="24" t="s">
         <v>119</v>
@@ -11485,28 +11477,28 @@
     </row>
     <row r="174" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B174" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C174" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D174" s="11" t="s">
         <v>508</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>509</v>
       </c>
       <c r="E174" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G174" s="24" t="s">
         <v>119</v>
       </c>
       <c r="H174" s="21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I174" s="24" t="s">
         <v>119</v>
@@ -11541,13 +11533,13 @@
     </row>
     <row r="175" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B175" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D175" s="11" t="s">
         <v>106</v>
@@ -11556,13 +11548,13 @@
         <v>313</v>
       </c>
       <c r="F175" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G175" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H175" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I175" s="24" t="s">
         <v>48</v>
@@ -11597,28 +11589,28 @@
     </row>
     <row r="176" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B176" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D176" s="11" t="s">
         <v>168</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G176" s="24" t="s">
         <v>119</v>
       </c>
       <c r="H176" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I176" s="24" t="s">
         <v>119</v>
@@ -11653,25 +11645,25 @@
     </row>
     <row r="177" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B177" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C177" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="D177" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="D177" s="11" t="s">
+      <c r="E177" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="E177" s="11" t="s">
-        <v>518</v>
-      </c>
       <c r="F177" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G177" s="24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H177" s="21">
         <v>230</v>
@@ -11709,28 +11701,28 @@
     </row>
     <row r="178" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B178" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C178" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="D178" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="D178" s="11" t="s">
+      <c r="E178" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="E178" s="11" t="s">
-        <v>521</v>
-      </c>
       <c r="F178" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G178" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H178" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I178" s="24" t="s">
         <v>21</v>
@@ -11749,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="O178" s="11" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="Q178" s="11"/>
       <c r="R178" s="11"/>
@@ -11765,7 +11757,7 @@
     </row>
     <row r="179" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B179" s="11" t="s">
         <v>16</v>
@@ -11774,19 +11766,19 @@
         <v>151</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E179" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G179" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H179" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I179" s="24" t="s">
         <v>21</v>
@@ -11821,28 +11813,28 @@
     </row>
     <row r="180" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B180" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C180" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="D180" s="11" t="s">
         <v>525</v>
-      </c>
-      <c r="D180" s="11" t="s">
-        <v>526</v>
       </c>
       <c r="E180" s="11" t="s">
         <v>157</v>
       </c>
       <c r="F180" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G180" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H180" s="21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I180" s="24" t="s">
         <v>21</v>
@@ -11861,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="O180" s="11" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="Q180" s="11"/>
       <c r="R180" s="11"/>
@@ -11877,28 +11869,28 @@
     </row>
     <row r="181" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B181" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E181" s="11" t="s">
         <v>160</v>
       </c>
       <c r="F181" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G181" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H181" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I181" s="24" t="s">
         <v>21</v>
@@ -11917,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="O181" s="11" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="Q181" s="11"/>
       <c r="R181" s="11"/>
@@ -11933,7 +11925,7 @@
     </row>
     <row r="182" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B182" s="17" t="s">
         <v>16</v>
@@ -11942,19 +11934,19 @@
         <v>24</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E182" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F182" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G182" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H182" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I182" s="24" t="s">
         <v>21</v>
@@ -11973,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="O182" s="11" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="Q182" s="11"/>
       <c r="R182" s="11"/>
@@ -11989,7 +11981,7 @@
     </row>
     <row r="183" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B183" s="17" t="s">
         <v>16</v>
@@ -11998,19 +11990,19 @@
         <v>29</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E183" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G183" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H183" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I183" s="24" t="s">
         <v>21</v>
@@ -12029,7 +12021,7 @@
         <v>0</v>
       </c>
       <c r="O183" s="11" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Q183" s="11"/>
       <c r="R183" s="11"/>
@@ -12045,7 +12037,7 @@
     </row>
     <row r="184" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B184" s="17" t="s">
         <v>16</v>
@@ -12054,13 +12046,13 @@
         <v>39</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E184" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G184" s="24" t="s">
         <v>21</v>
@@ -12101,7 +12093,7 @@
     </row>
     <row r="185" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B185" s="17" t="s">
         <v>16</v>
@@ -12110,13 +12102,13 @@
         <v>214</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E185" s="11" t="s">
         <v>216</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G185" s="24" t="s">
         <v>21</v>
@@ -12157,13 +12149,13 @@
     </row>
     <row r="186" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B186" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D186" s="11" t="s">
         <v>52</v>
@@ -12172,7 +12164,7 @@
         <v>53</v>
       </c>
       <c r="F186" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G186" s="24" t="s">
         <v>48</v>
@@ -12213,7 +12205,7 @@
     </row>
     <row r="187" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B187" s="17" t="s">
         <v>16</v>
@@ -12222,13 +12214,13 @@
         <v>335</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E187" s="11" t="s">
         <v>336</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G187" s="24" t="s">
         <v>48</v>
@@ -12253,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="O187" s="11" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="Q187" s="11"/>
       <c r="R187" s="11"/>
@@ -12264,7 +12256,7 @@
     </row>
     <row r="188" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B188" s="17" t="s">
         <v>16</v>
@@ -12273,13 +12265,13 @@
         <v>337</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E188" s="11" t="s">
         <v>338</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G188" s="24" t="s">
         <v>48</v>
@@ -12320,7 +12312,7 @@
     </row>
     <row r="189" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B189" s="17" t="s">
         <v>16</v>
@@ -12329,13 +12321,13 @@
         <v>339</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E189" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F189" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G189" s="24" t="s">
         <v>48</v>
@@ -12376,22 +12368,22 @@
     </row>
     <row r="190" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B190" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C190" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="D190" s="11" t="s">
         <v>539</v>
-      </c>
-      <c r="D190" s="11" t="s">
-        <v>540</v>
       </c>
       <c r="E190" s="11" t="s">
         <v>80</v>
       </c>
       <c r="F190" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G190" s="24" t="s">
         <v>48</v>
@@ -12432,22 +12424,22 @@
     </row>
     <row r="191" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B191" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E191" s="11" t="s">
         <v>224</v>
       </c>
       <c r="F191" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G191" s="24" t="s">
         <v>21</v>
@@ -12472,7 +12464,7 @@
         <v>0</v>
       </c>
       <c r="O191" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Q191" s="11"/>
       <c r="R191" s="11"/>
@@ -12488,13 +12480,13 @@
     </row>
     <row r="192" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B192" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D192" s="11" t="s">
         <v>93</v>
@@ -12503,7 +12495,7 @@
         <v>94</v>
       </c>
       <c r="F192" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G192" s="24" t="s">
         <v>21</v>
@@ -12544,22 +12536,22 @@
     </row>
     <row r="193" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B193" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C193" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="D193" s="11" t="s">
         <v>543</v>
-      </c>
-      <c r="D193" s="11" t="s">
-        <v>544</v>
       </c>
       <c r="E193" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F193" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G193" s="24" t="s">
         <v>21</v>
@@ -12600,28 +12592,28 @@
     </row>
     <row r="194" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B194" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C194" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="E194" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="D194" s="11" t="s">
+      <c r="F194" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="G194" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H194" s="21" t="s">
         <v>494</v>
-      </c>
-      <c r="E194" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="F194" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="G194" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H194" s="21" t="s">
-        <v>495</v>
       </c>
       <c r="I194" s="24" t="s">
         <v>48</v>
@@ -12640,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="O194" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q194" s="11"/>
       <c r="R194" s="11"/>
@@ -12656,13 +12648,13 @@
     </row>
     <row r="195" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B195" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D195" s="11" t="s">
         <v>236</v>
@@ -12671,13 +12663,13 @@
         <v>237</v>
       </c>
       <c r="F195" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G195" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H195" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I195" s="24" t="s">
         <v>48</v>
@@ -12712,28 +12704,28 @@
     </row>
     <row r="196" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B196" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C196" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="D196" s="11" t="s">
         <v>548</v>
-      </c>
-      <c r="D196" s="11" t="s">
-        <v>549</v>
       </c>
       <c r="E196" s="11" t="s">
         <v>241</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G196" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H196" s="21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I196" s="24" t="s">
         <v>48</v>
@@ -12768,28 +12760,28 @@
     </row>
     <row r="197" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B197" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E197" s="11" t="s">
         <v>244</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G197" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H197" s="21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I197" s="24" t="s">
         <v>48</v>
@@ -12824,28 +12816,28 @@
     </row>
     <row r="198" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B198" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C198" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="D198" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="D198" s="11" t="s">
+      <c r="E198" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="E198" s="11" t="s">
-        <v>555</v>
-      </c>
       <c r="F198" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G198" s="24" t="s">
         <v>119</v>
       </c>
       <c r="H198" s="21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I198" s="24" t="s">
         <v>119</v>
@@ -12880,28 +12872,28 @@
     </row>
     <row r="199" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B199" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C199" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="D199" s="11" t="s">
         <v>558</v>
-      </c>
-      <c r="D199" s="11" t="s">
-        <v>559</v>
       </c>
       <c r="E199" s="11" t="s">
         <v>304</v>
       </c>
       <c r="F199" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G199" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H199" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I199" s="24" t="s">
         <v>48</v>
@@ -12920,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="O199" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q199" s="11"/>
       <c r="R199" s="11"/>
@@ -12936,28 +12928,28 @@
     </row>
     <row r="200" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B200" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E200" s="11" t="s">
         <v>229</v>
       </c>
       <c r="F200" s="15" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G200" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H200" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I200" s="24" t="s">
         <v>48</v>
@@ -12976,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="O200" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q200" s="11"/>
       <c r="R200" s="11"/>
@@ -12992,28 +12984,28 @@
     </row>
     <row r="201" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B201" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C201" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E201" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="D201" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E201" s="11" t="s">
-        <v>563</v>
-      </c>
       <c r="F201" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G201" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H201" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I201" s="24" t="s">
         <v>48</v>
@@ -13032,7 +13024,7 @@
         <v>0</v>
       </c>
       <c r="O201" s="11" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="Q201" s="11"/>
       <c r="R201" s="11"/>
@@ -13040,7 +13032,7 @@
       <c r="T201" s="11"/>
       <c r="U201" s="11"/>
       <c r="V201" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="W201" s="11"/>
       <c r="X201" s="11"/>
@@ -13050,28 +13042,28 @@
     </row>
     <row r="202" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B202" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C202" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E202" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="D202" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E202" s="11" t="s">
-        <v>567</v>
-      </c>
       <c r="F202" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G202" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H202" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I202" s="24" t="s">
         <v>48</v>
@@ -13090,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="O202" s="11" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="Q202" s="11"/>
       <c r="R202" s="11"/>
@@ -13098,7 +13090,7 @@
       <c r="T202" s="11"/>
       <c r="U202" s="11"/>
       <c r="V202" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="W202" s="11"/>
       <c r="X202" s="11"/>
@@ -13108,28 +13100,28 @@
     </row>
     <row r="203" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B203" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C203" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E203" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D203" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E203" s="11" t="s">
+      <c r="F203" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="G203" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H203" s="21" t="s">
         <v>569</v>
-      </c>
-      <c r="F203" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="G203" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H203" s="21" t="s">
-        <v>570</v>
       </c>
       <c r="I203" s="24" t="s">
         <v>48</v>
@@ -13148,7 +13140,7 @@
         <v>0</v>
       </c>
       <c r="O203" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q203" s="11"/>
       <c r="R203" s="11"/>
@@ -13156,7 +13148,7 @@
       <c r="T203" s="11"/>
       <c r="U203" s="11"/>
       <c r="V203" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="W203" s="11"/>
       <c r="X203" s="11"/>
@@ -13166,28 +13158,28 @@
     </row>
     <row r="204" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B204" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C204" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E204" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="D204" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E204" s="11" t="s">
-        <v>572</v>
-      </c>
       <c r="F204" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G204" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H204" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I204" s="24" t="s">
         <v>48</v>
@@ -13206,7 +13198,7 @@
         <v>0</v>
       </c>
       <c r="O204" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q204" s="11"/>
       <c r="R204" s="11"/>
@@ -13214,7 +13206,7 @@
       <c r="T204" s="11"/>
       <c r="U204" s="11"/>
       <c r="V204" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="W204" s="11"/>
       <c r="X204" s="11"/>
@@ -13224,28 +13216,28 @@
     </row>
     <row r="205" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B205" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C205" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E205" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="D205" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E205" s="11" t="s">
-        <v>574</v>
-      </c>
       <c r="F205" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G205" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H205" s="21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I205" s="24" t="s">
         <v>48</v>
@@ -13264,7 +13256,7 @@
         <v>0</v>
       </c>
       <c r="O205" s="11" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="Q205" s="11"/>
       <c r="R205" s="11"/>
@@ -13272,7 +13264,7 @@
       <c r="T205" s="11"/>
       <c r="U205" s="11"/>
       <c r="V205" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="W205" s="11"/>
       <c r="X205" s="11"/>
@@ -13282,28 +13274,28 @@
     </row>
     <row r="206" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B206" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C206" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="D206" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E206" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="D206" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E206" s="11" t="s">
+      <c r="F206" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="G206" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H206" s="21" t="s">
         <v>578</v>
-      </c>
-      <c r="F206" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="G206" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H206" s="21" t="s">
-        <v>579</v>
       </c>
       <c r="I206" s="24" t="s">
         <v>48</v>
@@ -13322,7 +13314,7 @@
         <v>0</v>
       </c>
       <c r="O206" s="11" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="Q206" s="11"/>
       <c r="R206" s="11"/>
@@ -13330,7 +13322,7 @@
       <c r="T206" s="11"/>
       <c r="U206" s="11"/>
       <c r="V206" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="W206" s="11"/>
       <c r="X206" s="11"/>
@@ -13340,28 +13332,28 @@
     </row>
     <row r="207" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B207" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C207" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="D207" s="11" t="s">
         <v>558</v>
-      </c>
-      <c r="D207" s="11" t="s">
-        <v>559</v>
       </c>
       <c r="E207" s="11" t="s">
         <v>304</v>
       </c>
       <c r="F207" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G207" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H207" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I207" s="24" t="s">
         <v>48</v>
@@ -13380,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="O207" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q207" s="11"/>
       <c r="R207" s="11"/>
@@ -13388,7 +13380,7 @@
       <c r="T207" s="11"/>
       <c r="U207" s="11"/>
       <c r="V207" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="W207" s="11"/>
       <c r="X207" s="11"/>
@@ -13398,28 +13390,28 @@
     </row>
     <row r="208" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B208" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E208" s="11" t="s">
         <v>229</v>
       </c>
       <c r="F208" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G208" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H208" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I208" s="24" t="s">
         <v>48</v>
@@ -13438,7 +13430,7 @@
         <v>0</v>
       </c>
       <c r="O208" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q208" s="11"/>
       <c r="R208" s="11"/>
@@ -13446,7 +13438,7 @@
       <c r="T208" s="11"/>
       <c r="U208" s="11"/>
       <c r="V208" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="W208" s="11"/>
       <c r="X208" s="11"/>
@@ -13456,28 +13448,28 @@
     </row>
     <row r="209" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B209" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C209" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E209" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="D209" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E209" s="11" t="s">
-        <v>563</v>
-      </c>
       <c r="F209" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G209" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H209" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I209" s="24" t="s">
         <v>48</v>
@@ -13496,7 +13488,7 @@
         <v>0</v>
       </c>
       <c r="O209" s="11" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="Q209" s="11"/>
       <c r="R209" s="11"/>
@@ -13504,7 +13496,7 @@
       <c r="T209" s="11"/>
       <c r="U209" s="11"/>
       <c r="V209" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="W209" s="11"/>
       <c r="X209" s="11"/>
@@ -13514,28 +13506,28 @@
     </row>
     <row r="210" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B210" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C210" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E210" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="D210" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E210" s="11" t="s">
-        <v>567</v>
-      </c>
       <c r="F210" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G210" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H210" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I210" s="24" t="s">
         <v>48</v>
@@ -13554,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="O210" s="11" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="Q210" s="11"/>
       <c r="R210" s="11"/>
@@ -13562,7 +13554,7 @@
       <c r="T210" s="11"/>
       <c r="U210" s="11"/>
       <c r="V210" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="W210" s="11"/>
       <c r="X210" s="11"/>
@@ -13572,28 +13564,28 @@
     </row>
     <row r="211" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B211" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C211" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E211" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D211" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E211" s="11" t="s">
+      <c r="F211" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="G211" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H211" s="21" t="s">
         <v>569</v>
-      </c>
-      <c r="F211" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="G211" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H211" s="21" t="s">
-        <v>570</v>
       </c>
       <c r="I211" s="24" t="s">
         <v>48</v>
@@ -13612,7 +13604,7 @@
         <v>0</v>
       </c>
       <c r="O211" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q211" s="11"/>
       <c r="R211" s="11"/>
@@ -13620,7 +13612,7 @@
       <c r="T211" s="11"/>
       <c r="U211" s="11"/>
       <c r="V211" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="W211" s="11"/>
       <c r="X211" s="11"/>
@@ -13630,28 +13622,28 @@
     </row>
     <row r="212" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B212" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C212" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D212" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E212" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="D212" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E212" s="11" t="s">
-        <v>572</v>
-      </c>
       <c r="F212" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G212" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H212" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I212" s="24" t="s">
         <v>48</v>
@@ -13670,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="O212" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q212" s="11"/>
       <c r="R212" s="11"/>
@@ -13678,7 +13670,7 @@
       <c r="T212" s="11"/>
       <c r="U212" s="11"/>
       <c r="V212" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="W212" s="11"/>
       <c r="X212" s="11"/>
@@ -13688,28 +13680,28 @@
     </row>
     <row r="213" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B213" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C213" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D213" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E213" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="D213" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E213" s="11" t="s">
-        <v>574</v>
-      </c>
       <c r="F213" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G213" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H213" s="21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I213" s="24" t="s">
         <v>48</v>
@@ -13728,7 +13720,7 @@
         <v>0</v>
       </c>
       <c r="O213" s="11" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="Q213" s="11"/>
       <c r="R213" s="11"/>
@@ -13736,7 +13728,7 @@
       <c r="T213" s="11"/>
       <c r="U213" s="11"/>
       <c r="V213" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="W213" s="11"/>
       <c r="X213" s="11"/>
@@ -13746,28 +13738,28 @@
     </row>
     <row r="214" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B214" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C214" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E214" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="D214" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E214" s="11" t="s">
+      <c r="F214" t="s">
+        <v>659</v>
+      </c>
+      <c r="G214" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H214" s="21" t="s">
         <v>578</v>
-      </c>
-      <c r="F214" t="s">
-        <v>660</v>
-      </c>
-      <c r="G214" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H214" s="21" t="s">
-        <v>579</v>
       </c>
       <c r="I214" s="24" t="s">
         <v>48</v>
@@ -13786,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="O214" s="11" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="Q214" s="11"/>
       <c r="R214" s="11"/>
@@ -13794,7 +13786,7 @@
       <c r="T214" s="11"/>
       <c r="U214" s="11"/>
       <c r="V214" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="215" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -15955,10 +15947,10 @@
         <v>343</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>345</v>
@@ -15979,16 +15971,16 @@
         <v>350</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>248</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="O1" s="1"/>
     </row>
@@ -16000,7 +15992,7 @@
         <v>9000</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D2" s="23">
         <f>2248</f>
@@ -16019,7 +16011,7 @@
         <v>10000</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J2" s="7">
         <v>10000</v>
@@ -16046,7 +16038,7 @@
         <v>14000</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D3" s="23">
         <f>4588</f>
@@ -16077,7 +16069,7 @@
         <v>12977</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N3" s="18">
         <v>0</v>
@@ -16092,11 +16084,11 @@
         <v>12000</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D4" s="23"/>
       <c r="I4" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J4">
         <v>12000</v>
@@ -16119,7 +16111,7 @@
         <v>15000</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J5">
         <v>15000</v>
@@ -16135,7 +16127,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B6" s="9">
         <v>4000</v>
@@ -16153,7 +16145,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B7" s="9">
         <v>6000</v>
@@ -16161,15 +16153,15 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="K7" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B8" s="9">
         <v>6000</v>
@@ -16185,7 +16177,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B9" s="9">
         <v>8500</v>
@@ -16215,8 +16207,8 @@
   </sheetPr>
   <dimension ref="A1:Q998"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16257,16 +16249,16 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -16284,16 +16276,16 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -16314,13 +16306,13 @@
         <v>110</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -16341,13 +16333,13 @@
         <v>256</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>672</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -16365,16 +16357,16 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -16392,16 +16384,16 @@
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -16422,13 +16414,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -16449,13 +16441,13 @@
         <v>243</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -16473,16 +16465,16 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -16503,13 +16495,13 @@
         <v>311</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -16530,13 +16522,13 @@
         <v>117</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -16557,13 +16549,13 @@
         <v>271</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -16581,16 +16573,16 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>676</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -16608,16 +16600,16 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>183</v>
+        <v>460</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>371</v>
+        <v>705</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -16635,16 +16627,16 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>678</v>
+        <v>706</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -16662,16 +16654,16 @@
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>360</v>
+        <v>706</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -16689,16 +16681,16 @@
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -16719,13 +16711,13 @@
         <v>114</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -16743,16 +16735,16 @@
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -16770,16 +16762,16 @@
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -16800,13 +16792,13 @@
         <v>196</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -16824,16 +16816,16 @@
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -16854,13 +16846,13 @@
         <v>215</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -16881,13 +16873,13 @@
         <v>219</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -16905,16 +16897,16 @@
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -16932,16 +16924,16 @@
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -16959,16 +16951,16 @@
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -16986,16 +16978,16 @@
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -17013,16 +17005,16 @@
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>692</v>
+        <v>191</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -17040,16 +17032,16 @@
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -17067,16 +17059,16 @@
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -17094,16 +17086,16 @@
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -17121,16 +17113,16 @@
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>608</v>
-      </c>
       <c r="D34" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -17151,13 +17143,13 @@
         <v>142</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>610</v>
-      </c>
       <c r="D35" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -17178,13 +17170,13 @@
         <v>302</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>612</v>
-      </c>
       <c r="D36" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -17202,16 +17194,16 @@
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -17229,16 +17221,16 @@
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -17256,16 +17248,16 @@
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -17286,13 +17278,13 @@
         <v>148</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -17313,13 +17305,13 @@
         <v>202</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -17337,16 +17329,16 @@
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -17367,13 +17359,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -17391,16 +17383,16 @@
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -17421,13 +17413,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -17445,16 +17437,16 @@
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>620</v>
-      </c>
       <c r="D46" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -17471,6 +17463,15 @@
       <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>495</v>
+      </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -33653,6 +33654,7 @@
       <c r="Q998" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q46" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33674,68 +33676,68 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="26" t="s">
         <v>430</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -33785,58 +33787,58 @@
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" t="s">
         <v>380</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>381</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>382</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>383</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>384</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>385</v>
-      </c>
-      <c r="G2" t="s">
-        <v>386</v>
       </c>
       <c r="H2" t="s">
         <v>342</v>
       </c>
       <c r="I2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J2" t="s">
         <v>387</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>388</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>389</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>390</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>391</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>392</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>393</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>394</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>395</v>
-      </c>
-      <c r="R2" t="s">
-        <v>396</v>
       </c>
       <c r="S2" t="s">
         <v>344</v>
@@ -33853,7 +33855,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -33862,22 +33864,22 @@
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H3" t="s">
         <v>351</v>
       </c>
       <c r="I3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J3">
         <v>1500</v>
@@ -33921,7 +33923,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -33930,22 +33932,22 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H4" t="s">
         <v>351</v>
       </c>
       <c r="I4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J4">
         <v>1500</v>
@@ -33989,7 +33991,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -33998,22 +34000,22 @@
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H5" t="s">
         <v>351</v>
       </c>
       <c r="I5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J5">
         <v>1500</v>
@@ -34057,7 +34059,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -34066,22 +34068,22 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H6" t="s">
         <v>351</v>
       </c>
       <c r="I6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J6">
         <v>1500</v>
@@ -34125,7 +34127,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -34134,22 +34136,22 @@
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H7" t="s">
         <v>351</v>
       </c>
       <c r="I7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J7">
         <v>1500</v>
@@ -34193,7 +34195,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -34202,22 +34204,22 @@
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H8" t="s">
         <v>351</v>
       </c>
       <c r="I8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J8">
         <v>1500</v>
@@ -34261,7 +34263,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -34270,22 +34272,22 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H9" t="s">
         <v>351</v>
       </c>
       <c r="I9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J9">
         <v>1500</v>
@@ -34329,7 +34331,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -34338,22 +34340,22 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F10" t="s">
         <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H10" t="s">
         <v>351</v>
       </c>
       <c r="I10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J10">
         <v>3050</v>
@@ -34413,7 +34415,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -34522,7 +34524,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B15">
         <v>23.64</v>
@@ -34538,7 +34540,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B17">
         <v>11.82</v>
@@ -34546,7 +34548,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -34562,7 +34564,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -34578,7 +34580,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -34586,7 +34588,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -34594,7 +34596,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -34610,7 +34612,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -34631,7 +34633,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -34649,25 +34651,25 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J1" t="s">
         <v>410</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>411</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>412</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>413</v>
-      </c>
-      <c r="M1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -35628,27 +35630,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" t="s">
         <v>415</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>416</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>417</v>
-      </c>
-      <c r="D1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B2">
         <v>9000</v>
       </c>
       <c r="C2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D2">
         <v>78507</v>
@@ -35662,7 +35664,7 @@
         <v>4000</v>
       </c>
       <c r="C3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D3">
         <v>34892</v>
@@ -35676,7 +35678,7 @@
         <v>2000</v>
       </c>
       <c r="C4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D4">
         <v>17446</v>
@@ -35690,7 +35692,7 @@
         <v>10000</v>
       </c>
       <c r="C5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D5">
         <v>87230.000000000015</v>
@@ -35704,7 +35706,7 @@
         <v>10000</v>
       </c>
       <c r="C6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D6">
         <v>87230.000000000015</v>
@@ -35712,13 +35714,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" t="s">
         <v>421</v>
       </c>
-      <c r="B7" t="s">
-        <v>422</v>
-      </c>
       <c r="C7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D7">
         <v>555189</v>
@@ -35726,7 +35728,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D8">
         <v>602345.79999999993</v>
@@ -35734,7 +35736,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D9">
         <v>1462839.8</v>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E599377-048B-3A45-82DC-F93C40FFF636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37CBD06-CCE8-A442-9AB1-FAC375B70B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СПРАВОЧНИК -1" sheetId="1" r:id="rId1"/>
@@ -2637,14 +2637,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA568"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O219" sqref="O219"/>
+      <selection pane="bottomLeft" activeCell="O218" sqref="O218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2721,7 +2721,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>100</v>
       </c>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>100</v>
       </c>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>100</v>
       </c>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>100</v>
       </c>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>100</v>
       </c>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>15</v>
       </c>
@@ -3743,7 +3743,7 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>15</v>
       </c>
@@ -3841,7 +3841,7 @@
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>15</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>15</v>
       </c>
@@ -3939,7 +3939,7 @@
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
     </row>
-    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>15</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
     </row>
-    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>15</v>
       </c>
@@ -4037,7 +4037,7 @@
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>15</v>
       </c>
@@ -4086,7 +4086,7 @@
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>15</v>
       </c>
@@ -4135,7 +4135,7 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
     </row>
-    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>15</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
     </row>
-    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>15</v>
       </c>
@@ -4233,7 +4233,7 @@
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
     </row>
-    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>15</v>
       </c>
@@ -4282,7 +4282,7 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
     </row>
-    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>100</v>
       </c>
@@ -4331,7 +4331,7 @@
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
     </row>
-    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>100</v>
       </c>
@@ -4429,7 +4429,7 @@
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
     </row>
-    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>100</v>
       </c>
@@ -4478,7 +4478,7 @@
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
     </row>
-    <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>100</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
     </row>
-    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>100</v>
       </c>
@@ -4576,7 +4576,7 @@
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
     </row>
-    <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>100</v>
       </c>
@@ -4625,7 +4625,7 @@
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
     </row>
-    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>100</v>
       </c>
@@ -4674,7 +4674,7 @@
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
     </row>
-    <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>100</v>
       </c>
@@ -4723,7 +4723,7 @@
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
     </row>
-    <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>100</v>
       </c>
@@ -4772,7 +4772,7 @@
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
     </row>
-    <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>100</v>
       </c>
@@ -4821,7 +4821,7 @@
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
     </row>
-    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>100</v>
       </c>
@@ -4870,7 +4870,7 @@
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
     </row>
-    <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>100</v>
       </c>
@@ -4919,7 +4919,7 @@
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
     </row>
-    <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>100</v>
       </c>
@@ -4968,7 +4968,7 @@
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
     </row>
-    <row r="50" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>100</v>
       </c>
@@ -5017,7 +5017,7 @@
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
     </row>
-    <row r="51" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>100</v>
       </c>
@@ -5066,7 +5066,7 @@
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
     </row>
-    <row r="52" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>100</v>
       </c>
@@ -5115,7 +5115,7 @@
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
     </row>
-    <row r="53" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>100</v>
       </c>
@@ -5164,7 +5164,7 @@
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
     </row>
-    <row r="54" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>100</v>
       </c>
@@ -5213,7 +5213,7 @@
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
     </row>
-    <row r="55" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>100</v>
       </c>
@@ -5262,7 +5262,7 @@
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
     </row>
-    <row r="56" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>100</v>
       </c>
@@ -5311,7 +5311,7 @@
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
     </row>
-    <row r="57" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>100</v>
       </c>
@@ -5360,7 +5360,7 @@
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
     </row>
-    <row r="58" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>100</v>
       </c>
@@ -5409,7 +5409,7 @@
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
     </row>
-    <row r="59" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>100</v>
       </c>
@@ -5458,7 +5458,7 @@
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
     </row>
-    <row r="60" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>100</v>
       </c>
@@ -5507,7 +5507,7 @@
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
     </row>
-    <row r="61" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>100</v>
       </c>
@@ -5556,7 +5556,7 @@
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
     </row>
-    <row r="62" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>100</v>
       </c>
@@ -5605,7 +5605,7 @@
       <c r="S62" s="11"/>
       <c r="T62" s="11"/>
     </row>
-    <row r="63" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>100</v>
       </c>
@@ -5654,7 +5654,7 @@
       <c r="S63" s="11"/>
       <c r="T63" s="11"/>
     </row>
-    <row r="64" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>100</v>
       </c>
@@ -5703,7 +5703,7 @@
       <c r="S64" s="11"/>
       <c r="T64" s="11"/>
     </row>
-    <row r="65" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>100</v>
       </c>
@@ -5752,7 +5752,7 @@
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
     </row>
-    <row r="66" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>100</v>
       </c>
@@ -5801,7 +5801,7 @@
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
     </row>
-    <row r="67" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>100</v>
       </c>
@@ -5850,7 +5850,7 @@
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
     </row>
-    <row r="68" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>100</v>
       </c>
@@ -5899,7 +5899,7 @@
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
     </row>
-    <row r="69" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>100</v>
       </c>
@@ -5948,7 +5948,7 @@
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
     </row>
-    <row r="70" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
         <v>100</v>
       </c>
@@ -5997,7 +5997,7 @@
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
     </row>
-    <row r="71" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
         <v>100</v>
       </c>
@@ -6046,7 +6046,7 @@
       <c r="S71" s="11"/>
       <c r="T71" s="11"/>
     </row>
-    <row r="72" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>100</v>
       </c>
@@ -6095,7 +6095,7 @@
       <c r="S72" s="11"/>
       <c r="T72" s="11"/>
     </row>
-    <row r="73" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>100</v>
       </c>
@@ -6144,7 +6144,7 @@
       <c r="S73" s="11"/>
       <c r="T73" s="11"/>
     </row>
-    <row r="74" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
         <v>100</v>
       </c>
@@ -6193,7 +6193,7 @@
       <c r="S74" s="11"/>
       <c r="T74" s="11"/>
     </row>
-    <row r="75" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
         <v>100</v>
       </c>
@@ -6242,7 +6242,7 @@
       <c r="S75" s="11"/>
       <c r="T75" s="11"/>
     </row>
-    <row r="76" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
         <v>100</v>
       </c>
@@ -6291,7 +6291,7 @@
       <c r="S76" s="11"/>
       <c r="T76" s="11"/>
     </row>
-    <row r="77" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
         <v>100</v>
       </c>
@@ -6340,7 +6340,7 @@
       <c r="S77" s="11"/>
       <c r="T77" s="11"/>
     </row>
-    <row r="78" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
         <v>100</v>
       </c>
@@ -6389,7 +6389,7 @@
       <c r="S78" s="11"/>
       <c r="T78" s="11"/>
     </row>
-    <row r="79" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
         <v>100</v>
       </c>
@@ -6438,7 +6438,7 @@
       <c r="S79" s="11"/>
       <c r="T79" s="11"/>
     </row>
-    <row r="80" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
         <v>100</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="S80" s="11"/>
       <c r="T80" s="11"/>
     </row>
-    <row r="81" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
         <v>100</v>
       </c>
@@ -6536,7 +6536,7 @@
       <c r="S81" s="11"/>
       <c r="T81" s="11"/>
     </row>
-    <row r="82" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>100</v>
       </c>
@@ -6585,7 +6585,7 @@
       <c r="S82" s="11"/>
       <c r="T82" s="11"/>
     </row>
-    <row r="83" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>100</v>
       </c>
@@ -6634,7 +6634,7 @@
       <c r="S83" s="11"/>
       <c r="T83" s="11"/>
     </row>
-    <row r="84" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
         <v>100</v>
       </c>
@@ -6683,7 +6683,7 @@
       <c r="S84" s="11"/>
       <c r="T84" s="11"/>
     </row>
-    <row r="85" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
         <v>100</v>
       </c>
@@ -6732,7 +6732,7 @@
       <c r="S85" s="11"/>
       <c r="T85" s="11"/>
     </row>
-    <row r="86" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
         <v>100</v>
       </c>
@@ -6781,7 +6781,7 @@
       <c r="S86" s="11"/>
       <c r="T86" s="11"/>
     </row>
-    <row r="87" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
         <v>100</v>
       </c>
@@ -6830,7 +6830,7 @@
       <c r="S87" s="11"/>
       <c r="T87" s="11"/>
     </row>
-    <row r="88" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
         <v>100</v>
       </c>
@@ -6879,7 +6879,7 @@
       <c r="S88" s="11"/>
       <c r="T88" s="11"/>
     </row>
-    <row r="89" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
         <v>100</v>
       </c>
@@ -6928,7 +6928,7 @@
       <c r="S89" s="11"/>
       <c r="T89" s="11"/>
     </row>
-    <row r="90" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
         <v>100</v>
       </c>
@@ -6977,7 +6977,7 @@
       <c r="S90" s="11"/>
       <c r="T90" s="11"/>
     </row>
-    <row r="91" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
         <v>100</v>
       </c>
@@ -7026,7 +7026,7 @@
       <c r="S91" s="11"/>
       <c r="T91" s="11"/>
     </row>
-    <row r="92" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
         <v>100</v>
       </c>
@@ -7076,7 +7076,7 @@
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
     </row>
-    <row r="93" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
         <v>100</v>
       </c>
@@ -7125,7 +7125,7 @@
       <c r="T93" s="11"/>
       <c r="U93" s="11"/>
     </row>
-    <row r="94" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>100</v>
       </c>
@@ -7174,7 +7174,7 @@
       <c r="T94" s="11"/>
       <c r="U94" s="11"/>
     </row>
-    <row r="95" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
         <v>100</v>
       </c>
@@ -7223,7 +7223,7 @@
       <c r="T95" s="11"/>
       <c r="U95" s="11"/>
     </row>
-    <row r="96" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>100</v>
       </c>
@@ -7273,7 +7273,7 @@
       <c r="T96" s="11"/>
       <c r="U96" s="11"/>
     </row>
-    <row r="97" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
         <v>100</v>
       </c>
@@ -7322,7 +7322,7 @@
       <c r="T97" s="11"/>
       <c r="U97" s="11"/>
     </row>
-    <row r="98" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
         <v>100</v>
       </c>
@@ -7371,7 +7371,7 @@
       <c r="T98" s="11"/>
       <c r="U98" s="11"/>
     </row>
-    <row r="99" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
         <v>100</v>
       </c>
@@ -7420,7 +7420,7 @@
       <c r="T99" s="11"/>
       <c r="U99" s="11"/>
     </row>
-    <row r="100" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
         <v>100</v>
       </c>
@@ -7470,7 +7470,7 @@
       <c r="T100" s="11"/>
       <c r="U100" s="11"/>
     </row>
-    <row r="101" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
         <v>100</v>
       </c>
@@ -7520,7 +7520,7 @@
       <c r="T101" s="11"/>
       <c r="U101" s="11"/>
     </row>
-    <row r="102" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
         <v>100</v>
       </c>
@@ -7570,7 +7570,7 @@
       <c r="T102" s="11"/>
       <c r="U102" s="11"/>
     </row>
-    <row r="103" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
         <v>100</v>
       </c>
@@ -7620,7 +7620,7 @@
       <c r="T103" s="11"/>
       <c r="U103" s="11"/>
     </row>
-    <row r="104" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
         <v>100</v>
       </c>
@@ -7670,7 +7670,7 @@
       <c r="T104" s="11"/>
       <c r="U104" s="11"/>
     </row>
-    <row r="105" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
         <v>100</v>
       </c>
@@ -7720,7 +7720,7 @@
       <c r="T105" s="11"/>
       <c r="U105" s="11"/>
     </row>
-    <row r="106" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
         <v>100</v>
       </c>
@@ -7770,7 +7770,7 @@
       <c r="T106" s="11"/>
       <c r="U106" s="11"/>
     </row>
-    <row r="107" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
         <v>100</v>
       </c>
@@ -7820,7 +7820,7 @@
       <c r="T107" s="11"/>
       <c r="U107" s="11"/>
     </row>
-    <row r="108" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
         <v>100</v>
       </c>
@@ -7870,7 +7870,7 @@
       <c r="T108" s="11"/>
       <c r="U108" s="11"/>
     </row>
-    <row r="109" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
         <v>100</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
         <v>100</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
         <v>100</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="11" t="s">
         <v>100</v>
       </c>
@@ -8058,7 +8058,7 @@
       <c r="Y112" s="11"/>
       <c r="Z112" s="11"/>
     </row>
-    <row r="113" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="11" t="s">
         <v>100</v>
       </c>
@@ -8114,7 +8114,7 @@
       <c r="Y113" s="11"/>
       <c r="Z113" s="11"/>
     </row>
-    <row r="114" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="11" t="s">
         <v>100</v>
       </c>
@@ -8170,7 +8170,7 @@
       <c r="Y114" s="11"/>
       <c r="Z114" s="11"/>
     </row>
-    <row r="115" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="11" t="s">
         <v>100</v>
       </c>
@@ -8226,7 +8226,7 @@
       <c r="Y115" s="11"/>
       <c r="Z115" s="11"/>
     </row>
-    <row r="116" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="11" t="s">
         <v>100</v>
       </c>
@@ -8282,7 +8282,7 @@
       <c r="Y116" s="11"/>
       <c r="Z116" s="11"/>
     </row>
-    <row r="117" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="11" t="s">
         <v>100</v>
       </c>
@@ -8338,7 +8338,7 @@
       <c r="Y117" s="11"/>
       <c r="Z117" s="11"/>
     </row>
-    <row r="118" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="11" t="s">
         <v>100</v>
       </c>
@@ -8394,7 +8394,7 @@
       <c r="Y118" s="11"/>
       <c r="Z118" s="11"/>
     </row>
-    <row r="119" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="11" t="s">
         <v>100</v>
       </c>
@@ -8450,7 +8450,7 @@
       <c r="Y119" s="11"/>
       <c r="Z119" s="11"/>
     </row>
-    <row r="120" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="11" t="s">
         <v>100</v>
       </c>
@@ -8506,7 +8506,7 @@
       <c r="Y120" s="11"/>
       <c r="Z120" s="11"/>
     </row>
-    <row r="121" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="11" t="s">
         <v>100</v>
       </c>
@@ -8562,7 +8562,7 @@
       <c r="Y121" s="11"/>
       <c r="Z121" s="11"/>
     </row>
-    <row r="122" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="11" t="s">
         <v>100</v>
       </c>
@@ -8618,7 +8618,7 @@
       <c r="Y122" s="11"/>
       <c r="Z122" s="11"/>
     </row>
-    <row r="123" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="11" t="s">
         <v>100</v>
       </c>
@@ -8674,7 +8674,7 @@
       <c r="Y123" s="11"/>
       <c r="Z123" s="11"/>
     </row>
-    <row r="124" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="11" t="s">
         <v>100</v>
       </c>
@@ -8730,7 +8730,7 @@
       <c r="Y124" s="11"/>
       <c r="Z124" s="11"/>
     </row>
-    <row r="125" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="11" t="s">
         <v>100</v>
       </c>
@@ -8786,7 +8786,7 @@
       <c r="Y125" s="11"/>
       <c r="Z125" s="11"/>
     </row>
-    <row r="126" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="11" t="s">
         <v>100</v>
       </c>
@@ -8842,7 +8842,7 @@
       <c r="Y126" s="11"/>
       <c r="Z126" s="11"/>
     </row>
-    <row r="127" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="11" t="s">
         <v>100</v>
       </c>
@@ -8898,7 +8898,7 @@
       <c r="Y127" s="11"/>
       <c r="Z127" s="11"/>
     </row>
-    <row r="128" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="11" t="s">
         <v>100</v>
       </c>
@@ -8954,7 +8954,7 @@
       <c r="Y128" s="11"/>
       <c r="Z128" s="11"/>
     </row>
-    <row r="129" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="11" t="s">
         <v>100</v>
       </c>
@@ -9010,7 +9010,7 @@
       <c r="Y129" s="11"/>
       <c r="Z129" s="11"/>
     </row>
-    <row r="130" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="11" t="s">
         <v>100</v>
       </c>
@@ -9066,7 +9066,7 @@
       <c r="Y130" s="11"/>
       <c r="Z130" s="11"/>
     </row>
-    <row r="131" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="11" t="s">
         <v>100</v>
       </c>
@@ -9122,7 +9122,7 @@
       <c r="Y131" s="11"/>
       <c r="Z131" s="11"/>
     </row>
-    <row r="132" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="11" t="s">
         <v>100</v>
       </c>
@@ -9178,7 +9178,7 @@
       <c r="Y132" s="11"/>
       <c r="Z132" s="11"/>
     </row>
-    <row r="133" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="11" t="s">
         <v>100</v>
       </c>
@@ -9234,7 +9234,7 @@
       <c r="Y133" s="11"/>
       <c r="Z133" s="11"/>
     </row>
-    <row r="134" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="11" t="s">
         <v>100</v>
       </c>
@@ -9290,7 +9290,7 @@
       <c r="Y134" s="11"/>
       <c r="Z134" s="11"/>
     </row>
-    <row r="135" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="11" t="s">
         <v>100</v>
       </c>
@@ -9346,7 +9346,7 @@
       <c r="Y135" s="11"/>
       <c r="Z135" s="11"/>
     </row>
-    <row r="136" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="11" t="s">
         <v>100</v>
       </c>
@@ -9402,7 +9402,7 @@
       <c r="Y136" s="11"/>
       <c r="Z136" s="11"/>
     </row>
-    <row r="137" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="11" t="s">
         <v>100</v>
       </c>
@@ -9458,7 +9458,7 @@
       <c r="Y137" s="11"/>
       <c r="Z137" s="11"/>
     </row>
-    <row r="138" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="11" t="s">
         <v>100</v>
       </c>
@@ -9514,7 +9514,7 @@
       <c r="Y138" s="11"/>
       <c r="Z138" s="11"/>
     </row>
-    <row r="139" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="11" t="s">
         <v>100</v>
       </c>
@@ -9570,7 +9570,7 @@
       <c r="Y139" s="11"/>
       <c r="Z139" s="11"/>
     </row>
-    <row r="140" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="11" t="s">
         <v>100</v>
       </c>
@@ -9626,7 +9626,7 @@
       <c r="Y140" s="11"/>
       <c r="Z140" s="11"/>
     </row>
-    <row r="141" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="11" t="s">
         <v>100</v>
       </c>
@@ -9682,7 +9682,7 @@
       <c r="Y141" s="11"/>
       <c r="Z141" s="11"/>
     </row>
-    <row r="142" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="11" t="s">
         <v>100</v>
       </c>
@@ -9738,7 +9738,7 @@
       <c r="Y142" s="11"/>
       <c r="Z142" s="11"/>
     </row>
-    <row r="143" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="11" t="s">
         <v>100</v>
       </c>
@@ -9794,7 +9794,7 @@
       <c r="Y143" s="11"/>
       <c r="Z143" s="11"/>
     </row>
-    <row r="144" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="11" t="s">
         <v>15</v>
       </c>
@@ -9850,7 +9850,7 @@
       <c r="Y144" s="11"/>
       <c r="Z144" s="11"/>
     </row>
-    <row r="145" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="11" t="s">
         <v>15</v>
       </c>
@@ -9906,7 +9906,7 @@
       <c r="Y145" s="11"/>
       <c r="Z145" s="11"/>
     </row>
-    <row r="146" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="11" t="s">
         <v>15</v>
       </c>
@@ -9962,7 +9962,7 @@
       <c r="Y146" s="11"/>
       <c r="Z146" s="11"/>
     </row>
-    <row r="147" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="11" t="s">
         <v>15</v>
       </c>
@@ -10019,7 +10019,7 @@
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
     </row>
-    <row r="148" spans="1:27" s="38" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:27" s="38" customFormat="1" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="35" t="s">
         <v>438</v>
       </c>
@@ -10075,7 +10075,7 @@
       <c r="Z148" s="11"/>
       <c r="AA148" s="11"/>
     </row>
-    <row r="149" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="11" t="s">
         <v>438</v>
       </c>
@@ -10131,7 +10131,7 @@
       <c r="Z149" s="11"/>
       <c r="AA149" s="11"/>
     </row>
-    <row r="150" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="11" t="s">
         <v>438</v>
       </c>
@@ -10187,7 +10187,7 @@
       <c r="Z150" s="11"/>
       <c r="AA150" s="11"/>
     </row>
-    <row r="151" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="11" t="s">
         <v>438</v>
       </c>
@@ -10243,7 +10243,7 @@
       <c r="Z151" s="11"/>
       <c r="AA151" s="11"/>
     </row>
-    <row r="152" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="11" t="s">
         <v>438</v>
       </c>
@@ -10299,7 +10299,7 @@
       <c r="Z152" s="11"/>
       <c r="AA152" s="11"/>
     </row>
-    <row r="153" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="11" t="s">
         <v>438</v>
       </c>
@@ -10355,7 +10355,7 @@
       <c r="Z153" s="11"/>
       <c r="AA153" s="11"/>
     </row>
-    <row r="154" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="11" t="s">
         <v>438</v>
       </c>
@@ -10411,7 +10411,7 @@
       <c r="Z154" s="11"/>
       <c r="AA154" s="11"/>
     </row>
-    <row r="155" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="11" t="s">
         <v>438</v>
       </c>
@@ -10467,7 +10467,7 @@
       <c r="Z155" s="11"/>
       <c r="AA155" s="11"/>
     </row>
-    <row r="156" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="11" t="s">
         <v>438</v>
       </c>
@@ -10523,7 +10523,7 @@
       <c r="Z156" s="11"/>
       <c r="AA156" s="11"/>
     </row>
-    <row r="157" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="11" t="s">
         <v>438</v>
       </c>
@@ -10579,7 +10579,7 @@
       <c r="Z157" s="11"/>
       <c r="AA157" s="11"/>
     </row>
-    <row r="158" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="11" t="s">
         <v>438</v>
       </c>
@@ -10635,7 +10635,7 @@
       <c r="Z158" s="11"/>
       <c r="AA158" s="11"/>
     </row>
-    <row r="159" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="11" t="s">
         <v>438</v>
       </c>
@@ -10691,7 +10691,7 @@
       <c r="Z159" s="11"/>
       <c r="AA159" s="11"/>
     </row>
-    <row r="160" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="11" t="s">
         <v>438</v>
       </c>
@@ -10747,7 +10747,7 @@
       <c r="Z160" s="11"/>
       <c r="AA160" s="11"/>
     </row>
-    <row r="161" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="11" t="s">
         <v>438</v>
       </c>
@@ -10803,7 +10803,7 @@
       <c r="Z161" s="11"/>
       <c r="AA161" s="11"/>
     </row>
-    <row r="162" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="11" t="s">
         <v>438</v>
       </c>
@@ -10859,7 +10859,7 @@
       <c r="Z162" s="11"/>
       <c r="AA162" s="11"/>
     </row>
-    <row r="163" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="11" t="s">
         <v>438</v>
       </c>
@@ -10915,7 +10915,7 @@
       <c r="Z163" s="11"/>
       <c r="AA163" s="11"/>
     </row>
-    <row r="164" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="11" t="s">
         <v>438</v>
       </c>
@@ -10971,7 +10971,7 @@
       <c r="Z164" s="11"/>
       <c r="AA164" s="11"/>
     </row>
-    <row r="165" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="11" t="s">
         <v>438</v>
       </c>
@@ -11027,7 +11027,7 @@
       <c r="Z165" s="11"/>
       <c r="AA165" s="11"/>
     </row>
-    <row r="166" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="11" t="s">
         <v>438</v>
       </c>
@@ -11083,7 +11083,7 @@
       <c r="Z166" s="11"/>
       <c r="AA166" s="11"/>
     </row>
-    <row r="167" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="11" t="s">
         <v>438</v>
       </c>
@@ -11139,7 +11139,7 @@
       <c r="Z167" s="11"/>
       <c r="AA167" s="11"/>
     </row>
-    <row r="168" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="11" t="s">
         <v>438</v>
       </c>
@@ -11195,7 +11195,7 @@
       <c r="Z168" s="11"/>
       <c r="AA168" s="11"/>
     </row>
-    <row r="169" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="11" t="s">
         <v>438</v>
       </c>
@@ -11251,7 +11251,7 @@
       <c r="Z169" s="11"/>
       <c r="AA169" s="11"/>
     </row>
-    <row r="170" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="11" t="s">
         <v>438</v>
       </c>
@@ -11307,7 +11307,7 @@
       <c r="Z170" s="11"/>
       <c r="AA170" s="11"/>
     </row>
-    <row r="171" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="11" t="s">
         <v>438</v>
       </c>
@@ -11363,7 +11363,7 @@
       <c r="Z171" s="11"/>
       <c r="AA171" s="11"/>
     </row>
-    <row r="172" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="11" t="s">
         <v>438</v>
       </c>
@@ -11419,7 +11419,7 @@
       <c r="Z172" s="11"/>
       <c r="AA172" s="11"/>
     </row>
-    <row r="173" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="11" t="s">
         <v>438</v>
       </c>
@@ -11475,7 +11475,7 @@
       <c r="Z173" s="11"/>
       <c r="AA173" s="11"/>
     </row>
-    <row r="174" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="11" t="s">
         <v>438</v>
       </c>
@@ -11531,7 +11531,7 @@
       <c r="Z174" s="11"/>
       <c r="AA174" s="11"/>
     </row>
-    <row r="175" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="11" t="s">
         <v>438</v>
       </c>
@@ -11587,7 +11587,7 @@
       <c r="Z175" s="11"/>
       <c r="AA175" s="11"/>
     </row>
-    <row r="176" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="11" t="s">
         <v>438</v>
       </c>
@@ -11643,7 +11643,7 @@
       <c r="Z176" s="11"/>
       <c r="AA176" s="11"/>
     </row>
-    <row r="177" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="11" t="s">
         <v>438</v>
       </c>
@@ -11699,7 +11699,7 @@
       <c r="Z177" s="11"/>
       <c r="AA177" s="11"/>
     </row>
-    <row r="178" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="11" t="s">
         <v>438</v>
       </c>
@@ -11755,7 +11755,7 @@
       <c r="Z178" s="11"/>
       <c r="AA178" s="11"/>
     </row>
-    <row r="179" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="11" t="s">
         <v>438</v>
       </c>
@@ -11811,7 +11811,7 @@
       <c r="Z179" s="11"/>
       <c r="AA179" s="11"/>
     </row>
-    <row r="180" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
         <v>438</v>
       </c>
@@ -11923,7 +11923,7 @@
       <c r="Z181" s="11"/>
       <c r="AA181" s="11"/>
     </row>
-    <row r="182" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
         <v>438</v>
       </c>
@@ -11979,7 +11979,7 @@
       <c r="Z182" s="11"/>
       <c r="AA182" s="11"/>
     </row>
-    <row r="183" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
         <v>438</v>
       </c>
@@ -12035,7 +12035,7 @@
       <c r="Z183" s="11"/>
       <c r="AA183" s="11"/>
     </row>
-    <row r="184" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="11" t="s">
         <v>438</v>
       </c>
@@ -12091,7 +12091,7 @@
       <c r="Z184" s="11"/>
       <c r="AA184" s="11"/>
     </row>
-    <row r="185" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
         <v>438</v>
       </c>
@@ -12147,7 +12147,7 @@
       <c r="Z185" s="11"/>
       <c r="AA185" s="11"/>
     </row>
-    <row r="186" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
         <v>438</v>
       </c>
@@ -12203,7 +12203,7 @@
       <c r="Z186" s="11"/>
       <c r="AA186" s="11"/>
     </row>
-    <row r="187" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
         <v>438</v>
       </c>
@@ -12254,7 +12254,7 @@
       <c r="U187" s="11"/>
       <c r="V187" s="11"/>
     </row>
-    <row r="188" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
         <v>438</v>
       </c>
@@ -12310,7 +12310,7 @@
       <c r="Z188" s="11"/>
       <c r="AA188" s="11"/>
     </row>
-    <row r="189" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
         <v>438</v>
       </c>
@@ -12366,7 +12366,7 @@
       <c r="Z189" s="11"/>
       <c r="AA189" s="11"/>
     </row>
-    <row r="190" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
         <v>438</v>
       </c>
@@ -12422,7 +12422,7 @@
       <c r="Z190" s="11"/>
       <c r="AA190" s="11"/>
     </row>
-    <row r="191" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
         <v>438</v>
       </c>
@@ -12478,7 +12478,7 @@
       <c r="Z191" s="11"/>
       <c r="AA191" s="11"/>
     </row>
-    <row r="192" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
         <v>438</v>
       </c>
@@ -12534,7 +12534,7 @@
       <c r="Z192" s="11"/>
       <c r="AA192" s="11"/>
     </row>
-    <row r="193" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
         <v>438</v>
       </c>
@@ -12590,7 +12590,7 @@
       <c r="Z193" s="11"/>
       <c r="AA193" s="11"/>
     </row>
-    <row r="194" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="11" t="s">
         <v>438</v>
       </c>
@@ -12646,7 +12646,7 @@
       <c r="Z194" s="11"/>
       <c r="AA194" s="11"/>
     </row>
-    <row r="195" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="s">
         <v>438</v>
       </c>
@@ -12702,7 +12702,7 @@
       <c r="Z195" s="11"/>
       <c r="AA195" s="11"/>
     </row>
-    <row r="196" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
         <v>438</v>
       </c>
@@ -12758,7 +12758,7 @@
       <c r="Z196" s="11"/>
       <c r="AA196" s="11"/>
     </row>
-    <row r="197" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="s">
         <v>438</v>
       </c>
@@ -12814,7 +12814,7 @@
       <c r="Z197" s="11"/>
       <c r="AA197" s="11"/>
     </row>
-    <row r="198" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="s">
         <v>438</v>
       </c>
@@ -12870,7 +12870,7 @@
       <c r="Z198" s="11"/>
       <c r="AA198" s="11"/>
     </row>
-    <row r="199" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
         <v>438</v>
       </c>
@@ -12926,7 +12926,7 @@
       <c r="Z199" s="11"/>
       <c r="AA199" s="11"/>
     </row>
-    <row r="200" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="s">
         <v>438</v>
       </c>
@@ -12982,7 +12982,7 @@
       <c r="Z200" s="15"/>
       <c r="AA200" s="11"/>
     </row>
-    <row r="201" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
         <v>438</v>
       </c>
@@ -13040,7 +13040,7 @@
       <c r="Z201" s="11"/>
       <c r="AA201" s="11"/>
     </row>
-    <row r="202" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
         <v>438</v>
       </c>
@@ -13098,7 +13098,7 @@
       <c r="Z202" s="11"/>
       <c r="AA202" s="11"/>
     </row>
-    <row r="203" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="11" t="s">
         <v>438</v>
       </c>
@@ -13156,7 +13156,7 @@
       <c r="Z203" s="11"/>
       <c r="AA203" s="11"/>
     </row>
-    <row r="204" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="11" t="s">
         <v>438</v>
       </c>
@@ -13214,7 +13214,7 @@
       <c r="Z204" s="11"/>
       <c r="AA204" s="11"/>
     </row>
-    <row r="205" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="11" t="s">
         <v>438</v>
       </c>
@@ -13272,7 +13272,7 @@
       <c r="Z205" s="11"/>
       <c r="AA205" s="11"/>
     </row>
-    <row r="206" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="11" t="s">
         <v>438</v>
       </c>
@@ -13330,7 +13330,7 @@
       <c r="Z206" s="11"/>
       <c r="AA206" s="11"/>
     </row>
-    <row r="207" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="11" t="s">
         <v>438</v>
       </c>
@@ -13388,7 +13388,7 @@
       <c r="Z207" s="11"/>
       <c r="AA207" s="11"/>
     </row>
-    <row r="208" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="11" t="s">
         <v>438</v>
       </c>
@@ -13446,7 +13446,7 @@
       <c r="Z208" s="11"/>
       <c r="AA208" s="11"/>
     </row>
-    <row r="209" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="11" t="s">
         <v>438</v>
       </c>
@@ -13504,7 +13504,7 @@
       <c r="Z209" s="11"/>
       <c r="AA209" s="11"/>
     </row>
-    <row r="210" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="11" t="s">
         <v>438</v>
       </c>
@@ -13562,7 +13562,7 @@
       <c r="Z210" s="11"/>
       <c r="AA210" s="11"/>
     </row>
-    <row r="211" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="11" t="s">
         <v>438</v>
       </c>
@@ -13620,7 +13620,7 @@
       <c r="Z211" s="11"/>
       <c r="AA211" s="11"/>
     </row>
-    <row r="212" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="11" t="s">
         <v>438</v>
       </c>
@@ -13678,7 +13678,7 @@
       <c r="Z212" s="11"/>
       <c r="AA212" s="11"/>
     </row>
-    <row r="213" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="11" t="s">
         <v>438</v>
       </c>
@@ -13736,7 +13736,7 @@
       <c r="Z213" s="11"/>
       <c r="AA213" s="11"/>
     </row>
-    <row r="214" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:27" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="11" t="s">
         <v>438</v>
       </c>
@@ -15916,6 +15916,13 @@
       <c r="N568" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA214" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="2-00-2116-60-9016"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16207,8 +16214,8 @@
   </sheetPr>
   <dimension ref="A1:Q998"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26847E5-B4D2-2847-9028-E9364F2F3490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A5809D1-7C6A-5740-822E-8049BC0B6E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="835">
   <si>
     <t>Тип изделия:</t>
   </si>
@@ -2446,6 +2446,129 @@
   </si>
   <si>
     <t>Сухарь на створку</t>
+  </si>
+  <si>
+    <t>45 Рама компланарной двери RAL 7024 мат</t>
+  </si>
+  <si>
+    <t>45 Створка компланарной двери Н/О RAL 7024 мат</t>
+  </si>
+  <si>
+    <t>2*(sash_width + sash_height)/1000 * (n_sash_active if 'n_sash_active' in globals() else (n_sash if 'n_sash' in globals() else 1)) * qty</t>
+  </si>
+  <si>
+    <t>45 Штульп компланарной двери RAL 9016</t>
+  </si>
+  <si>
+    <t>2 186</t>
+  </si>
+  <si>
+    <t>45 Рама RAL 7024 мат</t>
+  </si>
+  <si>
+    <t>2-00-2160-60-7024-</t>
+  </si>
+  <si>
+    <t>45 Импост RAL 7024 мат</t>
+  </si>
+  <si>
+    <t>2-00-2163-60-7024-</t>
+  </si>
+  <si>
+    <t>(((center if 'center' in globals() else 0) + (top if 'top' in globals() else 0))/1000) * qty</t>
+  </si>
+  <si>
+    <t>Руит Штапик 10,7 мм RAL 7024 мат</t>
+  </si>
+  <si>
+    <t>(((1 if (center if 'center' in globals() else 0) else 0) + (1 if (top if 'top' in globals() else 0) else 0)) * qty)</t>
+  </si>
+  <si>
+    <t>Сухарь (фиксатор)</t>
+  </si>
+  <si>
+    <t>(n_sash if 'n_sash' in globals() and n_sash else 1) * qty</t>
+  </si>
+  <si>
+    <t>math.ceil(((2*(width + height)/1000) * qty) / (pack_size if 'pack_size' in globals() else 250))</t>
+  </si>
+  <si>
+    <t>hinges_per_sash * (n_sash if 'n_sash' in globals() and n_sash else 1) * qty</t>
+  </si>
+  <si>
+    <t>Дверная нажимная ручка (T-MZS70) Ral 9016 (LCNH01)</t>
+  </si>
+  <si>
+    <t>Дверная нажимная ручка</t>
+  </si>
+  <si>
+    <t>2-10-1417-00-9016</t>
+  </si>
+  <si>
+    <t>4 092</t>
+  </si>
+  <si>
+    <t>Замок язычковый 153/30 KALE без барели</t>
+  </si>
+  <si>
+    <t>Замок язычковый</t>
+  </si>
+  <si>
+    <t>2-22-1414-00-5330</t>
+  </si>
+  <si>
+    <t>Ответная планка (С Коробом Под Замок 3096.00) универсальная</t>
+  </si>
+  <si>
+    <t>Ответная планка универсальная</t>
+  </si>
+  <si>
+    <t>Доводчик Elementis 604, с низкотемпературным маслом Черный RAL 9005 мат</t>
+  </si>
+  <si>
+    <t>Доводчик (closer)</t>
+  </si>
+  <si>
+    <t>2-22-2443-00-9005-</t>
+  </si>
+  <si>
+    <t>13 025</t>
+  </si>
+  <si>
+    <t>45 Адаптер порога 45С Компланарная (2102)</t>
+  </si>
+  <si>
+    <t>2-22-0025-00-4500</t>
+  </si>
+  <si>
+    <t>Профиль поворота 90°</t>
+  </si>
+  <si>
+    <t>Петля дверная 3-секц.</t>
+  </si>
+  <si>
+    <t>Ручка дверная офисная АРД-02 1000мм (Ral 9016) (упак.8шт)</t>
+  </si>
+  <si>
+    <t>Ручка дверная офисная (упак.)</t>
+  </si>
+  <si>
+    <t>2-10-1200А-00-9016</t>
+  </si>
+  <si>
+    <t>math.ceil((door_count * qty) / (pack_size if 'pack_size' in globals() else 8))</t>
+  </si>
+  <si>
+    <t>2-22-2443-00-9006</t>
+  </si>
+  <si>
+    <t>Фиксатор пассивной створки накладной 220*2*8 мм ELEMENTIS с ответной планкой RAL 9016</t>
+  </si>
+  <si>
+    <t>45- (2118) Крышка Штульпа Компланарной двери верх/низ 45 (EPDM, 10)</t>
+  </si>
+  <si>
+    <t>Доводчик Elementis 604, с низкотемпературным маслом Серебро RAL9006</t>
   </si>
 </sst>
 </file>
@@ -2609,7 +2732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2696,6 +2819,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2915,11 +3041,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z568"/>
+  <dimension ref="A1:Z563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:T1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C269" sqref="C269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14537,446 +14663,2863 @@
       <c r="U214" s="10"/>
     </row>
     <row r="215" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D215" s="7"/>
+      <c r="A215" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D215" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="E215" s="10" t="s">
+        <v>142</v>
+      </c>
       <c r="F215" s="10"/>
-      <c r="G215" s="7"/>
-      <c r="L215" s="7"/>
-      <c r="N215" s="12"/>
-      <c r="P215" s="10"/>
+      <c r="G215" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H215" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="I215" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J215" s="10"/>
+      <c r="K215" s="10">
+        <v>6</v>
+      </c>
+      <c r="L215" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M215" s="10">
+        <v>0</v>
+      </c>
+      <c r="N215" s="10">
+        <v>0</v>
+      </c>
+      <c r="O215" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="P215" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q215" s="10"/>
+      <c r="R215" s="10"/>
+      <c r="S215" s="10"/>
+      <c r="T215" s="10"/>
+      <c r="U215" s="10"/>
+      <c r="V215" s="10"/>
     </row>
     <row r="216" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D216" s="7"/>
-      <c r="G216" s="7"/>
-      <c r="L216" s="7"/>
-      <c r="N216" s="12"/>
+      <c r="A216" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="E216" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H216" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="I216" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J216" s="10"/>
+      <c r="K216" s="10">
+        <v>6</v>
+      </c>
+      <c r="L216" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M216" s="10">
+        <v>0</v>
+      </c>
+      <c r="N216" s="10">
+        <v>0</v>
+      </c>
+      <c r="O216" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P216" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q216" s="10"/>
+      <c r="R216" s="10"/>
+      <c r="S216" s="10"/>
+      <c r="T216" s="10"/>
+      <c r="U216" s="10"/>
+      <c r="V216" s="10"/>
     </row>
     <row r="217" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D217" s="7"/>
-      <c r="G217" s="7"/>
-      <c r="L217" s="7"/>
-      <c r="N217" s="12"/>
+      <c r="A217" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="D217" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="E217" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H217" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="I217" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J217" s="10"/>
+      <c r="K217" s="10">
+        <v>6</v>
+      </c>
+      <c r="L217" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M217" s="10">
+        <v>0</v>
+      </c>
+      <c r="N217" s="10">
+        <v>0</v>
+      </c>
+      <c r="O217" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="P217" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q217" s="10"/>
+      <c r="R217" s="10"/>
+      <c r="S217" s="10"/>
+      <c r="T217" s="10"/>
+      <c r="U217" s="10"/>
+      <c r="V217" s="10"/>
     </row>
     <row r="218" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D218" s="7"/>
-      <c r="G218" s="7"/>
-      <c r="L218" s="7"/>
-      <c r="N218" s="12"/>
+      <c r="A218" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="E218" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H218" s="19" t="s">
+        <v>798</v>
+      </c>
+      <c r="I218" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J218" s="10"/>
+      <c r="K218" s="10">
+        <v>6</v>
+      </c>
+      <c r="L218" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M218" s="10">
+        <v>0</v>
+      </c>
+      <c r="N218" s="10">
+        <v>0</v>
+      </c>
+      <c r="O218" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="P218" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q218" s="10"/>
+      <c r="R218" s="10"/>
+      <c r="S218" s="10"/>
+      <c r="T218" s="10"/>
+      <c r="U218" s="10"/>
+      <c r="V218" s="10"/>
     </row>
     <row r="219" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D219" s="7"/>
-      <c r="G219" s="7"/>
-      <c r="L219" s="7"/>
-      <c r="N219" s="12"/>
+      <c r="A219" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="D219" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E219" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H219" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="I219" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J219" s="10"/>
+      <c r="K219" s="10">
+        <v>6</v>
+      </c>
+      <c r="L219" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M219" s="10">
+        <v>0</v>
+      </c>
+      <c r="N219" s="10">
+        <v>0</v>
+      </c>
+      <c r="O219" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P219" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q219" s="10"/>
+      <c r="R219" s="10"/>
+      <c r="S219" s="10"/>
+      <c r="T219" s="10"/>
+      <c r="U219" s="10"/>
+      <c r="V219" s="10"/>
     </row>
     <row r="220" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D220" s="7"/>
-      <c r="G220" s="7"/>
-      <c r="L220" s="7"/>
-      <c r="N220" s="12"/>
+      <c r="A220" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="E220" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H220" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="I220" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J220" s="10"/>
+      <c r="K220" s="10">
+        <v>6</v>
+      </c>
+      <c r="L220" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M220" s="10">
+        <v>0</v>
+      </c>
+      <c r="N220" s="10">
+        <v>0</v>
+      </c>
+      <c r="O220" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="P220" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="Q220" s="10"/>
+      <c r="R220" s="10"/>
+      <c r="S220" s="10"/>
+      <c r="T220" s="10"/>
+      <c r="U220" s="10"/>
+      <c r="V220" s="10"/>
     </row>
     <row r="221" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D221" s="7"/>
-      <c r="G221" s="7"/>
-      <c r="L221" s="7"/>
-      <c r="N221" s="12"/>
+      <c r="A221" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E221" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H221" s="19">
+        <v>810</v>
+      </c>
+      <c r="I221" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J221" s="10"/>
+      <c r="K221" s="10">
+        <v>6</v>
+      </c>
+      <c r="L221" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M221" s="10">
+        <v>0</v>
+      </c>
+      <c r="N221" s="10">
+        <v>0</v>
+      </c>
+      <c r="O221" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P221" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q221" s="10"/>
+      <c r="R221" s="10"/>
+      <c r="S221" s="10"/>
+      <c r="T221" s="10"/>
+      <c r="U221" s="10"/>
+      <c r="V221" s="10"/>
     </row>
     <row r="222" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D222" s="7"/>
-      <c r="G222" s="7"/>
-      <c r="L222" s="7"/>
-      <c r="N222" s="12"/>
+      <c r="A222" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="E222" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F222" s="10"/>
+      <c r="G222" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H222" s="19">
+        <v>384</v>
+      </c>
+      <c r="I222" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J222" s="10"/>
+      <c r="K222" s="10">
+        <v>6</v>
+      </c>
+      <c r="L222" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M222" s="10">
+        <v>0</v>
+      </c>
+      <c r="N222" s="10">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P222" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q222" s="10"/>
+      <c r="R222" s="10"/>
+      <c r="S222" s="10"/>
+      <c r="T222" s="10"/>
+      <c r="U222" s="10"/>
+      <c r="V222" s="10"/>
     </row>
     <row r="223" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D223" s="7"/>
-      <c r="G223" s="7"/>
-      <c r="L223" s="7"/>
-      <c r="N223" s="12"/>
+      <c r="A223" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E223" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F223" s="10"/>
+      <c r="G223" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H223" s="19">
+        <v>161</v>
+      </c>
+      <c r="I223" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J223" s="10"/>
+      <c r="K223" s="10">
+        <v>1</v>
+      </c>
+      <c r="L223" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M223" s="10">
+        <v>0</v>
+      </c>
+      <c r="N223" s="10">
+        <v>0</v>
+      </c>
+      <c r="O223" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="P223" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q223" s="10"/>
+      <c r="R223" s="10"/>
+      <c r="S223" s="10"/>
+      <c r="T223" s="10"/>
+      <c r="U223" s="10"/>
+      <c r="V223" s="10"/>
     </row>
     <row r="224" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D224" s="7"/>
-      <c r="G224" s="7"/>
-      <c r="L224" s="7"/>
-      <c r="N224" s="12"/>
-    </row>
-    <row r="225" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D225" s="7"/>
-      <c r="G225" s="7"/>
-      <c r="L225" s="7"/>
-      <c r="N225" s="12"/>
-    </row>
-    <row r="226" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D226" s="7"/>
-      <c r="G226" s="7"/>
-      <c r="L226" s="7"/>
-      <c r="N226" s="12"/>
-    </row>
-    <row r="227" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D227" s="7"/>
-      <c r="G227" s="7"/>
-      <c r="L227" s="7"/>
-      <c r="N227" s="12"/>
-    </row>
-    <row r="228" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D228" s="7"/>
-      <c r="G228" s="7"/>
-      <c r="L228" s="7"/>
-      <c r="N228" s="12"/>
-    </row>
-    <row r="229" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D229" s="7"/>
-      <c r="G229" s="7"/>
-      <c r="L229" s="7"/>
-      <c r="N229" s="12"/>
-    </row>
-    <row r="230" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D230" s="7"/>
-      <c r="G230" s="7"/>
-      <c r="L230" s="7"/>
-      <c r="N230" s="12"/>
-    </row>
-    <row r="231" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D231" s="7"/>
-      <c r="G231" s="7"/>
-      <c r="L231" s="7"/>
-      <c r="N231" s="12"/>
-    </row>
-    <row r="232" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D232" s="7"/>
-      <c r="G232" s="7"/>
-      <c r="L232" s="7"/>
-      <c r="N232" s="12"/>
-    </row>
-    <row r="233" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D233" s="7"/>
-      <c r="G233" s="7"/>
-      <c r="L233" s="7"/>
-      <c r="N233" s="12"/>
-    </row>
-    <row r="234" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D234" s="7"/>
-      <c r="G234" s="7"/>
-      <c r="L234" s="7"/>
-      <c r="N234" s="12"/>
-    </row>
-    <row r="235" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D235" s="7"/>
-      <c r="G235" s="7"/>
-      <c r="L235" s="7"/>
-      <c r="N235" s="12"/>
-    </row>
-    <row r="236" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D236" s="7"/>
-      <c r="G236" s="7"/>
-      <c r="L236" s="7"/>
-      <c r="N236" s="12"/>
-    </row>
-    <row r="237" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D237" s="7"/>
-      <c r="G237" s="7"/>
-      <c r="L237" s="7"/>
-      <c r="N237" s="12"/>
-    </row>
-    <row r="238" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D238" s="7"/>
-      <c r="G238" s="7"/>
-      <c r="L238" s="7"/>
-      <c r="N238" s="12"/>
-    </row>
-    <row r="239" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D239" s="7"/>
-      <c r="G239" s="7"/>
-      <c r="L239" s="7"/>
-      <c r="N239" s="12"/>
-    </row>
-    <row r="240" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D240" s="7"/>
-      <c r="G240" s="7"/>
-      <c r="L240" s="7"/>
-      <c r="N240" s="12"/>
-    </row>
-    <row r="241" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D241" s="7"/>
-      <c r="G241" s="7"/>
-      <c r="L241" s="7"/>
-      <c r="N241" s="12"/>
-    </row>
-    <row r="242" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D242" s="7"/>
-      <c r="G242" s="7"/>
-      <c r="L242" s="7"/>
-      <c r="N242" s="12"/>
-    </row>
-    <row r="243" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D243" s="7"/>
-      <c r="G243" s="7"/>
-      <c r="L243" s="7"/>
-      <c r="N243" s="12"/>
-    </row>
-    <row r="244" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D244" s="7"/>
-      <c r="G244" s="7"/>
-      <c r="L244" s="7"/>
-      <c r="N244" s="12"/>
-    </row>
-    <row r="245" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D245" s="7"/>
-      <c r="G245" s="7"/>
-      <c r="L245" s="7"/>
-      <c r="N245" s="12"/>
-    </row>
-    <row r="246" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D246" s="7"/>
-      <c r="G246" s="7"/>
-      <c r="L246" s="7"/>
-      <c r="N246" s="12"/>
-    </row>
-    <row r="247" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D247" s="7"/>
-      <c r="G247" s="7"/>
-      <c r="L247" s="7"/>
-      <c r="N247" s="12"/>
-    </row>
-    <row r="248" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D248" s="7"/>
-      <c r="G248" s="7"/>
-      <c r="L248" s="7"/>
-      <c r="N248" s="12"/>
-    </row>
-    <row r="249" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D249" s="7"/>
-      <c r="G249" s="7"/>
-      <c r="L249" s="7"/>
-      <c r="N249" s="12"/>
-    </row>
-    <row r="250" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D250" s="7"/>
-      <c r="G250" s="7"/>
-      <c r="L250" s="7"/>
-      <c r="N250" s="12"/>
-    </row>
-    <row r="251" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D251" s="7"/>
-      <c r="G251" s="7"/>
-      <c r="L251" s="7"/>
-      <c r="N251" s="12"/>
-    </row>
-    <row r="252" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D252" s="7"/>
-      <c r="G252" s="7"/>
-      <c r="L252" s="7"/>
-      <c r="N252" s="12"/>
-    </row>
-    <row r="253" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D253" s="7"/>
-      <c r="G253" s="7"/>
-      <c r="L253" s="7"/>
-      <c r="N253" s="12"/>
-    </row>
-    <row r="254" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D254" s="7"/>
-      <c r="G254" s="7"/>
-      <c r="L254" s="7"/>
-      <c r="N254" s="12"/>
-    </row>
-    <row r="255" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D255" s="7"/>
-      <c r="G255" s="7"/>
-      <c r="L255" s="7"/>
-      <c r="N255" s="12"/>
-    </row>
-    <row r="256" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D256" s="7"/>
-      <c r="G256" s="7"/>
-      <c r="L256" s="7"/>
-      <c r="N256" s="12"/>
-    </row>
-    <row r="257" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D257" s="7"/>
-      <c r="G257" s="7"/>
-      <c r="L257" s="7"/>
-      <c r="N257" s="12"/>
-    </row>
-    <row r="258" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D258" s="7"/>
-      <c r="G258" s="7"/>
-      <c r="L258" s="7"/>
-      <c r="N258" s="12"/>
-    </row>
-    <row r="259" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D259" s="7"/>
-      <c r="G259" s="7"/>
-      <c r="L259" s="7"/>
-      <c r="N259" s="12"/>
-    </row>
-    <row r="260" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D260" s="7"/>
-      <c r="G260" s="7"/>
-      <c r="L260" s="7"/>
-      <c r="N260" s="12"/>
-    </row>
-    <row r="261" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D261" s="7"/>
-      <c r="G261" s="7"/>
-      <c r="L261" s="7"/>
-      <c r="N261" s="12"/>
-    </row>
-    <row r="262" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D262" s="7"/>
-      <c r="G262" s="7"/>
-      <c r="L262" s="7"/>
-      <c r="N262" s="12"/>
-    </row>
-    <row r="263" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D263" s="7"/>
-      <c r="G263" s="7"/>
-      <c r="L263" s="7"/>
-      <c r="N263" s="12"/>
-    </row>
-    <row r="264" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D264" s="7"/>
-      <c r="G264" s="7"/>
-      <c r="L264" s="7"/>
-      <c r="N264" s="12"/>
-    </row>
-    <row r="265" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D265" s="7"/>
-      <c r="G265" s="7"/>
-      <c r="L265" s="7"/>
-      <c r="N265" s="12"/>
-    </row>
-    <row r="266" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D266" s="7"/>
-      <c r="G266" s="7"/>
-      <c r="L266" s="7"/>
-      <c r="N266" s="12"/>
-    </row>
-    <row r="267" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D267" s="7"/>
-      <c r="G267" s="7"/>
-      <c r="L267" s="7"/>
-      <c r="N267" s="12"/>
-    </row>
-    <row r="268" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D268" s="7"/>
-      <c r="G268" s="7"/>
-      <c r="L268" s="7"/>
-      <c r="N268" s="12"/>
-    </row>
-    <row r="269" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D269" s="7"/>
-      <c r="G269" s="7"/>
-      <c r="L269" s="7"/>
-      <c r="N269" s="12"/>
-    </row>
-    <row r="270" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D270" s="7"/>
-      <c r="G270" s="7"/>
-      <c r="L270" s="7"/>
-      <c r="N270" s="12"/>
-    </row>
-    <row r="271" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D271" s="7"/>
-      <c r="G271" s="7"/>
-      <c r="L271" s="7"/>
-      <c r="N271" s="12"/>
-    </row>
-    <row r="272" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D272" s="7"/>
-      <c r="G272" s="7"/>
-      <c r="L272" s="7"/>
-      <c r="N272" s="12"/>
-    </row>
-    <row r="273" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D273" s="7"/>
-      <c r="G273" s="7"/>
-      <c r="L273" s="7"/>
-      <c r="N273" s="12"/>
-    </row>
-    <row r="274" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D224" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="E224" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F224" s="10"/>
+      <c r="G224" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H224" s="19">
+        <v>742</v>
+      </c>
+      <c r="I224" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J224" s="10"/>
+      <c r="K224" s="10">
+        <v>1</v>
+      </c>
+      <c r="L224" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M224" s="10">
+        <v>0</v>
+      </c>
+      <c r="N224" s="10">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="P224" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q224" s="10"/>
+      <c r="R224" s="10"/>
+      <c r="S224" s="10"/>
+      <c r="T224" s="10"/>
+      <c r="U224" s="10"/>
+      <c r="V224" s="10"/>
+    </row>
+    <row r="225" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="E225" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F225" s="10"/>
+      <c r="G225" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H225" s="19">
+        <v>945</v>
+      </c>
+      <c r="I225" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J225" s="10"/>
+      <c r="K225" s="10">
+        <v>1</v>
+      </c>
+      <c r="L225" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M225" s="10">
+        <v>0</v>
+      </c>
+      <c r="N225" s="10">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="P225" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q225" s="10"/>
+      <c r="R225" s="10"/>
+      <c r="S225" s="10"/>
+      <c r="T225" s="10"/>
+      <c r="U225" s="10"/>
+      <c r="V225" s="10"/>
+    </row>
+    <row r="226" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D226" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="E226" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H226" s="19">
+        <v>959</v>
+      </c>
+      <c r="I226" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J226" s="10"/>
+      <c r="K226" s="10">
+        <v>1</v>
+      </c>
+      <c r="L226" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M226" s="10">
+        <v>0</v>
+      </c>
+      <c r="N226" s="10">
+        <v>0</v>
+      </c>
+      <c r="O226" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="P226" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q226" s="10"/>
+      <c r="R226" s="10"/>
+      <c r="S226" s="10"/>
+      <c r="T226" s="10"/>
+      <c r="U226" s="10"/>
+      <c r="V226" s="10"/>
+    </row>
+    <row r="227" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D227" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="E227" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F227" s="10"/>
+      <c r="G227" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H227" s="19">
+        <v>184</v>
+      </c>
+      <c r="I227" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J227" s="10"/>
+      <c r="K227" s="10">
+        <v>1</v>
+      </c>
+      <c r="L227" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M227" s="10">
+        <v>0</v>
+      </c>
+      <c r="N227" s="10">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="P227" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q227" s="10"/>
+      <c r="R227" s="10"/>
+      <c r="S227" s="10"/>
+      <c r="T227" s="10"/>
+      <c r="U227" s="10"/>
+      <c r="V227" s="10"/>
+    </row>
+    <row r="228" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="D228" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="E228" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F228" s="10"/>
+      <c r="G228" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H228" s="19">
+        <v>217</v>
+      </c>
+      <c r="I228" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J228" s="10"/>
+      <c r="K228" s="10">
+        <v>50</v>
+      </c>
+      <c r="L228" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M228" s="10">
+        <v>0</v>
+      </c>
+      <c r="N228" s="10">
+        <v>0</v>
+      </c>
+      <c r="O228" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P228" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q228" s="10"/>
+      <c r="R228" s="10"/>
+      <c r="S228" s="10"/>
+      <c r="T228" s="10"/>
+      <c r="U228" s="10"/>
+      <c r="V228" s="10"/>
+    </row>
+    <row r="229" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="D229" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E229" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F229" s="10"/>
+      <c r="G229" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H229" s="19">
+        <v>184</v>
+      </c>
+      <c r="I229" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J229" s="10"/>
+      <c r="K229" s="10">
+        <v>28</v>
+      </c>
+      <c r="L229" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M229" s="10">
+        <v>0</v>
+      </c>
+      <c r="N229" s="10">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P229" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q229" s="10"/>
+      <c r="R229" s="10"/>
+      <c r="S229" s="10"/>
+      <c r="T229" s="10"/>
+      <c r="U229" s="10"/>
+      <c r="V229" s="10"/>
+    </row>
+    <row r="230" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="D230" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E230" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F230" s="10"/>
+      <c r="G230" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H230" s="19">
+        <v>184</v>
+      </c>
+      <c r="I230" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J230" s="10"/>
+      <c r="K230" s="10">
+        <v>25</v>
+      </c>
+      <c r="L230" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M230" s="10">
+        <v>0</v>
+      </c>
+      <c r="N230" s="10">
+        <v>0</v>
+      </c>
+      <c r="O230" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P230" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q230" s="10"/>
+      <c r="R230" s="10"/>
+      <c r="S230" s="10"/>
+      <c r="T230" s="10"/>
+      <c r="U230" s="10"/>
+      <c r="V230" s="10"/>
+    </row>
+    <row r="231" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="D231" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="E231" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F231" s="10"/>
+      <c r="G231" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H231" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="I231" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J231" s="10"/>
+      <c r="K231" s="10">
+        <v>1</v>
+      </c>
+      <c r="L231" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M231" s="10">
+        <v>0</v>
+      </c>
+      <c r="N231" s="10">
+        <v>0</v>
+      </c>
+      <c r="O231" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="P231" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q231" s="10"/>
+      <c r="R231" s="10"/>
+      <c r="S231" s="10"/>
+      <c r="T231" s="10"/>
+      <c r="U231" s="10"/>
+      <c r="V231" s="10"/>
+    </row>
+    <row r="232" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="D232" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="E232" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="F232" s="10"/>
+      <c r="G232" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H232" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="I232" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J232" s="10"/>
+      <c r="K232" s="10">
+        <v>1</v>
+      </c>
+      <c r="L232" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M232" s="10">
+        <v>0</v>
+      </c>
+      <c r="N232" s="10">
+        <v>0</v>
+      </c>
+      <c r="O232" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="P232" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q232" s="10"/>
+      <c r="R232" s="10"/>
+      <c r="S232" s="10"/>
+      <c r="T232" s="10"/>
+      <c r="U232" s="10"/>
+      <c r="V232" s="10"/>
+    </row>
+    <row r="233" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="D233" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="E233" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H233" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="I233" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J233" s="10"/>
+      <c r="K233" s="10">
+        <v>1</v>
+      </c>
+      <c r="L233" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M233" s="10">
+        <v>0</v>
+      </c>
+      <c r="N233" s="10">
+        <v>0</v>
+      </c>
+      <c r="O233" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="P233" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q233" s="10"/>
+      <c r="R233" s="10"/>
+      <c r="S233" s="10"/>
+      <c r="T233" s="10"/>
+      <c r="U233" s="10"/>
+      <c r="V233" s="10"/>
+    </row>
+    <row r="234" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="D234" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E234" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F234" s="10"/>
+      <c r="G234" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H234" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="I234" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J234" s="10"/>
+      <c r="K234" s="10">
+        <v>1</v>
+      </c>
+      <c r="L234" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M234" s="10">
+        <v>0</v>
+      </c>
+      <c r="N234" s="10">
+        <v>0</v>
+      </c>
+      <c r="O234" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="P234" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q234" s="10"/>
+      <c r="R234" s="10"/>
+      <c r="S234" s="10"/>
+      <c r="T234" s="10"/>
+      <c r="U234" s="10"/>
+      <c r="V234" s="10"/>
+    </row>
+    <row r="235" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="B235" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="D235" s="40" t="s">
+        <v>818</v>
+      </c>
+      <c r="E235" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="F235" s="40"/>
+      <c r="G235" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H235" s="42" t="s">
+        <v>518</v>
+      </c>
+      <c r="I235" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J235" s="40"/>
+      <c r="K235" s="40">
+        <v>1</v>
+      </c>
+      <c r="L235" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="M235" s="40">
+        <v>0</v>
+      </c>
+      <c r="N235" s="40">
+        <v>0</v>
+      </c>
+      <c r="O235" s="40" t="s">
+        <v>687</v>
+      </c>
+      <c r="P235" s="40" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q235" s="40"/>
+      <c r="R235" s="40"/>
+      <c r="S235" s="40"/>
+      <c r="T235" s="40"/>
+      <c r="U235" s="40"/>
+      <c r="V235" s="40"/>
+      <c r="W235" s="41"/>
+      <c r="X235" s="41"/>
+    </row>
+    <row r="236" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="D236" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="E236" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="F236" s="10"/>
+      <c r="G236" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H236" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="I236" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J236" s="10"/>
+      <c r="K236" s="10">
+        <v>1</v>
+      </c>
+      <c r="L236" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M236" s="10">
+        <v>0</v>
+      </c>
+      <c r="N236" s="10">
+        <v>0</v>
+      </c>
+      <c r="O236" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="P236" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q236" s="10"/>
+      <c r="R236" s="10"/>
+      <c r="S236" s="10"/>
+      <c r="T236" s="10"/>
+      <c r="U236" s="10"/>
+      <c r="V236" s="10"/>
+    </row>
+    <row r="237" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="B237" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="D237" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E237" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F237" s="40"/>
+      <c r="G237" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H237" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="I237" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J237" s="40"/>
+      <c r="K237" s="40">
+        <v>1</v>
+      </c>
+      <c r="L237" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="M237" s="40">
+        <v>0</v>
+      </c>
+      <c r="N237" s="40">
+        <v>0</v>
+      </c>
+      <c r="O237" s="40" t="s">
+        <v>738</v>
+      </c>
+      <c r="P237" s="40" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q237" s="40"/>
+      <c r="R237" s="40"/>
+      <c r="S237" s="40"/>
+      <c r="T237" s="40"/>
+      <c r="U237" s="40"/>
+      <c r="V237" s="40"/>
+    </row>
+    <row r="238" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="B238" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="D238" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E238" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="F238" s="40"/>
+      <c r="G238" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="H238" s="42" t="s">
+        <v>481</v>
+      </c>
+      <c r="I238" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="J238" s="40"/>
+      <c r="K238" s="40">
+        <v>1</v>
+      </c>
+      <c r="L238" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="M238" s="40">
+        <v>0</v>
+      </c>
+      <c r="N238" s="40">
+        <v>0</v>
+      </c>
+      <c r="O238" s="40" t="s">
+        <v>704</v>
+      </c>
+      <c r="P238" s="40" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q238" s="40"/>
+      <c r="R238" s="40"/>
+      <c r="S238" s="40"/>
+      <c r="T238" s="40"/>
+      <c r="U238" s="40"/>
+      <c r="V238" s="40"/>
+      <c r="W238" s="41"/>
+      <c r="X238" s="41"/>
+    </row>
+    <row r="239" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="E239" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="F239" s="10"/>
+      <c r="G239" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H239" s="19" t="s">
+        <v>822</v>
+      </c>
+      <c r="I239" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J239" s="10"/>
+      <c r="K239" s="10">
+        <v>1</v>
+      </c>
+      <c r="L239" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M239" s="10">
+        <v>0</v>
+      </c>
+      <c r="N239" s="10">
+        <v>0</v>
+      </c>
+      <c r="O239" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="P239" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q239" s="10"/>
+      <c r="R239" s="10"/>
+      <c r="S239" s="10"/>
+      <c r="T239" s="10"/>
+      <c r="U239" s="10"/>
+      <c r="V239" s="10"/>
+    </row>
+    <row r="240" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="D240" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E240" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="F240" s="10"/>
+      <c r="G240" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H240" s="19">
+        <v>230</v>
+      </c>
+      <c r="I240" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="J240" s="10"/>
+      <c r="K240" s="10">
+        <v>1</v>
+      </c>
+      <c r="L240" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M240" s="10">
+        <v>0</v>
+      </c>
+      <c r="N240" s="10">
+        <v>0</v>
+      </c>
+      <c r="O240" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="P240" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q240" s="10"/>
+      <c r="R240" s="10"/>
+      <c r="S240" s="10"/>
+      <c r="T240" s="10"/>
+      <c r="U240" s="10"/>
+      <c r="V240" s="10"/>
+    </row>
+    <row r="241" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="E241" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="F241" s="10"/>
+      <c r="G241" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H241" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="I241" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J241" s="10"/>
+      <c r="K241" s="10">
+        <v>6</v>
+      </c>
+      <c r="L241" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M241" s="10">
+        <v>0</v>
+      </c>
+      <c r="N241" s="10">
+        <v>0</v>
+      </c>
+      <c r="O241" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="P241" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q241" s="10"/>
+      <c r="R241" s="10"/>
+      <c r="S241" s="10"/>
+      <c r="T241" s="10"/>
+      <c r="U241" s="10"/>
+      <c r="V241" s="10"/>
+    </row>
+    <row r="242" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D242" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="E242" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F242" s="10"/>
+      <c r="G242" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H242" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="I242" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J242" s="10"/>
+      <c r="K242" s="10">
+        <v>6</v>
+      </c>
+      <c r="L242" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M242" s="10">
+        <v>0</v>
+      </c>
+      <c r="N242" s="10">
+        <v>0</v>
+      </c>
+      <c r="O242" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="P242" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q242" s="10"/>
+      <c r="R242" s="10"/>
+      <c r="S242" s="10"/>
+      <c r="T242" s="10"/>
+      <c r="U242" s="10"/>
+      <c r="V242" s="10"/>
+    </row>
+    <row r="243" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="D243" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="E243" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F243" s="10"/>
+      <c r="G243" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H243" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="I243" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J243" s="10"/>
+      <c r="K243" s="10">
+        <v>6</v>
+      </c>
+      <c r="L243" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M243" s="10">
+        <v>0</v>
+      </c>
+      <c r="N243" s="10">
+        <v>0</v>
+      </c>
+      <c r="O243" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P243" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q243" s="10"/>
+      <c r="R243" s="10"/>
+      <c r="S243" s="10"/>
+      <c r="T243" s="10"/>
+      <c r="U243" s="10"/>
+      <c r="V243" s="10"/>
+    </row>
+    <row r="244" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D244" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="E244" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F244" s="10"/>
+      <c r="G244" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H244" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="I244" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J244" s="10"/>
+      <c r="K244" s="10">
+        <v>6</v>
+      </c>
+      <c r="L244" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M244" s="10">
+        <v>0</v>
+      </c>
+      <c r="N244" s="10">
+        <v>0</v>
+      </c>
+      <c r="O244" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="P244" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q244" s="10"/>
+      <c r="R244" s="10"/>
+      <c r="S244" s="10"/>
+      <c r="T244" s="10"/>
+      <c r="U244" s="10"/>
+      <c r="V244" s="10"/>
+    </row>
+    <row r="245" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D245" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E245" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F245" s="10"/>
+      <c r="G245" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H245" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="I245" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J245" s="10"/>
+      <c r="K245" s="10">
+        <v>6</v>
+      </c>
+      <c r="L245" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M245" s="10">
+        <v>0</v>
+      </c>
+      <c r="N245" s="10">
+        <v>0</v>
+      </c>
+      <c r="O245" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P245" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q245" s="10"/>
+      <c r="R245" s="10"/>
+      <c r="S245" s="10"/>
+      <c r="T245" s="10"/>
+      <c r="U245" s="10"/>
+      <c r="V245" s="10"/>
+    </row>
+    <row r="246" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D246" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="E246" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F246" s="10"/>
+      <c r="G246" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H246" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="I246" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J246" s="10"/>
+      <c r="K246" s="10">
+        <v>6</v>
+      </c>
+      <c r="L246" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M246" s="10">
+        <v>0</v>
+      </c>
+      <c r="N246" s="10">
+        <v>0</v>
+      </c>
+      <c r="O246" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="P246" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="Q246" s="10"/>
+      <c r="R246" s="10"/>
+      <c r="S246" s="10"/>
+      <c r="T246" s="10"/>
+      <c r="U246" s="10"/>
+      <c r="V246" s="10"/>
+    </row>
+    <row r="247" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D247" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E247" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F247" s="10"/>
+      <c r="G247" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H247" s="19">
+        <v>810</v>
+      </c>
+      <c r="I247" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J247" s="10"/>
+      <c r="K247" s="10">
+        <v>6</v>
+      </c>
+      <c r="L247" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M247" s="10">
+        <v>0</v>
+      </c>
+      <c r="N247" s="10">
+        <v>0</v>
+      </c>
+      <c r="O247" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P247" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q247" s="10"/>
+      <c r="R247" s="10"/>
+      <c r="S247" s="10"/>
+      <c r="T247" s="10"/>
+      <c r="U247" s="10"/>
+      <c r="V247" s="10"/>
+    </row>
+    <row r="248" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D248" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="E248" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F248" s="10"/>
+      <c r="G248" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H248" s="19">
+        <v>384</v>
+      </c>
+      <c r="I248" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J248" s="10"/>
+      <c r="K248" s="10">
+        <v>6</v>
+      </c>
+      <c r="L248" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M248" s="10">
+        <v>0</v>
+      </c>
+      <c r="N248" s="10">
+        <v>0</v>
+      </c>
+      <c r="O248" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P248" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q248" s="10"/>
+      <c r="R248" s="10"/>
+      <c r="S248" s="10"/>
+      <c r="T248" s="10"/>
+      <c r="U248" s="10"/>
+      <c r="V248" s="10"/>
+    </row>
+    <row r="249" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E249" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F249" s="10"/>
+      <c r="G249" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H249" s="19">
+        <v>161</v>
+      </c>
+      <c r="I249" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J249" s="10"/>
+      <c r="K249" s="10">
+        <v>1</v>
+      </c>
+      <c r="L249" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M249" s="10">
+        <v>0</v>
+      </c>
+      <c r="N249" s="10">
+        <v>0</v>
+      </c>
+      <c r="O249" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="P249" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q249" s="10"/>
+      <c r="R249" s="10"/>
+      <c r="S249" s="10"/>
+      <c r="T249" s="10"/>
+      <c r="U249" s="10"/>
+      <c r="V249" s="10"/>
+    </row>
+    <row r="250" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D250" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E250" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F250" s="10"/>
+      <c r="G250" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H250" s="19">
+        <v>742</v>
+      </c>
+      <c r="I250" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J250" s="10"/>
+      <c r="K250" s="10">
+        <v>1</v>
+      </c>
+      <c r="L250" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M250" s="10">
+        <v>0</v>
+      </c>
+      <c r="N250" s="10">
+        <v>0</v>
+      </c>
+      <c r="O250" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="P250" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q250" s="10"/>
+      <c r="R250" s="10"/>
+      <c r="S250" s="10"/>
+      <c r="T250" s="10"/>
+      <c r="U250" s="10"/>
+      <c r="V250" s="10"/>
+    </row>
+    <row r="251" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E251" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F251" s="10"/>
+      <c r="G251" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H251" s="19">
+        <v>945</v>
+      </c>
+      <c r="I251" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J251" s="10"/>
+      <c r="K251" s="10">
+        <v>1</v>
+      </c>
+      <c r="L251" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M251" s="10">
+        <v>0</v>
+      </c>
+      <c r="N251" s="10">
+        <v>0</v>
+      </c>
+      <c r="O251" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="P251" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q251" s="10"/>
+      <c r="R251" s="10"/>
+      <c r="S251" s="10"/>
+      <c r="T251" s="10"/>
+      <c r="U251" s="10"/>
+      <c r="V251" s="10"/>
+    </row>
+    <row r="252" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E252" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F252" s="10"/>
+      <c r="G252" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H252" s="19">
+        <v>959</v>
+      </c>
+      <c r="I252" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J252" s="10"/>
+      <c r="K252" s="10">
+        <v>1</v>
+      </c>
+      <c r="L252" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M252" s="10">
+        <v>0</v>
+      </c>
+      <c r="N252" s="10">
+        <v>0</v>
+      </c>
+      <c r="O252" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="P252" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q252" s="10"/>
+      <c r="R252" s="10"/>
+      <c r="S252" s="10"/>
+      <c r="T252" s="10"/>
+      <c r="U252" s="10"/>
+      <c r="V252" s="10"/>
+    </row>
+    <row r="253" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D253" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E253" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F253" s="10"/>
+      <c r="G253" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H253" s="19">
+        <v>184</v>
+      </c>
+      <c r="I253" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J253" s="10"/>
+      <c r="K253" s="10">
+        <v>1</v>
+      </c>
+      <c r="L253" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M253" s="10">
+        <v>0</v>
+      </c>
+      <c r="N253" s="10">
+        <v>0</v>
+      </c>
+      <c r="O253" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="P253" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q253" s="10"/>
+      <c r="R253" s="10"/>
+      <c r="S253" s="10"/>
+      <c r="T253" s="10"/>
+      <c r="U253" s="10"/>
+      <c r="V253" s="10"/>
+    </row>
+    <row r="254" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="E254" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F254" s="10"/>
+      <c r="G254" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H254" s="19">
+        <v>217</v>
+      </c>
+      <c r="I254" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J254" s="10"/>
+      <c r="K254" s="10">
+        <v>50</v>
+      </c>
+      <c r="L254" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M254" s="10">
+        <v>0</v>
+      </c>
+      <c r="N254" s="10">
+        <v>0</v>
+      </c>
+      <c r="O254" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P254" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q254" s="10"/>
+      <c r="R254" s="10"/>
+      <c r="S254" s="10"/>
+      <c r="T254" s="10"/>
+      <c r="U254" s="10"/>
+      <c r="V254" s="10"/>
+    </row>
+    <row r="255" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="D255" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E255" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F255" s="10"/>
+      <c r="G255" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H255" s="19">
+        <v>184</v>
+      </c>
+      <c r="I255" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J255" s="10"/>
+      <c r="K255" s="10">
+        <v>28</v>
+      </c>
+      <c r="L255" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M255" s="10">
+        <v>0</v>
+      </c>
+      <c r="N255" s="10">
+        <v>0</v>
+      </c>
+      <c r="O255" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P255" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q255" s="10"/>
+      <c r="R255" s="10"/>
+      <c r="S255" s="10"/>
+      <c r="T255" s="10"/>
+      <c r="U255" s="10"/>
+      <c r="V255" s="10"/>
+    </row>
+    <row r="256" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="D256" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E256" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F256" s="10"/>
+      <c r="G256" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H256" s="19">
+        <v>184</v>
+      </c>
+      <c r="I256" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J256" s="10"/>
+      <c r="K256" s="10">
+        <v>25</v>
+      </c>
+      <c r="L256" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M256" s="10">
+        <v>0</v>
+      </c>
+      <c r="N256" s="10">
+        <v>0</v>
+      </c>
+      <c r="O256" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P256" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q256" s="10"/>
+      <c r="R256" s="10"/>
+      <c r="S256" s="10"/>
+      <c r="T256" s="10"/>
+      <c r="U256" s="10"/>
+      <c r="V256" s="10"/>
+    </row>
+    <row r="257" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="D257" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="E257" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="F257" s="10"/>
+      <c r="G257" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H257" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="I257" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J257" s="10"/>
+      <c r="K257" s="10">
+        <v>1</v>
+      </c>
+      <c r="L257" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M257" s="10">
+        <v>0</v>
+      </c>
+      <c r="N257" s="10">
+        <v>0</v>
+      </c>
+      <c r="O257" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="P257" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q257" s="10"/>
+      <c r="R257" s="10"/>
+      <c r="S257" s="10"/>
+      <c r="T257" s="10"/>
+      <c r="U257" s="10"/>
+      <c r="V257" s="10"/>
+    </row>
+    <row r="258" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="D258" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="E258" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="F258" s="10"/>
+      <c r="G258" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H258" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="I258" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J258" s="10"/>
+      <c r="K258" s="10">
+        <v>1</v>
+      </c>
+      <c r="L258" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M258" s="10"/>
+      <c r="N258" s="10"/>
+      <c r="O258" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="P258" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="Q258" s="10"/>
+      <c r="R258" s="10"/>
+      <c r="S258" s="10"/>
+      <c r="T258" s="10"/>
+      <c r="U258" s="10"/>
+      <c r="V258" s="10"/>
+    </row>
+    <row r="259" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="D259" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E259" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F259" s="10"/>
+      <c r="G259" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H259" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="I259" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J259" s="10"/>
+      <c r="K259" s="10">
+        <v>1</v>
+      </c>
+      <c r="L259" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M259" s="10">
+        <v>0</v>
+      </c>
+      <c r="N259" s="10">
+        <v>0</v>
+      </c>
+      <c r="O259" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="P259" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q259" s="10"/>
+      <c r="R259" s="10"/>
+      <c r="S259" s="10"/>
+      <c r="T259" s="10"/>
+      <c r="U259" s="10"/>
+      <c r="V259" s="10"/>
+    </row>
+    <row r="260" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="D260" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E260" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F260" s="10"/>
+      <c r="G260" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H260" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="I260" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J260" s="10"/>
+      <c r="K260" s="10">
+        <v>1</v>
+      </c>
+      <c r="L260" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M260" s="10">
+        <v>0</v>
+      </c>
+      <c r="N260" s="10">
+        <v>0</v>
+      </c>
+      <c r="O260" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="P260" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q260" s="10"/>
+      <c r="R260" s="10"/>
+      <c r="S260" s="10"/>
+      <c r="T260" s="10"/>
+      <c r="U260" s="10"/>
+      <c r="V260" s="10"/>
+    </row>
+    <row r="261" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="B261" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="D261" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="E261" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="F261" s="40"/>
+      <c r="G261" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H261" s="42" t="s">
+        <v>518</v>
+      </c>
+      <c r="I261" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J261" s="40"/>
+      <c r="K261" s="40">
+        <v>1</v>
+      </c>
+      <c r="L261" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="M261" s="40">
+        <v>0</v>
+      </c>
+      <c r="N261" s="40">
+        <v>0</v>
+      </c>
+      <c r="O261" s="40" t="s">
+        <v>687</v>
+      </c>
+      <c r="P261" s="40" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q261" s="40"/>
+      <c r="R261" s="40"/>
+      <c r="S261" s="40"/>
+      <c r="T261" s="40"/>
+      <c r="U261" s="40"/>
+      <c r="V261" s="40"/>
+    </row>
+    <row r="262" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="D262" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="E262" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="F262" s="10"/>
+      <c r="G262" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H262" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="I262" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J262" s="10"/>
+      <c r="K262" s="10">
+        <v>1</v>
+      </c>
+      <c r="L262" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M262" s="10"/>
+      <c r="N262" s="10"/>
+      <c r="O262" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="P262" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q262" s="10"/>
+      <c r="R262" s="10"/>
+      <c r="S262" s="10"/>
+      <c r="T262" s="10"/>
+      <c r="U262" s="10"/>
+      <c r="V262" s="10"/>
+    </row>
+    <row r="263" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="B263" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="D263" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="E263" s="40" t="s">
+        <v>831</v>
+      </c>
+      <c r="F263" s="40"/>
+      <c r="G263" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H263" s="42" t="s">
+        <v>822</v>
+      </c>
+      <c r="I263" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J263" s="40"/>
+      <c r="K263" s="40">
+        <v>1</v>
+      </c>
+      <c r="L263" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="M263" s="40">
+        <v>0</v>
+      </c>
+      <c r="N263" s="40">
+        <v>0</v>
+      </c>
+      <c r="O263" s="40" t="s">
+        <v>687</v>
+      </c>
+      <c r="P263" s="40" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q263" s="40"/>
+      <c r="R263" s="40"/>
+      <c r="S263" s="40"/>
+      <c r="T263" s="40"/>
+      <c r="U263" s="40"/>
+      <c r="V263" s="40"/>
+    </row>
+    <row r="264" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="10"/>
+      <c r="B264" s="10"/>
+      <c r="C264" s="10"/>
+      <c r="D264" s="10"/>
+      <c r="E264" s="10"/>
+      <c r="F264" s="10"/>
+      <c r="G264" s="10"/>
+      <c r="H264" s="19"/>
+      <c r="I264" s="10"/>
+      <c r="J264" s="10"/>
+      <c r="K264" s="10"/>
+      <c r="L264" s="10"/>
+      <c r="M264" s="10"/>
+      <c r="N264" s="10"/>
+      <c r="P264" s="10"/>
+      <c r="Q264" s="10"/>
+      <c r="R264" s="10"/>
+      <c r="S264" s="10"/>
+      <c r="T264" s="10"/>
+      <c r="U264" s="10"/>
+      <c r="V264" s="10"/>
+    </row>
+    <row r="265" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="10"/>
+      <c r="B265" s="10"/>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="10"/>
+      <c r="G265" s="10"/>
+      <c r="H265" s="19"/>
+      <c r="I265" s="10"/>
+      <c r="J265" s="10"/>
+      <c r="K265" s="10"/>
+      <c r="L265" s="10"/>
+      <c r="M265" s="10"/>
+      <c r="N265" s="10"/>
+      <c r="P265" s="10"/>
+      <c r="Q265" s="10"/>
+      <c r="R265" s="10"/>
+      <c r="S265" s="10"/>
+      <c r="T265" s="10"/>
+      <c r="U265" s="10"/>
+      <c r="V265" s="10"/>
+    </row>
+    <row r="266" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="10"/>
+      <c r="B266" s="10"/>
+      <c r="C266" s="10"/>
+      <c r="D266" s="10"/>
+      <c r="E266" s="10"/>
+      <c r="F266" s="10"/>
+      <c r="G266" s="10"/>
+      <c r="H266" s="19"/>
+      <c r="I266" s="10"/>
+      <c r="J266" s="10"/>
+      <c r="K266" s="10"/>
+      <c r="L266" s="10"/>
+      <c r="M266" s="10"/>
+      <c r="N266" s="10"/>
+      <c r="P266" s="10"/>
+      <c r="Q266" s="10"/>
+      <c r="R266" s="10"/>
+      <c r="S266" s="10"/>
+      <c r="T266" s="10"/>
+      <c r="U266" s="10"/>
+      <c r="V266" s="10"/>
+    </row>
+    <row r="267" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="10"/>
+      <c r="B267" s="10"/>
+      <c r="C267" s="10"/>
+      <c r="D267" s="10"/>
+      <c r="E267" s="10"/>
+      <c r="F267" s="10"/>
+      <c r="G267" s="10"/>
+      <c r="H267" s="19"/>
+      <c r="I267" s="10"/>
+      <c r="J267" s="10"/>
+      <c r="K267" s="10"/>
+      <c r="L267" s="10"/>
+      <c r="M267" s="10"/>
+      <c r="N267" s="10"/>
+      <c r="P267" s="10"/>
+      <c r="Q267" s="10"/>
+      <c r="R267" s="10"/>
+      <c r="S267" s="10"/>
+      <c r="T267" s="10"/>
+      <c r="U267" s="10"/>
+      <c r="V267" s="10"/>
+    </row>
+    <row r="268" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="10"/>
+      <c r="B268" s="10"/>
+      <c r="C268" s="10"/>
+      <c r="D268" s="10"/>
+      <c r="E268" s="10"/>
+      <c r="F268" s="10"/>
+      <c r="G268" s="10"/>
+      <c r="H268" s="19"/>
+      <c r="I268" s="10"/>
+      <c r="J268" s="10"/>
+      <c r="K268" s="10"/>
+      <c r="L268" s="10"/>
+      <c r="M268" s="10"/>
+      <c r="N268" s="10"/>
+      <c r="P268" s="10"/>
+      <c r="Q268" s="10"/>
+      <c r="R268" s="10"/>
+      <c r="S268" s="10"/>
+      <c r="T268" s="10"/>
+      <c r="U268" s="10"/>
+      <c r="V268" s="10"/>
+    </row>
+    <row r="269" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="10"/>
+      <c r="B269" s="10"/>
+      <c r="C269" s="10"/>
+      <c r="D269" s="10"/>
+      <c r="E269" s="10"/>
+      <c r="F269" s="10"/>
+      <c r="G269" s="10"/>
+      <c r="H269" s="19"/>
+      <c r="I269" s="10"/>
+      <c r="J269" s="10"/>
+      <c r="K269" s="10"/>
+      <c r="L269" s="10"/>
+      <c r="M269" s="10"/>
+      <c r="N269" s="10"/>
+      <c r="P269" s="10"/>
+      <c r="Q269" s="10"/>
+      <c r="R269" s="10"/>
+      <c r="S269" s="10"/>
+      <c r="T269" s="10"/>
+      <c r="U269" s="10"/>
+      <c r="V269" s="10"/>
+    </row>
+    <row r="270" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="10"/>
+      <c r="B270" s="10"/>
+      <c r="C270" s="10"/>
+      <c r="D270" s="10"/>
+      <c r="E270" s="10"/>
+      <c r="F270" s="10"/>
+      <c r="G270" s="10"/>
+      <c r="H270" s="19"/>
+      <c r="I270" s="10"/>
+      <c r="J270" s="10"/>
+      <c r="K270" s="10"/>
+      <c r="L270" s="10"/>
+      <c r="M270" s="10"/>
+      <c r="N270" s="10"/>
+      <c r="P270" s="10"/>
+      <c r="Q270" s="10"/>
+      <c r="R270" s="10"/>
+      <c r="S270" s="10"/>
+      <c r="T270" s="10"/>
+      <c r="U270" s="10"/>
+      <c r="V270" s="10"/>
+    </row>
+    <row r="271" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="10"/>
+      <c r="B271" s="10"/>
+      <c r="C271" s="10"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="10"/>
+      <c r="G271" s="10"/>
+      <c r="H271" s="19"/>
+      <c r="I271" s="10"/>
+      <c r="J271" s="10"/>
+      <c r="K271" s="10"/>
+      <c r="L271" s="10"/>
+      <c r="M271" s="10"/>
+      <c r="N271" s="10"/>
+      <c r="P271" s="10"/>
+      <c r="Q271" s="10"/>
+      <c r="R271" s="10"/>
+      <c r="S271" s="10"/>
+      <c r="T271" s="10"/>
+      <c r="U271" s="10"/>
+      <c r="V271" s="10"/>
+    </row>
+    <row r="272" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="10"/>
+      <c r="B272" s="10"/>
+      <c r="C272" s="10"/>
+      <c r="D272" s="10"/>
+      <c r="E272" s="10"/>
+      <c r="F272" s="10"/>
+      <c r="G272" s="10"/>
+      <c r="H272" s="19"/>
+      <c r="I272" s="10"/>
+      <c r="J272" s="10"/>
+      <c r="K272" s="10"/>
+      <c r="L272" s="10"/>
+      <c r="M272" s="10"/>
+      <c r="N272" s="10"/>
+      <c r="P272" s="10"/>
+      <c r="Q272" s="10"/>
+      <c r="R272" s="10"/>
+      <c r="S272" s="10"/>
+      <c r="T272" s="10"/>
+      <c r="U272" s="10"/>
+      <c r="V272" s="10"/>
+    </row>
+    <row r="273" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="10"/>
+      <c r="B273" s="10"/>
+      <c r="C273" s="10"/>
+      <c r="D273" s="10"/>
+      <c r="E273" s="10"/>
+      <c r="F273" s="10"/>
+      <c r="G273" s="10"/>
+      <c r="H273" s="19"/>
+      <c r="I273" s="10"/>
+      <c r="J273" s="10"/>
+      <c r="K273" s="10"/>
+      <c r="L273" s="10"/>
+      <c r="M273" s="10"/>
+      <c r="N273" s="10"/>
+      <c r="P273" s="10"/>
+      <c r="Q273" s="10"/>
+      <c r="R273" s="10"/>
+      <c r="S273" s="10"/>
+      <c r="T273" s="10"/>
+      <c r="U273" s="10"/>
+    </row>
+    <row r="274" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D274" s="7"/>
       <c r="G274" s="7"/>
       <c r="L274" s="7"/>
       <c r="N274" s="12"/>
     </row>
-    <row r="275" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D275" s="7"/>
       <c r="G275" s="7"/>
       <c r="L275" s="7"/>
       <c r="N275" s="12"/>
     </row>
-    <row r="276" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D276" s="7"/>
       <c r="G276" s="7"/>
       <c r="L276" s="7"/>
       <c r="N276" s="12"/>
     </row>
-    <row r="277" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D277" s="7"/>
       <c r="G277" s="7"/>
       <c r="L277" s="7"/>
       <c r="N277" s="12"/>
     </row>
-    <row r="278" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="7"/>
       <c r="G278" s="7"/>
       <c r="L278" s="7"/>
       <c r="N278" s="12"/>
     </row>
-    <row r="279" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D279" s="7"/>
       <c r="G279" s="7"/>
       <c r="L279" s="7"/>
       <c r="N279" s="12"/>
     </row>
-    <row r="280" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D280" s="7"/>
       <c r="G280" s="7"/>
       <c r="L280" s="7"/>
       <c r="N280" s="12"/>
     </row>
-    <row r="281" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D281" s="7"/>
       <c r="G281" s="7"/>
       <c r="L281" s="7"/>
       <c r="N281" s="12"/>
     </row>
-    <row r="282" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D282" s="7"/>
       <c r="G282" s="7"/>
       <c r="L282" s="7"/>
       <c r="N282" s="12"/>
     </row>
-    <row r="283" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D283" s="7"/>
       <c r="G283" s="7"/>
       <c r="L283" s="7"/>
       <c r="N283" s="12"/>
     </row>
-    <row r="284" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D284" s="7"/>
       <c r="G284" s="7"/>
       <c r="L284" s="7"/>
       <c r="N284" s="12"/>
     </row>
-    <row r="285" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D285" s="7"/>
       <c r="G285" s="7"/>
       <c r="L285" s="7"/>
       <c r="N285" s="12"/>
     </row>
-    <row r="286" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D286" s="7"/>
       <c r="G286" s="7"/>
       <c r="L286" s="7"/>
       <c r="N286" s="12"/>
     </row>
-    <row r="287" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D287" s="7"/>
       <c r="G287" s="7"/>
       <c r="L287" s="7"/>
       <c r="N287" s="12"/>
     </row>
-    <row r="288" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D288" s="7"/>
       <c r="G288" s="7"/>
       <c r="L288" s="7"/>
@@ -16631,36 +19174,6 @@
       <c r="G563" s="7"/>
       <c r="L563" s="7"/>
       <c r="N563" s="12"/>
-    </row>
-    <row r="564" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D564" s="7"/>
-      <c r="G564" s="7"/>
-      <c r="L564" s="7"/>
-      <c r="N564" s="12"/>
-    </row>
-    <row r="565" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D565" s="7"/>
-      <c r="G565" s="7"/>
-      <c r="L565" s="7"/>
-      <c r="N565" s="12"/>
-    </row>
-    <row r="566" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D566" s="7"/>
-      <c r="G566" s="7"/>
-      <c r="L566" s="7"/>
-      <c r="N566" s="12"/>
-    </row>
-    <row r="567" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D567" s="7"/>
-      <c r="G567" s="7"/>
-      <c r="L567" s="7"/>
-      <c r="N567" s="12"/>
-    </row>
-    <row r="568" spans="4:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D568" s="7"/>
-      <c r="G568" s="7"/>
-      <c r="L568" s="7"/>
-      <c r="N568" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A5809D1-7C6A-5740-822E-8049BC0B6E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3A2794-0A7F-4544-B95B-934D2C571FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="Итоговый расчет с монтажом" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'СПРАВОЧНИК -1'!$A$1:$Z$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'СПРАВОЧНИК -1'!$A$1:$Z$263</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'СПРАВОЧНИК -3'!$A$1:$Q$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -3044,8 +3044,8 @@
   <dimension ref="A1:Z563"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C269" sqref="C269"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19464,13 +19464,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q998"/>
+  <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19498,8 +19498,8 @@
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
       <c r="L1" s="30"/>
@@ -19509,15 +19509,15 @@
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>483</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>46</v>
+      <c r="C2" s="24" t="s">
+        <v>687</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>585</v>
@@ -19525,8 +19525,6 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -19536,7 +19534,7 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>520</v>
       </c>
@@ -19552,8 +19550,6 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -19563,7 +19559,7 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>101</v>
       </c>
@@ -19579,8 +19575,6 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -19606,8 +19600,6 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -19617,7 +19609,7 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>472</v>
       </c>
@@ -19633,8 +19625,6 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -19644,7 +19634,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>475</v>
       </c>
@@ -19660,8 +19650,6 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -19671,7 +19659,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
@@ -19687,8 +19675,6 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -19698,7 +19684,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>222</v>
       </c>
@@ -19714,8 +19700,6 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -19725,7 +19709,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>517</v>
       </c>
@@ -19741,8 +19725,6 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -19752,7 +19734,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>285</v>
       </c>
@@ -19768,8 +19750,6 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -19779,7 +19759,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>108</v>
       </c>
@@ -19795,8 +19775,6 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -19806,7 +19784,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>249</v>
       </c>
@@ -19822,8 +19800,6 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -19833,7 +19809,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>489</v>
       </c>
@@ -19849,8 +19825,6 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -19860,7 +19834,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>431</v>
       </c>
@@ -19876,8 +19850,6 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -19887,7 +19859,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>492</v>
       </c>
@@ -19903,8 +19875,6 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -19914,7 +19884,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>496</v>
       </c>
@@ -19930,8 +19900,6 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -19941,7 +19909,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>636</v>
       </c>
@@ -19957,8 +19925,6 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -19968,7 +19934,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>105</v>
       </c>
@@ -19984,8 +19950,6 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -19995,7 +19959,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>469</v>
       </c>
@@ -20011,8 +19975,6 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -20022,7 +19984,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>447</v>
       </c>
@@ -20038,8 +20000,6 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -20049,7 +20009,7 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>182</v>
       </c>
@@ -20065,8 +20025,6 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -20076,7 +20034,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>499</v>
       </c>
@@ -20092,8 +20050,6 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -20103,7 +20059,7 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>199</v>
       </c>
@@ -20119,8 +20075,6 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -20130,7 +20084,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>203</v>
       </c>
@@ -20146,8 +20100,6 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -20157,7 +20109,7 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>413</v>
       </c>
@@ -20173,8 +20125,6 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -20184,7 +20134,7 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>503</v>
       </c>
@@ -20200,8 +20150,6 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -20211,7 +20159,7 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>445</v>
       </c>
@@ -20227,8 +20175,6 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -20238,7 +20184,7 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
     </row>
-    <row r="29" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>502</v>
       </c>
@@ -20254,8 +20200,6 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -20265,7 +20209,7 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>504</v>
       </c>
@@ -20281,8 +20225,6 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -20292,7 +20234,7 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>451</v>
       </c>
@@ -20308,8 +20250,6 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -20319,7 +20259,7 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>486</v>
       </c>
@@ -20335,8 +20275,6 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -20346,7 +20284,7 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>506</v>
       </c>
@@ -20362,8 +20300,6 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -20373,7 +20309,7 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
     </row>
-    <row r="34" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>423</v>
       </c>
@@ -20389,8 +20325,6 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -20400,7 +20334,7 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>132</v>
       </c>
@@ -20416,8 +20350,6 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
@@ -20427,7 +20359,7 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
     </row>
-    <row r="36" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>276</v>
       </c>
@@ -20443,8 +20375,6 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -20454,7 +20384,7 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>456</v>
       </c>
@@ -20470,8 +20400,6 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
@@ -20481,7 +20409,7 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
     </row>
-    <row r="38" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>453</v>
       </c>
@@ -20497,8 +20425,6 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
@@ -20508,7 +20434,7 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
     </row>
-    <row r="39" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>507</v>
       </c>
@@ -20524,8 +20450,6 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
@@ -20535,7 +20459,7 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
     </row>
-    <row r="40" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>137</v>
       </c>
@@ -20551,8 +20475,6 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
@@ -20562,7 +20484,7 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
     </row>
-    <row r="41" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>188</v>
       </c>
@@ -20578,8 +20500,6 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
@@ -20589,7 +20509,7 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>510</v>
       </c>
@@ -20605,8 +20525,6 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
@@ -20616,7 +20534,7 @@
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
     </row>
-    <row r="43" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>42</v>
       </c>
@@ -20632,8 +20550,6 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
@@ -20643,7 +20559,7 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
     </row>
-    <row r="44" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>515</v>
       </c>
@@ -20659,8 +20575,6 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -20670,7 +20584,7 @@
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
     </row>
-    <row r="45" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>38</v>
       </c>
@@ -20686,8 +20600,6 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
@@ -20697,7 +20609,7 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>435</v>
       </c>
@@ -20713,8 +20625,6 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
@@ -20724,7 +20634,7 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
     </row>
-    <row r="47" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>525</v>
       </c>
@@ -20737,8 +20647,6 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
@@ -20754,8 +20662,6 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -20771,8 +20677,6 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -20788,8 +20692,6 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
@@ -20805,8 +20707,6 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
@@ -20822,8 +20722,6 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
@@ -20839,8 +20737,6 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
@@ -20856,8 +20752,6 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
@@ -20873,8 +20767,6 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
@@ -20890,8 +20782,6 @@
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
@@ -20907,8 +20797,6 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
@@ -20924,8 +20812,6 @@
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -20941,8 +20827,6 @@
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -20958,8 +20842,6 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
@@ -20975,8 +20857,6 @@
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
@@ -20992,8 +20872,6 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
@@ -21009,8 +20887,6 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
@@ -21026,8 +20902,6 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
@@ -21043,8 +20917,6 @@
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
@@ -21060,8 +20932,6 @@
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
@@ -21077,8 +20947,6 @@
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
@@ -21094,8 +20962,6 @@
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
@@ -21111,8 +20977,6 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
@@ -21128,8 +20992,6 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
@@ -21145,8 +21007,6 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
@@ -21162,8 +21022,6 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -21179,8 +21037,6 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
@@ -21196,8 +21052,6 @@
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
@@ -21213,8 +21067,6 @@
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
@@ -21230,8 +21082,6 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
@@ -21247,8 +21097,6 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
@@ -21264,8 +21112,6 @@
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
@@ -21281,8 +21127,6 @@
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
@@ -21298,8 +21142,6 @@
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
@@ -21315,8 +21157,6 @@
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
@@ -21332,8 +21172,6 @@
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
@@ -21349,8 +21187,6 @@
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
@@ -21366,8 +21202,6 @@
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
@@ -21383,8 +21217,6 @@
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
@@ -21400,8 +21232,6 @@
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
@@ -21417,8 +21247,6 @@
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
@@ -21434,8 +21262,6 @@
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
@@ -21451,8 +21277,6 @@
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
@@ -21468,8 +21292,6 @@
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
@@ -21485,8 +21307,6 @@
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
@@ -21502,8 +21322,6 @@
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
@@ -21519,8 +21337,6 @@
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
@@ -21536,8 +21352,6 @@
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
@@ -21553,8 +21367,6 @@
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
@@ -21570,8 +21382,6 @@
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
@@ -21587,8 +21397,6 @@
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
@@ -21604,8 +21412,6 @@
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
@@ -21621,8 +21427,6 @@
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
@@ -21638,8 +21442,6 @@
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
@@ -21655,8 +21457,6 @@
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
@@ -21672,8 +21472,6 @@
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
@@ -21689,8 +21487,6 @@
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
@@ -21706,8 +21502,6 @@
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
@@ -21723,8 +21517,6 @@
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
@@ -21740,8 +21532,6 @@
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
@@ -21757,8 +21547,6 @@
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
@@ -21774,8 +21562,6 @@
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
@@ -21791,8 +21577,6 @@
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
@@ -21808,8 +21592,6 @@
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
@@ -21825,8 +21607,6 @@
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
@@ -21842,8 +21622,6 @@
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
@@ -21859,8 +21637,6 @@
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
@@ -21876,8 +21652,6 @@
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
@@ -21893,8 +21667,6 @@
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
@@ -21910,8 +21682,6 @@
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
@@ -21927,8 +21697,6 @@
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
@@ -21944,8 +21712,6 @@
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
@@ -21961,8 +21727,6 @@
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
@@ -21978,8 +21742,6 @@
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
@@ -21995,8 +21757,6 @@
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
@@ -22012,8 +21772,6 @@
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
@@ -22029,8 +21787,6 @@
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
@@ -22046,8 +21802,6 @@
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
@@ -22063,8 +21817,6 @@
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
@@ -22080,8 +21832,6 @@
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
@@ -22097,8 +21847,6 @@
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
@@ -22114,8 +21862,6 @@
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
@@ -22131,8 +21877,6 @@
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
@@ -22148,8 +21892,6 @@
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
@@ -22165,8 +21907,6 @@
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
@@ -22182,8 +21922,6 @@
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
@@ -22199,8 +21937,6 @@
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
@@ -22216,8 +21952,6 @@
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
@@ -22233,8 +21967,6 @@
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
@@ -22250,8 +21982,6 @@
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
@@ -22267,8 +21997,6 @@
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
@@ -22284,8 +22012,6 @@
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
@@ -22301,8 +22027,6 @@
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
@@ -22318,8 +22042,6 @@
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
@@ -22335,8 +22057,6 @@
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
@@ -22352,8 +22072,6 @@
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
@@ -22369,8 +22087,6 @@
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
@@ -22386,8 +22102,6 @@
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
@@ -22403,8 +22117,6 @@
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
@@ -22420,8 +22132,6 @@
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
@@ -22437,8 +22147,6 @@
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
@@ -22454,8 +22162,6 @@
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
@@ -22471,8 +22177,6 @@
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
@@ -22488,8 +22192,6 @@
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
@@ -22505,8 +22207,6 @@
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
@@ -22522,8 +22222,6 @@
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
@@ -22539,8 +22237,6 @@
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
@@ -22556,8 +22252,6 @@
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
@@ -22573,8 +22267,6 @@
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
@@ -22590,8 +22282,6 @@
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="6"/>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
@@ -22607,8 +22297,6 @@
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="6"/>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
@@ -22624,8 +22312,6 @@
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="6"/>
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
@@ -22641,8 +22327,6 @@
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="6"/>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
@@ -22658,8 +22342,6 @@
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
@@ -22675,8 +22357,6 @@
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
@@ -22692,8 +22372,6 @@
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="6"/>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
@@ -22709,8 +22387,6 @@
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
-      <c r="H163" s="6"/>
-      <c r="I163" s="6"/>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
@@ -22726,8 +22402,6 @@
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
-      <c r="H164" s="6"/>
-      <c r="I164" s="6"/>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
@@ -22743,8 +22417,6 @@
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
-      <c r="H165" s="6"/>
-      <c r="I165" s="6"/>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
@@ -22760,8 +22432,6 @@
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
-      <c r="H166" s="6"/>
-      <c r="I166" s="6"/>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
       <c r="L166" s="6"/>
@@ -22777,8 +22447,6 @@
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
-      <c r="I167" s="6"/>
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
@@ -22794,8 +22462,6 @@
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="6"/>
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
@@ -22811,8 +22477,6 @@
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
-      <c r="I169" s="6"/>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
@@ -22828,8 +22492,6 @@
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
-      <c r="I170" s="6"/>
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
@@ -22845,8 +22507,6 @@
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
-      <c r="I171" s="6"/>
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
       <c r="L171" s="6"/>
@@ -22862,8 +22522,6 @@
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
-      <c r="I172" s="6"/>
       <c r="J172" s="6"/>
       <c r="K172" s="6"/>
       <c r="L172" s="6"/>
@@ -22879,8 +22537,6 @@
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
-      <c r="H173" s="6"/>
-      <c r="I173" s="6"/>
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
@@ -22896,8 +22552,6 @@
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
-      <c r="H174" s="6"/>
-      <c r="I174" s="6"/>
       <c r="J174" s="6"/>
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
@@ -22913,8 +22567,6 @@
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
-      <c r="I175" s="6"/>
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
       <c r="L175" s="6"/>
@@ -22930,8 +22582,6 @@
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
-      <c r="I176" s="6"/>
       <c r="J176" s="6"/>
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
@@ -22947,8 +22597,6 @@
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
-      <c r="H177" s="6"/>
-      <c r="I177" s="6"/>
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
@@ -22964,8 +22612,6 @@
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
-      <c r="H178" s="6"/>
-      <c r="I178" s="6"/>
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
@@ -22981,8 +22627,6 @@
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
-      <c r="H179" s="6"/>
-      <c r="I179" s="6"/>
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
@@ -22998,8 +22642,6 @@
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
-      <c r="H180" s="6"/>
-      <c r="I180" s="6"/>
       <c r="J180" s="6"/>
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
@@ -23015,8 +22657,6 @@
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
-      <c r="I181" s="6"/>
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
@@ -23032,8 +22672,6 @@
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
-      <c r="H182" s="6"/>
-      <c r="I182" s="6"/>
       <c r="J182" s="6"/>
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
@@ -23049,8 +22687,6 @@
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
-      <c r="H183" s="6"/>
-      <c r="I183" s="6"/>
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
@@ -23066,8 +22702,6 @@
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
-      <c r="I184" s="6"/>
       <c r="J184" s="6"/>
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
@@ -23083,8 +22717,6 @@
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
-      <c r="I185" s="6"/>
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
@@ -23100,8 +22732,6 @@
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
-      <c r="I186" s="6"/>
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
@@ -23117,8 +22747,6 @@
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
-      <c r="I187" s="6"/>
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
@@ -23134,8 +22762,6 @@
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
-      <c r="H188" s="6"/>
-      <c r="I188" s="6"/>
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
@@ -23151,8 +22777,6 @@
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
-      <c r="H189" s="6"/>
-      <c r="I189" s="6"/>
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
       <c r="L189" s="6"/>
@@ -23168,8 +22792,6 @@
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
-      <c r="H190" s="6"/>
-      <c r="I190" s="6"/>
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
       <c r="L190" s="6"/>
@@ -23185,8 +22807,6 @@
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
-      <c r="I191" s="6"/>
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
       <c r="L191" s="6"/>
@@ -23202,8 +22822,6 @@
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
-      <c r="I192" s="6"/>
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
@@ -23219,8 +22837,6 @@
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
-      <c r="H193" s="6"/>
-      <c r="I193" s="6"/>
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
@@ -23236,8 +22852,6 @@
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
-      <c r="H194" s="6"/>
-      <c r="I194" s="6"/>
       <c r="J194" s="6"/>
       <c r="K194" s="6"/>
       <c r="L194" s="6"/>
@@ -23253,8 +22867,6 @@
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
-      <c r="H195" s="6"/>
-      <c r="I195" s="6"/>
       <c r="J195" s="6"/>
       <c r="K195" s="6"/>
       <c r="L195" s="6"/>
@@ -23270,8 +22882,6 @@
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
-      <c r="H196" s="6"/>
-      <c r="I196" s="6"/>
       <c r="J196" s="6"/>
       <c r="K196" s="6"/>
       <c r="L196" s="6"/>
@@ -23287,8 +22897,6 @@
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
-      <c r="H197" s="6"/>
-      <c r="I197" s="6"/>
       <c r="J197" s="6"/>
       <c r="K197" s="6"/>
       <c r="L197" s="6"/>
@@ -23304,8 +22912,6 @@
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
-      <c r="H198" s="6"/>
-      <c r="I198" s="6"/>
       <c r="J198" s="6"/>
       <c r="K198" s="6"/>
       <c r="L198" s="6"/>
@@ -23321,8 +22927,6 @@
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
-      <c r="H199" s="6"/>
-      <c r="I199" s="6"/>
       <c r="J199" s="6"/>
       <c r="K199" s="6"/>
       <c r="L199" s="6"/>
@@ -23338,8 +22942,6 @@
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
-      <c r="H200" s="6"/>
-      <c r="I200" s="6"/>
       <c r="J200" s="6"/>
       <c r="K200" s="6"/>
       <c r="L200" s="6"/>
@@ -23355,8 +22957,6 @@
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
-      <c r="H201" s="6"/>
-      <c r="I201" s="6"/>
       <c r="J201" s="6"/>
       <c r="K201" s="6"/>
       <c r="L201" s="6"/>
@@ -23372,8 +22972,6 @@
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
-      <c r="H202" s="6"/>
-      <c r="I202" s="6"/>
       <c r="J202" s="6"/>
       <c r="K202" s="6"/>
       <c r="L202" s="6"/>
@@ -23389,8 +22987,6 @@
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
-      <c r="H203" s="6"/>
-      <c r="I203" s="6"/>
       <c r="J203" s="6"/>
       <c r="K203" s="6"/>
       <c r="L203" s="6"/>
@@ -23406,8 +23002,6 @@
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
-      <c r="H204" s="6"/>
-      <c r="I204" s="6"/>
       <c r="J204" s="6"/>
       <c r="K204" s="6"/>
       <c r="L204" s="6"/>
@@ -23423,8 +23017,6 @@
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
-      <c r="H205" s="6"/>
-      <c r="I205" s="6"/>
       <c r="J205" s="6"/>
       <c r="K205" s="6"/>
       <c r="L205" s="6"/>
@@ -23440,8 +23032,6 @@
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
-      <c r="H206" s="6"/>
-      <c r="I206" s="6"/>
       <c r="J206" s="6"/>
       <c r="K206" s="6"/>
       <c r="L206" s="6"/>
@@ -23457,8 +23047,6 @@
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
-      <c r="H207" s="6"/>
-      <c r="I207" s="6"/>
       <c r="J207" s="6"/>
       <c r="K207" s="6"/>
       <c r="L207" s="6"/>
@@ -23474,8 +23062,6 @@
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
-      <c r="H208" s="6"/>
-      <c r="I208" s="6"/>
       <c r="J208" s="6"/>
       <c r="K208" s="6"/>
       <c r="L208" s="6"/>
@@ -23491,8 +23077,6 @@
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
-      <c r="H209" s="6"/>
-      <c r="I209" s="6"/>
       <c r="J209" s="6"/>
       <c r="K209" s="6"/>
       <c r="L209" s="6"/>
@@ -23508,8 +23092,6 @@
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
-      <c r="H210" s="6"/>
-      <c r="I210" s="6"/>
       <c r="J210" s="6"/>
       <c r="K210" s="6"/>
       <c r="L210" s="6"/>
@@ -23525,8 +23107,6 @@
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
-      <c r="H211" s="6"/>
-      <c r="I211" s="6"/>
       <c r="J211" s="6"/>
       <c r="K211" s="6"/>
       <c r="L211" s="6"/>
@@ -23542,8 +23122,6 @@
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
-      <c r="H212" s="6"/>
-      <c r="I212" s="6"/>
       <c r="J212" s="6"/>
       <c r="K212" s="6"/>
       <c r="L212" s="6"/>
@@ -23559,8 +23137,6 @@
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
-      <c r="H213" s="6"/>
-      <c r="I213" s="6"/>
       <c r="J213" s="6"/>
       <c r="K213" s="6"/>
       <c r="L213" s="6"/>
@@ -23576,8 +23152,6 @@
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
-      <c r="H214" s="6"/>
-      <c r="I214" s="6"/>
       <c r="J214" s="6"/>
       <c r="K214" s="6"/>
       <c r="L214" s="6"/>
@@ -23593,8 +23167,6 @@
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
-      <c r="H215" s="6"/>
-      <c r="I215" s="6"/>
       <c r="J215" s="6"/>
       <c r="K215" s="6"/>
       <c r="L215" s="6"/>
@@ -23610,8 +23182,6 @@
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
-      <c r="H216" s="6"/>
-      <c r="I216" s="6"/>
       <c r="J216" s="6"/>
       <c r="K216" s="6"/>
       <c r="L216" s="6"/>
@@ -23627,8 +23197,6 @@
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
-      <c r="H217" s="6"/>
-      <c r="I217" s="6"/>
       <c r="J217" s="6"/>
       <c r="K217" s="6"/>
       <c r="L217" s="6"/>
@@ -23644,8 +23212,6 @@
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
-      <c r="H218" s="6"/>
-      <c r="I218" s="6"/>
       <c r="J218" s="6"/>
       <c r="K218" s="6"/>
       <c r="L218" s="6"/>
@@ -23661,8 +23227,6 @@
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
-      <c r="H219" s="6"/>
-      <c r="I219" s="6"/>
       <c r="J219" s="6"/>
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
@@ -23678,8 +23242,6 @@
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
-      <c r="H220" s="6"/>
-      <c r="I220" s="6"/>
       <c r="J220" s="6"/>
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
@@ -23695,8 +23257,6 @@
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
-      <c r="H221" s="6"/>
-      <c r="I221" s="6"/>
       <c r="J221" s="6"/>
       <c r="K221" s="6"/>
       <c r="L221" s="6"/>
@@ -23712,8 +23272,6 @@
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
-      <c r="H222" s="6"/>
-      <c r="I222" s="6"/>
       <c r="J222" s="6"/>
       <c r="K222" s="6"/>
       <c r="L222" s="6"/>
@@ -23729,8 +23287,6 @@
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
-      <c r="H223" s="6"/>
-      <c r="I223" s="6"/>
       <c r="J223" s="6"/>
       <c r="K223" s="6"/>
       <c r="L223" s="6"/>
@@ -23746,8 +23302,6 @@
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
-      <c r="H224" s="6"/>
-      <c r="I224" s="6"/>
       <c r="J224" s="6"/>
       <c r="K224" s="6"/>
       <c r="L224" s="6"/>
@@ -23763,8 +23317,6 @@
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
-      <c r="H225" s="6"/>
-      <c r="I225" s="6"/>
       <c r="J225" s="6"/>
       <c r="K225" s="6"/>
       <c r="L225" s="6"/>
@@ -23780,8 +23332,6 @@
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
-      <c r="H226" s="6"/>
-      <c r="I226" s="6"/>
       <c r="J226" s="6"/>
       <c r="K226" s="6"/>
       <c r="L226" s="6"/>
@@ -23797,8 +23347,6 @@
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
-      <c r="H227" s="6"/>
-      <c r="I227" s="6"/>
       <c r="J227" s="6"/>
       <c r="K227" s="6"/>
       <c r="L227" s="6"/>
@@ -23814,8 +23362,6 @@
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
-      <c r="H228" s="6"/>
-      <c r="I228" s="6"/>
       <c r="J228" s="6"/>
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
@@ -23831,8 +23377,6 @@
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
-      <c r="H229" s="6"/>
-      <c r="I229" s="6"/>
       <c r="J229" s="6"/>
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
@@ -23848,8 +23392,6 @@
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
-      <c r="H230" s="6"/>
-      <c r="I230" s="6"/>
       <c r="J230" s="6"/>
       <c r="K230" s="6"/>
       <c r="L230" s="6"/>
@@ -23865,8 +23407,6 @@
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
-      <c r="H231" s="6"/>
-      <c r="I231" s="6"/>
       <c r="J231" s="6"/>
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
@@ -23882,8 +23422,6 @@
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
-      <c r="H232" s="6"/>
-      <c r="I232" s="6"/>
       <c r="J232" s="6"/>
       <c r="K232" s="6"/>
       <c r="L232" s="6"/>
@@ -23899,8 +23437,6 @@
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
-      <c r="H233" s="6"/>
-      <c r="I233" s="6"/>
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
       <c r="L233" s="6"/>
@@ -23916,8 +23452,6 @@
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
-      <c r="H234" s="6"/>
-      <c r="I234" s="6"/>
       <c r="J234" s="6"/>
       <c r="K234" s="6"/>
       <c r="L234" s="6"/>
@@ -23933,8 +23467,6 @@
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
-      <c r="H235" s="6"/>
-      <c r="I235" s="6"/>
       <c r="J235" s="6"/>
       <c r="K235" s="6"/>
       <c r="L235" s="6"/>
@@ -23950,8 +23482,6 @@
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
-      <c r="H236" s="6"/>
-      <c r="I236" s="6"/>
       <c r="J236" s="6"/>
       <c r="K236" s="6"/>
       <c r="L236" s="6"/>
@@ -23967,8 +23497,6 @@
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
-      <c r="H237" s="6"/>
-      <c r="I237" s="6"/>
       <c r="J237" s="6"/>
       <c r="K237" s="6"/>
       <c r="L237" s="6"/>
@@ -23984,8 +23512,6 @@
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
-      <c r="H238" s="6"/>
-      <c r="I238" s="6"/>
       <c r="J238" s="6"/>
       <c r="K238" s="6"/>
       <c r="L238" s="6"/>
@@ -24001,8 +23527,6 @@
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
-      <c r="H239" s="6"/>
-      <c r="I239" s="6"/>
       <c r="J239" s="6"/>
       <c r="K239" s="6"/>
       <c r="L239" s="6"/>
@@ -24018,8 +23542,6 @@
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
-      <c r="H240" s="6"/>
-      <c r="I240" s="6"/>
       <c r="J240" s="6"/>
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
@@ -24035,8 +23557,6 @@
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
-      <c r="H241" s="6"/>
-      <c r="I241" s="6"/>
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
@@ -24052,8 +23572,6 @@
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
-      <c r="H242" s="6"/>
-      <c r="I242" s="6"/>
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
@@ -24069,8 +23587,6 @@
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
-      <c r="H243" s="6"/>
-      <c r="I243" s="6"/>
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
@@ -24086,8 +23602,6 @@
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
-      <c r="H244" s="6"/>
-      <c r="I244" s="6"/>
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
@@ -24103,8 +23617,6 @@
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
-      <c r="H245" s="6"/>
-      <c r="I245" s="6"/>
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
@@ -24120,8 +23632,6 @@
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
-      <c r="H246" s="6"/>
-      <c r="I246" s="6"/>
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
@@ -24137,8 +23647,6 @@
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
-      <c r="H247" s="6"/>
-      <c r="I247" s="6"/>
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
@@ -24154,8 +23662,6 @@
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
-      <c r="H248" s="6"/>
-      <c r="I248" s="6"/>
       <c r="J248" s="6"/>
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
@@ -24171,8 +23677,6 @@
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
-      <c r="H249" s="6"/>
-      <c r="I249" s="6"/>
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
@@ -24188,8 +23692,6 @@
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
       <c r="G250" s="6"/>
-      <c r="H250" s="6"/>
-      <c r="I250" s="6"/>
       <c r="J250" s="6"/>
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
@@ -24205,8 +23707,6 @@
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
-      <c r="H251" s="6"/>
-      <c r="I251" s="6"/>
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
       <c r="L251" s="6"/>
@@ -24222,8 +23722,6 @@
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
       <c r="G252" s="6"/>
-      <c r="H252" s="6"/>
-      <c r="I252" s="6"/>
       <c r="J252" s="6"/>
       <c r="K252" s="6"/>
       <c r="L252" s="6"/>
@@ -24239,8 +23737,6 @@
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
-      <c r="H253" s="6"/>
-      <c r="I253" s="6"/>
       <c r="J253" s="6"/>
       <c r="K253" s="6"/>
       <c r="L253" s="6"/>
@@ -24256,8 +23752,6 @@
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
-      <c r="H254" s="6"/>
-      <c r="I254" s="6"/>
       <c r="J254" s="6"/>
       <c r="K254" s="6"/>
       <c r="L254" s="6"/>
@@ -24273,8 +23767,6 @@
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
-      <c r="H255" s="6"/>
-      <c r="I255" s="6"/>
       <c r="J255" s="6"/>
       <c r="K255" s="6"/>
       <c r="L255" s="6"/>
@@ -24290,8 +23782,6 @@
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
       <c r="G256" s="6"/>
-      <c r="H256" s="6"/>
-      <c r="I256" s="6"/>
       <c r="J256" s="6"/>
       <c r="K256" s="6"/>
       <c r="L256" s="6"/>
@@ -24307,8 +23797,6 @@
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
-      <c r="H257" s="6"/>
-      <c r="I257" s="6"/>
       <c r="J257" s="6"/>
       <c r="K257" s="6"/>
       <c r="L257" s="6"/>
@@ -24324,8 +23812,6 @@
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
-      <c r="H258" s="6"/>
-      <c r="I258" s="6"/>
       <c r="J258" s="6"/>
       <c r="K258" s="6"/>
       <c r="L258" s="6"/>
@@ -24341,8 +23827,6 @@
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
-      <c r="H259" s="6"/>
-      <c r="I259" s="6"/>
       <c r="J259" s="6"/>
       <c r="K259" s="6"/>
       <c r="L259" s="6"/>
@@ -24358,8 +23842,6 @@
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
       <c r="G260" s="6"/>
-      <c r="H260" s="6"/>
-      <c r="I260" s="6"/>
       <c r="J260" s="6"/>
       <c r="K260" s="6"/>
       <c r="L260" s="6"/>
@@ -24375,8 +23857,6 @@
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
       <c r="G261" s="6"/>
-      <c r="H261" s="6"/>
-      <c r="I261" s="6"/>
       <c r="J261" s="6"/>
       <c r="K261" s="6"/>
       <c r="L261" s="6"/>
@@ -24392,8 +23872,6 @@
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
       <c r="G262" s="6"/>
-      <c r="H262" s="6"/>
-      <c r="I262" s="6"/>
       <c r="J262" s="6"/>
       <c r="K262" s="6"/>
       <c r="L262" s="6"/>
@@ -24409,8 +23887,6 @@
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
-      <c r="H263" s="6"/>
-      <c r="I263" s="6"/>
       <c r="J263" s="6"/>
       <c r="K263" s="6"/>
       <c r="L263" s="6"/>
@@ -24426,8 +23902,6 @@
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
       <c r="G264" s="6"/>
-      <c r="H264" s="6"/>
-      <c r="I264" s="6"/>
       <c r="J264" s="6"/>
       <c r="K264" s="6"/>
       <c r="L264" s="6"/>
@@ -24443,8 +23917,6 @@
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
-      <c r="H265" s="6"/>
-      <c r="I265" s="6"/>
       <c r="J265" s="6"/>
       <c r="K265" s="6"/>
       <c r="L265" s="6"/>
@@ -24460,8 +23932,6 @@
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
       <c r="G266" s="6"/>
-      <c r="H266" s="6"/>
-      <c r="I266" s="6"/>
       <c r="J266" s="6"/>
       <c r="K266" s="6"/>
       <c r="L266" s="6"/>
@@ -24477,8 +23947,6 @@
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
-      <c r="H267" s="6"/>
-      <c r="I267" s="6"/>
       <c r="J267" s="6"/>
       <c r="K267" s="6"/>
       <c r="L267" s="6"/>
@@ -24494,8 +23962,6 @@
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
       <c r="G268" s="6"/>
-      <c r="H268" s="6"/>
-      <c r="I268" s="6"/>
       <c r="J268" s="6"/>
       <c r="K268" s="6"/>
       <c r="L268" s="6"/>
@@ -24511,8 +23977,6 @@
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
       <c r="G269" s="6"/>
-      <c r="H269" s="6"/>
-      <c r="I269" s="6"/>
       <c r="J269" s="6"/>
       <c r="K269" s="6"/>
       <c r="L269" s="6"/>
@@ -24528,8 +23992,6 @@
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
       <c r="G270" s="6"/>
-      <c r="H270" s="6"/>
-      <c r="I270" s="6"/>
       <c r="J270" s="6"/>
       <c r="K270" s="6"/>
       <c r="L270" s="6"/>
@@ -24545,8 +24007,6 @@
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
       <c r="G271" s="6"/>
-      <c r="H271" s="6"/>
-      <c r="I271" s="6"/>
       <c r="J271" s="6"/>
       <c r="K271" s="6"/>
       <c r="L271" s="6"/>
@@ -24562,8 +24022,6 @@
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
-      <c r="H272" s="6"/>
-      <c r="I272" s="6"/>
       <c r="J272" s="6"/>
       <c r="K272" s="6"/>
       <c r="L272" s="6"/>
@@ -24579,8 +24037,6 @@
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
       <c r="G273" s="6"/>
-      <c r="H273" s="6"/>
-      <c r="I273" s="6"/>
       <c r="J273" s="6"/>
       <c r="K273" s="6"/>
       <c r="L273" s="6"/>
@@ -24596,8 +24052,6 @@
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
       <c r="G274" s="6"/>
-      <c r="H274" s="6"/>
-      <c r="I274" s="6"/>
       <c r="J274" s="6"/>
       <c r="K274" s="6"/>
       <c r="L274" s="6"/>
@@ -24613,8 +24067,6 @@
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
       <c r="G275" s="6"/>
-      <c r="H275" s="6"/>
-      <c r="I275" s="6"/>
       <c r="J275" s="6"/>
       <c r="K275" s="6"/>
       <c r="L275" s="6"/>
@@ -24630,8 +24082,6 @@
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
       <c r="G276" s="6"/>
-      <c r="H276" s="6"/>
-      <c r="I276" s="6"/>
       <c r="J276" s="6"/>
       <c r="K276" s="6"/>
       <c r="L276" s="6"/>
@@ -24647,8 +24097,6 @@
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
       <c r="G277" s="6"/>
-      <c r="H277" s="6"/>
-      <c r="I277" s="6"/>
       <c r="J277" s="6"/>
       <c r="K277" s="6"/>
       <c r="L277" s="6"/>
@@ -24664,8 +24112,6 @@
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
       <c r="G278" s="6"/>
-      <c r="H278" s="6"/>
-      <c r="I278" s="6"/>
       <c r="J278" s="6"/>
       <c r="K278" s="6"/>
       <c r="L278" s="6"/>
@@ -24681,8 +24127,6 @@
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
       <c r="G279" s="6"/>
-      <c r="H279" s="6"/>
-      <c r="I279" s="6"/>
       <c r="J279" s="6"/>
       <c r="K279" s="6"/>
       <c r="L279" s="6"/>
@@ -24698,8 +24142,6 @@
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
-      <c r="H280" s="6"/>
-      <c r="I280" s="6"/>
       <c r="J280" s="6"/>
       <c r="K280" s="6"/>
       <c r="L280" s="6"/>
@@ -24715,8 +24157,6 @@
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
       <c r="G281" s="6"/>
-      <c r="H281" s="6"/>
-      <c r="I281" s="6"/>
       <c r="J281" s="6"/>
       <c r="K281" s="6"/>
       <c r="L281" s="6"/>
@@ -24732,8 +24172,6 @@
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
       <c r="G282" s="6"/>
-      <c r="H282" s="6"/>
-      <c r="I282" s="6"/>
       <c r="J282" s="6"/>
       <c r="K282" s="6"/>
       <c r="L282" s="6"/>
@@ -24749,8 +24187,6 @@
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
       <c r="G283" s="6"/>
-      <c r="H283" s="6"/>
-      <c r="I283" s="6"/>
       <c r="J283" s="6"/>
       <c r="K283" s="6"/>
       <c r="L283" s="6"/>
@@ -24766,8 +24202,6 @@
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
       <c r="G284" s="6"/>
-      <c r="H284" s="6"/>
-      <c r="I284" s="6"/>
       <c r="J284" s="6"/>
       <c r="K284" s="6"/>
       <c r="L284" s="6"/>
@@ -24783,8 +24217,6 @@
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
       <c r="G285" s="6"/>
-      <c r="H285" s="6"/>
-      <c r="I285" s="6"/>
       <c r="J285" s="6"/>
       <c r="K285" s="6"/>
       <c r="L285" s="6"/>
@@ -24800,8 +24232,6 @@
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
       <c r="G286" s="6"/>
-      <c r="H286" s="6"/>
-      <c r="I286" s="6"/>
       <c r="J286" s="6"/>
       <c r="K286" s="6"/>
       <c r="L286" s="6"/>
@@ -24817,8 +24247,6 @@
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
       <c r="G287" s="6"/>
-      <c r="H287" s="6"/>
-      <c r="I287" s="6"/>
       <c r="J287" s="6"/>
       <c r="K287" s="6"/>
       <c r="L287" s="6"/>
@@ -24834,8 +24262,6 @@
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
-      <c r="H288" s="6"/>
-      <c r="I288" s="6"/>
       <c r="J288" s="6"/>
       <c r="K288" s="6"/>
       <c r="L288" s="6"/>
@@ -24851,8 +24277,6 @@
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
       <c r="G289" s="6"/>
-      <c r="H289" s="6"/>
-      <c r="I289" s="6"/>
       <c r="J289" s="6"/>
       <c r="K289" s="6"/>
       <c r="L289" s="6"/>
@@ -24868,8 +24292,6 @@
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
       <c r="G290" s="6"/>
-      <c r="H290" s="6"/>
-      <c r="I290" s="6"/>
       <c r="J290" s="6"/>
       <c r="K290" s="6"/>
       <c r="L290" s="6"/>
@@ -24885,8 +24307,6 @@
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
       <c r="G291" s="6"/>
-      <c r="H291" s="6"/>
-      <c r="I291" s="6"/>
       <c r="J291" s="6"/>
       <c r="K291" s="6"/>
       <c r="L291" s="6"/>
@@ -24902,8 +24322,6 @@
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
       <c r="G292" s="6"/>
-      <c r="H292" s="6"/>
-      <c r="I292" s="6"/>
       <c r="J292" s="6"/>
       <c r="K292" s="6"/>
       <c r="L292" s="6"/>
@@ -24919,8 +24337,6 @@
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
       <c r="G293" s="6"/>
-      <c r="H293" s="6"/>
-      <c r="I293" s="6"/>
       <c r="J293" s="6"/>
       <c r="K293" s="6"/>
       <c r="L293" s="6"/>
@@ -24936,8 +24352,6 @@
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
-      <c r="H294" s="6"/>
-      <c r="I294" s="6"/>
       <c r="J294" s="6"/>
       <c r="K294" s="6"/>
       <c r="L294" s="6"/>
@@ -24953,8 +24367,6 @@
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
       <c r="G295" s="6"/>
-      <c r="H295" s="6"/>
-      <c r="I295" s="6"/>
       <c r="J295" s="6"/>
       <c r="K295" s="6"/>
       <c r="L295" s="6"/>
@@ -24970,8 +24382,6 @@
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
       <c r="G296" s="6"/>
-      <c r="H296" s="6"/>
-      <c r="I296" s="6"/>
       <c r="J296" s="6"/>
       <c r="K296" s="6"/>
       <c r="L296" s="6"/>
@@ -24987,8 +24397,6 @@
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
       <c r="G297" s="6"/>
-      <c r="H297" s="6"/>
-      <c r="I297" s="6"/>
       <c r="J297" s="6"/>
       <c r="K297" s="6"/>
       <c r="L297" s="6"/>
@@ -25004,8 +24412,6 @@
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
-      <c r="H298" s="6"/>
-      <c r="I298" s="6"/>
       <c r="J298" s="6"/>
       <c r="K298" s="6"/>
       <c r="L298" s="6"/>
@@ -25021,8 +24427,6 @@
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
       <c r="G299" s="6"/>
-      <c r="H299" s="6"/>
-      <c r="I299" s="6"/>
       <c r="J299" s="6"/>
       <c r="K299" s="6"/>
       <c r="L299" s="6"/>
@@ -25038,8 +24442,6 @@
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
       <c r="G300" s="6"/>
-      <c r="H300" s="6"/>
-      <c r="I300" s="6"/>
       <c r="J300" s="6"/>
       <c r="K300" s="6"/>
       <c r="L300" s="6"/>
@@ -25055,8 +24457,6 @@
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
       <c r="G301" s="6"/>
-      <c r="H301" s="6"/>
-      <c r="I301" s="6"/>
       <c r="J301" s="6"/>
       <c r="K301" s="6"/>
       <c r="L301" s="6"/>
@@ -25072,8 +24472,6 @@
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
       <c r="G302" s="6"/>
-      <c r="H302" s="6"/>
-      <c r="I302" s="6"/>
       <c r="J302" s="6"/>
       <c r="K302" s="6"/>
       <c r="L302" s="6"/>
@@ -25089,8 +24487,6 @@
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
       <c r="G303" s="6"/>
-      <c r="H303" s="6"/>
-      <c r="I303" s="6"/>
       <c r="J303" s="6"/>
       <c r="K303" s="6"/>
       <c r="L303" s="6"/>
@@ -25106,8 +24502,6 @@
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
-      <c r="H304" s="6"/>
-      <c r="I304" s="6"/>
       <c r="J304" s="6"/>
       <c r="K304" s="6"/>
       <c r="L304" s="6"/>
@@ -25123,8 +24517,6 @@
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
       <c r="G305" s="6"/>
-      <c r="H305" s="6"/>
-      <c r="I305" s="6"/>
       <c r="J305" s="6"/>
       <c r="K305" s="6"/>
       <c r="L305" s="6"/>
@@ -25140,8 +24532,6 @@
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
       <c r="G306" s="6"/>
-      <c r="H306" s="6"/>
-      <c r="I306" s="6"/>
       <c r="J306" s="6"/>
       <c r="K306" s="6"/>
       <c r="L306" s="6"/>
@@ -25157,8 +24547,6 @@
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
       <c r="G307" s="6"/>
-      <c r="H307" s="6"/>
-      <c r="I307" s="6"/>
       <c r="J307" s="6"/>
       <c r="K307" s="6"/>
       <c r="L307" s="6"/>
@@ -25174,8 +24562,6 @@
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
-      <c r="H308" s="6"/>
-      <c r="I308" s="6"/>
       <c r="J308" s="6"/>
       <c r="K308" s="6"/>
       <c r="L308" s="6"/>
@@ -25191,8 +24577,6 @@
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
-      <c r="H309" s="6"/>
-      <c r="I309" s="6"/>
       <c r="J309" s="6"/>
       <c r="K309" s="6"/>
       <c r="L309" s="6"/>
@@ -25208,8 +24592,6 @@
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
       <c r="G310" s="6"/>
-      <c r="H310" s="6"/>
-      <c r="I310" s="6"/>
       <c r="J310" s="6"/>
       <c r="K310" s="6"/>
       <c r="L310" s="6"/>
@@ -25225,8 +24607,6 @@
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
-      <c r="H311" s="6"/>
-      <c r="I311" s="6"/>
       <c r="J311" s="6"/>
       <c r="K311" s="6"/>
       <c r="L311" s="6"/>
@@ -25242,8 +24622,6 @@
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
       <c r="G312" s="6"/>
-      <c r="H312" s="6"/>
-      <c r="I312" s="6"/>
       <c r="J312" s="6"/>
       <c r="K312" s="6"/>
       <c r="L312" s="6"/>
@@ -25259,8 +24637,6 @@
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
-      <c r="H313" s="6"/>
-      <c r="I313" s="6"/>
       <c r="J313" s="6"/>
       <c r="K313" s="6"/>
       <c r="L313" s="6"/>
@@ -25276,8 +24652,6 @@
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
       <c r="G314" s="6"/>
-      <c r="H314" s="6"/>
-      <c r="I314" s="6"/>
       <c r="J314" s="6"/>
       <c r="K314" s="6"/>
       <c r="L314" s="6"/>
@@ -25293,8 +24667,6 @@
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
       <c r="G315" s="6"/>
-      <c r="H315" s="6"/>
-      <c r="I315" s="6"/>
       <c r="J315" s="6"/>
       <c r="K315" s="6"/>
       <c r="L315" s="6"/>
@@ -25310,8 +24682,6 @@
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
       <c r="G316" s="6"/>
-      <c r="H316" s="6"/>
-      <c r="I316" s="6"/>
       <c r="J316" s="6"/>
       <c r="K316" s="6"/>
       <c r="L316" s="6"/>
@@ -25327,8 +24697,6 @@
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
-      <c r="H317" s="6"/>
-      <c r="I317" s="6"/>
       <c r="J317" s="6"/>
       <c r="K317" s="6"/>
       <c r="L317" s="6"/>
@@ -25344,8 +24712,6 @@
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
       <c r="G318" s="6"/>
-      <c r="H318" s="6"/>
-      <c r="I318" s="6"/>
       <c r="J318" s="6"/>
       <c r="K318" s="6"/>
       <c r="L318" s="6"/>
@@ -25361,8 +24727,6 @@
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
       <c r="G319" s="6"/>
-      <c r="H319" s="6"/>
-      <c r="I319" s="6"/>
       <c r="J319" s="6"/>
       <c r="K319" s="6"/>
       <c r="L319" s="6"/>
@@ -25378,8 +24742,6 @@
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
       <c r="G320" s="6"/>
-      <c r="H320" s="6"/>
-      <c r="I320" s="6"/>
       <c r="J320" s="6"/>
       <c r="K320" s="6"/>
       <c r="L320" s="6"/>
@@ -25395,8 +24757,6 @@
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
       <c r="G321" s="6"/>
-      <c r="H321" s="6"/>
-      <c r="I321" s="6"/>
       <c r="J321" s="6"/>
       <c r="K321" s="6"/>
       <c r="L321" s="6"/>
@@ -25412,8 +24772,6 @@
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
       <c r="G322" s="6"/>
-      <c r="H322" s="6"/>
-      <c r="I322" s="6"/>
       <c r="J322" s="6"/>
       <c r="K322" s="6"/>
       <c r="L322" s="6"/>
@@ -25429,8 +24787,6 @@
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
       <c r="G323" s="6"/>
-      <c r="H323" s="6"/>
-      <c r="I323" s="6"/>
       <c r="J323" s="6"/>
       <c r="K323" s="6"/>
       <c r="L323" s="6"/>
@@ -25446,8 +24802,6 @@
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
       <c r="G324" s="6"/>
-      <c r="H324" s="6"/>
-      <c r="I324" s="6"/>
       <c r="J324" s="6"/>
       <c r="K324" s="6"/>
       <c r="L324" s="6"/>
@@ -25463,8 +24817,6 @@
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
       <c r="G325" s="6"/>
-      <c r="H325" s="6"/>
-      <c r="I325" s="6"/>
       <c r="J325" s="6"/>
       <c r="K325" s="6"/>
       <c r="L325" s="6"/>
@@ -25480,8 +24832,6 @@
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
       <c r="G326" s="6"/>
-      <c r="H326" s="6"/>
-      <c r="I326" s="6"/>
       <c r="J326" s="6"/>
       <c r="K326" s="6"/>
       <c r="L326" s="6"/>
@@ -25497,8 +24847,6 @@
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
       <c r="G327" s="6"/>
-      <c r="H327" s="6"/>
-      <c r="I327" s="6"/>
       <c r="J327" s="6"/>
       <c r="K327" s="6"/>
       <c r="L327" s="6"/>
@@ -25514,8 +24862,6 @@
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
       <c r="G328" s="6"/>
-      <c r="H328" s="6"/>
-      <c r="I328" s="6"/>
       <c r="J328" s="6"/>
       <c r="K328" s="6"/>
       <c r="L328" s="6"/>
@@ -25531,8 +24877,6 @@
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
       <c r="G329" s="6"/>
-      <c r="H329" s="6"/>
-      <c r="I329" s="6"/>
       <c r="J329" s="6"/>
       <c r="K329" s="6"/>
       <c r="L329" s="6"/>
@@ -25548,8 +24892,6 @@
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
       <c r="G330" s="6"/>
-      <c r="H330" s="6"/>
-      <c r="I330" s="6"/>
       <c r="J330" s="6"/>
       <c r="K330" s="6"/>
       <c r="L330" s="6"/>
@@ -25565,8 +24907,6 @@
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
-      <c r="H331" s="6"/>
-      <c r="I331" s="6"/>
       <c r="J331" s="6"/>
       <c r="K331" s="6"/>
       <c r="L331" s="6"/>
@@ -25582,8 +24922,6 @@
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
       <c r="G332" s="6"/>
-      <c r="H332" s="6"/>
-      <c r="I332" s="6"/>
       <c r="J332" s="6"/>
       <c r="K332" s="6"/>
       <c r="L332" s="6"/>
@@ -25599,8 +24937,6 @@
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
-      <c r="H333" s="6"/>
-      <c r="I333" s="6"/>
       <c r="J333" s="6"/>
       <c r="K333" s="6"/>
       <c r="L333" s="6"/>
@@ -25616,8 +24952,6 @@
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
       <c r="G334" s="6"/>
-      <c r="H334" s="6"/>
-      <c r="I334" s="6"/>
       <c r="J334" s="6"/>
       <c r="K334" s="6"/>
       <c r="L334" s="6"/>
@@ -25633,8 +24967,6 @@
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
-      <c r="H335" s="6"/>
-      <c r="I335" s="6"/>
       <c r="J335" s="6"/>
       <c r="K335" s="6"/>
       <c r="L335" s="6"/>
@@ -25650,8 +24982,6 @@
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
       <c r="G336" s="6"/>
-      <c r="H336" s="6"/>
-      <c r="I336" s="6"/>
       <c r="J336" s="6"/>
       <c r="K336" s="6"/>
       <c r="L336" s="6"/>
@@ -25667,8 +24997,6 @@
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
       <c r="G337" s="6"/>
-      <c r="H337" s="6"/>
-      <c r="I337" s="6"/>
       <c r="J337" s="6"/>
       <c r="K337" s="6"/>
       <c r="L337" s="6"/>
@@ -25684,8 +25012,6 @@
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
       <c r="G338" s="6"/>
-      <c r="H338" s="6"/>
-      <c r="I338" s="6"/>
       <c r="J338" s="6"/>
       <c r="K338" s="6"/>
       <c r="L338" s="6"/>
@@ -25701,8 +25027,6 @@
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
       <c r="G339" s="6"/>
-      <c r="H339" s="6"/>
-      <c r="I339" s="6"/>
       <c r="J339" s="6"/>
       <c r="K339" s="6"/>
       <c r="L339" s="6"/>
@@ -25718,8 +25042,6 @@
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
       <c r="G340" s="6"/>
-      <c r="H340" s="6"/>
-      <c r="I340" s="6"/>
       <c r="J340" s="6"/>
       <c r="K340" s="6"/>
       <c r="L340" s="6"/>
@@ -25735,8 +25057,6 @@
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
       <c r="G341" s="6"/>
-      <c r="H341" s="6"/>
-      <c r="I341" s="6"/>
       <c r="J341" s="6"/>
       <c r="K341" s="6"/>
       <c r="L341" s="6"/>
@@ -25752,8 +25072,6 @@
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
       <c r="G342" s="6"/>
-      <c r="H342" s="6"/>
-      <c r="I342" s="6"/>
       <c r="J342" s="6"/>
       <c r="K342" s="6"/>
       <c r="L342" s="6"/>
@@ -25769,8 +25087,6 @@
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
-      <c r="H343" s="6"/>
-      <c r="I343" s="6"/>
       <c r="J343" s="6"/>
       <c r="K343" s="6"/>
       <c r="L343" s="6"/>
@@ -25786,8 +25102,6 @@
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
       <c r="G344" s="6"/>
-      <c r="H344" s="6"/>
-      <c r="I344" s="6"/>
       <c r="J344" s="6"/>
       <c r="K344" s="6"/>
       <c r="L344" s="6"/>
@@ -25803,8 +25117,6 @@
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
       <c r="G345" s="6"/>
-      <c r="H345" s="6"/>
-      <c r="I345" s="6"/>
       <c r="J345" s="6"/>
       <c r="K345" s="6"/>
       <c r="L345" s="6"/>
@@ -25820,8 +25132,6 @@
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
-      <c r="H346" s="6"/>
-      <c r="I346" s="6"/>
       <c r="J346" s="6"/>
       <c r="K346" s="6"/>
       <c r="L346" s="6"/>
@@ -25837,8 +25147,6 @@
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
-      <c r="H347" s="6"/>
-      <c r="I347" s="6"/>
       <c r="J347" s="6"/>
       <c r="K347" s="6"/>
       <c r="L347" s="6"/>
@@ -25854,8 +25162,6 @@
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
       <c r="G348" s="6"/>
-      <c r="H348" s="6"/>
-      <c r="I348" s="6"/>
       <c r="J348" s="6"/>
       <c r="K348" s="6"/>
       <c r="L348" s="6"/>
@@ -25871,8 +25177,6 @@
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
       <c r="G349" s="6"/>
-      <c r="H349" s="6"/>
-      <c r="I349" s="6"/>
       <c r="J349" s="6"/>
       <c r="K349" s="6"/>
       <c r="L349" s="6"/>
@@ -25888,8 +25192,6 @@
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
       <c r="G350" s="6"/>
-      <c r="H350" s="6"/>
-      <c r="I350" s="6"/>
       <c r="J350" s="6"/>
       <c r="K350" s="6"/>
       <c r="L350" s="6"/>
@@ -25905,8 +25207,6 @@
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
       <c r="G351" s="6"/>
-      <c r="H351" s="6"/>
-      <c r="I351" s="6"/>
       <c r="J351" s="6"/>
       <c r="K351" s="6"/>
       <c r="L351" s="6"/>
@@ -25922,8 +25222,6 @@
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
       <c r="G352" s="6"/>
-      <c r="H352" s="6"/>
-      <c r="I352" s="6"/>
       <c r="J352" s="6"/>
       <c r="K352" s="6"/>
       <c r="L352" s="6"/>
@@ -25939,8 +25237,6 @@
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
       <c r="G353" s="6"/>
-      <c r="H353" s="6"/>
-      <c r="I353" s="6"/>
       <c r="J353" s="6"/>
       <c r="K353" s="6"/>
       <c r="L353" s="6"/>
@@ -25956,8 +25252,6 @@
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
       <c r="G354" s="6"/>
-      <c r="H354" s="6"/>
-      <c r="I354" s="6"/>
       <c r="J354" s="6"/>
       <c r="K354" s="6"/>
       <c r="L354" s="6"/>
@@ -25973,8 +25267,6 @@
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
       <c r="G355" s="6"/>
-      <c r="H355" s="6"/>
-      <c r="I355" s="6"/>
       <c r="J355" s="6"/>
       <c r="K355" s="6"/>
       <c r="L355" s="6"/>
@@ -25990,8 +25282,6 @@
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
       <c r="G356" s="6"/>
-      <c r="H356" s="6"/>
-      <c r="I356" s="6"/>
       <c r="J356" s="6"/>
       <c r="K356" s="6"/>
       <c r="L356" s="6"/>
@@ -26007,8 +25297,6 @@
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
       <c r="G357" s="6"/>
-      <c r="H357" s="6"/>
-      <c r="I357" s="6"/>
       <c r="J357" s="6"/>
       <c r="K357" s="6"/>
       <c r="L357" s="6"/>
@@ -26024,8 +25312,6 @@
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
       <c r="G358" s="6"/>
-      <c r="H358" s="6"/>
-      <c r="I358" s="6"/>
       <c r="J358" s="6"/>
       <c r="K358" s="6"/>
       <c r="L358" s="6"/>
@@ -26041,8 +25327,6 @@
       <c r="E359" s="6"/>
       <c r="F359" s="6"/>
       <c r="G359" s="6"/>
-      <c r="H359" s="6"/>
-      <c r="I359" s="6"/>
       <c r="J359" s="6"/>
       <c r="K359" s="6"/>
       <c r="L359" s="6"/>
@@ -26058,8 +25342,6 @@
       <c r="E360" s="6"/>
       <c r="F360" s="6"/>
       <c r="G360" s="6"/>
-      <c r="H360" s="6"/>
-      <c r="I360" s="6"/>
       <c r="J360" s="6"/>
       <c r="K360" s="6"/>
       <c r="L360" s="6"/>
@@ -26075,8 +25357,6 @@
       <c r="E361" s="6"/>
       <c r="F361" s="6"/>
       <c r="G361" s="6"/>
-      <c r="H361" s="6"/>
-      <c r="I361" s="6"/>
       <c r="J361" s="6"/>
       <c r="K361" s="6"/>
       <c r="L361" s="6"/>
@@ -26092,8 +25372,6 @@
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
       <c r="G362" s="6"/>
-      <c r="H362" s="6"/>
-      <c r="I362" s="6"/>
       <c r="J362" s="6"/>
       <c r="K362" s="6"/>
       <c r="L362" s="6"/>
@@ -26109,8 +25387,6 @@
       <c r="E363" s="6"/>
       <c r="F363" s="6"/>
       <c r="G363" s="6"/>
-      <c r="H363" s="6"/>
-      <c r="I363" s="6"/>
       <c r="J363" s="6"/>
       <c r="K363" s="6"/>
       <c r="L363" s="6"/>
@@ -26126,8 +25402,6 @@
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
       <c r="G364" s="6"/>
-      <c r="H364" s="6"/>
-      <c r="I364" s="6"/>
       <c r="J364" s="6"/>
       <c r="K364" s="6"/>
       <c r="L364" s="6"/>
@@ -26143,8 +25417,6 @@
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
       <c r="G365" s="6"/>
-      <c r="H365" s="6"/>
-      <c r="I365" s="6"/>
       <c r="J365" s="6"/>
       <c r="K365" s="6"/>
       <c r="L365" s="6"/>
@@ -26160,8 +25432,6 @@
       <c r="E366" s="6"/>
       <c r="F366" s="6"/>
       <c r="G366" s="6"/>
-      <c r="H366" s="6"/>
-      <c r="I366" s="6"/>
       <c r="J366" s="6"/>
       <c r="K366" s="6"/>
       <c r="L366" s="6"/>
@@ -26177,8 +25447,6 @@
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
-      <c r="H367" s="6"/>
-      <c r="I367" s="6"/>
       <c r="J367" s="6"/>
       <c r="K367" s="6"/>
       <c r="L367" s="6"/>
@@ -26194,8 +25462,6 @@
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
       <c r="G368" s="6"/>
-      <c r="H368" s="6"/>
-      <c r="I368" s="6"/>
       <c r="J368" s="6"/>
       <c r="K368" s="6"/>
       <c r="L368" s="6"/>
@@ -26211,8 +25477,6 @@
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
       <c r="G369" s="6"/>
-      <c r="H369" s="6"/>
-      <c r="I369" s="6"/>
       <c r="J369" s="6"/>
       <c r="K369" s="6"/>
       <c r="L369" s="6"/>
@@ -26228,8 +25492,6 @@
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
       <c r="G370" s="6"/>
-      <c r="H370" s="6"/>
-      <c r="I370" s="6"/>
       <c r="J370" s="6"/>
       <c r="K370" s="6"/>
       <c r="L370" s="6"/>
@@ -26245,8 +25507,6 @@
       <c r="E371" s="6"/>
       <c r="F371" s="6"/>
       <c r="G371" s="6"/>
-      <c r="H371" s="6"/>
-      <c r="I371" s="6"/>
       <c r="J371" s="6"/>
       <c r="K371" s="6"/>
       <c r="L371" s="6"/>
@@ -26262,8 +25522,6 @@
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
       <c r="G372" s="6"/>
-      <c r="H372" s="6"/>
-      <c r="I372" s="6"/>
       <c r="J372" s="6"/>
       <c r="K372" s="6"/>
       <c r="L372" s="6"/>
@@ -26279,8 +25537,6 @@
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
       <c r="G373" s="6"/>
-      <c r="H373" s="6"/>
-      <c r="I373" s="6"/>
       <c r="J373" s="6"/>
       <c r="K373" s="6"/>
       <c r="L373" s="6"/>
@@ -26296,8 +25552,6 @@
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
       <c r="G374" s="6"/>
-      <c r="H374" s="6"/>
-      <c r="I374" s="6"/>
       <c r="J374" s="6"/>
       <c r="K374" s="6"/>
       <c r="L374" s="6"/>
@@ -26313,8 +25567,6 @@
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
       <c r="G375" s="6"/>
-      <c r="H375" s="6"/>
-      <c r="I375" s="6"/>
       <c r="J375" s="6"/>
       <c r="K375" s="6"/>
       <c r="L375" s="6"/>
@@ -26330,8 +25582,6 @@
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
       <c r="G376" s="6"/>
-      <c r="H376" s="6"/>
-      <c r="I376" s="6"/>
       <c r="J376" s="6"/>
       <c r="K376" s="6"/>
       <c r="L376" s="6"/>
@@ -26347,8 +25597,6 @@
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
       <c r="G377" s="6"/>
-      <c r="H377" s="6"/>
-      <c r="I377" s="6"/>
       <c r="J377" s="6"/>
       <c r="K377" s="6"/>
       <c r="L377" s="6"/>
@@ -26364,8 +25612,6 @@
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
       <c r="G378" s="6"/>
-      <c r="H378" s="6"/>
-      <c r="I378" s="6"/>
       <c r="J378" s="6"/>
       <c r="K378" s="6"/>
       <c r="L378" s="6"/>
@@ -26381,8 +25627,6 @@
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
       <c r="G379" s="6"/>
-      <c r="H379" s="6"/>
-      <c r="I379" s="6"/>
       <c r="J379" s="6"/>
       <c r="K379" s="6"/>
       <c r="L379" s="6"/>
@@ -26398,8 +25642,6 @@
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
       <c r="G380" s="6"/>
-      <c r="H380" s="6"/>
-      <c r="I380" s="6"/>
       <c r="J380" s="6"/>
       <c r="K380" s="6"/>
       <c r="L380" s="6"/>
@@ -26415,8 +25657,6 @@
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
-      <c r="H381" s="6"/>
-      <c r="I381" s="6"/>
       <c r="J381" s="6"/>
       <c r="K381" s="6"/>
       <c r="L381" s="6"/>
@@ -26432,8 +25672,6 @@
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
       <c r="G382" s="6"/>
-      <c r="H382" s="6"/>
-      <c r="I382" s="6"/>
       <c r="J382" s="6"/>
       <c r="K382" s="6"/>
       <c r="L382" s="6"/>
@@ -26449,8 +25687,6 @@
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
       <c r="G383" s="6"/>
-      <c r="H383" s="6"/>
-      <c r="I383" s="6"/>
       <c r="J383" s="6"/>
       <c r="K383" s="6"/>
       <c r="L383" s="6"/>
@@ -26466,8 +25702,6 @@
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
       <c r="G384" s="6"/>
-      <c r="H384" s="6"/>
-      <c r="I384" s="6"/>
       <c r="J384" s="6"/>
       <c r="K384" s="6"/>
       <c r="L384" s="6"/>
@@ -26483,8 +25717,6 @@
       <c r="E385" s="6"/>
       <c r="F385" s="6"/>
       <c r="G385" s="6"/>
-      <c r="H385" s="6"/>
-      <c r="I385" s="6"/>
       <c r="J385" s="6"/>
       <c r="K385" s="6"/>
       <c r="L385" s="6"/>
@@ -26500,8 +25732,6 @@
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
       <c r="G386" s="6"/>
-      <c r="H386" s="6"/>
-      <c r="I386" s="6"/>
       <c r="J386" s="6"/>
       <c r="K386" s="6"/>
       <c r="L386" s="6"/>
@@ -26517,8 +25747,6 @@
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
       <c r="G387" s="6"/>
-      <c r="H387" s="6"/>
-      <c r="I387" s="6"/>
       <c r="J387" s="6"/>
       <c r="K387" s="6"/>
       <c r="L387" s="6"/>
@@ -26534,8 +25762,6 @@
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
       <c r="G388" s="6"/>
-      <c r="H388" s="6"/>
-      <c r="I388" s="6"/>
       <c r="J388" s="6"/>
       <c r="K388" s="6"/>
       <c r="L388" s="6"/>
@@ -26551,8 +25777,6 @@
       <c r="E389" s="6"/>
       <c r="F389" s="6"/>
       <c r="G389" s="6"/>
-      <c r="H389" s="6"/>
-      <c r="I389" s="6"/>
       <c r="J389" s="6"/>
       <c r="K389" s="6"/>
       <c r="L389" s="6"/>
@@ -26568,8 +25792,6 @@
       <c r="E390" s="6"/>
       <c r="F390" s="6"/>
       <c r="G390" s="6"/>
-      <c r="H390" s="6"/>
-      <c r="I390" s="6"/>
       <c r="J390" s="6"/>
       <c r="K390" s="6"/>
       <c r="L390" s="6"/>
@@ -26585,8 +25807,6 @@
       <c r="E391" s="6"/>
       <c r="F391" s="6"/>
       <c r="G391" s="6"/>
-      <c r="H391" s="6"/>
-      <c r="I391" s="6"/>
       <c r="J391" s="6"/>
       <c r="K391" s="6"/>
       <c r="L391" s="6"/>
@@ -26602,8 +25822,6 @@
       <c r="E392" s="6"/>
       <c r="F392" s="6"/>
       <c r="G392" s="6"/>
-      <c r="H392" s="6"/>
-      <c r="I392" s="6"/>
       <c r="J392" s="6"/>
       <c r="K392" s="6"/>
       <c r="L392" s="6"/>
@@ -26619,8 +25837,6 @@
       <c r="E393" s="6"/>
       <c r="F393" s="6"/>
       <c r="G393" s="6"/>
-      <c r="H393" s="6"/>
-      <c r="I393" s="6"/>
       <c r="J393" s="6"/>
       <c r="K393" s="6"/>
       <c r="L393" s="6"/>
@@ -26636,8 +25852,6 @@
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
       <c r="G394" s="6"/>
-      <c r="H394" s="6"/>
-      <c r="I394" s="6"/>
       <c r="J394" s="6"/>
       <c r="K394" s="6"/>
       <c r="L394" s="6"/>
@@ -26653,8 +25867,6 @@
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
       <c r="G395" s="6"/>
-      <c r="H395" s="6"/>
-      <c r="I395" s="6"/>
       <c r="J395" s="6"/>
       <c r="K395" s="6"/>
       <c r="L395" s="6"/>
@@ -26670,8 +25882,6 @@
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
       <c r="G396" s="6"/>
-      <c r="H396" s="6"/>
-      <c r="I396" s="6"/>
       <c r="J396" s="6"/>
       <c r="K396" s="6"/>
       <c r="L396" s="6"/>
@@ -26687,8 +25897,6 @@
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
       <c r="G397" s="6"/>
-      <c r="H397" s="6"/>
-      <c r="I397" s="6"/>
       <c r="J397" s="6"/>
       <c r="K397" s="6"/>
       <c r="L397" s="6"/>
@@ -26704,8 +25912,6 @@
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
       <c r="G398" s="6"/>
-      <c r="H398" s="6"/>
-      <c r="I398" s="6"/>
       <c r="J398" s="6"/>
       <c r="K398" s="6"/>
       <c r="L398" s="6"/>
@@ -26721,8 +25927,6 @@
       <c r="E399" s="6"/>
       <c r="F399" s="6"/>
       <c r="G399" s="6"/>
-      <c r="H399" s="6"/>
-      <c r="I399" s="6"/>
       <c r="J399" s="6"/>
       <c r="K399" s="6"/>
       <c r="L399" s="6"/>
@@ -26738,8 +25942,6 @@
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
       <c r="G400" s="6"/>
-      <c r="H400" s="6"/>
-      <c r="I400" s="6"/>
       <c r="J400" s="6"/>
       <c r="K400" s="6"/>
       <c r="L400" s="6"/>
@@ -26755,8 +25957,6 @@
       <c r="E401" s="6"/>
       <c r="F401" s="6"/>
       <c r="G401" s="6"/>
-      <c r="H401" s="6"/>
-      <c r="I401" s="6"/>
       <c r="J401" s="6"/>
       <c r="K401" s="6"/>
       <c r="L401" s="6"/>
@@ -26772,8 +25972,6 @@
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
       <c r="G402" s="6"/>
-      <c r="H402" s="6"/>
-      <c r="I402" s="6"/>
       <c r="J402" s="6"/>
       <c r="K402" s="6"/>
       <c r="L402" s="6"/>
@@ -26789,8 +25987,6 @@
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
       <c r="G403" s="6"/>
-      <c r="H403" s="6"/>
-      <c r="I403" s="6"/>
       <c r="J403" s="6"/>
       <c r="K403" s="6"/>
       <c r="L403" s="6"/>
@@ -26806,8 +26002,6 @@
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
       <c r="G404" s="6"/>
-      <c r="H404" s="6"/>
-      <c r="I404" s="6"/>
       <c r="J404" s="6"/>
       <c r="K404" s="6"/>
       <c r="L404" s="6"/>
@@ -26823,8 +26017,6 @@
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
       <c r="G405" s="6"/>
-      <c r="H405" s="6"/>
-      <c r="I405" s="6"/>
       <c r="J405" s="6"/>
       <c r="K405" s="6"/>
       <c r="L405" s="6"/>
@@ -26840,8 +26032,6 @@
       <c r="E406" s="6"/>
       <c r="F406" s="6"/>
       <c r="G406" s="6"/>
-      <c r="H406" s="6"/>
-      <c r="I406" s="6"/>
       <c r="J406" s="6"/>
       <c r="K406" s="6"/>
       <c r="L406" s="6"/>
@@ -26857,8 +26047,6 @@
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
       <c r="G407" s="6"/>
-      <c r="H407" s="6"/>
-      <c r="I407" s="6"/>
       <c r="J407" s="6"/>
       <c r="K407" s="6"/>
       <c r="L407" s="6"/>
@@ -26874,8 +26062,6 @@
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
       <c r="G408" s="6"/>
-      <c r="H408" s="6"/>
-      <c r="I408" s="6"/>
       <c r="J408" s="6"/>
       <c r="K408" s="6"/>
       <c r="L408" s="6"/>
@@ -26891,8 +26077,6 @@
       <c r="E409" s="6"/>
       <c r="F409" s="6"/>
       <c r="G409" s="6"/>
-      <c r="H409" s="6"/>
-      <c r="I409" s="6"/>
       <c r="J409" s="6"/>
       <c r="K409" s="6"/>
       <c r="L409" s="6"/>
@@ -26908,8 +26092,6 @@
       <c r="E410" s="6"/>
       <c r="F410" s="6"/>
       <c r="G410" s="6"/>
-      <c r="H410" s="6"/>
-      <c r="I410" s="6"/>
       <c r="J410" s="6"/>
       <c r="K410" s="6"/>
       <c r="L410" s="6"/>
@@ -26925,8 +26107,6 @@
       <c r="E411" s="6"/>
       <c r="F411" s="6"/>
       <c r="G411" s="6"/>
-      <c r="H411" s="6"/>
-      <c r="I411" s="6"/>
       <c r="J411" s="6"/>
       <c r="K411" s="6"/>
       <c r="L411" s="6"/>
@@ -26942,8 +26122,6 @@
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
       <c r="G412" s="6"/>
-      <c r="H412" s="6"/>
-      <c r="I412" s="6"/>
       <c r="J412" s="6"/>
       <c r="K412" s="6"/>
       <c r="L412" s="6"/>
@@ -26959,8 +26137,6 @@
       <c r="E413" s="6"/>
       <c r="F413" s="6"/>
       <c r="G413" s="6"/>
-      <c r="H413" s="6"/>
-      <c r="I413" s="6"/>
       <c r="J413" s="6"/>
       <c r="K413" s="6"/>
       <c r="L413" s="6"/>
@@ -26976,8 +26152,6 @@
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
       <c r="G414" s="6"/>
-      <c r="H414" s="6"/>
-      <c r="I414" s="6"/>
       <c r="J414" s="6"/>
       <c r="K414" s="6"/>
       <c r="L414" s="6"/>
@@ -26993,8 +26167,6 @@
       <c r="E415" s="6"/>
       <c r="F415" s="6"/>
       <c r="G415" s="6"/>
-      <c r="H415" s="6"/>
-      <c r="I415" s="6"/>
       <c r="J415" s="6"/>
       <c r="K415" s="6"/>
       <c r="L415" s="6"/>
@@ -27010,8 +26182,6 @@
       <c r="E416" s="6"/>
       <c r="F416" s="6"/>
       <c r="G416" s="6"/>
-      <c r="H416" s="6"/>
-      <c r="I416" s="6"/>
       <c r="J416" s="6"/>
       <c r="K416" s="6"/>
       <c r="L416" s="6"/>
@@ -27027,8 +26197,6 @@
       <c r="E417" s="6"/>
       <c r="F417" s="6"/>
       <c r="G417" s="6"/>
-      <c r="H417" s="6"/>
-      <c r="I417" s="6"/>
       <c r="J417" s="6"/>
       <c r="K417" s="6"/>
       <c r="L417" s="6"/>
@@ -27044,8 +26212,6 @@
       <c r="E418" s="6"/>
       <c r="F418" s="6"/>
       <c r="G418" s="6"/>
-      <c r="H418" s="6"/>
-      <c r="I418" s="6"/>
       <c r="J418" s="6"/>
       <c r="K418" s="6"/>
       <c r="L418" s="6"/>
@@ -27061,8 +26227,6 @@
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
       <c r="G419" s="6"/>
-      <c r="H419" s="6"/>
-      <c r="I419" s="6"/>
       <c r="J419" s="6"/>
       <c r="K419" s="6"/>
       <c r="L419" s="6"/>
@@ -27078,8 +26242,6 @@
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
       <c r="G420" s="6"/>
-      <c r="H420" s="6"/>
-      <c r="I420" s="6"/>
       <c r="J420" s="6"/>
       <c r="K420" s="6"/>
       <c r="L420" s="6"/>
@@ -27095,8 +26257,6 @@
       <c r="E421" s="6"/>
       <c r="F421" s="6"/>
       <c r="G421" s="6"/>
-      <c r="H421" s="6"/>
-      <c r="I421" s="6"/>
       <c r="J421" s="6"/>
       <c r="K421" s="6"/>
       <c r="L421" s="6"/>
@@ -27112,8 +26272,6 @@
       <c r="E422" s="6"/>
       <c r="F422" s="6"/>
       <c r="G422" s="6"/>
-      <c r="H422" s="6"/>
-      <c r="I422" s="6"/>
       <c r="J422" s="6"/>
       <c r="K422" s="6"/>
       <c r="L422" s="6"/>
@@ -27129,8 +26287,6 @@
       <c r="E423" s="6"/>
       <c r="F423" s="6"/>
       <c r="G423" s="6"/>
-      <c r="H423" s="6"/>
-      <c r="I423" s="6"/>
       <c r="J423" s="6"/>
       <c r="K423" s="6"/>
       <c r="L423" s="6"/>
@@ -27146,8 +26302,6 @@
       <c r="E424" s="6"/>
       <c r="F424" s="6"/>
       <c r="G424" s="6"/>
-      <c r="H424" s="6"/>
-      <c r="I424" s="6"/>
       <c r="J424" s="6"/>
       <c r="K424" s="6"/>
       <c r="L424" s="6"/>
@@ -27163,8 +26317,6 @@
       <c r="E425" s="6"/>
       <c r="F425" s="6"/>
       <c r="G425" s="6"/>
-      <c r="H425" s="6"/>
-      <c r="I425" s="6"/>
       <c r="J425" s="6"/>
       <c r="K425" s="6"/>
       <c r="L425" s="6"/>
@@ -27180,8 +26332,6 @@
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
       <c r="G426" s="6"/>
-      <c r="H426" s="6"/>
-      <c r="I426" s="6"/>
       <c r="J426" s="6"/>
       <c r="K426" s="6"/>
       <c r="L426" s="6"/>
@@ -27197,8 +26347,6 @@
       <c r="E427" s="6"/>
       <c r="F427" s="6"/>
       <c r="G427" s="6"/>
-      <c r="H427" s="6"/>
-      <c r="I427" s="6"/>
       <c r="J427" s="6"/>
       <c r="K427" s="6"/>
       <c r="L427" s="6"/>
@@ -27214,8 +26362,6 @@
       <c r="E428" s="6"/>
       <c r="F428" s="6"/>
       <c r="G428" s="6"/>
-      <c r="H428" s="6"/>
-      <c r="I428" s="6"/>
       <c r="J428" s="6"/>
       <c r="K428" s="6"/>
       <c r="L428" s="6"/>
@@ -27231,8 +26377,6 @@
       <c r="E429" s="6"/>
       <c r="F429" s="6"/>
       <c r="G429" s="6"/>
-      <c r="H429" s="6"/>
-      <c r="I429" s="6"/>
       <c r="J429" s="6"/>
       <c r="K429" s="6"/>
       <c r="L429" s="6"/>
@@ -27248,8 +26392,6 @@
       <c r="E430" s="6"/>
       <c r="F430" s="6"/>
       <c r="G430" s="6"/>
-      <c r="H430" s="6"/>
-      <c r="I430" s="6"/>
       <c r="J430" s="6"/>
       <c r="K430" s="6"/>
       <c r="L430" s="6"/>
@@ -27265,8 +26407,6 @@
       <c r="E431" s="6"/>
       <c r="F431" s="6"/>
       <c r="G431" s="6"/>
-      <c r="H431" s="6"/>
-      <c r="I431" s="6"/>
       <c r="J431" s="6"/>
       <c r="K431" s="6"/>
       <c r="L431" s="6"/>
@@ -27282,8 +26422,6 @@
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
       <c r="G432" s="6"/>
-      <c r="H432" s="6"/>
-      <c r="I432" s="6"/>
       <c r="J432" s="6"/>
       <c r="K432" s="6"/>
       <c r="L432" s="6"/>
@@ -27299,8 +26437,6 @@
       <c r="E433" s="6"/>
       <c r="F433" s="6"/>
       <c r="G433" s="6"/>
-      <c r="H433" s="6"/>
-      <c r="I433" s="6"/>
       <c r="J433" s="6"/>
       <c r="K433" s="6"/>
       <c r="L433" s="6"/>
@@ -27316,8 +26452,6 @@
       <c r="E434" s="6"/>
       <c r="F434" s="6"/>
       <c r="G434" s="6"/>
-      <c r="H434" s="6"/>
-      <c r="I434" s="6"/>
       <c r="J434" s="6"/>
       <c r="K434" s="6"/>
       <c r="L434" s="6"/>
@@ -27333,8 +26467,6 @@
       <c r="E435" s="6"/>
       <c r="F435" s="6"/>
       <c r="G435" s="6"/>
-      <c r="H435" s="6"/>
-      <c r="I435" s="6"/>
       <c r="J435" s="6"/>
       <c r="K435" s="6"/>
       <c r="L435" s="6"/>
@@ -27350,8 +26482,6 @@
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
       <c r="G436" s="6"/>
-      <c r="H436" s="6"/>
-      <c r="I436" s="6"/>
       <c r="J436" s="6"/>
       <c r="K436" s="6"/>
       <c r="L436" s="6"/>
@@ -27367,8 +26497,6 @@
       <c r="E437" s="6"/>
       <c r="F437" s="6"/>
       <c r="G437" s="6"/>
-      <c r="H437" s="6"/>
-      <c r="I437" s="6"/>
       <c r="J437" s="6"/>
       <c r="K437" s="6"/>
       <c r="L437" s="6"/>
@@ -27384,8 +26512,6 @@
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
       <c r="G438" s="6"/>
-      <c r="H438" s="6"/>
-      <c r="I438" s="6"/>
       <c r="J438" s="6"/>
       <c r="K438" s="6"/>
       <c r="L438" s="6"/>
@@ -27401,8 +26527,6 @@
       <c r="E439" s="6"/>
       <c r="F439" s="6"/>
       <c r="G439" s="6"/>
-      <c r="H439" s="6"/>
-      <c r="I439" s="6"/>
       <c r="J439" s="6"/>
       <c r="K439" s="6"/>
       <c r="L439" s="6"/>
@@ -27418,8 +26542,6 @@
       <c r="E440" s="6"/>
       <c r="F440" s="6"/>
       <c r="G440" s="6"/>
-      <c r="H440" s="6"/>
-      <c r="I440" s="6"/>
       <c r="J440" s="6"/>
       <c r="K440" s="6"/>
       <c r="L440" s="6"/>
@@ -27435,8 +26557,6 @@
       <c r="E441" s="6"/>
       <c r="F441" s="6"/>
       <c r="G441" s="6"/>
-      <c r="H441" s="6"/>
-      <c r="I441" s="6"/>
       <c r="J441" s="6"/>
       <c r="K441" s="6"/>
       <c r="L441" s="6"/>
@@ -27452,8 +26572,6 @@
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
       <c r="G442" s="6"/>
-      <c r="H442" s="6"/>
-      <c r="I442" s="6"/>
       <c r="J442" s="6"/>
       <c r="K442" s="6"/>
       <c r="L442" s="6"/>
@@ -27469,8 +26587,6 @@
       <c r="E443" s="6"/>
       <c r="F443" s="6"/>
       <c r="G443" s="6"/>
-      <c r="H443" s="6"/>
-      <c r="I443" s="6"/>
       <c r="J443" s="6"/>
       <c r="K443" s="6"/>
       <c r="L443" s="6"/>
@@ -27486,8 +26602,6 @@
       <c r="E444" s="6"/>
       <c r="F444" s="6"/>
       <c r="G444" s="6"/>
-      <c r="H444" s="6"/>
-      <c r="I444" s="6"/>
       <c r="J444" s="6"/>
       <c r="K444" s="6"/>
       <c r="L444" s="6"/>
@@ -27503,8 +26617,6 @@
       <c r="E445" s="6"/>
       <c r="F445" s="6"/>
       <c r="G445" s="6"/>
-      <c r="H445" s="6"/>
-      <c r="I445" s="6"/>
       <c r="J445" s="6"/>
       <c r="K445" s="6"/>
       <c r="L445" s="6"/>
@@ -27520,8 +26632,6 @@
       <c r="E446" s="6"/>
       <c r="F446" s="6"/>
       <c r="G446" s="6"/>
-      <c r="H446" s="6"/>
-      <c r="I446" s="6"/>
       <c r="J446" s="6"/>
       <c r="K446" s="6"/>
       <c r="L446" s="6"/>
@@ -27537,8 +26647,6 @@
       <c r="E447" s="6"/>
       <c r="F447" s="6"/>
       <c r="G447" s="6"/>
-      <c r="H447" s="6"/>
-      <c r="I447" s="6"/>
       <c r="J447" s="6"/>
       <c r="K447" s="6"/>
       <c r="L447" s="6"/>
@@ -27554,8 +26662,6 @@
       <c r="E448" s="6"/>
       <c r="F448" s="6"/>
       <c r="G448" s="6"/>
-      <c r="H448" s="6"/>
-      <c r="I448" s="6"/>
       <c r="J448" s="6"/>
       <c r="K448" s="6"/>
       <c r="L448" s="6"/>
@@ -27571,8 +26677,6 @@
       <c r="E449" s="6"/>
       <c r="F449" s="6"/>
       <c r="G449" s="6"/>
-      <c r="H449" s="6"/>
-      <c r="I449" s="6"/>
       <c r="J449" s="6"/>
       <c r="K449" s="6"/>
       <c r="L449" s="6"/>
@@ -27588,8 +26692,6 @@
       <c r="E450" s="6"/>
       <c r="F450" s="6"/>
       <c r="G450" s="6"/>
-      <c r="H450" s="6"/>
-      <c r="I450" s="6"/>
       <c r="J450" s="6"/>
       <c r="K450" s="6"/>
       <c r="L450" s="6"/>
@@ -27605,8 +26707,6 @@
       <c r="E451" s="6"/>
       <c r="F451" s="6"/>
       <c r="G451" s="6"/>
-      <c r="H451" s="6"/>
-      <c r="I451" s="6"/>
       <c r="J451" s="6"/>
       <c r="K451" s="6"/>
       <c r="L451" s="6"/>
@@ -27622,8 +26722,6 @@
       <c r="E452" s="6"/>
       <c r="F452" s="6"/>
       <c r="G452" s="6"/>
-      <c r="H452" s="6"/>
-      <c r="I452" s="6"/>
       <c r="J452" s="6"/>
       <c r="K452" s="6"/>
       <c r="L452" s="6"/>
@@ -27639,8 +26737,6 @@
       <c r="E453" s="6"/>
       <c r="F453" s="6"/>
       <c r="G453" s="6"/>
-      <c r="H453" s="6"/>
-      <c r="I453" s="6"/>
       <c r="J453" s="6"/>
       <c r="K453" s="6"/>
       <c r="L453" s="6"/>
@@ -27656,8 +26752,6 @@
       <c r="E454" s="6"/>
       <c r="F454" s="6"/>
       <c r="G454" s="6"/>
-      <c r="H454" s="6"/>
-      <c r="I454" s="6"/>
       <c r="J454" s="6"/>
       <c r="K454" s="6"/>
       <c r="L454" s="6"/>
@@ -27673,8 +26767,6 @@
       <c r="E455" s="6"/>
       <c r="F455" s="6"/>
       <c r="G455" s="6"/>
-      <c r="H455" s="6"/>
-      <c r="I455" s="6"/>
       <c r="J455" s="6"/>
       <c r="K455" s="6"/>
       <c r="L455" s="6"/>
@@ -27690,8 +26782,6 @@
       <c r="E456" s="6"/>
       <c r="F456" s="6"/>
       <c r="G456" s="6"/>
-      <c r="H456" s="6"/>
-      <c r="I456" s="6"/>
       <c r="J456" s="6"/>
       <c r="K456" s="6"/>
       <c r="L456" s="6"/>
@@ -27707,8 +26797,6 @@
       <c r="E457" s="6"/>
       <c r="F457" s="6"/>
       <c r="G457" s="6"/>
-      <c r="H457" s="6"/>
-      <c r="I457" s="6"/>
       <c r="J457" s="6"/>
       <c r="K457" s="6"/>
       <c r="L457" s="6"/>
@@ -27724,8 +26812,6 @@
       <c r="E458" s="6"/>
       <c r="F458" s="6"/>
       <c r="G458" s="6"/>
-      <c r="H458" s="6"/>
-      <c r="I458" s="6"/>
       <c r="J458" s="6"/>
       <c r="K458" s="6"/>
       <c r="L458" s="6"/>
@@ -27741,8 +26827,6 @@
       <c r="E459" s="6"/>
       <c r="F459" s="6"/>
       <c r="G459" s="6"/>
-      <c r="H459" s="6"/>
-      <c r="I459" s="6"/>
       <c r="J459" s="6"/>
       <c r="K459" s="6"/>
       <c r="L459" s="6"/>
@@ -27758,8 +26842,6 @@
       <c r="E460" s="6"/>
       <c r="F460" s="6"/>
       <c r="G460" s="6"/>
-      <c r="H460" s="6"/>
-      <c r="I460" s="6"/>
       <c r="J460" s="6"/>
       <c r="K460" s="6"/>
       <c r="L460" s="6"/>
@@ -27775,8 +26857,6 @@
       <c r="E461" s="6"/>
       <c r="F461" s="6"/>
       <c r="G461" s="6"/>
-      <c r="H461" s="6"/>
-      <c r="I461" s="6"/>
       <c r="J461" s="6"/>
       <c r="K461" s="6"/>
       <c r="L461" s="6"/>
@@ -27792,8 +26872,6 @@
       <c r="E462" s="6"/>
       <c r="F462" s="6"/>
       <c r="G462" s="6"/>
-      <c r="H462" s="6"/>
-      <c r="I462" s="6"/>
       <c r="J462" s="6"/>
       <c r="K462" s="6"/>
       <c r="L462" s="6"/>
@@ -27809,8 +26887,6 @@
       <c r="E463" s="6"/>
       <c r="F463" s="6"/>
       <c r="G463" s="6"/>
-      <c r="H463" s="6"/>
-      <c r="I463" s="6"/>
       <c r="J463" s="6"/>
       <c r="K463" s="6"/>
       <c r="L463" s="6"/>
@@ -27826,8 +26902,6 @@
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
       <c r="G464" s="6"/>
-      <c r="H464" s="6"/>
-      <c r="I464" s="6"/>
       <c r="J464" s="6"/>
       <c r="K464" s="6"/>
       <c r="L464" s="6"/>
@@ -27843,8 +26917,6 @@
       <c r="E465" s="6"/>
       <c r="F465" s="6"/>
       <c r="G465" s="6"/>
-      <c r="H465" s="6"/>
-      <c r="I465" s="6"/>
       <c r="J465" s="6"/>
       <c r="K465" s="6"/>
       <c r="L465" s="6"/>
@@ -27860,8 +26932,6 @@
       <c r="E466" s="6"/>
       <c r="F466" s="6"/>
       <c r="G466" s="6"/>
-      <c r="H466" s="6"/>
-      <c r="I466" s="6"/>
       <c r="J466" s="6"/>
       <c r="K466" s="6"/>
       <c r="L466" s="6"/>
@@ -27877,8 +26947,6 @@
       <c r="E467" s="6"/>
       <c r="F467" s="6"/>
       <c r="G467" s="6"/>
-      <c r="H467" s="6"/>
-      <c r="I467" s="6"/>
       <c r="J467" s="6"/>
       <c r="K467" s="6"/>
       <c r="L467" s="6"/>
@@ -27894,8 +26962,6 @@
       <c r="E468" s="6"/>
       <c r="F468" s="6"/>
       <c r="G468" s="6"/>
-      <c r="H468" s="6"/>
-      <c r="I468" s="6"/>
       <c r="J468" s="6"/>
       <c r="K468" s="6"/>
       <c r="L468" s="6"/>
@@ -27911,8 +26977,6 @@
       <c r="E469" s="6"/>
       <c r="F469" s="6"/>
       <c r="G469" s="6"/>
-      <c r="H469" s="6"/>
-      <c r="I469" s="6"/>
       <c r="J469" s="6"/>
       <c r="K469" s="6"/>
       <c r="L469" s="6"/>
@@ -27928,8 +26992,6 @@
       <c r="E470" s="6"/>
       <c r="F470" s="6"/>
       <c r="G470" s="6"/>
-      <c r="H470" s="6"/>
-      <c r="I470" s="6"/>
       <c r="J470" s="6"/>
       <c r="K470" s="6"/>
       <c r="L470" s="6"/>
@@ -27945,8 +27007,6 @@
       <c r="E471" s="6"/>
       <c r="F471" s="6"/>
       <c r="G471" s="6"/>
-      <c r="H471" s="6"/>
-      <c r="I471" s="6"/>
       <c r="J471" s="6"/>
       <c r="K471" s="6"/>
       <c r="L471" s="6"/>
@@ -27962,8 +27022,6 @@
       <c r="E472" s="6"/>
       <c r="F472" s="6"/>
       <c r="G472" s="6"/>
-      <c r="H472" s="6"/>
-      <c r="I472" s="6"/>
       <c r="J472" s="6"/>
       <c r="K472" s="6"/>
       <c r="L472" s="6"/>
@@ -27979,8 +27037,6 @@
       <c r="E473" s="6"/>
       <c r="F473" s="6"/>
       <c r="G473" s="6"/>
-      <c r="H473" s="6"/>
-      <c r="I473" s="6"/>
       <c r="J473" s="6"/>
       <c r="K473" s="6"/>
       <c r="L473" s="6"/>
@@ -27996,8 +27052,6 @@
       <c r="E474" s="6"/>
       <c r="F474" s="6"/>
       <c r="G474" s="6"/>
-      <c r="H474" s="6"/>
-      <c r="I474" s="6"/>
       <c r="J474" s="6"/>
       <c r="K474" s="6"/>
       <c r="L474" s="6"/>
@@ -28013,8 +27067,6 @@
       <c r="E475" s="6"/>
       <c r="F475" s="6"/>
       <c r="G475" s="6"/>
-      <c r="H475" s="6"/>
-      <c r="I475" s="6"/>
       <c r="J475" s="6"/>
       <c r="K475" s="6"/>
       <c r="L475" s="6"/>
@@ -28030,8 +27082,6 @@
       <c r="E476" s="6"/>
       <c r="F476" s="6"/>
       <c r="G476" s="6"/>
-      <c r="H476" s="6"/>
-      <c r="I476" s="6"/>
       <c r="J476" s="6"/>
       <c r="K476" s="6"/>
       <c r="L476" s="6"/>
@@ -28047,8 +27097,6 @@
       <c r="E477" s="6"/>
       <c r="F477" s="6"/>
       <c r="G477" s="6"/>
-      <c r="H477" s="6"/>
-      <c r="I477" s="6"/>
       <c r="J477" s="6"/>
       <c r="K477" s="6"/>
       <c r="L477" s="6"/>
@@ -28064,8 +27112,6 @@
       <c r="E478" s="6"/>
       <c r="F478" s="6"/>
       <c r="G478" s="6"/>
-      <c r="H478" s="6"/>
-      <c r="I478" s="6"/>
       <c r="J478" s="6"/>
       <c r="K478" s="6"/>
       <c r="L478" s="6"/>
@@ -28081,8 +27127,6 @@
       <c r="E479" s="6"/>
       <c r="F479" s="6"/>
       <c r="G479" s="6"/>
-      <c r="H479" s="6"/>
-      <c r="I479" s="6"/>
       <c r="J479" s="6"/>
       <c r="K479" s="6"/>
       <c r="L479" s="6"/>
@@ -28098,8 +27142,6 @@
       <c r="E480" s="6"/>
       <c r="F480" s="6"/>
       <c r="G480" s="6"/>
-      <c r="H480" s="6"/>
-      <c r="I480" s="6"/>
       <c r="J480" s="6"/>
       <c r="K480" s="6"/>
       <c r="L480" s="6"/>
@@ -28115,8 +27157,6 @@
       <c r="E481" s="6"/>
       <c r="F481" s="6"/>
       <c r="G481" s="6"/>
-      <c r="H481" s="6"/>
-      <c r="I481" s="6"/>
       <c r="J481" s="6"/>
       <c r="K481" s="6"/>
       <c r="L481" s="6"/>
@@ -28132,8 +27172,6 @@
       <c r="E482" s="6"/>
       <c r="F482" s="6"/>
       <c r="G482" s="6"/>
-      <c r="H482" s="6"/>
-      <c r="I482" s="6"/>
       <c r="J482" s="6"/>
       <c r="K482" s="6"/>
       <c r="L482" s="6"/>
@@ -28149,8 +27187,6 @@
       <c r="E483" s="6"/>
       <c r="F483" s="6"/>
       <c r="G483" s="6"/>
-      <c r="H483" s="6"/>
-      <c r="I483" s="6"/>
       <c r="J483" s="6"/>
       <c r="K483" s="6"/>
       <c r="L483" s="6"/>
@@ -28166,8 +27202,6 @@
       <c r="E484" s="6"/>
       <c r="F484" s="6"/>
       <c r="G484" s="6"/>
-      <c r="H484" s="6"/>
-      <c r="I484" s="6"/>
       <c r="J484" s="6"/>
       <c r="K484" s="6"/>
       <c r="L484" s="6"/>
@@ -28183,8 +27217,6 @@
       <c r="E485" s="6"/>
       <c r="F485" s="6"/>
       <c r="G485" s="6"/>
-      <c r="H485" s="6"/>
-      <c r="I485" s="6"/>
       <c r="J485" s="6"/>
       <c r="K485" s="6"/>
       <c r="L485" s="6"/>
@@ -28200,8 +27232,6 @@
       <c r="E486" s="6"/>
       <c r="F486" s="6"/>
       <c r="G486" s="6"/>
-      <c r="H486" s="6"/>
-      <c r="I486" s="6"/>
       <c r="J486" s="6"/>
       <c r="K486" s="6"/>
       <c r="L486" s="6"/>
@@ -28217,8 +27247,6 @@
       <c r="E487" s="6"/>
       <c r="F487" s="6"/>
       <c r="G487" s="6"/>
-      <c r="H487" s="6"/>
-      <c r="I487" s="6"/>
       <c r="J487" s="6"/>
       <c r="K487" s="6"/>
       <c r="L487" s="6"/>
@@ -28234,8 +27262,6 @@
       <c r="E488" s="6"/>
       <c r="F488" s="6"/>
       <c r="G488" s="6"/>
-      <c r="H488" s="6"/>
-      <c r="I488" s="6"/>
       <c r="J488" s="6"/>
       <c r="K488" s="6"/>
       <c r="L488" s="6"/>
@@ -28251,8 +27277,6 @@
       <c r="E489" s="6"/>
       <c r="F489" s="6"/>
       <c r="G489" s="6"/>
-      <c r="H489" s="6"/>
-      <c r="I489" s="6"/>
       <c r="J489" s="6"/>
       <c r="K489" s="6"/>
       <c r="L489" s="6"/>
@@ -28268,8 +27292,6 @@
       <c r="E490" s="6"/>
       <c r="F490" s="6"/>
       <c r="G490" s="6"/>
-      <c r="H490" s="6"/>
-      <c r="I490" s="6"/>
       <c r="J490" s="6"/>
       <c r="K490" s="6"/>
       <c r="L490" s="6"/>
@@ -28285,8 +27307,6 @@
       <c r="E491" s="6"/>
       <c r="F491" s="6"/>
       <c r="G491" s="6"/>
-      <c r="H491" s="6"/>
-      <c r="I491" s="6"/>
       <c r="J491" s="6"/>
       <c r="K491" s="6"/>
       <c r="L491" s="6"/>
@@ -28302,8 +27322,6 @@
       <c r="E492" s="6"/>
       <c r="F492" s="6"/>
       <c r="G492" s="6"/>
-      <c r="H492" s="6"/>
-      <c r="I492" s="6"/>
       <c r="J492" s="6"/>
       <c r="K492" s="6"/>
       <c r="L492" s="6"/>
@@ -28319,8 +27337,6 @@
       <c r="E493" s="6"/>
       <c r="F493" s="6"/>
       <c r="G493" s="6"/>
-      <c r="H493" s="6"/>
-      <c r="I493" s="6"/>
       <c r="J493" s="6"/>
       <c r="K493" s="6"/>
       <c r="L493" s="6"/>
@@ -28336,8 +27352,6 @@
       <c r="E494" s="6"/>
       <c r="F494" s="6"/>
       <c r="G494" s="6"/>
-      <c r="H494" s="6"/>
-      <c r="I494" s="6"/>
       <c r="J494" s="6"/>
       <c r="K494" s="6"/>
       <c r="L494" s="6"/>
@@ -28353,8 +27367,6 @@
       <c r="E495" s="6"/>
       <c r="F495" s="6"/>
       <c r="G495" s="6"/>
-      <c r="H495" s="6"/>
-      <c r="I495" s="6"/>
       <c r="J495" s="6"/>
       <c r="K495" s="6"/>
       <c r="L495" s="6"/>
@@ -28370,8 +27382,6 @@
       <c r="E496" s="6"/>
       <c r="F496" s="6"/>
       <c r="G496" s="6"/>
-      <c r="H496" s="6"/>
-      <c r="I496" s="6"/>
       <c r="J496" s="6"/>
       <c r="K496" s="6"/>
       <c r="L496" s="6"/>
@@ -28387,8 +27397,6 @@
       <c r="E497" s="6"/>
       <c r="F497" s="6"/>
       <c r="G497" s="6"/>
-      <c r="H497" s="6"/>
-      <c r="I497" s="6"/>
       <c r="J497" s="6"/>
       <c r="K497" s="6"/>
       <c r="L497" s="6"/>
@@ -28404,8 +27412,6 @@
       <c r="E498" s="6"/>
       <c r="F498" s="6"/>
       <c r="G498" s="6"/>
-      <c r="H498" s="6"/>
-      <c r="I498" s="6"/>
       <c r="J498" s="6"/>
       <c r="K498" s="6"/>
       <c r="L498" s="6"/>
@@ -28421,8 +27427,6 @@
       <c r="E499" s="6"/>
       <c r="F499" s="6"/>
       <c r="G499" s="6"/>
-      <c r="H499" s="6"/>
-      <c r="I499" s="6"/>
       <c r="J499" s="6"/>
       <c r="K499" s="6"/>
       <c r="L499" s="6"/>
@@ -28438,8 +27442,6 @@
       <c r="E500" s="6"/>
       <c r="F500" s="6"/>
       <c r="G500" s="6"/>
-      <c r="H500" s="6"/>
-      <c r="I500" s="6"/>
       <c r="J500" s="6"/>
       <c r="K500" s="6"/>
       <c r="L500" s="6"/>
@@ -28455,8 +27457,6 @@
       <c r="E501" s="6"/>
       <c r="F501" s="6"/>
       <c r="G501" s="6"/>
-      <c r="H501" s="6"/>
-      <c r="I501" s="6"/>
       <c r="J501" s="6"/>
       <c r="K501" s="6"/>
       <c r="L501" s="6"/>
@@ -28472,8 +27472,6 @@
       <c r="E502" s="6"/>
       <c r="F502" s="6"/>
       <c r="G502" s="6"/>
-      <c r="H502" s="6"/>
-      <c r="I502" s="6"/>
       <c r="J502" s="6"/>
       <c r="K502" s="6"/>
       <c r="L502" s="6"/>
@@ -28489,8 +27487,6 @@
       <c r="E503" s="6"/>
       <c r="F503" s="6"/>
       <c r="G503" s="6"/>
-      <c r="H503" s="6"/>
-      <c r="I503" s="6"/>
       <c r="J503" s="6"/>
       <c r="K503" s="6"/>
       <c r="L503" s="6"/>
@@ -28506,8 +27502,6 @@
       <c r="E504" s="6"/>
       <c r="F504" s="6"/>
       <c r="G504" s="6"/>
-      <c r="H504" s="6"/>
-      <c r="I504" s="6"/>
       <c r="J504" s="6"/>
       <c r="K504" s="6"/>
       <c r="L504" s="6"/>
@@ -28523,8 +27517,6 @@
       <c r="E505" s="6"/>
       <c r="F505" s="6"/>
       <c r="G505" s="6"/>
-      <c r="H505" s="6"/>
-      <c r="I505" s="6"/>
       <c r="J505" s="6"/>
       <c r="K505" s="6"/>
       <c r="L505" s="6"/>
@@ -28540,8 +27532,6 @@
       <c r="E506" s="6"/>
       <c r="F506" s="6"/>
       <c r="G506" s="6"/>
-      <c r="H506" s="6"/>
-      <c r="I506" s="6"/>
       <c r="J506" s="6"/>
       <c r="K506" s="6"/>
       <c r="L506" s="6"/>
@@ -28557,8 +27547,6 @@
       <c r="E507" s="6"/>
       <c r="F507" s="6"/>
       <c r="G507" s="6"/>
-      <c r="H507" s="6"/>
-      <c r="I507" s="6"/>
       <c r="J507" s="6"/>
       <c r="K507" s="6"/>
       <c r="L507" s="6"/>
@@ -28574,8 +27562,6 @@
       <c r="E508" s="6"/>
       <c r="F508" s="6"/>
       <c r="G508" s="6"/>
-      <c r="H508" s="6"/>
-      <c r="I508" s="6"/>
       <c r="J508" s="6"/>
       <c r="K508" s="6"/>
       <c r="L508" s="6"/>
@@ -28591,8 +27577,6 @@
       <c r="E509" s="6"/>
       <c r="F509" s="6"/>
       <c r="G509" s="6"/>
-      <c r="H509" s="6"/>
-      <c r="I509" s="6"/>
       <c r="J509" s="6"/>
       <c r="K509" s="6"/>
       <c r="L509" s="6"/>
@@ -28608,8 +27592,6 @@
       <c r="E510" s="6"/>
       <c r="F510" s="6"/>
       <c r="G510" s="6"/>
-      <c r="H510" s="6"/>
-      <c r="I510" s="6"/>
       <c r="J510" s="6"/>
       <c r="K510" s="6"/>
       <c r="L510" s="6"/>
@@ -28625,8 +27607,6 @@
       <c r="E511" s="6"/>
       <c r="F511" s="6"/>
       <c r="G511" s="6"/>
-      <c r="H511" s="6"/>
-      <c r="I511" s="6"/>
       <c r="J511" s="6"/>
       <c r="K511" s="6"/>
       <c r="L511" s="6"/>
@@ -28642,8 +27622,6 @@
       <c r="E512" s="6"/>
       <c r="F512" s="6"/>
       <c r="G512" s="6"/>
-      <c r="H512" s="6"/>
-      <c r="I512" s="6"/>
       <c r="J512" s="6"/>
       <c r="K512" s="6"/>
       <c r="L512" s="6"/>
@@ -28659,8 +27637,6 @@
       <c r="E513" s="6"/>
       <c r="F513" s="6"/>
       <c r="G513" s="6"/>
-      <c r="H513" s="6"/>
-      <c r="I513" s="6"/>
       <c r="J513" s="6"/>
       <c r="K513" s="6"/>
       <c r="L513" s="6"/>
@@ -28676,8 +27652,6 @@
       <c r="E514" s="6"/>
       <c r="F514" s="6"/>
       <c r="G514" s="6"/>
-      <c r="H514" s="6"/>
-      <c r="I514" s="6"/>
       <c r="J514" s="6"/>
       <c r="K514" s="6"/>
       <c r="L514" s="6"/>
@@ -28693,8 +27667,6 @@
       <c r="E515" s="6"/>
       <c r="F515" s="6"/>
       <c r="G515" s="6"/>
-      <c r="H515" s="6"/>
-      <c r="I515" s="6"/>
       <c r="J515" s="6"/>
       <c r="K515" s="6"/>
       <c r="L515" s="6"/>
@@ -28710,8 +27682,6 @@
       <c r="E516" s="6"/>
       <c r="F516" s="6"/>
       <c r="G516" s="6"/>
-      <c r="H516" s="6"/>
-      <c r="I516" s="6"/>
       <c r="J516" s="6"/>
       <c r="K516" s="6"/>
       <c r="L516" s="6"/>
@@ -28727,8 +27697,6 @@
       <c r="E517" s="6"/>
       <c r="F517" s="6"/>
       <c r="G517" s="6"/>
-      <c r="H517" s="6"/>
-      <c r="I517" s="6"/>
       <c r="J517" s="6"/>
       <c r="K517" s="6"/>
       <c r="L517" s="6"/>
@@ -28744,8 +27712,6 @@
       <c r="E518" s="6"/>
       <c r="F518" s="6"/>
       <c r="G518" s="6"/>
-      <c r="H518" s="6"/>
-      <c r="I518" s="6"/>
       <c r="J518" s="6"/>
       <c r="K518" s="6"/>
       <c r="L518" s="6"/>
@@ -28761,8 +27727,6 @@
       <c r="E519" s="6"/>
       <c r="F519" s="6"/>
       <c r="G519" s="6"/>
-      <c r="H519" s="6"/>
-      <c r="I519" s="6"/>
       <c r="J519" s="6"/>
       <c r="K519" s="6"/>
       <c r="L519" s="6"/>
@@ -28778,8 +27742,6 @@
       <c r="E520" s="6"/>
       <c r="F520" s="6"/>
       <c r="G520" s="6"/>
-      <c r="H520" s="6"/>
-      <c r="I520" s="6"/>
       <c r="J520" s="6"/>
       <c r="K520" s="6"/>
       <c r="L520" s="6"/>
@@ -28795,8 +27757,6 @@
       <c r="E521" s="6"/>
       <c r="F521" s="6"/>
       <c r="G521" s="6"/>
-      <c r="H521" s="6"/>
-      <c r="I521" s="6"/>
       <c r="J521" s="6"/>
       <c r="K521" s="6"/>
       <c r="L521" s="6"/>
@@ -28812,8 +27772,6 @@
       <c r="E522" s="6"/>
       <c r="F522" s="6"/>
       <c r="G522" s="6"/>
-      <c r="H522" s="6"/>
-      <c r="I522" s="6"/>
       <c r="J522" s="6"/>
       <c r="K522" s="6"/>
       <c r="L522" s="6"/>
@@ -28829,8 +27787,6 @@
       <c r="E523" s="6"/>
       <c r="F523" s="6"/>
       <c r="G523" s="6"/>
-      <c r="H523" s="6"/>
-      <c r="I523" s="6"/>
       <c r="J523" s="6"/>
       <c r="K523" s="6"/>
       <c r="L523" s="6"/>
@@ -28846,8 +27802,6 @@
       <c r="E524" s="6"/>
       <c r="F524" s="6"/>
       <c r="G524" s="6"/>
-      <c r="H524" s="6"/>
-      <c r="I524" s="6"/>
       <c r="J524" s="6"/>
       <c r="K524" s="6"/>
       <c r="L524" s="6"/>
@@ -28863,8 +27817,6 @@
       <c r="E525" s="6"/>
       <c r="F525" s="6"/>
       <c r="G525" s="6"/>
-      <c r="H525" s="6"/>
-      <c r="I525" s="6"/>
       <c r="J525" s="6"/>
       <c r="K525" s="6"/>
       <c r="L525" s="6"/>
@@ -28880,8 +27832,6 @@
       <c r="E526" s="6"/>
       <c r="F526" s="6"/>
       <c r="G526" s="6"/>
-      <c r="H526" s="6"/>
-      <c r="I526" s="6"/>
       <c r="J526" s="6"/>
       <c r="K526" s="6"/>
       <c r="L526" s="6"/>
@@ -28897,8 +27847,6 @@
       <c r="E527" s="6"/>
       <c r="F527" s="6"/>
       <c r="G527" s="6"/>
-      <c r="H527" s="6"/>
-      <c r="I527" s="6"/>
       <c r="J527" s="6"/>
       <c r="K527" s="6"/>
       <c r="L527" s="6"/>
@@ -28914,8 +27862,6 @@
       <c r="E528" s="6"/>
       <c r="F528" s="6"/>
       <c r="G528" s="6"/>
-      <c r="H528" s="6"/>
-      <c r="I528" s="6"/>
       <c r="J528" s="6"/>
       <c r="K528" s="6"/>
       <c r="L528" s="6"/>
@@ -28931,8 +27877,6 @@
       <c r="E529" s="6"/>
       <c r="F529" s="6"/>
       <c r="G529" s="6"/>
-      <c r="H529" s="6"/>
-      <c r="I529" s="6"/>
       <c r="J529" s="6"/>
       <c r="K529" s="6"/>
       <c r="L529" s="6"/>
@@ -28948,8 +27892,6 @@
       <c r="E530" s="6"/>
       <c r="F530" s="6"/>
       <c r="G530" s="6"/>
-      <c r="H530" s="6"/>
-      <c r="I530" s="6"/>
       <c r="J530" s="6"/>
       <c r="K530" s="6"/>
       <c r="L530" s="6"/>
@@ -28965,8 +27907,6 @@
       <c r="E531" s="6"/>
       <c r="F531" s="6"/>
       <c r="G531" s="6"/>
-      <c r="H531" s="6"/>
-      <c r="I531" s="6"/>
       <c r="J531" s="6"/>
       <c r="K531" s="6"/>
       <c r="L531" s="6"/>
@@ -28982,8 +27922,6 @@
       <c r="E532" s="6"/>
       <c r="F532" s="6"/>
       <c r="G532" s="6"/>
-      <c r="H532" s="6"/>
-      <c r="I532" s="6"/>
       <c r="J532" s="6"/>
       <c r="K532" s="6"/>
       <c r="L532" s="6"/>
@@ -28999,8 +27937,6 @@
       <c r="E533" s="6"/>
       <c r="F533" s="6"/>
       <c r="G533" s="6"/>
-      <c r="H533" s="6"/>
-      <c r="I533" s="6"/>
       <c r="J533" s="6"/>
       <c r="K533" s="6"/>
       <c r="L533" s="6"/>
@@ -29016,8 +27952,6 @@
       <c r="E534" s="6"/>
       <c r="F534" s="6"/>
       <c r="G534" s="6"/>
-      <c r="H534" s="6"/>
-      <c r="I534" s="6"/>
       <c r="J534" s="6"/>
       <c r="K534" s="6"/>
       <c r="L534" s="6"/>
@@ -29033,8 +27967,6 @@
       <c r="E535" s="6"/>
       <c r="F535" s="6"/>
       <c r="G535" s="6"/>
-      <c r="H535" s="6"/>
-      <c r="I535" s="6"/>
       <c r="J535" s="6"/>
       <c r="K535" s="6"/>
       <c r="L535" s="6"/>
@@ -29050,8 +27982,6 @@
       <c r="E536" s="6"/>
       <c r="F536" s="6"/>
       <c r="G536" s="6"/>
-      <c r="H536" s="6"/>
-      <c r="I536" s="6"/>
       <c r="J536" s="6"/>
       <c r="K536" s="6"/>
       <c r="L536" s="6"/>
@@ -29067,8 +27997,6 @@
       <c r="E537" s="6"/>
       <c r="F537" s="6"/>
       <c r="G537" s="6"/>
-      <c r="H537" s="6"/>
-      <c r="I537" s="6"/>
       <c r="J537" s="6"/>
       <c r="K537" s="6"/>
       <c r="L537" s="6"/>
@@ -29084,8 +28012,6 @@
       <c r="E538" s="6"/>
       <c r="F538" s="6"/>
       <c r="G538" s="6"/>
-      <c r="H538" s="6"/>
-      <c r="I538" s="6"/>
       <c r="J538" s="6"/>
       <c r="K538" s="6"/>
       <c r="L538" s="6"/>
@@ -29101,8 +28027,6 @@
       <c r="E539" s="6"/>
       <c r="F539" s="6"/>
       <c r="G539" s="6"/>
-      <c r="H539" s="6"/>
-      <c r="I539" s="6"/>
       <c r="J539" s="6"/>
       <c r="K539" s="6"/>
       <c r="L539" s="6"/>
@@ -29118,8 +28042,6 @@
       <c r="E540" s="6"/>
       <c r="F540" s="6"/>
       <c r="G540" s="6"/>
-      <c r="H540" s="6"/>
-      <c r="I540" s="6"/>
       <c r="J540" s="6"/>
       <c r="K540" s="6"/>
       <c r="L540" s="6"/>
@@ -29135,8 +28057,6 @@
       <c r="E541" s="6"/>
       <c r="F541" s="6"/>
       <c r="G541" s="6"/>
-      <c r="H541" s="6"/>
-      <c r="I541" s="6"/>
       <c r="J541" s="6"/>
       <c r="K541" s="6"/>
       <c r="L541" s="6"/>
@@ -29152,8 +28072,6 @@
       <c r="E542" s="6"/>
       <c r="F542" s="6"/>
       <c r="G542" s="6"/>
-      <c r="H542" s="6"/>
-      <c r="I542" s="6"/>
       <c r="J542" s="6"/>
       <c r="K542" s="6"/>
       <c r="L542" s="6"/>
@@ -29169,8 +28087,6 @@
       <c r="E543" s="6"/>
       <c r="F543" s="6"/>
       <c r="G543" s="6"/>
-      <c r="H543" s="6"/>
-      <c r="I543" s="6"/>
       <c r="J543" s="6"/>
       <c r="K543" s="6"/>
       <c r="L543" s="6"/>
@@ -29186,8 +28102,6 @@
       <c r="E544" s="6"/>
       <c r="F544" s="6"/>
       <c r="G544" s="6"/>
-      <c r="H544" s="6"/>
-      <c r="I544" s="6"/>
       <c r="J544" s="6"/>
       <c r="K544" s="6"/>
       <c r="L544" s="6"/>
@@ -29203,8 +28117,6 @@
       <c r="E545" s="6"/>
       <c r="F545" s="6"/>
       <c r="G545" s="6"/>
-      <c r="H545" s="6"/>
-      <c r="I545" s="6"/>
       <c r="J545" s="6"/>
       <c r="K545" s="6"/>
       <c r="L545" s="6"/>
@@ -29220,8 +28132,6 @@
       <c r="E546" s="6"/>
       <c r="F546" s="6"/>
       <c r="G546" s="6"/>
-      <c r="H546" s="6"/>
-      <c r="I546" s="6"/>
       <c r="J546" s="6"/>
       <c r="K546" s="6"/>
       <c r="L546" s="6"/>
@@ -29237,8 +28147,6 @@
       <c r="E547" s="6"/>
       <c r="F547" s="6"/>
       <c r="G547" s="6"/>
-      <c r="H547" s="6"/>
-      <c r="I547" s="6"/>
       <c r="J547" s="6"/>
       <c r="K547" s="6"/>
       <c r="L547" s="6"/>
@@ -29254,8 +28162,6 @@
       <c r="E548" s="6"/>
       <c r="F548" s="6"/>
       <c r="G548" s="6"/>
-      <c r="H548" s="6"/>
-      <c r="I548" s="6"/>
       <c r="J548" s="6"/>
       <c r="K548" s="6"/>
       <c r="L548" s="6"/>
@@ -29271,8 +28177,6 @@
       <c r="E549" s="6"/>
       <c r="F549" s="6"/>
       <c r="G549" s="6"/>
-      <c r="H549" s="6"/>
-      <c r="I549" s="6"/>
       <c r="J549" s="6"/>
       <c r="K549" s="6"/>
       <c r="L549" s="6"/>
@@ -29288,8 +28192,6 @@
       <c r="E550" s="6"/>
       <c r="F550" s="6"/>
       <c r="G550" s="6"/>
-      <c r="H550" s="6"/>
-      <c r="I550" s="6"/>
       <c r="J550" s="6"/>
       <c r="K550" s="6"/>
       <c r="L550" s="6"/>
@@ -29305,8 +28207,6 @@
       <c r="E551" s="6"/>
       <c r="F551" s="6"/>
       <c r="G551" s="6"/>
-      <c r="H551" s="6"/>
-      <c r="I551" s="6"/>
       <c r="J551" s="6"/>
       <c r="K551" s="6"/>
       <c r="L551" s="6"/>
@@ -29322,8 +28222,6 @@
       <c r="E552" s="6"/>
       <c r="F552" s="6"/>
       <c r="G552" s="6"/>
-      <c r="H552" s="6"/>
-      <c r="I552" s="6"/>
       <c r="J552" s="6"/>
       <c r="K552" s="6"/>
       <c r="L552" s="6"/>
@@ -29339,8 +28237,6 @@
       <c r="E553" s="6"/>
       <c r="F553" s="6"/>
       <c r="G553" s="6"/>
-      <c r="H553" s="6"/>
-      <c r="I553" s="6"/>
       <c r="J553" s="6"/>
       <c r="K553" s="6"/>
       <c r="L553" s="6"/>
@@ -29356,8 +28252,6 @@
       <c r="E554" s="6"/>
       <c r="F554" s="6"/>
       <c r="G554" s="6"/>
-      <c r="H554" s="6"/>
-      <c r="I554" s="6"/>
       <c r="J554" s="6"/>
       <c r="K554" s="6"/>
       <c r="L554" s="6"/>
@@ -29373,8 +28267,6 @@
       <c r="E555" s="6"/>
       <c r="F555" s="6"/>
       <c r="G555" s="6"/>
-      <c r="H555" s="6"/>
-      <c r="I555" s="6"/>
       <c r="J555" s="6"/>
       <c r="K555" s="6"/>
       <c r="L555" s="6"/>
@@ -29390,8 +28282,6 @@
       <c r="E556" s="6"/>
       <c r="F556" s="6"/>
       <c r="G556" s="6"/>
-      <c r="H556" s="6"/>
-      <c r="I556" s="6"/>
       <c r="J556" s="6"/>
       <c r="K556" s="6"/>
       <c r="L556" s="6"/>
@@ -29407,8 +28297,6 @@
       <c r="E557" s="6"/>
       <c r="F557" s="6"/>
       <c r="G557" s="6"/>
-      <c r="H557" s="6"/>
-      <c r="I557" s="6"/>
       <c r="J557" s="6"/>
       <c r="K557" s="6"/>
       <c r="L557" s="6"/>
@@ -29424,8 +28312,6 @@
       <c r="E558" s="6"/>
       <c r="F558" s="6"/>
       <c r="G558" s="6"/>
-      <c r="H558" s="6"/>
-      <c r="I558" s="6"/>
       <c r="J558" s="6"/>
       <c r="K558" s="6"/>
       <c r="L558" s="6"/>
@@ -29441,8 +28327,6 @@
       <c r="E559" s="6"/>
       <c r="F559" s="6"/>
       <c r="G559" s="6"/>
-      <c r="H559" s="6"/>
-      <c r="I559" s="6"/>
       <c r="J559" s="6"/>
       <c r="K559" s="6"/>
       <c r="L559" s="6"/>
@@ -29458,8 +28342,6 @@
       <c r="E560" s="6"/>
       <c r="F560" s="6"/>
       <c r="G560" s="6"/>
-      <c r="H560" s="6"/>
-      <c r="I560" s="6"/>
       <c r="J560" s="6"/>
       <c r="K560" s="6"/>
       <c r="L560" s="6"/>
@@ -29475,8 +28357,6 @@
       <c r="E561" s="6"/>
       <c r="F561" s="6"/>
       <c r="G561" s="6"/>
-      <c r="H561" s="6"/>
-      <c r="I561" s="6"/>
       <c r="J561" s="6"/>
       <c r="K561" s="6"/>
       <c r="L561" s="6"/>
@@ -29492,8 +28372,6 @@
       <c r="E562" s="6"/>
       <c r="F562" s="6"/>
       <c r="G562" s="6"/>
-      <c r="H562" s="6"/>
-      <c r="I562" s="6"/>
       <c r="J562" s="6"/>
       <c r="K562" s="6"/>
       <c r="L562" s="6"/>
@@ -29509,8 +28387,6 @@
       <c r="E563" s="6"/>
       <c r="F563" s="6"/>
       <c r="G563" s="6"/>
-      <c r="H563" s="6"/>
-      <c r="I563" s="6"/>
       <c r="J563" s="6"/>
       <c r="K563" s="6"/>
       <c r="L563" s="6"/>
@@ -29526,8 +28402,6 @@
       <c r="E564" s="6"/>
       <c r="F564" s="6"/>
       <c r="G564" s="6"/>
-      <c r="H564" s="6"/>
-      <c r="I564" s="6"/>
       <c r="J564" s="6"/>
       <c r="K564" s="6"/>
       <c r="L564" s="6"/>
@@ -29543,8 +28417,6 @@
       <c r="E565" s="6"/>
       <c r="F565" s="6"/>
       <c r="G565" s="6"/>
-      <c r="H565" s="6"/>
-      <c r="I565" s="6"/>
       <c r="J565" s="6"/>
       <c r="K565" s="6"/>
       <c r="L565" s="6"/>
@@ -29560,8 +28432,6 @@
       <c r="E566" s="6"/>
       <c r="F566" s="6"/>
       <c r="G566" s="6"/>
-      <c r="H566" s="6"/>
-      <c r="I566" s="6"/>
       <c r="J566" s="6"/>
       <c r="K566" s="6"/>
       <c r="L566" s="6"/>
@@ -29577,8 +28447,6 @@
       <c r="E567" s="6"/>
       <c r="F567" s="6"/>
       <c r="G567" s="6"/>
-      <c r="H567" s="6"/>
-      <c r="I567" s="6"/>
       <c r="J567" s="6"/>
       <c r="K567" s="6"/>
       <c r="L567" s="6"/>
@@ -29594,8 +28462,6 @@
       <c r="E568" s="6"/>
       <c r="F568" s="6"/>
       <c r="G568" s="6"/>
-      <c r="H568" s="6"/>
-      <c r="I568" s="6"/>
       <c r="J568" s="6"/>
       <c r="K568" s="6"/>
       <c r="L568" s="6"/>
@@ -29611,8 +28477,6 @@
       <c r="E569" s="6"/>
       <c r="F569" s="6"/>
       <c r="G569" s="6"/>
-      <c r="H569" s="6"/>
-      <c r="I569" s="6"/>
       <c r="J569" s="6"/>
       <c r="K569" s="6"/>
       <c r="L569" s="6"/>
@@ -29628,8 +28492,6 @@
       <c r="E570" s="6"/>
       <c r="F570" s="6"/>
       <c r="G570" s="6"/>
-      <c r="H570" s="6"/>
-      <c r="I570" s="6"/>
       <c r="J570" s="6"/>
       <c r="K570" s="6"/>
       <c r="L570" s="6"/>
@@ -29645,8 +28507,6 @@
       <c r="E571" s="6"/>
       <c r="F571" s="6"/>
       <c r="G571" s="6"/>
-      <c r="H571" s="6"/>
-      <c r="I571" s="6"/>
       <c r="J571" s="6"/>
       <c r="K571" s="6"/>
       <c r="L571" s="6"/>
@@ -29662,8 +28522,6 @@
       <c r="E572" s="6"/>
       <c r="F572" s="6"/>
       <c r="G572" s="6"/>
-      <c r="H572" s="6"/>
-      <c r="I572" s="6"/>
       <c r="J572" s="6"/>
       <c r="K572" s="6"/>
       <c r="L572" s="6"/>
@@ -29679,8 +28537,6 @@
       <c r="E573" s="6"/>
       <c r="F573" s="6"/>
       <c r="G573" s="6"/>
-      <c r="H573" s="6"/>
-      <c r="I573" s="6"/>
       <c r="J573" s="6"/>
       <c r="K573" s="6"/>
       <c r="L573" s="6"/>
@@ -29696,8 +28552,6 @@
       <c r="E574" s="6"/>
       <c r="F574" s="6"/>
       <c r="G574" s="6"/>
-      <c r="H574" s="6"/>
-      <c r="I574" s="6"/>
       <c r="J574" s="6"/>
       <c r="K574" s="6"/>
       <c r="L574" s="6"/>
@@ -29713,8 +28567,6 @@
       <c r="E575" s="6"/>
       <c r="F575" s="6"/>
       <c r="G575" s="6"/>
-      <c r="H575" s="6"/>
-      <c r="I575" s="6"/>
       <c r="J575" s="6"/>
       <c r="K575" s="6"/>
       <c r="L575" s="6"/>
@@ -29730,8 +28582,6 @@
       <c r="E576" s="6"/>
       <c r="F576" s="6"/>
       <c r="G576" s="6"/>
-      <c r="H576" s="6"/>
-      <c r="I576" s="6"/>
       <c r="J576" s="6"/>
       <c r="K576" s="6"/>
       <c r="L576" s="6"/>
@@ -29747,8 +28597,6 @@
       <c r="E577" s="6"/>
       <c r="F577" s="6"/>
       <c r="G577" s="6"/>
-      <c r="H577" s="6"/>
-      <c r="I577" s="6"/>
       <c r="J577" s="6"/>
       <c r="K577" s="6"/>
       <c r="L577" s="6"/>
@@ -29764,8 +28612,6 @@
       <c r="E578" s="6"/>
       <c r="F578" s="6"/>
       <c r="G578" s="6"/>
-      <c r="H578" s="6"/>
-      <c r="I578" s="6"/>
       <c r="J578" s="6"/>
       <c r="K578" s="6"/>
       <c r="L578" s="6"/>
@@ -29781,8 +28627,6 @@
       <c r="E579" s="6"/>
       <c r="F579" s="6"/>
       <c r="G579" s="6"/>
-      <c r="H579" s="6"/>
-      <c r="I579" s="6"/>
       <c r="J579" s="6"/>
       <c r="K579" s="6"/>
       <c r="L579" s="6"/>
@@ -29798,8 +28642,6 @@
       <c r="E580" s="6"/>
       <c r="F580" s="6"/>
       <c r="G580" s="6"/>
-      <c r="H580" s="6"/>
-      <c r="I580" s="6"/>
       <c r="J580" s="6"/>
       <c r="K580" s="6"/>
       <c r="L580" s="6"/>
@@ -29815,8 +28657,6 @@
       <c r="E581" s="6"/>
       <c r="F581" s="6"/>
       <c r="G581" s="6"/>
-      <c r="H581" s="6"/>
-      <c r="I581" s="6"/>
       <c r="J581" s="6"/>
       <c r="K581" s="6"/>
       <c r="L581" s="6"/>
@@ -29832,8 +28672,6 @@
       <c r="E582" s="6"/>
       <c r="F582" s="6"/>
       <c r="G582" s="6"/>
-      <c r="H582" s="6"/>
-      <c r="I582" s="6"/>
       <c r="J582" s="6"/>
       <c r="K582" s="6"/>
       <c r="L582" s="6"/>
@@ -29849,8 +28687,6 @@
       <c r="E583" s="6"/>
       <c r="F583" s="6"/>
       <c r="G583" s="6"/>
-      <c r="H583" s="6"/>
-      <c r="I583" s="6"/>
       <c r="J583" s="6"/>
       <c r="K583" s="6"/>
       <c r="L583" s="6"/>
@@ -29866,8 +28702,6 @@
       <c r="E584" s="6"/>
       <c r="F584" s="6"/>
       <c r="G584" s="6"/>
-      <c r="H584" s="6"/>
-      <c r="I584" s="6"/>
       <c r="J584" s="6"/>
       <c r="K584" s="6"/>
       <c r="L584" s="6"/>
@@ -29883,8 +28717,6 @@
       <c r="E585" s="6"/>
       <c r="F585" s="6"/>
       <c r="G585" s="6"/>
-      <c r="H585" s="6"/>
-      <c r="I585" s="6"/>
       <c r="J585" s="6"/>
       <c r="K585" s="6"/>
       <c r="L585" s="6"/>
@@ -29900,8 +28732,6 @@
       <c r="E586" s="6"/>
       <c r="F586" s="6"/>
       <c r="G586" s="6"/>
-      <c r="H586" s="6"/>
-      <c r="I586" s="6"/>
       <c r="J586" s="6"/>
       <c r="K586" s="6"/>
       <c r="L586" s="6"/>
@@ -29917,8 +28747,6 @@
       <c r="E587" s="6"/>
       <c r="F587" s="6"/>
       <c r="G587" s="6"/>
-      <c r="H587" s="6"/>
-      <c r="I587" s="6"/>
       <c r="J587" s="6"/>
       <c r="K587" s="6"/>
       <c r="L587" s="6"/>
@@ -29934,8 +28762,6 @@
       <c r="E588" s="6"/>
       <c r="F588" s="6"/>
       <c r="G588" s="6"/>
-      <c r="H588" s="6"/>
-      <c r="I588" s="6"/>
       <c r="J588" s="6"/>
       <c r="K588" s="6"/>
       <c r="L588" s="6"/>
@@ -29951,8 +28777,6 @@
       <c r="E589" s="6"/>
       <c r="F589" s="6"/>
       <c r="G589" s="6"/>
-      <c r="H589" s="6"/>
-      <c r="I589" s="6"/>
       <c r="J589" s="6"/>
       <c r="K589" s="6"/>
       <c r="L589" s="6"/>
@@ -29968,8 +28792,6 @@
       <c r="E590" s="6"/>
       <c r="F590" s="6"/>
       <c r="G590" s="6"/>
-      <c r="H590" s="6"/>
-      <c r="I590" s="6"/>
       <c r="J590" s="6"/>
       <c r="K590" s="6"/>
       <c r="L590" s="6"/>
@@ -29985,8 +28807,6 @@
       <c r="E591" s="6"/>
       <c r="F591" s="6"/>
       <c r="G591" s="6"/>
-      <c r="H591" s="6"/>
-      <c r="I591" s="6"/>
       <c r="J591" s="6"/>
       <c r="K591" s="6"/>
       <c r="L591" s="6"/>
@@ -30002,8 +28822,6 @@
       <c r="E592" s="6"/>
       <c r="F592" s="6"/>
       <c r="G592" s="6"/>
-      <c r="H592" s="6"/>
-      <c r="I592" s="6"/>
       <c r="J592" s="6"/>
       <c r="K592" s="6"/>
       <c r="L592" s="6"/>
@@ -30019,8 +28837,6 @@
       <c r="E593" s="6"/>
       <c r="F593" s="6"/>
       <c r="G593" s="6"/>
-      <c r="H593" s="6"/>
-      <c r="I593" s="6"/>
       <c r="J593" s="6"/>
       <c r="K593" s="6"/>
       <c r="L593" s="6"/>
@@ -30036,8 +28852,6 @@
       <c r="E594" s="6"/>
       <c r="F594" s="6"/>
       <c r="G594" s="6"/>
-      <c r="H594" s="6"/>
-      <c r="I594" s="6"/>
       <c r="J594" s="6"/>
       <c r="K594" s="6"/>
       <c r="L594" s="6"/>
@@ -30053,8 +28867,6 @@
       <c r="E595" s="6"/>
       <c r="F595" s="6"/>
       <c r="G595" s="6"/>
-      <c r="H595" s="6"/>
-      <c r="I595" s="6"/>
       <c r="J595" s="6"/>
       <c r="K595" s="6"/>
       <c r="L595" s="6"/>
@@ -30070,8 +28882,6 @@
       <c r="E596" s="6"/>
       <c r="F596" s="6"/>
       <c r="G596" s="6"/>
-      <c r="H596" s="6"/>
-      <c r="I596" s="6"/>
       <c r="J596" s="6"/>
       <c r="K596" s="6"/>
       <c r="L596" s="6"/>
@@ -30087,8 +28897,6 @@
       <c r="E597" s="6"/>
       <c r="F597" s="6"/>
       <c r="G597" s="6"/>
-      <c r="H597" s="6"/>
-      <c r="I597" s="6"/>
       <c r="J597" s="6"/>
       <c r="K597" s="6"/>
       <c r="L597" s="6"/>
@@ -30104,8 +28912,6 @@
       <c r="E598" s="6"/>
       <c r="F598" s="6"/>
       <c r="G598" s="6"/>
-      <c r="H598" s="6"/>
-      <c r="I598" s="6"/>
       <c r="J598" s="6"/>
       <c r="K598" s="6"/>
       <c r="L598" s="6"/>
@@ -30121,8 +28927,6 @@
       <c r="E599" s="6"/>
       <c r="F599" s="6"/>
       <c r="G599" s="6"/>
-      <c r="H599" s="6"/>
-      <c r="I599" s="6"/>
       <c r="J599" s="6"/>
       <c r="K599" s="6"/>
       <c r="L599" s="6"/>
@@ -30138,8 +28942,6 @@
       <c r="E600" s="6"/>
       <c r="F600" s="6"/>
       <c r="G600" s="6"/>
-      <c r="H600" s="6"/>
-      <c r="I600" s="6"/>
       <c r="J600" s="6"/>
       <c r="K600" s="6"/>
       <c r="L600" s="6"/>
@@ -30155,8 +28957,6 @@
       <c r="E601" s="6"/>
       <c r="F601" s="6"/>
       <c r="G601" s="6"/>
-      <c r="H601" s="6"/>
-      <c r="I601" s="6"/>
       <c r="J601" s="6"/>
       <c r="K601" s="6"/>
       <c r="L601" s="6"/>
@@ -30172,8 +28972,6 @@
       <c r="E602" s="6"/>
       <c r="F602" s="6"/>
       <c r="G602" s="6"/>
-      <c r="H602" s="6"/>
-      <c r="I602" s="6"/>
       <c r="J602" s="6"/>
       <c r="K602" s="6"/>
       <c r="L602" s="6"/>
@@ -30189,8 +28987,6 @@
       <c r="E603" s="6"/>
       <c r="F603" s="6"/>
       <c r="G603" s="6"/>
-      <c r="H603" s="6"/>
-      <c r="I603" s="6"/>
       <c r="J603" s="6"/>
       <c r="K603" s="6"/>
       <c r="L603" s="6"/>
@@ -30206,8 +29002,6 @@
       <c r="E604" s="6"/>
       <c r="F604" s="6"/>
       <c r="G604" s="6"/>
-      <c r="H604" s="6"/>
-      <c r="I604" s="6"/>
       <c r="J604" s="6"/>
       <c r="K604" s="6"/>
       <c r="L604" s="6"/>
@@ -30223,8 +29017,6 @@
       <c r="E605" s="6"/>
       <c r="F605" s="6"/>
       <c r="G605" s="6"/>
-      <c r="H605" s="6"/>
-      <c r="I605" s="6"/>
       <c r="J605" s="6"/>
       <c r="K605" s="6"/>
       <c r="L605" s="6"/>
@@ -30240,8 +29032,6 @@
       <c r="E606" s="6"/>
       <c r="F606" s="6"/>
       <c r="G606" s="6"/>
-      <c r="H606" s="6"/>
-      <c r="I606" s="6"/>
       <c r="J606" s="6"/>
       <c r="K606" s="6"/>
       <c r="L606" s="6"/>
@@ -30257,8 +29047,6 @@
       <c r="E607" s="6"/>
       <c r="F607" s="6"/>
       <c r="G607" s="6"/>
-      <c r="H607" s="6"/>
-      <c r="I607" s="6"/>
       <c r="J607" s="6"/>
       <c r="K607" s="6"/>
       <c r="L607" s="6"/>
@@ -30274,8 +29062,6 @@
       <c r="E608" s="6"/>
       <c r="F608" s="6"/>
       <c r="G608" s="6"/>
-      <c r="H608" s="6"/>
-      <c r="I608" s="6"/>
       <c r="J608" s="6"/>
       <c r="K608" s="6"/>
       <c r="L608" s="6"/>
@@ -30291,8 +29077,6 @@
       <c r="E609" s="6"/>
       <c r="F609" s="6"/>
       <c r="G609" s="6"/>
-      <c r="H609" s="6"/>
-      <c r="I609" s="6"/>
       <c r="J609" s="6"/>
       <c r="K609" s="6"/>
       <c r="L609" s="6"/>
@@ -30308,8 +29092,6 @@
       <c r="E610" s="6"/>
       <c r="F610" s="6"/>
       <c r="G610" s="6"/>
-      <c r="H610" s="6"/>
-      <c r="I610" s="6"/>
       <c r="J610" s="6"/>
       <c r="K610" s="6"/>
       <c r="L610" s="6"/>
@@ -30325,8 +29107,6 @@
       <c r="E611" s="6"/>
       <c r="F611" s="6"/>
       <c r="G611" s="6"/>
-      <c r="H611" s="6"/>
-      <c r="I611" s="6"/>
       <c r="J611" s="6"/>
       <c r="K611" s="6"/>
       <c r="L611" s="6"/>
@@ -30342,8 +29122,6 @@
       <c r="E612" s="6"/>
       <c r="F612" s="6"/>
       <c r="G612" s="6"/>
-      <c r="H612" s="6"/>
-      <c r="I612" s="6"/>
       <c r="J612" s="6"/>
       <c r="K612" s="6"/>
       <c r="L612" s="6"/>
@@ -30359,8 +29137,6 @@
       <c r="E613" s="6"/>
       <c r="F613" s="6"/>
       <c r="G613" s="6"/>
-      <c r="H613" s="6"/>
-      <c r="I613" s="6"/>
       <c r="J613" s="6"/>
       <c r="K613" s="6"/>
       <c r="L613" s="6"/>
@@ -30376,8 +29152,6 @@
       <c r="E614" s="6"/>
       <c r="F614" s="6"/>
       <c r="G614" s="6"/>
-      <c r="H614" s="6"/>
-      <c r="I614" s="6"/>
       <c r="J614" s="6"/>
       <c r="K614" s="6"/>
       <c r="L614" s="6"/>
@@ -30393,8 +29167,6 @@
       <c r="E615" s="6"/>
       <c r="F615" s="6"/>
       <c r="G615" s="6"/>
-      <c r="H615" s="6"/>
-      <c r="I615" s="6"/>
       <c r="J615" s="6"/>
       <c r="K615" s="6"/>
       <c r="L615" s="6"/>
@@ -30410,8 +29182,6 @@
       <c r="E616" s="6"/>
       <c r="F616" s="6"/>
       <c r="G616" s="6"/>
-      <c r="H616" s="6"/>
-      <c r="I616" s="6"/>
       <c r="J616" s="6"/>
       <c r="K616" s="6"/>
       <c r="L616" s="6"/>
@@ -30427,8 +29197,6 @@
       <c r="E617" s="6"/>
       <c r="F617" s="6"/>
       <c r="G617" s="6"/>
-      <c r="H617" s="6"/>
-      <c r="I617" s="6"/>
       <c r="J617" s="6"/>
       <c r="K617" s="6"/>
       <c r="L617" s="6"/>
@@ -30444,8 +29212,6 @@
       <c r="E618" s="6"/>
       <c r="F618" s="6"/>
       <c r="G618" s="6"/>
-      <c r="H618" s="6"/>
-      <c r="I618" s="6"/>
       <c r="J618" s="6"/>
       <c r="K618" s="6"/>
       <c r="L618" s="6"/>
@@ -30461,8 +29227,6 @@
       <c r="E619" s="6"/>
       <c r="F619" s="6"/>
       <c r="G619" s="6"/>
-      <c r="H619" s="6"/>
-      <c r="I619" s="6"/>
       <c r="J619" s="6"/>
       <c r="K619" s="6"/>
       <c r="L619" s="6"/>
@@ -30478,8 +29242,6 @@
       <c r="E620" s="6"/>
       <c r="F620" s="6"/>
       <c r="G620" s="6"/>
-      <c r="H620" s="6"/>
-      <c r="I620" s="6"/>
       <c r="J620" s="6"/>
       <c r="K620" s="6"/>
       <c r="L620" s="6"/>
@@ -30495,8 +29257,6 @@
       <c r="E621" s="6"/>
       <c r="F621" s="6"/>
       <c r="G621" s="6"/>
-      <c r="H621" s="6"/>
-      <c r="I621" s="6"/>
       <c r="J621" s="6"/>
       <c r="K621" s="6"/>
       <c r="L621" s="6"/>
@@ -30512,8 +29272,6 @@
       <c r="E622" s="6"/>
       <c r="F622" s="6"/>
       <c r="G622" s="6"/>
-      <c r="H622" s="6"/>
-      <c r="I622" s="6"/>
       <c r="J622" s="6"/>
       <c r="K622" s="6"/>
       <c r="L622" s="6"/>
@@ -30529,8 +29287,6 @@
       <c r="E623" s="6"/>
       <c r="F623" s="6"/>
       <c r="G623" s="6"/>
-      <c r="H623" s="6"/>
-      <c r="I623" s="6"/>
       <c r="J623" s="6"/>
       <c r="K623" s="6"/>
       <c r="L623" s="6"/>
@@ -30546,8 +29302,6 @@
       <c r="E624" s="6"/>
       <c r="F624" s="6"/>
       <c r="G624" s="6"/>
-      <c r="H624" s="6"/>
-      <c r="I624" s="6"/>
       <c r="J624" s="6"/>
       <c r="K624" s="6"/>
       <c r="L624" s="6"/>
@@ -30563,8 +29317,6 @@
       <c r="E625" s="6"/>
       <c r="F625" s="6"/>
       <c r="G625" s="6"/>
-      <c r="H625" s="6"/>
-      <c r="I625" s="6"/>
       <c r="J625" s="6"/>
       <c r="K625" s="6"/>
       <c r="L625" s="6"/>
@@ -30580,8 +29332,6 @@
       <c r="E626" s="6"/>
       <c r="F626" s="6"/>
       <c r="G626" s="6"/>
-      <c r="H626" s="6"/>
-      <c r="I626" s="6"/>
       <c r="J626" s="6"/>
       <c r="K626" s="6"/>
       <c r="L626" s="6"/>
@@ -30597,8 +29347,6 @@
       <c r="E627" s="6"/>
       <c r="F627" s="6"/>
       <c r="G627" s="6"/>
-      <c r="H627" s="6"/>
-      <c r="I627" s="6"/>
       <c r="J627" s="6"/>
       <c r="K627" s="6"/>
       <c r="L627" s="6"/>
@@ -30614,8 +29362,6 @@
       <c r="E628" s="6"/>
       <c r="F628" s="6"/>
       <c r="G628" s="6"/>
-      <c r="H628" s="6"/>
-      <c r="I628" s="6"/>
       <c r="J628" s="6"/>
       <c r="K628" s="6"/>
       <c r="L628" s="6"/>
@@ -30631,8 +29377,6 @@
       <c r="E629" s="6"/>
       <c r="F629" s="6"/>
       <c r="G629" s="6"/>
-      <c r="H629" s="6"/>
-      <c r="I629" s="6"/>
       <c r="J629" s="6"/>
       <c r="K629" s="6"/>
       <c r="L629" s="6"/>
@@ -30648,8 +29392,6 @@
       <c r="E630" s="6"/>
       <c r="F630" s="6"/>
       <c r="G630" s="6"/>
-      <c r="H630" s="6"/>
-      <c r="I630" s="6"/>
       <c r="J630" s="6"/>
       <c r="K630" s="6"/>
       <c r="L630" s="6"/>
@@ -30665,8 +29407,6 @@
       <c r="E631" s="6"/>
       <c r="F631" s="6"/>
       <c r="G631" s="6"/>
-      <c r="H631" s="6"/>
-      <c r="I631" s="6"/>
       <c r="J631" s="6"/>
       <c r="K631" s="6"/>
       <c r="L631" s="6"/>
@@ -30682,8 +29422,6 @@
       <c r="E632" s="6"/>
       <c r="F632" s="6"/>
       <c r="G632" s="6"/>
-      <c r="H632" s="6"/>
-      <c r="I632" s="6"/>
       <c r="J632" s="6"/>
       <c r="K632" s="6"/>
       <c r="L632" s="6"/>
@@ -30699,8 +29437,6 @@
       <c r="E633" s="6"/>
       <c r="F633" s="6"/>
       <c r="G633" s="6"/>
-      <c r="H633" s="6"/>
-      <c r="I633" s="6"/>
       <c r="J633" s="6"/>
       <c r="K633" s="6"/>
       <c r="L633" s="6"/>
@@ -30716,8 +29452,6 @@
       <c r="E634" s="6"/>
       <c r="F634" s="6"/>
       <c r="G634" s="6"/>
-      <c r="H634" s="6"/>
-      <c r="I634" s="6"/>
       <c r="J634" s="6"/>
       <c r="K634" s="6"/>
       <c r="L634" s="6"/>
@@ -30733,8 +29467,6 @@
       <c r="E635" s="6"/>
       <c r="F635" s="6"/>
       <c r="G635" s="6"/>
-      <c r="H635" s="6"/>
-      <c r="I635" s="6"/>
       <c r="J635" s="6"/>
       <c r="K635" s="6"/>
       <c r="L635" s="6"/>
@@ -30750,8 +29482,6 @@
       <c r="E636" s="6"/>
       <c r="F636" s="6"/>
       <c r="G636" s="6"/>
-      <c r="H636" s="6"/>
-      <c r="I636" s="6"/>
       <c r="J636" s="6"/>
       <c r="K636" s="6"/>
       <c r="L636" s="6"/>
@@ -30767,8 +29497,6 @@
       <c r="E637" s="6"/>
       <c r="F637" s="6"/>
       <c r="G637" s="6"/>
-      <c r="H637" s="6"/>
-      <c r="I637" s="6"/>
       <c r="J637" s="6"/>
       <c r="K637" s="6"/>
       <c r="L637" s="6"/>
@@ -30784,8 +29512,6 @@
       <c r="E638" s="6"/>
       <c r="F638" s="6"/>
       <c r="G638" s="6"/>
-      <c r="H638" s="6"/>
-      <c r="I638" s="6"/>
       <c r="J638" s="6"/>
       <c r="K638" s="6"/>
       <c r="L638" s="6"/>
@@ -30801,8 +29527,6 @@
       <c r="E639" s="6"/>
       <c r="F639" s="6"/>
       <c r="G639" s="6"/>
-      <c r="H639" s="6"/>
-      <c r="I639" s="6"/>
       <c r="J639" s="6"/>
       <c r="K639" s="6"/>
       <c r="L639" s="6"/>
@@ -30818,8 +29542,6 @@
       <c r="E640" s="6"/>
       <c r="F640" s="6"/>
       <c r="G640" s="6"/>
-      <c r="H640" s="6"/>
-      <c r="I640" s="6"/>
       <c r="J640" s="6"/>
       <c r="K640" s="6"/>
       <c r="L640" s="6"/>
@@ -30835,8 +29557,6 @@
       <c r="E641" s="6"/>
       <c r="F641" s="6"/>
       <c r="G641" s="6"/>
-      <c r="H641" s="6"/>
-      <c r="I641" s="6"/>
       <c r="J641" s="6"/>
       <c r="K641" s="6"/>
       <c r="L641" s="6"/>
@@ -30852,8 +29572,6 @@
       <c r="E642" s="6"/>
       <c r="F642" s="6"/>
       <c r="G642" s="6"/>
-      <c r="H642" s="6"/>
-      <c r="I642" s="6"/>
       <c r="J642" s="6"/>
       <c r="K642" s="6"/>
       <c r="L642" s="6"/>
@@ -30869,8 +29587,6 @@
       <c r="E643" s="6"/>
       <c r="F643" s="6"/>
       <c r="G643" s="6"/>
-      <c r="H643" s="6"/>
-      <c r="I643" s="6"/>
       <c r="J643" s="6"/>
       <c r="K643" s="6"/>
       <c r="L643" s="6"/>
@@ -30886,8 +29602,6 @@
       <c r="E644" s="6"/>
       <c r="F644" s="6"/>
       <c r="G644" s="6"/>
-      <c r="H644" s="6"/>
-      <c r="I644" s="6"/>
       <c r="J644" s="6"/>
       <c r="K644" s="6"/>
       <c r="L644" s="6"/>
@@ -30903,8 +29617,6 @@
       <c r="E645" s="6"/>
       <c r="F645" s="6"/>
       <c r="G645" s="6"/>
-      <c r="H645" s="6"/>
-      <c r="I645" s="6"/>
       <c r="J645" s="6"/>
       <c r="K645" s="6"/>
       <c r="L645" s="6"/>
@@ -30920,8 +29632,6 @@
       <c r="E646" s="6"/>
       <c r="F646" s="6"/>
       <c r="G646" s="6"/>
-      <c r="H646" s="6"/>
-      <c r="I646" s="6"/>
       <c r="J646" s="6"/>
       <c r="K646" s="6"/>
       <c r="L646" s="6"/>
@@ -30937,8 +29647,6 @@
       <c r="E647" s="6"/>
       <c r="F647" s="6"/>
       <c r="G647" s="6"/>
-      <c r="H647" s="6"/>
-      <c r="I647" s="6"/>
       <c r="J647" s="6"/>
       <c r="K647" s="6"/>
       <c r="L647" s="6"/>
@@ -30954,8 +29662,6 @@
       <c r="E648" s="6"/>
       <c r="F648" s="6"/>
       <c r="G648" s="6"/>
-      <c r="H648" s="6"/>
-      <c r="I648" s="6"/>
       <c r="J648" s="6"/>
       <c r="K648" s="6"/>
       <c r="L648" s="6"/>
@@ -30971,8 +29677,6 @@
       <c r="E649" s="6"/>
       <c r="F649" s="6"/>
       <c r="G649" s="6"/>
-      <c r="H649" s="6"/>
-      <c r="I649" s="6"/>
       <c r="J649" s="6"/>
       <c r="K649" s="6"/>
       <c r="L649" s="6"/>
@@ -30988,8 +29692,6 @@
       <c r="E650" s="6"/>
       <c r="F650" s="6"/>
       <c r="G650" s="6"/>
-      <c r="H650" s="6"/>
-      <c r="I650" s="6"/>
       <c r="J650" s="6"/>
       <c r="K650" s="6"/>
       <c r="L650" s="6"/>
@@ -31005,8 +29707,6 @@
       <c r="E651" s="6"/>
       <c r="F651" s="6"/>
       <c r="G651" s="6"/>
-      <c r="H651" s="6"/>
-      <c r="I651" s="6"/>
       <c r="J651" s="6"/>
       <c r="K651" s="6"/>
       <c r="L651" s="6"/>
@@ -31022,8 +29722,6 @@
       <c r="E652" s="6"/>
       <c r="F652" s="6"/>
       <c r="G652" s="6"/>
-      <c r="H652" s="6"/>
-      <c r="I652" s="6"/>
       <c r="J652" s="6"/>
       <c r="K652" s="6"/>
       <c r="L652" s="6"/>
@@ -31039,8 +29737,6 @@
       <c r="E653" s="6"/>
       <c r="F653" s="6"/>
       <c r="G653" s="6"/>
-      <c r="H653" s="6"/>
-      <c r="I653" s="6"/>
       <c r="J653" s="6"/>
       <c r="K653" s="6"/>
       <c r="L653" s="6"/>
@@ -31056,8 +29752,6 @@
       <c r="E654" s="6"/>
       <c r="F654" s="6"/>
       <c r="G654" s="6"/>
-      <c r="H654" s="6"/>
-      <c r="I654" s="6"/>
       <c r="J654" s="6"/>
       <c r="K654" s="6"/>
       <c r="L654" s="6"/>
@@ -31073,8 +29767,6 @@
       <c r="E655" s="6"/>
       <c r="F655" s="6"/>
       <c r="G655" s="6"/>
-      <c r="H655" s="6"/>
-      <c r="I655" s="6"/>
       <c r="J655" s="6"/>
       <c r="K655" s="6"/>
       <c r="L655" s="6"/>
@@ -31090,8 +29782,6 @@
       <c r="E656" s="6"/>
       <c r="F656" s="6"/>
       <c r="G656" s="6"/>
-      <c r="H656" s="6"/>
-      <c r="I656" s="6"/>
       <c r="J656" s="6"/>
       <c r="K656" s="6"/>
       <c r="L656" s="6"/>
@@ -31107,8 +29797,6 @@
       <c r="E657" s="6"/>
       <c r="F657" s="6"/>
       <c r="G657" s="6"/>
-      <c r="H657" s="6"/>
-      <c r="I657" s="6"/>
       <c r="J657" s="6"/>
       <c r="K657" s="6"/>
       <c r="L657" s="6"/>
@@ -31124,8 +29812,6 @@
       <c r="E658" s="6"/>
       <c r="F658" s="6"/>
       <c r="G658" s="6"/>
-      <c r="H658" s="6"/>
-      <c r="I658" s="6"/>
       <c r="J658" s="6"/>
       <c r="K658" s="6"/>
       <c r="L658" s="6"/>
@@ -31141,8 +29827,6 @@
       <c r="E659" s="6"/>
       <c r="F659" s="6"/>
       <c r="G659" s="6"/>
-      <c r="H659" s="6"/>
-      <c r="I659" s="6"/>
       <c r="J659" s="6"/>
       <c r="K659" s="6"/>
       <c r="L659" s="6"/>
@@ -31158,8 +29842,6 @@
       <c r="E660" s="6"/>
       <c r="F660" s="6"/>
       <c r="G660" s="6"/>
-      <c r="H660" s="6"/>
-      <c r="I660" s="6"/>
       <c r="J660" s="6"/>
       <c r="K660" s="6"/>
       <c r="L660" s="6"/>
@@ -31175,8 +29857,6 @@
       <c r="E661" s="6"/>
       <c r="F661" s="6"/>
       <c r="G661" s="6"/>
-      <c r="H661" s="6"/>
-      <c r="I661" s="6"/>
       <c r="J661" s="6"/>
       <c r="K661" s="6"/>
       <c r="L661" s="6"/>
@@ -31192,8 +29872,6 @@
       <c r="E662" s="6"/>
       <c r="F662" s="6"/>
       <c r="G662" s="6"/>
-      <c r="H662" s="6"/>
-      <c r="I662" s="6"/>
       <c r="J662" s="6"/>
       <c r="K662" s="6"/>
       <c r="L662" s="6"/>
@@ -31209,8 +29887,6 @@
       <c r="E663" s="6"/>
       <c r="F663" s="6"/>
       <c r="G663" s="6"/>
-      <c r="H663" s="6"/>
-      <c r="I663" s="6"/>
       <c r="J663" s="6"/>
       <c r="K663" s="6"/>
       <c r="L663" s="6"/>
@@ -31226,8 +29902,6 @@
       <c r="E664" s="6"/>
       <c r="F664" s="6"/>
       <c r="G664" s="6"/>
-      <c r="H664" s="6"/>
-      <c r="I664" s="6"/>
       <c r="J664" s="6"/>
       <c r="K664" s="6"/>
       <c r="L664" s="6"/>
@@ -31243,8 +29917,6 @@
       <c r="E665" s="6"/>
       <c r="F665" s="6"/>
       <c r="G665" s="6"/>
-      <c r="H665" s="6"/>
-      <c r="I665" s="6"/>
       <c r="J665" s="6"/>
       <c r="K665" s="6"/>
       <c r="L665" s="6"/>
@@ -31260,8 +29932,6 @@
       <c r="E666" s="6"/>
       <c r="F666" s="6"/>
       <c r="G666" s="6"/>
-      <c r="H666" s="6"/>
-      <c r="I666" s="6"/>
       <c r="J666" s="6"/>
       <c r="K666" s="6"/>
       <c r="L666" s="6"/>
@@ -31277,8 +29947,6 @@
       <c r="E667" s="6"/>
       <c r="F667" s="6"/>
       <c r="G667" s="6"/>
-      <c r="H667" s="6"/>
-      <c r="I667" s="6"/>
       <c r="J667" s="6"/>
       <c r="K667" s="6"/>
       <c r="L667" s="6"/>
@@ -31294,8 +29962,6 @@
       <c r="E668" s="6"/>
       <c r="F668" s="6"/>
       <c r="G668" s="6"/>
-      <c r="H668" s="6"/>
-      <c r="I668" s="6"/>
       <c r="J668" s="6"/>
       <c r="K668" s="6"/>
       <c r="L668" s="6"/>
@@ -31311,8 +29977,6 @@
       <c r="E669" s="6"/>
       <c r="F669" s="6"/>
       <c r="G669" s="6"/>
-      <c r="H669" s="6"/>
-      <c r="I669" s="6"/>
       <c r="J669" s="6"/>
       <c r="K669" s="6"/>
       <c r="L669" s="6"/>
@@ -31328,8 +29992,6 @@
       <c r="E670" s="6"/>
       <c r="F670" s="6"/>
       <c r="G670" s="6"/>
-      <c r="H670" s="6"/>
-      <c r="I670" s="6"/>
       <c r="J670" s="6"/>
       <c r="K670" s="6"/>
       <c r="L670" s="6"/>
@@ -31345,8 +30007,6 @@
       <c r="E671" s="6"/>
       <c r="F671" s="6"/>
       <c r="G671" s="6"/>
-      <c r="H671" s="6"/>
-      <c r="I671" s="6"/>
       <c r="J671" s="6"/>
       <c r="K671" s="6"/>
       <c r="L671" s="6"/>
@@ -31362,8 +30022,6 @@
       <c r="E672" s="6"/>
       <c r="F672" s="6"/>
       <c r="G672" s="6"/>
-      <c r="H672" s="6"/>
-      <c r="I672" s="6"/>
       <c r="J672" s="6"/>
       <c r="K672" s="6"/>
       <c r="L672" s="6"/>
@@ -31379,8 +30037,6 @@
       <c r="E673" s="6"/>
       <c r="F673" s="6"/>
       <c r="G673" s="6"/>
-      <c r="H673" s="6"/>
-      <c r="I673" s="6"/>
       <c r="J673" s="6"/>
       <c r="K673" s="6"/>
       <c r="L673" s="6"/>
@@ -31396,8 +30052,6 @@
       <c r="E674" s="6"/>
       <c r="F674" s="6"/>
       <c r="G674" s="6"/>
-      <c r="H674" s="6"/>
-      <c r="I674" s="6"/>
       <c r="J674" s="6"/>
       <c r="K674" s="6"/>
       <c r="L674" s="6"/>
@@ -31413,8 +30067,6 @@
       <c r="E675" s="6"/>
       <c r="F675" s="6"/>
       <c r="G675" s="6"/>
-      <c r="H675" s="6"/>
-      <c r="I675" s="6"/>
       <c r="J675" s="6"/>
       <c r="K675" s="6"/>
       <c r="L675" s="6"/>
@@ -31430,8 +30082,6 @@
       <c r="E676" s="6"/>
       <c r="F676" s="6"/>
       <c r="G676" s="6"/>
-      <c r="H676" s="6"/>
-      <c r="I676" s="6"/>
       <c r="J676" s="6"/>
       <c r="K676" s="6"/>
       <c r="L676" s="6"/>
@@ -31447,8 +30097,6 @@
       <c r="E677" s="6"/>
       <c r="F677" s="6"/>
       <c r="G677" s="6"/>
-      <c r="H677" s="6"/>
-      <c r="I677" s="6"/>
       <c r="J677" s="6"/>
       <c r="K677" s="6"/>
       <c r="L677" s="6"/>
@@ -31464,8 +30112,6 @@
       <c r="E678" s="6"/>
       <c r="F678" s="6"/>
       <c r="G678" s="6"/>
-      <c r="H678" s="6"/>
-      <c r="I678" s="6"/>
       <c r="J678" s="6"/>
       <c r="K678" s="6"/>
       <c r="L678" s="6"/>
@@ -31481,8 +30127,6 @@
       <c r="E679" s="6"/>
       <c r="F679" s="6"/>
       <c r="G679" s="6"/>
-      <c r="H679" s="6"/>
-      <c r="I679" s="6"/>
       <c r="J679" s="6"/>
       <c r="K679" s="6"/>
       <c r="L679" s="6"/>
@@ -31498,8 +30142,6 @@
       <c r="E680" s="6"/>
       <c r="F680" s="6"/>
       <c r="G680" s="6"/>
-      <c r="H680" s="6"/>
-      <c r="I680" s="6"/>
       <c r="J680" s="6"/>
       <c r="K680" s="6"/>
       <c r="L680" s="6"/>
@@ -31515,8 +30157,6 @@
       <c r="E681" s="6"/>
       <c r="F681" s="6"/>
       <c r="G681" s="6"/>
-      <c r="H681" s="6"/>
-      <c r="I681" s="6"/>
       <c r="J681" s="6"/>
       <c r="K681" s="6"/>
       <c r="L681" s="6"/>
@@ -31532,8 +30172,6 @@
       <c r="E682" s="6"/>
       <c r="F682" s="6"/>
       <c r="G682" s="6"/>
-      <c r="H682" s="6"/>
-      <c r="I682" s="6"/>
       <c r="J682" s="6"/>
       <c r="K682" s="6"/>
       <c r="L682" s="6"/>
@@ -31549,8 +30187,6 @@
       <c r="E683" s="6"/>
       <c r="F683" s="6"/>
       <c r="G683" s="6"/>
-      <c r="H683" s="6"/>
-      <c r="I683" s="6"/>
       <c r="J683" s="6"/>
       <c r="K683" s="6"/>
       <c r="L683" s="6"/>
@@ -31566,8 +30202,6 @@
       <c r="E684" s="6"/>
       <c r="F684" s="6"/>
       <c r="G684" s="6"/>
-      <c r="H684" s="6"/>
-      <c r="I684" s="6"/>
       <c r="J684" s="6"/>
       <c r="K684" s="6"/>
       <c r="L684" s="6"/>
@@ -31583,8 +30217,6 @@
       <c r="E685" s="6"/>
       <c r="F685" s="6"/>
       <c r="G685" s="6"/>
-      <c r="H685" s="6"/>
-      <c r="I685" s="6"/>
       <c r="J685" s="6"/>
       <c r="K685" s="6"/>
       <c r="L685" s="6"/>
@@ -31600,8 +30232,6 @@
       <c r="E686" s="6"/>
       <c r="F686" s="6"/>
       <c r="G686" s="6"/>
-      <c r="H686" s="6"/>
-      <c r="I686" s="6"/>
       <c r="J686" s="6"/>
       <c r="K686" s="6"/>
       <c r="L686" s="6"/>
@@ -31617,8 +30247,6 @@
       <c r="E687" s="6"/>
       <c r="F687" s="6"/>
       <c r="G687" s="6"/>
-      <c r="H687" s="6"/>
-      <c r="I687" s="6"/>
       <c r="J687" s="6"/>
       <c r="K687" s="6"/>
       <c r="L687" s="6"/>
@@ -31634,8 +30262,6 @@
       <c r="E688" s="6"/>
       <c r="F688" s="6"/>
       <c r="G688" s="6"/>
-      <c r="H688" s="6"/>
-      <c r="I688" s="6"/>
       <c r="J688" s="6"/>
       <c r="K688" s="6"/>
       <c r="L688" s="6"/>
@@ -31651,8 +30277,6 @@
       <c r="E689" s="6"/>
       <c r="F689" s="6"/>
       <c r="G689" s="6"/>
-      <c r="H689" s="6"/>
-      <c r="I689" s="6"/>
       <c r="J689" s="6"/>
       <c r="K689" s="6"/>
       <c r="L689" s="6"/>
@@ -31668,8 +30292,6 @@
       <c r="E690" s="6"/>
       <c r="F690" s="6"/>
       <c r="G690" s="6"/>
-      <c r="H690" s="6"/>
-      <c r="I690" s="6"/>
       <c r="J690" s="6"/>
       <c r="K690" s="6"/>
       <c r="L690" s="6"/>
@@ -31685,8 +30307,6 @@
       <c r="E691" s="6"/>
       <c r="F691" s="6"/>
       <c r="G691" s="6"/>
-      <c r="H691" s="6"/>
-      <c r="I691" s="6"/>
       <c r="J691" s="6"/>
       <c r="K691" s="6"/>
       <c r="L691" s="6"/>
@@ -31702,8 +30322,6 @@
       <c r="E692" s="6"/>
       <c r="F692" s="6"/>
       <c r="G692" s="6"/>
-      <c r="H692" s="6"/>
-      <c r="I692" s="6"/>
       <c r="J692" s="6"/>
       <c r="K692" s="6"/>
       <c r="L692" s="6"/>
@@ -31719,8 +30337,6 @@
       <c r="E693" s="6"/>
       <c r="F693" s="6"/>
       <c r="G693" s="6"/>
-      <c r="H693" s="6"/>
-      <c r="I693" s="6"/>
       <c r="J693" s="6"/>
       <c r="K693" s="6"/>
       <c r="L693" s="6"/>
@@ -31736,8 +30352,6 @@
       <c r="E694" s="6"/>
       <c r="F694" s="6"/>
       <c r="G694" s="6"/>
-      <c r="H694" s="6"/>
-      <c r="I694" s="6"/>
       <c r="J694" s="6"/>
       <c r="K694" s="6"/>
       <c r="L694" s="6"/>
@@ -31753,8 +30367,6 @@
       <c r="E695" s="6"/>
       <c r="F695" s="6"/>
       <c r="G695" s="6"/>
-      <c r="H695" s="6"/>
-      <c r="I695" s="6"/>
       <c r="J695" s="6"/>
       <c r="K695" s="6"/>
       <c r="L695" s="6"/>
@@ -31770,8 +30382,6 @@
       <c r="E696" s="6"/>
       <c r="F696" s="6"/>
       <c r="G696" s="6"/>
-      <c r="H696" s="6"/>
-      <c r="I696" s="6"/>
       <c r="J696" s="6"/>
       <c r="K696" s="6"/>
       <c r="L696" s="6"/>
@@ -31787,8 +30397,6 @@
       <c r="E697" s="6"/>
       <c r="F697" s="6"/>
       <c r="G697" s="6"/>
-      <c r="H697" s="6"/>
-      <c r="I697" s="6"/>
       <c r="J697" s="6"/>
       <c r="K697" s="6"/>
       <c r="L697" s="6"/>
@@ -31804,8 +30412,6 @@
       <c r="E698" s="6"/>
       <c r="F698" s="6"/>
       <c r="G698" s="6"/>
-      <c r="H698" s="6"/>
-      <c r="I698" s="6"/>
       <c r="J698" s="6"/>
       <c r="K698" s="6"/>
       <c r="L698" s="6"/>
@@ -31821,8 +30427,6 @@
       <c r="E699" s="6"/>
       <c r="F699" s="6"/>
       <c r="G699" s="6"/>
-      <c r="H699" s="6"/>
-      <c r="I699" s="6"/>
       <c r="J699" s="6"/>
       <c r="K699" s="6"/>
       <c r="L699" s="6"/>
@@ -31838,8 +30442,6 @@
       <c r="E700" s="6"/>
       <c r="F700" s="6"/>
       <c r="G700" s="6"/>
-      <c r="H700" s="6"/>
-      <c r="I700" s="6"/>
       <c r="J700" s="6"/>
       <c r="K700" s="6"/>
       <c r="L700" s="6"/>
@@ -31855,8 +30457,6 @@
       <c r="E701" s="6"/>
       <c r="F701" s="6"/>
       <c r="G701" s="6"/>
-      <c r="H701" s="6"/>
-      <c r="I701" s="6"/>
       <c r="J701" s="6"/>
       <c r="K701" s="6"/>
       <c r="L701" s="6"/>
@@ -31872,8 +30472,6 @@
       <c r="E702" s="6"/>
       <c r="F702" s="6"/>
       <c r="G702" s="6"/>
-      <c r="H702" s="6"/>
-      <c r="I702" s="6"/>
       <c r="J702" s="6"/>
       <c r="K702" s="6"/>
       <c r="L702" s="6"/>
@@ -31889,8 +30487,6 @@
       <c r="E703" s="6"/>
       <c r="F703" s="6"/>
       <c r="G703" s="6"/>
-      <c r="H703" s="6"/>
-      <c r="I703" s="6"/>
       <c r="J703" s="6"/>
       <c r="K703" s="6"/>
       <c r="L703" s="6"/>
@@ -31906,8 +30502,6 @@
       <c r="E704" s="6"/>
       <c r="F704" s="6"/>
       <c r="G704" s="6"/>
-      <c r="H704" s="6"/>
-      <c r="I704" s="6"/>
       <c r="J704" s="6"/>
       <c r="K704" s="6"/>
       <c r="L704" s="6"/>
@@ -31923,8 +30517,6 @@
       <c r="E705" s="6"/>
       <c r="F705" s="6"/>
       <c r="G705" s="6"/>
-      <c r="H705" s="6"/>
-      <c r="I705" s="6"/>
       <c r="J705" s="6"/>
       <c r="K705" s="6"/>
       <c r="L705" s="6"/>
@@ -31940,8 +30532,6 @@
       <c r="E706" s="6"/>
       <c r="F706" s="6"/>
       <c r="G706" s="6"/>
-      <c r="H706" s="6"/>
-      <c r="I706" s="6"/>
       <c r="J706" s="6"/>
       <c r="K706" s="6"/>
       <c r="L706" s="6"/>
@@ -31957,8 +30547,6 @@
       <c r="E707" s="6"/>
       <c r="F707" s="6"/>
       <c r="G707" s="6"/>
-      <c r="H707" s="6"/>
-      <c r="I707" s="6"/>
       <c r="J707" s="6"/>
       <c r="K707" s="6"/>
       <c r="L707" s="6"/>
@@ -31974,8 +30562,6 @@
       <c r="E708" s="6"/>
       <c r="F708" s="6"/>
       <c r="G708" s="6"/>
-      <c r="H708" s="6"/>
-      <c r="I708" s="6"/>
       <c r="J708" s="6"/>
       <c r="K708" s="6"/>
       <c r="L708" s="6"/>
@@ -31991,8 +30577,6 @@
       <c r="E709" s="6"/>
       <c r="F709" s="6"/>
       <c r="G709" s="6"/>
-      <c r="H709" s="6"/>
-      <c r="I709" s="6"/>
       <c r="J709" s="6"/>
       <c r="K709" s="6"/>
       <c r="L709" s="6"/>
@@ -32008,8 +30592,6 @@
       <c r="E710" s="6"/>
       <c r="F710" s="6"/>
       <c r="G710" s="6"/>
-      <c r="H710" s="6"/>
-      <c r="I710" s="6"/>
       <c r="J710" s="6"/>
       <c r="K710" s="6"/>
       <c r="L710" s="6"/>
@@ -32025,8 +30607,6 @@
       <c r="E711" s="6"/>
       <c r="F711" s="6"/>
       <c r="G711" s="6"/>
-      <c r="H711" s="6"/>
-      <c r="I711" s="6"/>
       <c r="J711" s="6"/>
       <c r="K711" s="6"/>
       <c r="L711" s="6"/>
@@ -32042,8 +30622,6 @@
       <c r="E712" s="6"/>
       <c r="F712" s="6"/>
       <c r="G712" s="6"/>
-      <c r="H712" s="6"/>
-      <c r="I712" s="6"/>
       <c r="J712" s="6"/>
       <c r="K712" s="6"/>
       <c r="L712" s="6"/>
@@ -32059,8 +30637,6 @@
       <c r="E713" s="6"/>
       <c r="F713" s="6"/>
       <c r="G713" s="6"/>
-      <c r="H713" s="6"/>
-      <c r="I713" s="6"/>
       <c r="J713" s="6"/>
       <c r="K713" s="6"/>
       <c r="L713" s="6"/>
@@ -32076,8 +30652,6 @@
       <c r="E714" s="6"/>
       <c r="F714" s="6"/>
       <c r="G714" s="6"/>
-      <c r="H714" s="6"/>
-      <c r="I714" s="6"/>
       <c r="J714" s="6"/>
       <c r="K714" s="6"/>
       <c r="L714" s="6"/>
@@ -32093,8 +30667,6 @@
       <c r="E715" s="6"/>
       <c r="F715" s="6"/>
       <c r="G715" s="6"/>
-      <c r="H715" s="6"/>
-      <c r="I715" s="6"/>
       <c r="J715" s="6"/>
       <c r="K715" s="6"/>
       <c r="L715" s="6"/>
@@ -32110,8 +30682,6 @@
       <c r="E716" s="6"/>
       <c r="F716" s="6"/>
       <c r="G716" s="6"/>
-      <c r="H716" s="6"/>
-      <c r="I716" s="6"/>
       <c r="J716" s="6"/>
       <c r="K716" s="6"/>
       <c r="L716" s="6"/>
@@ -32127,8 +30697,6 @@
       <c r="E717" s="6"/>
       <c r="F717" s="6"/>
       <c r="G717" s="6"/>
-      <c r="H717" s="6"/>
-      <c r="I717" s="6"/>
       <c r="J717" s="6"/>
       <c r="K717" s="6"/>
       <c r="L717" s="6"/>
@@ -32144,8 +30712,6 @@
       <c r="E718" s="6"/>
       <c r="F718" s="6"/>
       <c r="G718" s="6"/>
-      <c r="H718" s="6"/>
-      <c r="I718" s="6"/>
       <c r="J718" s="6"/>
       <c r="K718" s="6"/>
       <c r="L718" s="6"/>
@@ -32161,8 +30727,6 @@
       <c r="E719" s="6"/>
       <c r="F719" s="6"/>
       <c r="G719" s="6"/>
-      <c r="H719" s="6"/>
-      <c r="I719" s="6"/>
       <c r="J719" s="6"/>
       <c r="K719" s="6"/>
       <c r="L719" s="6"/>
@@ -32178,8 +30742,6 @@
       <c r="E720" s="6"/>
       <c r="F720" s="6"/>
       <c r="G720" s="6"/>
-      <c r="H720" s="6"/>
-      <c r="I720" s="6"/>
       <c r="J720" s="6"/>
       <c r="K720" s="6"/>
       <c r="L720" s="6"/>
@@ -32195,8 +30757,6 @@
       <c r="E721" s="6"/>
       <c r="F721" s="6"/>
       <c r="G721" s="6"/>
-      <c r="H721" s="6"/>
-      <c r="I721" s="6"/>
       <c r="J721" s="6"/>
       <c r="K721" s="6"/>
       <c r="L721" s="6"/>
@@ -32212,8 +30772,6 @@
       <c r="E722" s="6"/>
       <c r="F722" s="6"/>
       <c r="G722" s="6"/>
-      <c r="H722" s="6"/>
-      <c r="I722" s="6"/>
       <c r="J722" s="6"/>
       <c r="K722" s="6"/>
       <c r="L722" s="6"/>
@@ -32229,8 +30787,6 @@
       <c r="E723" s="6"/>
       <c r="F723" s="6"/>
       <c r="G723" s="6"/>
-      <c r="H723" s="6"/>
-      <c r="I723" s="6"/>
       <c r="J723" s="6"/>
       <c r="K723" s="6"/>
       <c r="L723" s="6"/>
@@ -32246,8 +30802,6 @@
       <c r="E724" s="6"/>
       <c r="F724" s="6"/>
       <c r="G724" s="6"/>
-      <c r="H724" s="6"/>
-      <c r="I724" s="6"/>
       <c r="J724" s="6"/>
       <c r="K724" s="6"/>
       <c r="L724" s="6"/>
@@ -32263,8 +30817,6 @@
       <c r="E725" s="6"/>
       <c r="F725" s="6"/>
       <c r="G725" s="6"/>
-      <c r="H725" s="6"/>
-      <c r="I725" s="6"/>
       <c r="J725" s="6"/>
       <c r="K725" s="6"/>
       <c r="L725" s="6"/>
@@ -32280,8 +30832,6 @@
       <c r="E726" s="6"/>
       <c r="F726" s="6"/>
       <c r="G726" s="6"/>
-      <c r="H726" s="6"/>
-      <c r="I726" s="6"/>
       <c r="J726" s="6"/>
       <c r="K726" s="6"/>
       <c r="L726" s="6"/>
@@ -32297,8 +30847,6 @@
       <c r="E727" s="6"/>
       <c r="F727" s="6"/>
       <c r="G727" s="6"/>
-      <c r="H727" s="6"/>
-      <c r="I727" s="6"/>
       <c r="J727" s="6"/>
       <c r="K727" s="6"/>
       <c r="L727" s="6"/>
@@ -32314,8 +30862,6 @@
       <c r="E728" s="6"/>
       <c r="F728" s="6"/>
       <c r="G728" s="6"/>
-      <c r="H728" s="6"/>
-      <c r="I728" s="6"/>
       <c r="J728" s="6"/>
       <c r="K728" s="6"/>
       <c r="L728" s="6"/>
@@ -32331,8 +30877,6 @@
       <c r="E729" s="6"/>
       <c r="F729" s="6"/>
       <c r="G729" s="6"/>
-      <c r="H729" s="6"/>
-      <c r="I729" s="6"/>
       <c r="J729" s="6"/>
       <c r="K729" s="6"/>
       <c r="L729" s="6"/>
@@ -32348,8 +30892,6 @@
       <c r="E730" s="6"/>
       <c r="F730" s="6"/>
       <c r="G730" s="6"/>
-      <c r="H730" s="6"/>
-      <c r="I730" s="6"/>
       <c r="J730" s="6"/>
       <c r="K730" s="6"/>
       <c r="L730" s="6"/>
@@ -32365,8 +30907,6 @@
       <c r="E731" s="6"/>
       <c r="F731" s="6"/>
       <c r="G731" s="6"/>
-      <c r="H731" s="6"/>
-      <c r="I731" s="6"/>
       <c r="J731" s="6"/>
       <c r="K731" s="6"/>
       <c r="L731" s="6"/>
@@ -32382,8 +30922,6 @@
       <c r="E732" s="6"/>
       <c r="F732" s="6"/>
       <c r="G732" s="6"/>
-      <c r="H732" s="6"/>
-      <c r="I732" s="6"/>
       <c r="J732" s="6"/>
       <c r="K732" s="6"/>
       <c r="L732" s="6"/>
@@ -32399,8 +30937,6 @@
       <c r="E733" s="6"/>
       <c r="F733" s="6"/>
       <c r="G733" s="6"/>
-      <c r="H733" s="6"/>
-      <c r="I733" s="6"/>
       <c r="J733" s="6"/>
       <c r="K733" s="6"/>
       <c r="L733" s="6"/>
@@ -32416,8 +30952,6 @@
       <c r="E734" s="6"/>
       <c r="F734" s="6"/>
       <c r="G734" s="6"/>
-      <c r="H734" s="6"/>
-      <c r="I734" s="6"/>
       <c r="J734" s="6"/>
       <c r="K734" s="6"/>
       <c r="L734" s="6"/>
@@ -32433,8 +30967,6 @@
       <c r="E735" s="6"/>
       <c r="F735" s="6"/>
       <c r="G735" s="6"/>
-      <c r="H735" s="6"/>
-      <c r="I735" s="6"/>
       <c r="J735" s="6"/>
       <c r="K735" s="6"/>
       <c r="L735" s="6"/>
@@ -32450,8 +30982,6 @@
       <c r="E736" s="6"/>
       <c r="F736" s="6"/>
       <c r="G736" s="6"/>
-      <c r="H736" s="6"/>
-      <c r="I736" s="6"/>
       <c r="J736" s="6"/>
       <c r="K736" s="6"/>
       <c r="L736" s="6"/>
@@ -32467,8 +30997,6 @@
       <c r="E737" s="6"/>
       <c r="F737" s="6"/>
       <c r="G737" s="6"/>
-      <c r="H737" s="6"/>
-      <c r="I737" s="6"/>
       <c r="J737" s="6"/>
       <c r="K737" s="6"/>
       <c r="L737" s="6"/>
@@ -32484,8 +31012,6 @@
       <c r="E738" s="6"/>
       <c r="F738" s="6"/>
       <c r="G738" s="6"/>
-      <c r="H738" s="6"/>
-      <c r="I738" s="6"/>
       <c r="J738" s="6"/>
       <c r="K738" s="6"/>
       <c r="L738" s="6"/>
@@ -32501,8 +31027,6 @@
       <c r="E739" s="6"/>
       <c r="F739" s="6"/>
       <c r="G739" s="6"/>
-      <c r="H739" s="6"/>
-      <c r="I739" s="6"/>
       <c r="J739" s="6"/>
       <c r="K739" s="6"/>
       <c r="L739" s="6"/>
@@ -32518,8 +31042,6 @@
       <c r="E740" s="6"/>
       <c r="F740" s="6"/>
       <c r="G740" s="6"/>
-      <c r="H740" s="6"/>
-      <c r="I740" s="6"/>
       <c r="J740" s="6"/>
       <c r="K740" s="6"/>
       <c r="L740" s="6"/>
@@ -32535,8 +31057,6 @@
       <c r="E741" s="6"/>
       <c r="F741" s="6"/>
       <c r="G741" s="6"/>
-      <c r="H741" s="6"/>
-      <c r="I741" s="6"/>
       <c r="J741" s="6"/>
       <c r="K741" s="6"/>
       <c r="L741" s="6"/>
@@ -32552,8 +31072,6 @@
       <c r="E742" s="6"/>
       <c r="F742" s="6"/>
       <c r="G742" s="6"/>
-      <c r="H742" s="6"/>
-      <c r="I742" s="6"/>
       <c r="J742" s="6"/>
       <c r="K742" s="6"/>
       <c r="L742" s="6"/>
@@ -32569,8 +31087,6 @@
       <c r="E743" s="6"/>
       <c r="F743" s="6"/>
       <c r="G743" s="6"/>
-      <c r="H743" s="6"/>
-      <c r="I743" s="6"/>
       <c r="J743" s="6"/>
       <c r="K743" s="6"/>
       <c r="L743" s="6"/>
@@ -32586,8 +31102,6 @@
       <c r="E744" s="6"/>
       <c r="F744" s="6"/>
       <c r="G744" s="6"/>
-      <c r="H744" s="6"/>
-      <c r="I744" s="6"/>
       <c r="J744" s="6"/>
       <c r="K744" s="6"/>
       <c r="L744" s="6"/>
@@ -32603,8 +31117,6 @@
       <c r="E745" s="6"/>
       <c r="F745" s="6"/>
       <c r="G745" s="6"/>
-      <c r="H745" s="6"/>
-      <c r="I745" s="6"/>
       <c r="J745" s="6"/>
       <c r="K745" s="6"/>
       <c r="L745" s="6"/>
@@ -32620,8 +31132,6 @@
       <c r="E746" s="6"/>
       <c r="F746" s="6"/>
       <c r="G746" s="6"/>
-      <c r="H746" s="6"/>
-      <c r="I746" s="6"/>
       <c r="J746" s="6"/>
       <c r="K746" s="6"/>
       <c r="L746" s="6"/>
@@ -32637,8 +31147,6 @@
       <c r="E747" s="6"/>
       <c r="F747" s="6"/>
       <c r="G747" s="6"/>
-      <c r="H747" s="6"/>
-      <c r="I747" s="6"/>
       <c r="J747" s="6"/>
       <c r="K747" s="6"/>
       <c r="L747" s="6"/>
@@ -32654,8 +31162,6 @@
       <c r="E748" s="6"/>
       <c r="F748" s="6"/>
       <c r="G748" s="6"/>
-      <c r="H748" s="6"/>
-      <c r="I748" s="6"/>
       <c r="J748" s="6"/>
       <c r="K748" s="6"/>
       <c r="L748" s="6"/>
@@ -32671,8 +31177,6 @@
       <c r="E749" s="6"/>
       <c r="F749" s="6"/>
       <c r="G749" s="6"/>
-      <c r="H749" s="6"/>
-      <c r="I749" s="6"/>
       <c r="J749" s="6"/>
       <c r="K749" s="6"/>
       <c r="L749" s="6"/>
@@ -32688,8 +31192,6 @@
       <c r="E750" s="6"/>
       <c r="F750" s="6"/>
       <c r="G750" s="6"/>
-      <c r="H750" s="6"/>
-      <c r="I750" s="6"/>
       <c r="J750" s="6"/>
       <c r="K750" s="6"/>
       <c r="L750" s="6"/>
@@ -32705,8 +31207,6 @@
       <c r="E751" s="6"/>
       <c r="F751" s="6"/>
       <c r="G751" s="6"/>
-      <c r="H751" s="6"/>
-      <c r="I751" s="6"/>
       <c r="J751" s="6"/>
       <c r="K751" s="6"/>
       <c r="L751" s="6"/>
@@ -32722,8 +31222,6 @@
       <c r="E752" s="6"/>
       <c r="F752" s="6"/>
       <c r="G752" s="6"/>
-      <c r="H752" s="6"/>
-      <c r="I752" s="6"/>
       <c r="J752" s="6"/>
       <c r="K752" s="6"/>
       <c r="L752" s="6"/>
@@ -32739,8 +31237,6 @@
       <c r="E753" s="6"/>
       <c r="F753" s="6"/>
       <c r="G753" s="6"/>
-      <c r="H753" s="6"/>
-      <c r="I753" s="6"/>
       <c r="J753" s="6"/>
       <c r="K753" s="6"/>
       <c r="L753" s="6"/>
@@ -32756,8 +31252,6 @@
       <c r="E754" s="6"/>
       <c r="F754" s="6"/>
       <c r="G754" s="6"/>
-      <c r="H754" s="6"/>
-      <c r="I754" s="6"/>
       <c r="J754" s="6"/>
       <c r="K754" s="6"/>
       <c r="L754" s="6"/>
@@ -32773,8 +31267,6 @@
       <c r="E755" s="6"/>
       <c r="F755" s="6"/>
       <c r="G755" s="6"/>
-      <c r="H755" s="6"/>
-      <c r="I755" s="6"/>
       <c r="J755" s="6"/>
       <c r="K755" s="6"/>
       <c r="L755" s="6"/>
@@ -32790,8 +31282,6 @@
       <c r="E756" s="6"/>
       <c r="F756" s="6"/>
       <c r="G756" s="6"/>
-      <c r="H756" s="6"/>
-      <c r="I756" s="6"/>
       <c r="J756" s="6"/>
       <c r="K756" s="6"/>
       <c r="L756" s="6"/>
@@ -32807,8 +31297,6 @@
       <c r="E757" s="6"/>
       <c r="F757" s="6"/>
       <c r="G757" s="6"/>
-      <c r="H757" s="6"/>
-      <c r="I757" s="6"/>
       <c r="J757" s="6"/>
       <c r="K757" s="6"/>
       <c r="L757" s="6"/>
@@ -32824,8 +31312,6 @@
       <c r="E758" s="6"/>
       <c r="F758" s="6"/>
       <c r="G758" s="6"/>
-      <c r="H758" s="6"/>
-      <c r="I758" s="6"/>
       <c r="J758" s="6"/>
       <c r="K758" s="6"/>
       <c r="L758" s="6"/>
@@ -32841,8 +31327,6 @@
       <c r="E759" s="6"/>
       <c r="F759" s="6"/>
       <c r="G759" s="6"/>
-      <c r="H759" s="6"/>
-      <c r="I759" s="6"/>
       <c r="J759" s="6"/>
       <c r="K759" s="6"/>
       <c r="L759" s="6"/>
@@ -32858,8 +31342,6 @@
       <c r="E760" s="6"/>
       <c r="F760" s="6"/>
       <c r="G760" s="6"/>
-      <c r="H760" s="6"/>
-      <c r="I760" s="6"/>
       <c r="J760" s="6"/>
       <c r="K760" s="6"/>
       <c r="L760" s="6"/>
@@ -32875,8 +31357,6 @@
       <c r="E761" s="6"/>
       <c r="F761" s="6"/>
       <c r="G761" s="6"/>
-      <c r="H761" s="6"/>
-      <c r="I761" s="6"/>
       <c r="J761" s="6"/>
       <c r="K761" s="6"/>
       <c r="L761" s="6"/>
@@ -32892,8 +31372,6 @@
       <c r="E762" s="6"/>
       <c r="F762" s="6"/>
       <c r="G762" s="6"/>
-      <c r="H762" s="6"/>
-      <c r="I762" s="6"/>
       <c r="J762" s="6"/>
       <c r="K762" s="6"/>
       <c r="L762" s="6"/>
@@ -32909,8 +31387,6 @@
       <c r="E763" s="6"/>
       <c r="F763" s="6"/>
       <c r="G763" s="6"/>
-      <c r="H763" s="6"/>
-      <c r="I763" s="6"/>
       <c r="J763" s="6"/>
       <c r="K763" s="6"/>
       <c r="L763" s="6"/>
@@ -32926,8 +31402,6 @@
       <c r="E764" s="6"/>
       <c r="F764" s="6"/>
       <c r="G764" s="6"/>
-      <c r="H764" s="6"/>
-      <c r="I764" s="6"/>
       <c r="J764" s="6"/>
       <c r="K764" s="6"/>
       <c r="L764" s="6"/>
@@ -32943,8 +31417,6 @@
       <c r="E765" s="6"/>
       <c r="F765" s="6"/>
       <c r="G765" s="6"/>
-      <c r="H765" s="6"/>
-      <c r="I765" s="6"/>
       <c r="J765" s="6"/>
       <c r="K765" s="6"/>
       <c r="L765" s="6"/>
@@ -32960,8 +31432,6 @@
       <c r="E766" s="6"/>
       <c r="F766" s="6"/>
       <c r="G766" s="6"/>
-      <c r="H766" s="6"/>
-      <c r="I766" s="6"/>
       <c r="J766" s="6"/>
       <c r="K766" s="6"/>
       <c r="L766" s="6"/>
@@ -32977,8 +31447,6 @@
       <c r="E767" s="6"/>
       <c r="F767" s="6"/>
       <c r="G767" s="6"/>
-      <c r="H767" s="6"/>
-      <c r="I767" s="6"/>
       <c r="J767" s="6"/>
       <c r="K767" s="6"/>
       <c r="L767" s="6"/>
@@ -32994,8 +31462,6 @@
       <c r="E768" s="6"/>
       <c r="F768" s="6"/>
       <c r="G768" s="6"/>
-      <c r="H768" s="6"/>
-      <c r="I768" s="6"/>
       <c r="J768" s="6"/>
       <c r="K768" s="6"/>
       <c r="L768" s="6"/>
@@ -33011,8 +31477,6 @@
       <c r="E769" s="6"/>
       <c r="F769" s="6"/>
       <c r="G769" s="6"/>
-      <c r="H769" s="6"/>
-      <c r="I769" s="6"/>
       <c r="J769" s="6"/>
       <c r="K769" s="6"/>
       <c r="L769" s="6"/>
@@ -33028,8 +31492,6 @@
       <c r="E770" s="6"/>
       <c r="F770" s="6"/>
       <c r="G770" s="6"/>
-      <c r="H770" s="6"/>
-      <c r="I770" s="6"/>
       <c r="J770" s="6"/>
       <c r="K770" s="6"/>
       <c r="L770" s="6"/>
@@ -33045,8 +31507,6 @@
       <c r="E771" s="6"/>
       <c r="F771" s="6"/>
       <c r="G771" s="6"/>
-      <c r="H771" s="6"/>
-      <c r="I771" s="6"/>
       <c r="J771" s="6"/>
       <c r="K771" s="6"/>
       <c r="L771" s="6"/>
@@ -33062,8 +31522,6 @@
       <c r="E772" s="6"/>
       <c r="F772" s="6"/>
       <c r="G772" s="6"/>
-      <c r="H772" s="6"/>
-      <c r="I772" s="6"/>
       <c r="J772" s="6"/>
       <c r="K772" s="6"/>
       <c r="L772" s="6"/>
@@ -33079,8 +31537,6 @@
       <c r="E773" s="6"/>
       <c r="F773" s="6"/>
       <c r="G773" s="6"/>
-      <c r="H773" s="6"/>
-      <c r="I773" s="6"/>
       <c r="J773" s="6"/>
       <c r="K773" s="6"/>
       <c r="L773" s="6"/>
@@ -33096,8 +31552,6 @@
       <c r="E774" s="6"/>
       <c r="F774" s="6"/>
       <c r="G774" s="6"/>
-      <c r="H774" s="6"/>
-      <c r="I774" s="6"/>
       <c r="J774" s="6"/>
       <c r="K774" s="6"/>
       <c r="L774" s="6"/>
@@ -33113,8 +31567,6 @@
       <c r="E775" s="6"/>
       <c r="F775" s="6"/>
       <c r="G775" s="6"/>
-      <c r="H775" s="6"/>
-      <c r="I775" s="6"/>
       <c r="J775" s="6"/>
       <c r="K775" s="6"/>
       <c r="L775" s="6"/>
@@ -33130,8 +31582,6 @@
       <c r="E776" s="6"/>
       <c r="F776" s="6"/>
       <c r="G776" s="6"/>
-      <c r="H776" s="6"/>
-      <c r="I776" s="6"/>
       <c r="J776" s="6"/>
       <c r="K776" s="6"/>
       <c r="L776" s="6"/>
@@ -33147,8 +31597,6 @@
       <c r="E777" s="6"/>
       <c r="F777" s="6"/>
       <c r="G777" s="6"/>
-      <c r="H777" s="6"/>
-      <c r="I777" s="6"/>
       <c r="J777" s="6"/>
       <c r="K777" s="6"/>
       <c r="L777" s="6"/>
@@ -33164,8 +31612,6 @@
       <c r="E778" s="6"/>
       <c r="F778" s="6"/>
       <c r="G778" s="6"/>
-      <c r="H778" s="6"/>
-      <c r="I778" s="6"/>
       <c r="J778" s="6"/>
       <c r="K778" s="6"/>
       <c r="L778" s="6"/>
@@ -33181,8 +31627,6 @@
       <c r="E779" s="6"/>
       <c r="F779" s="6"/>
       <c r="G779" s="6"/>
-      <c r="H779" s="6"/>
-      <c r="I779" s="6"/>
       <c r="J779" s="6"/>
       <c r="K779" s="6"/>
       <c r="L779" s="6"/>
@@ -33198,8 +31642,6 @@
       <c r="E780" s="6"/>
       <c r="F780" s="6"/>
       <c r="G780" s="6"/>
-      <c r="H780" s="6"/>
-      <c r="I780" s="6"/>
       <c r="J780" s="6"/>
       <c r="K780" s="6"/>
       <c r="L780" s="6"/>
@@ -33215,8 +31657,6 @@
       <c r="E781" s="6"/>
       <c r="F781" s="6"/>
       <c r="G781" s="6"/>
-      <c r="H781" s="6"/>
-      <c r="I781" s="6"/>
       <c r="J781" s="6"/>
       <c r="K781" s="6"/>
       <c r="L781" s="6"/>
@@ -33232,8 +31672,6 @@
       <c r="E782" s="6"/>
       <c r="F782" s="6"/>
       <c r="G782" s="6"/>
-      <c r="H782" s="6"/>
-      <c r="I782" s="6"/>
       <c r="J782" s="6"/>
       <c r="K782" s="6"/>
       <c r="L782" s="6"/>
@@ -33249,8 +31687,6 @@
       <c r="E783" s="6"/>
       <c r="F783" s="6"/>
       <c r="G783" s="6"/>
-      <c r="H783" s="6"/>
-      <c r="I783" s="6"/>
       <c r="J783" s="6"/>
       <c r="K783" s="6"/>
       <c r="L783" s="6"/>
@@ -33266,8 +31702,6 @@
       <c r="E784" s="6"/>
       <c r="F784" s="6"/>
       <c r="G784" s="6"/>
-      <c r="H784" s="6"/>
-      <c r="I784" s="6"/>
       <c r="J784" s="6"/>
       <c r="K784" s="6"/>
       <c r="L784" s="6"/>
@@ -33283,8 +31717,6 @@
       <c r="E785" s="6"/>
       <c r="F785" s="6"/>
       <c r="G785" s="6"/>
-      <c r="H785" s="6"/>
-      <c r="I785" s="6"/>
       <c r="J785" s="6"/>
       <c r="K785" s="6"/>
       <c r="L785" s="6"/>
@@ -33300,8 +31732,6 @@
       <c r="E786" s="6"/>
       <c r="F786" s="6"/>
       <c r="G786" s="6"/>
-      <c r="H786" s="6"/>
-      <c r="I786" s="6"/>
       <c r="J786" s="6"/>
       <c r="K786" s="6"/>
       <c r="L786" s="6"/>
@@ -33317,8 +31747,6 @@
       <c r="E787" s="6"/>
       <c r="F787" s="6"/>
       <c r="G787" s="6"/>
-      <c r="H787" s="6"/>
-      <c r="I787" s="6"/>
       <c r="J787" s="6"/>
       <c r="K787" s="6"/>
       <c r="L787" s="6"/>
@@ -33334,8 +31762,6 @@
       <c r="E788" s="6"/>
       <c r="F788" s="6"/>
       <c r="G788" s="6"/>
-      <c r="H788" s="6"/>
-      <c r="I788" s="6"/>
       <c r="J788" s="6"/>
       <c r="K788" s="6"/>
       <c r="L788" s="6"/>
@@ -33351,8 +31777,6 @@
       <c r="E789" s="6"/>
       <c r="F789" s="6"/>
       <c r="G789" s="6"/>
-      <c r="H789" s="6"/>
-      <c r="I789" s="6"/>
       <c r="J789" s="6"/>
       <c r="K789" s="6"/>
       <c r="L789" s="6"/>
@@ -33368,8 +31792,6 @@
       <c r="E790" s="6"/>
       <c r="F790" s="6"/>
       <c r="G790" s="6"/>
-      <c r="H790" s="6"/>
-      <c r="I790" s="6"/>
       <c r="J790" s="6"/>
       <c r="K790" s="6"/>
       <c r="L790" s="6"/>
@@ -33385,8 +31807,6 @@
       <c r="E791" s="6"/>
       <c r="F791" s="6"/>
       <c r="G791" s="6"/>
-      <c r="H791" s="6"/>
-      <c r="I791" s="6"/>
       <c r="J791" s="6"/>
       <c r="K791" s="6"/>
       <c r="L791" s="6"/>
@@ -33402,8 +31822,6 @@
       <c r="E792" s="6"/>
       <c r="F792" s="6"/>
       <c r="G792" s="6"/>
-      <c r="H792" s="6"/>
-      <c r="I792" s="6"/>
       <c r="J792" s="6"/>
       <c r="K792" s="6"/>
       <c r="L792" s="6"/>
@@ -33419,8 +31837,6 @@
       <c r="E793" s="6"/>
       <c r="F793" s="6"/>
       <c r="G793" s="6"/>
-      <c r="H793" s="6"/>
-      <c r="I793" s="6"/>
       <c r="J793" s="6"/>
       <c r="K793" s="6"/>
       <c r="L793" s="6"/>
@@ -33436,8 +31852,6 @@
       <c r="E794" s="6"/>
       <c r="F794" s="6"/>
       <c r="G794" s="6"/>
-      <c r="H794" s="6"/>
-      <c r="I794" s="6"/>
       <c r="J794" s="6"/>
       <c r="K794" s="6"/>
       <c r="L794" s="6"/>
@@ -33453,8 +31867,6 @@
       <c r="E795" s="6"/>
       <c r="F795" s="6"/>
       <c r="G795" s="6"/>
-      <c r="H795" s="6"/>
-      <c r="I795" s="6"/>
       <c r="J795" s="6"/>
       <c r="K795" s="6"/>
       <c r="L795" s="6"/>
@@ -33470,8 +31882,6 @@
       <c r="E796" s="6"/>
       <c r="F796" s="6"/>
       <c r="G796" s="6"/>
-      <c r="H796" s="6"/>
-      <c r="I796" s="6"/>
       <c r="J796" s="6"/>
       <c r="K796" s="6"/>
       <c r="L796" s="6"/>
@@ -33487,8 +31897,6 @@
       <c r="E797" s="6"/>
       <c r="F797" s="6"/>
       <c r="G797" s="6"/>
-      <c r="H797" s="6"/>
-      <c r="I797" s="6"/>
       <c r="J797" s="6"/>
       <c r="K797" s="6"/>
       <c r="L797" s="6"/>
@@ -33504,8 +31912,6 @@
       <c r="E798" s="6"/>
       <c r="F798" s="6"/>
       <c r="G798" s="6"/>
-      <c r="H798" s="6"/>
-      <c r="I798" s="6"/>
       <c r="J798" s="6"/>
       <c r="K798" s="6"/>
       <c r="L798" s="6"/>
@@ -33521,8 +31927,6 @@
       <c r="E799" s="6"/>
       <c r="F799" s="6"/>
       <c r="G799" s="6"/>
-      <c r="H799" s="6"/>
-      <c r="I799" s="6"/>
       <c r="J799" s="6"/>
       <c r="K799" s="6"/>
       <c r="L799" s="6"/>
@@ -33538,8 +31942,6 @@
       <c r="E800" s="6"/>
       <c r="F800" s="6"/>
       <c r="G800" s="6"/>
-      <c r="H800" s="6"/>
-      <c r="I800" s="6"/>
       <c r="J800" s="6"/>
       <c r="K800" s="6"/>
       <c r="L800" s="6"/>
@@ -33555,8 +31957,6 @@
       <c r="E801" s="6"/>
       <c r="F801" s="6"/>
       <c r="G801" s="6"/>
-      <c r="H801" s="6"/>
-      <c r="I801" s="6"/>
       <c r="J801" s="6"/>
       <c r="K801" s="6"/>
       <c r="L801" s="6"/>
@@ -33572,8 +31972,6 @@
       <c r="E802" s="6"/>
       <c r="F802" s="6"/>
       <c r="G802" s="6"/>
-      <c r="H802" s="6"/>
-      <c r="I802" s="6"/>
       <c r="J802" s="6"/>
       <c r="K802" s="6"/>
       <c r="L802" s="6"/>
@@ -33589,8 +31987,6 @@
       <c r="E803" s="6"/>
       <c r="F803" s="6"/>
       <c r="G803" s="6"/>
-      <c r="H803" s="6"/>
-      <c r="I803" s="6"/>
       <c r="J803" s="6"/>
       <c r="K803" s="6"/>
       <c r="L803" s="6"/>
@@ -33606,8 +32002,6 @@
       <c r="E804" s="6"/>
       <c r="F804" s="6"/>
       <c r="G804" s="6"/>
-      <c r="H804" s="6"/>
-      <c r="I804" s="6"/>
       <c r="J804" s="6"/>
       <c r="K804" s="6"/>
       <c r="L804" s="6"/>
@@ -33623,8 +32017,6 @@
       <c r="E805" s="6"/>
       <c r="F805" s="6"/>
       <c r="G805" s="6"/>
-      <c r="H805" s="6"/>
-      <c r="I805" s="6"/>
       <c r="J805" s="6"/>
       <c r="K805" s="6"/>
       <c r="L805" s="6"/>
@@ -33640,8 +32032,6 @@
       <c r="E806" s="6"/>
       <c r="F806" s="6"/>
       <c r="G806" s="6"/>
-      <c r="H806" s="6"/>
-      <c r="I806" s="6"/>
       <c r="J806" s="6"/>
       <c r="K806" s="6"/>
       <c r="L806" s="6"/>
@@ -33657,8 +32047,6 @@
       <c r="E807" s="6"/>
       <c r="F807" s="6"/>
       <c r="G807" s="6"/>
-      <c r="H807" s="6"/>
-      <c r="I807" s="6"/>
       <c r="J807" s="6"/>
       <c r="K807" s="6"/>
       <c r="L807" s="6"/>
@@ -33674,8 +32062,6 @@
       <c r="E808" s="6"/>
       <c r="F808" s="6"/>
       <c r="G808" s="6"/>
-      <c r="H808" s="6"/>
-      <c r="I808" s="6"/>
       <c r="J808" s="6"/>
       <c r="K808" s="6"/>
       <c r="L808" s="6"/>
@@ -33691,8 +32077,6 @@
       <c r="E809" s="6"/>
       <c r="F809" s="6"/>
       <c r="G809" s="6"/>
-      <c r="H809" s="6"/>
-      <c r="I809" s="6"/>
       <c r="J809" s="6"/>
       <c r="K809" s="6"/>
       <c r="L809" s="6"/>
@@ -33708,8 +32092,6 @@
       <c r="E810" s="6"/>
       <c r="F810" s="6"/>
       <c r="G810" s="6"/>
-      <c r="H810" s="6"/>
-      <c r="I810" s="6"/>
       <c r="J810" s="6"/>
       <c r="K810" s="6"/>
       <c r="L810" s="6"/>
@@ -33725,8 +32107,6 @@
       <c r="E811" s="6"/>
       <c r="F811" s="6"/>
       <c r="G811" s="6"/>
-      <c r="H811" s="6"/>
-      <c r="I811" s="6"/>
       <c r="J811" s="6"/>
       <c r="K811" s="6"/>
       <c r="L811" s="6"/>
@@ -33742,8 +32122,6 @@
       <c r="E812" s="6"/>
       <c r="F812" s="6"/>
       <c r="G812" s="6"/>
-      <c r="H812" s="6"/>
-      <c r="I812" s="6"/>
       <c r="J812" s="6"/>
       <c r="K812" s="6"/>
       <c r="L812" s="6"/>
@@ -33759,8 +32137,6 @@
       <c r="E813" s="6"/>
       <c r="F813" s="6"/>
       <c r="G813" s="6"/>
-      <c r="H813" s="6"/>
-      <c r="I813" s="6"/>
       <c r="J813" s="6"/>
       <c r="K813" s="6"/>
       <c r="L813" s="6"/>
@@ -33776,8 +32152,6 @@
       <c r="E814" s="6"/>
       <c r="F814" s="6"/>
       <c r="G814" s="6"/>
-      <c r="H814" s="6"/>
-      <c r="I814" s="6"/>
       <c r="J814" s="6"/>
       <c r="K814" s="6"/>
       <c r="L814" s="6"/>
@@ -33793,8 +32167,6 @@
       <c r="E815" s="6"/>
       <c r="F815" s="6"/>
       <c r="G815" s="6"/>
-      <c r="H815" s="6"/>
-      <c r="I815" s="6"/>
       <c r="J815" s="6"/>
       <c r="K815" s="6"/>
       <c r="L815" s="6"/>
@@ -33810,8 +32182,6 @@
       <c r="E816" s="6"/>
       <c r="F816" s="6"/>
       <c r="G816" s="6"/>
-      <c r="H816" s="6"/>
-      <c r="I816" s="6"/>
       <c r="J816" s="6"/>
       <c r="K816" s="6"/>
       <c r="L816" s="6"/>
@@ -33827,8 +32197,6 @@
       <c r="E817" s="6"/>
       <c r="F817" s="6"/>
       <c r="G817" s="6"/>
-      <c r="H817" s="6"/>
-      <c r="I817" s="6"/>
       <c r="J817" s="6"/>
       <c r="K817" s="6"/>
       <c r="L817" s="6"/>
@@ -33844,8 +32212,6 @@
       <c r="E818" s="6"/>
       <c r="F818" s="6"/>
       <c r="G818" s="6"/>
-      <c r="H818" s="6"/>
-      <c r="I818" s="6"/>
       <c r="J818" s="6"/>
       <c r="K818" s="6"/>
       <c r="L818" s="6"/>
@@ -33861,8 +32227,6 @@
       <c r="E819" s="6"/>
       <c r="F819" s="6"/>
       <c r="G819" s="6"/>
-      <c r="H819" s="6"/>
-      <c r="I819" s="6"/>
       <c r="J819" s="6"/>
       <c r="K819" s="6"/>
       <c r="L819" s="6"/>
@@ -33878,8 +32242,6 @@
       <c r="E820" s="6"/>
       <c r="F820" s="6"/>
       <c r="G820" s="6"/>
-      <c r="H820" s="6"/>
-      <c r="I820" s="6"/>
       <c r="J820" s="6"/>
       <c r="K820" s="6"/>
       <c r="L820" s="6"/>
@@ -33895,8 +32257,6 @@
       <c r="E821" s="6"/>
       <c r="F821" s="6"/>
       <c r="G821" s="6"/>
-      <c r="H821" s="6"/>
-      <c r="I821" s="6"/>
       <c r="J821" s="6"/>
       <c r="K821" s="6"/>
       <c r="L821" s="6"/>
@@ -33912,8 +32272,6 @@
       <c r="E822" s="6"/>
       <c r="F822" s="6"/>
       <c r="G822" s="6"/>
-      <c r="H822" s="6"/>
-      <c r="I822" s="6"/>
       <c r="J822" s="6"/>
       <c r="K822" s="6"/>
       <c r="L822" s="6"/>
@@ -33929,8 +32287,6 @@
       <c r="E823" s="6"/>
       <c r="F823" s="6"/>
       <c r="G823" s="6"/>
-      <c r="H823" s="6"/>
-      <c r="I823" s="6"/>
       <c r="J823" s="6"/>
       <c r="K823" s="6"/>
       <c r="L823" s="6"/>
@@ -33946,8 +32302,6 @@
       <c r="E824" s="6"/>
       <c r="F824" s="6"/>
       <c r="G824" s="6"/>
-      <c r="H824" s="6"/>
-      <c r="I824" s="6"/>
       <c r="J824" s="6"/>
       <c r="K824" s="6"/>
       <c r="L824" s="6"/>
@@ -33963,8 +32317,6 @@
       <c r="E825" s="6"/>
       <c r="F825" s="6"/>
       <c r="G825" s="6"/>
-      <c r="H825" s="6"/>
-      <c r="I825" s="6"/>
       <c r="J825" s="6"/>
       <c r="K825" s="6"/>
       <c r="L825" s="6"/>
@@ -33980,8 +32332,6 @@
       <c r="E826" s="6"/>
       <c r="F826" s="6"/>
       <c r="G826" s="6"/>
-      <c r="H826" s="6"/>
-      <c r="I826" s="6"/>
       <c r="J826" s="6"/>
       <c r="K826" s="6"/>
       <c r="L826" s="6"/>
@@ -33997,8 +32347,6 @@
       <c r="E827" s="6"/>
       <c r="F827" s="6"/>
       <c r="G827" s="6"/>
-      <c r="H827" s="6"/>
-      <c r="I827" s="6"/>
       <c r="J827" s="6"/>
       <c r="K827" s="6"/>
       <c r="L827" s="6"/>
@@ -34014,8 +32362,6 @@
       <c r="E828" s="6"/>
       <c r="F828" s="6"/>
       <c r="G828" s="6"/>
-      <c r="H828" s="6"/>
-      <c r="I828" s="6"/>
       <c r="J828" s="6"/>
       <c r="K828" s="6"/>
       <c r="L828" s="6"/>
@@ -34031,8 +32377,6 @@
       <c r="E829" s="6"/>
       <c r="F829" s="6"/>
       <c r="G829" s="6"/>
-      <c r="H829" s="6"/>
-      <c r="I829" s="6"/>
       <c r="J829" s="6"/>
       <c r="K829" s="6"/>
       <c r="L829" s="6"/>
@@ -34048,8 +32392,6 @@
       <c r="E830" s="6"/>
       <c r="F830" s="6"/>
       <c r="G830" s="6"/>
-      <c r="H830" s="6"/>
-      <c r="I830" s="6"/>
       <c r="J830" s="6"/>
       <c r="K830" s="6"/>
       <c r="L830" s="6"/>
@@ -34065,8 +32407,6 @@
       <c r="E831" s="6"/>
       <c r="F831" s="6"/>
       <c r="G831" s="6"/>
-      <c r="H831" s="6"/>
-      <c r="I831" s="6"/>
       <c r="J831" s="6"/>
       <c r="K831" s="6"/>
       <c r="L831" s="6"/>
@@ -34082,8 +32422,6 @@
       <c r="E832" s="6"/>
       <c r="F832" s="6"/>
       <c r="G832" s="6"/>
-      <c r="H832" s="6"/>
-      <c r="I832" s="6"/>
       <c r="J832" s="6"/>
       <c r="K832" s="6"/>
       <c r="L832" s="6"/>
@@ -34099,8 +32437,6 @@
       <c r="E833" s="6"/>
       <c r="F833" s="6"/>
       <c r="G833" s="6"/>
-      <c r="H833" s="6"/>
-      <c r="I833" s="6"/>
       <c r="J833" s="6"/>
       <c r="K833" s="6"/>
       <c r="L833" s="6"/>
@@ -34116,8 +32452,6 @@
       <c r="E834" s="6"/>
       <c r="F834" s="6"/>
       <c r="G834" s="6"/>
-      <c r="H834" s="6"/>
-      <c r="I834" s="6"/>
       <c r="J834" s="6"/>
       <c r="K834" s="6"/>
       <c r="L834" s="6"/>
@@ -34133,8 +32467,6 @@
       <c r="E835" s="6"/>
       <c r="F835" s="6"/>
       <c r="G835" s="6"/>
-      <c r="H835" s="6"/>
-      <c r="I835" s="6"/>
       <c r="J835" s="6"/>
       <c r="K835" s="6"/>
       <c r="L835" s="6"/>
@@ -34150,8 +32482,6 @@
       <c r="E836" s="6"/>
       <c r="F836" s="6"/>
       <c r="G836" s="6"/>
-      <c r="H836" s="6"/>
-      <c r="I836" s="6"/>
       <c r="J836" s="6"/>
       <c r="K836" s="6"/>
       <c r="L836" s="6"/>
@@ -34167,8 +32497,6 @@
       <c r="E837" s="6"/>
       <c r="F837" s="6"/>
       <c r="G837" s="6"/>
-      <c r="H837" s="6"/>
-      <c r="I837" s="6"/>
       <c r="J837" s="6"/>
       <c r="K837" s="6"/>
       <c r="L837" s="6"/>
@@ -34184,8 +32512,6 @@
       <c r="E838" s="6"/>
       <c r="F838" s="6"/>
       <c r="G838" s="6"/>
-      <c r="H838" s="6"/>
-      <c r="I838" s="6"/>
       <c r="J838" s="6"/>
       <c r="K838" s="6"/>
       <c r="L838" s="6"/>
@@ -34201,8 +32527,6 @@
       <c r="E839" s="6"/>
       <c r="F839" s="6"/>
       <c r="G839" s="6"/>
-      <c r="H839" s="6"/>
-      <c r="I839" s="6"/>
       <c r="J839" s="6"/>
       <c r="K839" s="6"/>
       <c r="L839" s="6"/>
@@ -34218,8 +32542,6 @@
       <c r="E840" s="6"/>
       <c r="F840" s="6"/>
       <c r="G840" s="6"/>
-      <c r="H840" s="6"/>
-      <c r="I840" s="6"/>
       <c r="J840" s="6"/>
       <c r="K840" s="6"/>
       <c r="L840" s="6"/>
@@ -34235,8 +32557,6 @@
       <c r="E841" s="6"/>
       <c r="F841" s="6"/>
       <c r="G841" s="6"/>
-      <c r="H841" s="6"/>
-      <c r="I841" s="6"/>
       <c r="J841" s="6"/>
       <c r="K841" s="6"/>
       <c r="L841" s="6"/>
@@ -34252,8 +32572,6 @@
       <c r="E842" s="6"/>
       <c r="F842" s="6"/>
       <c r="G842" s="6"/>
-      <c r="H842" s="6"/>
-      <c r="I842" s="6"/>
       <c r="J842" s="6"/>
       <c r="K842" s="6"/>
       <c r="L842" s="6"/>
@@ -34269,8 +32587,6 @@
       <c r="E843" s="6"/>
       <c r="F843" s="6"/>
       <c r="G843" s="6"/>
-      <c r="H843" s="6"/>
-      <c r="I843" s="6"/>
       <c r="J843" s="6"/>
       <c r="K843" s="6"/>
       <c r="L843" s="6"/>
@@ -34286,8 +32602,6 @@
       <c r="E844" s="6"/>
       <c r="F844" s="6"/>
       <c r="G844" s="6"/>
-      <c r="H844" s="6"/>
-      <c r="I844" s="6"/>
       <c r="J844" s="6"/>
       <c r="K844" s="6"/>
       <c r="L844" s="6"/>
@@ -34303,8 +32617,6 @@
       <c r="E845" s="6"/>
       <c r="F845" s="6"/>
       <c r="G845" s="6"/>
-      <c r="H845" s="6"/>
-      <c r="I845" s="6"/>
       <c r="J845" s="6"/>
       <c r="K845" s="6"/>
       <c r="L845" s="6"/>
@@ -34320,8 +32632,6 @@
       <c r="E846" s="6"/>
       <c r="F846" s="6"/>
       <c r="G846" s="6"/>
-      <c r="H846" s="6"/>
-      <c r="I846" s="6"/>
       <c r="J846" s="6"/>
       <c r="K846" s="6"/>
       <c r="L846" s="6"/>
@@ -34337,8 +32647,6 @@
       <c r="E847" s="6"/>
       <c r="F847" s="6"/>
       <c r="G847" s="6"/>
-      <c r="H847" s="6"/>
-      <c r="I847" s="6"/>
       <c r="J847" s="6"/>
       <c r="K847" s="6"/>
       <c r="L847" s="6"/>
@@ -34354,8 +32662,6 @@
       <c r="E848" s="6"/>
       <c r="F848" s="6"/>
       <c r="G848" s="6"/>
-      <c r="H848" s="6"/>
-      <c r="I848" s="6"/>
       <c r="J848" s="6"/>
       <c r="K848" s="6"/>
       <c r="L848" s="6"/>
@@ -34371,8 +32677,6 @@
       <c r="E849" s="6"/>
       <c r="F849" s="6"/>
       <c r="G849" s="6"/>
-      <c r="H849" s="6"/>
-      <c r="I849" s="6"/>
       <c r="J849" s="6"/>
       <c r="K849" s="6"/>
       <c r="L849" s="6"/>
@@ -34388,8 +32692,6 @@
       <c r="E850" s="6"/>
       <c r="F850" s="6"/>
       <c r="G850" s="6"/>
-      <c r="H850" s="6"/>
-      <c r="I850" s="6"/>
       <c r="J850" s="6"/>
       <c r="K850" s="6"/>
       <c r="L850" s="6"/>
@@ -34405,8 +32707,6 @@
       <c r="E851" s="6"/>
       <c r="F851" s="6"/>
       <c r="G851" s="6"/>
-      <c r="H851" s="6"/>
-      <c r="I851" s="6"/>
       <c r="J851" s="6"/>
       <c r="K851" s="6"/>
       <c r="L851" s="6"/>
@@ -34422,8 +32722,6 @@
       <c r="E852" s="6"/>
       <c r="F852" s="6"/>
       <c r="G852" s="6"/>
-      <c r="H852" s="6"/>
-      <c r="I852" s="6"/>
       <c r="J852" s="6"/>
       <c r="K852" s="6"/>
       <c r="L852" s="6"/>
@@ -34439,8 +32737,6 @@
       <c r="E853" s="6"/>
       <c r="F853" s="6"/>
       <c r="G853" s="6"/>
-      <c r="H853" s="6"/>
-      <c r="I853" s="6"/>
       <c r="J853" s="6"/>
       <c r="K853" s="6"/>
       <c r="L853" s="6"/>
@@ -34456,8 +32752,6 @@
       <c r="E854" s="6"/>
       <c r="F854" s="6"/>
       <c r="G854" s="6"/>
-      <c r="H854" s="6"/>
-      <c r="I854" s="6"/>
       <c r="J854" s="6"/>
       <c r="K854" s="6"/>
       <c r="L854" s="6"/>
@@ -34473,8 +32767,6 @@
       <c r="E855" s="6"/>
       <c r="F855" s="6"/>
       <c r="G855" s="6"/>
-      <c r="H855" s="6"/>
-      <c r="I855" s="6"/>
       <c r="J855" s="6"/>
       <c r="K855" s="6"/>
       <c r="L855" s="6"/>
@@ -34490,8 +32782,6 @@
       <c r="E856" s="6"/>
       <c r="F856" s="6"/>
       <c r="G856" s="6"/>
-      <c r="H856" s="6"/>
-      <c r="I856" s="6"/>
       <c r="J856" s="6"/>
       <c r="K856" s="6"/>
       <c r="L856" s="6"/>
@@ -34507,8 +32797,6 @@
       <c r="E857" s="6"/>
       <c r="F857" s="6"/>
       <c r="G857" s="6"/>
-      <c r="H857" s="6"/>
-      <c r="I857" s="6"/>
       <c r="J857" s="6"/>
       <c r="K857" s="6"/>
       <c r="L857" s="6"/>
@@ -34524,8 +32812,6 @@
       <c r="E858" s="6"/>
       <c r="F858" s="6"/>
       <c r="G858" s="6"/>
-      <c r="H858" s="6"/>
-      <c r="I858" s="6"/>
       <c r="J858" s="6"/>
       <c r="K858" s="6"/>
       <c r="L858" s="6"/>
@@ -34541,8 +32827,6 @@
       <c r="E859" s="6"/>
       <c r="F859" s="6"/>
       <c r="G859" s="6"/>
-      <c r="H859" s="6"/>
-      <c r="I859" s="6"/>
       <c r="J859" s="6"/>
       <c r="K859" s="6"/>
       <c r="L859" s="6"/>
@@ -34558,8 +32842,6 @@
       <c r="E860" s="6"/>
       <c r="F860" s="6"/>
       <c r="G860" s="6"/>
-      <c r="H860" s="6"/>
-      <c r="I860" s="6"/>
       <c r="J860" s="6"/>
       <c r="K860" s="6"/>
       <c r="L860" s="6"/>
@@ -34575,8 +32857,6 @@
       <c r="E861" s="6"/>
       <c r="F861" s="6"/>
       <c r="G861" s="6"/>
-      <c r="H861" s="6"/>
-      <c r="I861" s="6"/>
       <c r="J861" s="6"/>
       <c r="K861" s="6"/>
       <c r="L861" s="6"/>
@@ -34592,8 +32872,6 @@
       <c r="E862" s="6"/>
       <c r="F862" s="6"/>
       <c r="G862" s="6"/>
-      <c r="H862" s="6"/>
-      <c r="I862" s="6"/>
       <c r="J862" s="6"/>
       <c r="K862" s="6"/>
       <c r="L862" s="6"/>
@@ -34609,8 +32887,6 @@
       <c r="E863" s="6"/>
       <c r="F863" s="6"/>
       <c r="G863" s="6"/>
-      <c r="H863" s="6"/>
-      <c r="I863" s="6"/>
       <c r="J863" s="6"/>
       <c r="K863" s="6"/>
       <c r="L863" s="6"/>
@@ -34626,8 +32902,6 @@
       <c r="E864" s="6"/>
       <c r="F864" s="6"/>
       <c r="G864" s="6"/>
-      <c r="H864" s="6"/>
-      <c r="I864" s="6"/>
       <c r="J864" s="6"/>
       <c r="K864" s="6"/>
       <c r="L864" s="6"/>
@@ -34643,8 +32917,6 @@
       <c r="E865" s="6"/>
       <c r="F865" s="6"/>
       <c r="G865" s="6"/>
-      <c r="H865" s="6"/>
-      <c r="I865" s="6"/>
       <c r="J865" s="6"/>
       <c r="K865" s="6"/>
       <c r="L865" s="6"/>
@@ -34660,8 +32932,6 @@
       <c r="E866" s="6"/>
       <c r="F866" s="6"/>
       <c r="G866" s="6"/>
-      <c r="H866" s="6"/>
-      <c r="I866" s="6"/>
       <c r="J866" s="6"/>
       <c r="K866" s="6"/>
       <c r="L866" s="6"/>
@@ -34677,8 +32947,6 @@
       <c r="E867" s="6"/>
       <c r="F867" s="6"/>
       <c r="G867" s="6"/>
-      <c r="H867" s="6"/>
-      <c r="I867" s="6"/>
       <c r="J867" s="6"/>
       <c r="K867" s="6"/>
       <c r="L867" s="6"/>
@@ -34694,8 +32962,6 @@
       <c r="E868" s="6"/>
       <c r="F868" s="6"/>
       <c r="G868" s="6"/>
-      <c r="H868" s="6"/>
-      <c r="I868" s="6"/>
       <c r="J868" s="6"/>
       <c r="K868" s="6"/>
       <c r="L868" s="6"/>
@@ -34711,8 +32977,6 @@
       <c r="E869" s="6"/>
       <c r="F869" s="6"/>
       <c r="G869" s="6"/>
-      <c r="H869" s="6"/>
-      <c r="I869" s="6"/>
       <c r="J869" s="6"/>
       <c r="K869" s="6"/>
       <c r="L869" s="6"/>
@@ -34728,8 +32992,6 @@
       <c r="E870" s="6"/>
       <c r="F870" s="6"/>
       <c r="G870" s="6"/>
-      <c r="H870" s="6"/>
-      <c r="I870" s="6"/>
       <c r="J870" s="6"/>
       <c r="K870" s="6"/>
       <c r="L870" s="6"/>
@@ -34745,8 +33007,6 @@
       <c r="E871" s="6"/>
       <c r="F871" s="6"/>
       <c r="G871" s="6"/>
-      <c r="H871" s="6"/>
-      <c r="I871" s="6"/>
       <c r="J871" s="6"/>
       <c r="K871" s="6"/>
       <c r="L871" s="6"/>
@@ -34762,8 +33022,6 @@
       <c r="E872" s="6"/>
       <c r="F872" s="6"/>
       <c r="G872" s="6"/>
-      <c r="H872" s="6"/>
-      <c r="I872" s="6"/>
       <c r="J872" s="6"/>
       <c r="K872" s="6"/>
       <c r="L872" s="6"/>
@@ -34779,8 +33037,6 @@
       <c r="E873" s="6"/>
       <c r="F873" s="6"/>
       <c r="G873" s="6"/>
-      <c r="H873" s="6"/>
-      <c r="I873" s="6"/>
       <c r="J873" s="6"/>
       <c r="K873" s="6"/>
       <c r="L873" s="6"/>
@@ -34796,8 +33052,6 @@
       <c r="E874" s="6"/>
       <c r="F874" s="6"/>
       <c r="G874" s="6"/>
-      <c r="H874" s="6"/>
-      <c r="I874" s="6"/>
       <c r="J874" s="6"/>
       <c r="K874" s="6"/>
       <c r="L874" s="6"/>
@@ -34813,8 +33067,6 @@
       <c r="E875" s="6"/>
       <c r="F875" s="6"/>
       <c r="G875" s="6"/>
-      <c r="H875" s="6"/>
-      <c r="I875" s="6"/>
       <c r="J875" s="6"/>
       <c r="K875" s="6"/>
       <c r="L875" s="6"/>
@@ -34830,8 +33082,6 @@
       <c r="E876" s="6"/>
       <c r="F876" s="6"/>
       <c r="G876" s="6"/>
-      <c r="H876" s="6"/>
-      <c r="I876" s="6"/>
       <c r="J876" s="6"/>
       <c r="K876" s="6"/>
       <c r="L876" s="6"/>
@@ -34847,8 +33097,6 @@
       <c r="E877" s="6"/>
       <c r="F877" s="6"/>
       <c r="G877" s="6"/>
-      <c r="H877" s="6"/>
-      <c r="I877" s="6"/>
       <c r="J877" s="6"/>
       <c r="K877" s="6"/>
       <c r="L877" s="6"/>
@@ -34864,8 +33112,6 @@
       <c r="E878" s="6"/>
       <c r="F878" s="6"/>
       <c r="G878" s="6"/>
-      <c r="H878" s="6"/>
-      <c r="I878" s="6"/>
       <c r="J878" s="6"/>
       <c r="K878" s="6"/>
       <c r="L878" s="6"/>
@@ -34881,8 +33127,6 @@
       <c r="E879" s="6"/>
       <c r="F879" s="6"/>
       <c r="G879" s="6"/>
-      <c r="H879" s="6"/>
-      <c r="I879" s="6"/>
       <c r="J879" s="6"/>
       <c r="K879" s="6"/>
       <c r="L879" s="6"/>
@@ -34898,8 +33142,6 @@
       <c r="E880" s="6"/>
       <c r="F880" s="6"/>
       <c r="G880" s="6"/>
-      <c r="H880" s="6"/>
-      <c r="I880" s="6"/>
       <c r="J880" s="6"/>
       <c r="K880" s="6"/>
       <c r="L880" s="6"/>
@@ -34915,8 +33157,6 @@
       <c r="E881" s="6"/>
       <c r="F881" s="6"/>
       <c r="G881" s="6"/>
-      <c r="H881" s="6"/>
-      <c r="I881" s="6"/>
       <c r="J881" s="6"/>
       <c r="K881" s="6"/>
       <c r="L881" s="6"/>
@@ -34932,8 +33172,6 @@
       <c r="E882" s="6"/>
       <c r="F882" s="6"/>
       <c r="G882" s="6"/>
-      <c r="H882" s="6"/>
-      <c r="I882" s="6"/>
       <c r="J882" s="6"/>
       <c r="K882" s="6"/>
       <c r="L882" s="6"/>
@@ -34949,8 +33187,6 @@
       <c r="E883" s="6"/>
       <c r="F883" s="6"/>
       <c r="G883" s="6"/>
-      <c r="H883" s="6"/>
-      <c r="I883" s="6"/>
       <c r="J883" s="6"/>
       <c r="K883" s="6"/>
       <c r="L883" s="6"/>
@@ -34966,8 +33202,6 @@
       <c r="E884" s="6"/>
       <c r="F884" s="6"/>
       <c r="G884" s="6"/>
-      <c r="H884" s="6"/>
-      <c r="I884" s="6"/>
       <c r="J884" s="6"/>
       <c r="K884" s="6"/>
       <c r="L884" s="6"/>
@@ -34983,8 +33217,6 @@
       <c r="E885" s="6"/>
       <c r="F885" s="6"/>
       <c r="G885" s="6"/>
-      <c r="H885" s="6"/>
-      <c r="I885" s="6"/>
       <c r="J885" s="6"/>
       <c r="K885" s="6"/>
       <c r="L885" s="6"/>
@@ -35000,8 +33232,6 @@
       <c r="E886" s="6"/>
       <c r="F886" s="6"/>
       <c r="G886" s="6"/>
-      <c r="H886" s="6"/>
-      <c r="I886" s="6"/>
       <c r="J886" s="6"/>
       <c r="K886" s="6"/>
       <c r="L886" s="6"/>
@@ -35017,8 +33247,6 @@
       <c r="E887" s="6"/>
       <c r="F887" s="6"/>
       <c r="G887" s="6"/>
-      <c r="H887" s="6"/>
-      <c r="I887" s="6"/>
       <c r="J887" s="6"/>
       <c r="K887" s="6"/>
       <c r="L887" s="6"/>
@@ -35034,8 +33262,6 @@
       <c r="E888" s="6"/>
       <c r="F888" s="6"/>
       <c r="G888" s="6"/>
-      <c r="H888" s="6"/>
-      <c r="I888" s="6"/>
       <c r="J888" s="6"/>
       <c r="K888" s="6"/>
       <c r="L888" s="6"/>
@@ -35051,8 +33277,6 @@
       <c r="E889" s="6"/>
       <c r="F889" s="6"/>
       <c r="G889" s="6"/>
-      <c r="H889" s="6"/>
-      <c r="I889" s="6"/>
       <c r="J889" s="6"/>
       <c r="K889" s="6"/>
       <c r="L889" s="6"/>
@@ -35068,8 +33292,6 @@
       <c r="E890" s="6"/>
       <c r="F890" s="6"/>
       <c r="G890" s="6"/>
-      <c r="H890" s="6"/>
-      <c r="I890" s="6"/>
       <c r="J890" s="6"/>
       <c r="K890" s="6"/>
       <c r="L890" s="6"/>
@@ -35085,8 +33307,6 @@
       <c r="E891" s="6"/>
       <c r="F891" s="6"/>
       <c r="G891" s="6"/>
-      <c r="H891" s="6"/>
-      <c r="I891" s="6"/>
       <c r="J891" s="6"/>
       <c r="K891" s="6"/>
       <c r="L891" s="6"/>
@@ -35102,8 +33322,6 @@
       <c r="E892" s="6"/>
       <c r="F892" s="6"/>
       <c r="G892" s="6"/>
-      <c r="H892" s="6"/>
-      <c r="I892" s="6"/>
       <c r="J892" s="6"/>
       <c r="K892" s="6"/>
       <c r="L892" s="6"/>
@@ -35119,8 +33337,6 @@
       <c r="E893" s="6"/>
       <c r="F893" s="6"/>
       <c r="G893" s="6"/>
-      <c r="H893" s="6"/>
-      <c r="I893" s="6"/>
       <c r="J893" s="6"/>
       <c r="K893" s="6"/>
       <c r="L893" s="6"/>
@@ -35136,8 +33352,6 @@
       <c r="E894" s="6"/>
       <c r="F894" s="6"/>
       <c r="G894" s="6"/>
-      <c r="H894" s="6"/>
-      <c r="I894" s="6"/>
       <c r="J894" s="6"/>
       <c r="K894" s="6"/>
       <c r="L894" s="6"/>
@@ -35153,8 +33367,6 @@
       <c r="E895" s="6"/>
       <c r="F895" s="6"/>
       <c r="G895" s="6"/>
-      <c r="H895" s="6"/>
-      <c r="I895" s="6"/>
       <c r="J895" s="6"/>
       <c r="K895" s="6"/>
       <c r="L895" s="6"/>
@@ -35170,8 +33382,6 @@
       <c r="E896" s="6"/>
       <c r="F896" s="6"/>
       <c r="G896" s="6"/>
-      <c r="H896" s="6"/>
-      <c r="I896" s="6"/>
       <c r="J896" s="6"/>
       <c r="K896" s="6"/>
       <c r="L896" s="6"/>
@@ -35187,8 +33397,6 @@
       <c r="E897" s="6"/>
       <c r="F897" s="6"/>
       <c r="G897" s="6"/>
-      <c r="H897" s="6"/>
-      <c r="I897" s="6"/>
       <c r="J897" s="6"/>
       <c r="K897" s="6"/>
       <c r="L897" s="6"/>
@@ -35204,8 +33412,6 @@
       <c r="E898" s="6"/>
       <c r="F898" s="6"/>
       <c r="G898" s="6"/>
-      <c r="H898" s="6"/>
-      <c r="I898" s="6"/>
       <c r="J898" s="6"/>
       <c r="K898" s="6"/>
       <c r="L898" s="6"/>
@@ -35221,8 +33427,6 @@
       <c r="E899" s="6"/>
       <c r="F899" s="6"/>
       <c r="G899" s="6"/>
-      <c r="H899" s="6"/>
-      <c r="I899" s="6"/>
       <c r="J899" s="6"/>
       <c r="K899" s="6"/>
       <c r="L899" s="6"/>
@@ -35238,8 +33442,6 @@
       <c r="E900" s="6"/>
       <c r="F900" s="6"/>
       <c r="G900" s="6"/>
-      <c r="H900" s="6"/>
-      <c r="I900" s="6"/>
       <c r="J900" s="6"/>
       <c r="K900" s="6"/>
       <c r="L900" s="6"/>
@@ -35255,8 +33457,6 @@
       <c r="E901" s="6"/>
       <c r="F901" s="6"/>
       <c r="G901" s="6"/>
-      <c r="H901" s="6"/>
-      <c r="I901" s="6"/>
       <c r="J901" s="6"/>
       <c r="K901" s="6"/>
       <c r="L901" s="6"/>
@@ -35272,8 +33472,6 @@
       <c r="E902" s="6"/>
       <c r="F902" s="6"/>
       <c r="G902" s="6"/>
-      <c r="H902" s="6"/>
-      <c r="I902" s="6"/>
       <c r="J902" s="6"/>
       <c r="K902" s="6"/>
       <c r="L902" s="6"/>
@@ -35289,8 +33487,6 @@
       <c r="E903" s="6"/>
       <c r="F903" s="6"/>
       <c r="G903" s="6"/>
-      <c r="H903" s="6"/>
-      <c r="I903" s="6"/>
       <c r="J903" s="6"/>
       <c r="K903" s="6"/>
       <c r="L903" s="6"/>
@@ -35306,8 +33502,6 @@
       <c r="E904" s="6"/>
       <c r="F904" s="6"/>
       <c r="G904" s="6"/>
-      <c r="H904" s="6"/>
-      <c r="I904" s="6"/>
       <c r="J904" s="6"/>
       <c r="K904" s="6"/>
       <c r="L904" s="6"/>
@@ -35323,8 +33517,6 @@
       <c r="E905" s="6"/>
       <c r="F905" s="6"/>
       <c r="G905" s="6"/>
-      <c r="H905" s="6"/>
-      <c r="I905" s="6"/>
       <c r="J905" s="6"/>
       <c r="K905" s="6"/>
       <c r="L905" s="6"/>
@@ -35340,8 +33532,6 @@
       <c r="E906" s="6"/>
       <c r="F906" s="6"/>
       <c r="G906" s="6"/>
-      <c r="H906" s="6"/>
-      <c r="I906" s="6"/>
       <c r="J906" s="6"/>
       <c r="K906" s="6"/>
       <c r="L906" s="6"/>
@@ -35357,8 +33547,6 @@
       <c r="E907" s="6"/>
       <c r="F907" s="6"/>
       <c r="G907" s="6"/>
-      <c r="H907" s="6"/>
-      <c r="I907" s="6"/>
       <c r="J907" s="6"/>
       <c r="K907" s="6"/>
       <c r="L907" s="6"/>
@@ -35374,8 +33562,6 @@
       <c r="E908" s="6"/>
       <c r="F908" s="6"/>
       <c r="G908" s="6"/>
-      <c r="H908" s="6"/>
-      <c r="I908" s="6"/>
       <c r="J908" s="6"/>
       <c r="K908" s="6"/>
       <c r="L908" s="6"/>
@@ -35391,8 +33577,6 @@
       <c r="E909" s="6"/>
       <c r="F909" s="6"/>
       <c r="G909" s="6"/>
-      <c r="H909" s="6"/>
-      <c r="I909" s="6"/>
       <c r="J909" s="6"/>
       <c r="K909" s="6"/>
       <c r="L909" s="6"/>
@@ -35408,8 +33592,6 @@
       <c r="E910" s="6"/>
       <c r="F910" s="6"/>
       <c r="G910" s="6"/>
-      <c r="H910" s="6"/>
-      <c r="I910" s="6"/>
       <c r="J910" s="6"/>
       <c r="K910" s="6"/>
       <c r="L910" s="6"/>
@@ -35425,8 +33607,6 @@
       <c r="E911" s="6"/>
       <c r="F911" s="6"/>
       <c r="G911" s="6"/>
-      <c r="H911" s="6"/>
-      <c r="I911" s="6"/>
       <c r="J911" s="6"/>
       <c r="K911" s="6"/>
       <c r="L911" s="6"/>
@@ -35442,8 +33622,6 @@
       <c r="E912" s="6"/>
       <c r="F912" s="6"/>
       <c r="G912" s="6"/>
-      <c r="H912" s="6"/>
-      <c r="I912" s="6"/>
       <c r="J912" s="6"/>
       <c r="K912" s="6"/>
       <c r="L912" s="6"/>
@@ -35459,8 +33637,6 @@
       <c r="E913" s="6"/>
       <c r="F913" s="6"/>
       <c r="G913" s="6"/>
-      <c r="H913" s="6"/>
-      <c r="I913" s="6"/>
       <c r="J913" s="6"/>
       <c r="K913" s="6"/>
       <c r="L913" s="6"/>
@@ -35476,8 +33652,6 @@
       <c r="E914" s="6"/>
       <c r="F914" s="6"/>
       <c r="G914" s="6"/>
-      <c r="H914" s="6"/>
-      <c r="I914" s="6"/>
       <c r="J914" s="6"/>
       <c r="K914" s="6"/>
       <c r="L914" s="6"/>
@@ -35493,8 +33667,6 @@
       <c r="E915" s="6"/>
       <c r="F915" s="6"/>
       <c r="G915" s="6"/>
-      <c r="H915" s="6"/>
-      <c r="I915" s="6"/>
       <c r="J915" s="6"/>
       <c r="K915" s="6"/>
       <c r="L915" s="6"/>
@@ -35510,8 +33682,6 @@
       <c r="E916" s="6"/>
       <c r="F916" s="6"/>
       <c r="G916" s="6"/>
-      <c r="H916" s="6"/>
-      <c r="I916" s="6"/>
       <c r="J916" s="6"/>
       <c r="K916" s="6"/>
       <c r="L916" s="6"/>
@@ -35527,8 +33697,6 @@
       <c r="E917" s="6"/>
       <c r="F917" s="6"/>
       <c r="G917" s="6"/>
-      <c r="H917" s="6"/>
-      <c r="I917" s="6"/>
       <c r="J917" s="6"/>
       <c r="K917" s="6"/>
       <c r="L917" s="6"/>
@@ -35544,8 +33712,6 @@
       <c r="E918" s="6"/>
       <c r="F918" s="6"/>
       <c r="G918" s="6"/>
-      <c r="H918" s="6"/>
-      <c r="I918" s="6"/>
       <c r="J918" s="6"/>
       <c r="K918" s="6"/>
       <c r="L918" s="6"/>
@@ -35561,8 +33727,6 @@
       <c r="E919" s="6"/>
       <c r="F919" s="6"/>
       <c r="G919" s="6"/>
-      <c r="H919" s="6"/>
-      <c r="I919" s="6"/>
       <c r="J919" s="6"/>
       <c r="K919" s="6"/>
       <c r="L919" s="6"/>
@@ -35578,8 +33742,6 @@
       <c r="E920" s="6"/>
       <c r="F920" s="6"/>
       <c r="G920" s="6"/>
-      <c r="H920" s="6"/>
-      <c r="I920" s="6"/>
       <c r="J920" s="6"/>
       <c r="K920" s="6"/>
       <c r="L920" s="6"/>
@@ -35595,8 +33757,6 @@
       <c r="E921" s="6"/>
       <c r="F921" s="6"/>
       <c r="G921" s="6"/>
-      <c r="H921" s="6"/>
-      <c r="I921" s="6"/>
       <c r="J921" s="6"/>
       <c r="K921" s="6"/>
       <c r="L921" s="6"/>
@@ -35612,8 +33772,6 @@
       <c r="E922" s="6"/>
       <c r="F922" s="6"/>
       <c r="G922" s="6"/>
-      <c r="H922" s="6"/>
-      <c r="I922" s="6"/>
       <c r="J922" s="6"/>
       <c r="K922" s="6"/>
       <c r="L922" s="6"/>
@@ -35629,8 +33787,6 @@
       <c r="E923" s="6"/>
       <c r="F923" s="6"/>
       <c r="G923" s="6"/>
-      <c r="H923" s="6"/>
-      <c r="I923" s="6"/>
       <c r="J923" s="6"/>
       <c r="K923" s="6"/>
       <c r="L923" s="6"/>
@@ -35646,8 +33802,6 @@
       <c r="E924" s="6"/>
       <c r="F924" s="6"/>
       <c r="G924" s="6"/>
-      <c r="H924" s="6"/>
-      <c r="I924" s="6"/>
       <c r="J924" s="6"/>
       <c r="K924" s="6"/>
       <c r="L924" s="6"/>
@@ -35663,8 +33817,6 @@
       <c r="E925" s="6"/>
       <c r="F925" s="6"/>
       <c r="G925" s="6"/>
-      <c r="H925" s="6"/>
-      <c r="I925" s="6"/>
       <c r="J925" s="6"/>
       <c r="K925" s="6"/>
       <c r="L925" s="6"/>
@@ -35680,8 +33832,6 @@
       <c r="E926" s="6"/>
       <c r="F926" s="6"/>
       <c r="G926" s="6"/>
-      <c r="H926" s="6"/>
-      <c r="I926" s="6"/>
       <c r="J926" s="6"/>
       <c r="K926" s="6"/>
       <c r="L926" s="6"/>
@@ -35697,8 +33847,6 @@
       <c r="E927" s="6"/>
       <c r="F927" s="6"/>
       <c r="G927" s="6"/>
-      <c r="H927" s="6"/>
-      <c r="I927" s="6"/>
       <c r="J927" s="6"/>
       <c r="K927" s="6"/>
       <c r="L927" s="6"/>
@@ -35714,8 +33862,6 @@
       <c r="E928" s="6"/>
       <c r="F928" s="6"/>
       <c r="G928" s="6"/>
-      <c r="H928" s="6"/>
-      <c r="I928" s="6"/>
       <c r="J928" s="6"/>
       <c r="K928" s="6"/>
       <c r="L928" s="6"/>
@@ -35731,8 +33877,6 @@
       <c r="E929" s="6"/>
       <c r="F929" s="6"/>
       <c r="G929" s="6"/>
-      <c r="H929" s="6"/>
-      <c r="I929" s="6"/>
       <c r="J929" s="6"/>
       <c r="K929" s="6"/>
       <c r="L929" s="6"/>
@@ -35748,8 +33892,6 @@
       <c r="E930" s="6"/>
       <c r="F930" s="6"/>
       <c r="G930" s="6"/>
-      <c r="H930" s="6"/>
-      <c r="I930" s="6"/>
       <c r="J930" s="6"/>
       <c r="K930" s="6"/>
       <c r="L930" s="6"/>
@@ -35765,8 +33907,6 @@
       <c r="E931" s="6"/>
       <c r="F931" s="6"/>
       <c r="G931" s="6"/>
-      <c r="H931" s="6"/>
-      <c r="I931" s="6"/>
       <c r="J931" s="6"/>
       <c r="K931" s="6"/>
       <c r="L931" s="6"/>
@@ -35782,8 +33922,6 @@
       <c r="E932" s="6"/>
       <c r="F932" s="6"/>
       <c r="G932" s="6"/>
-      <c r="H932" s="6"/>
-      <c r="I932" s="6"/>
       <c r="J932" s="6"/>
       <c r="K932" s="6"/>
       <c r="L932" s="6"/>
@@ -35799,8 +33937,6 @@
       <c r="E933" s="6"/>
       <c r="F933" s="6"/>
       <c r="G933" s="6"/>
-      <c r="H933" s="6"/>
-      <c r="I933" s="6"/>
       <c r="J933" s="6"/>
       <c r="K933" s="6"/>
       <c r="L933" s="6"/>
@@ -35816,8 +33952,6 @@
       <c r="E934" s="6"/>
       <c r="F934" s="6"/>
       <c r="G934" s="6"/>
-      <c r="H934" s="6"/>
-      <c r="I934" s="6"/>
       <c r="J934" s="6"/>
       <c r="K934" s="6"/>
       <c r="L934" s="6"/>
@@ -35833,8 +33967,6 @@
       <c r="E935" s="6"/>
       <c r="F935" s="6"/>
       <c r="G935" s="6"/>
-      <c r="H935" s="6"/>
-      <c r="I935" s="6"/>
       <c r="J935" s="6"/>
       <c r="K935" s="6"/>
       <c r="L935" s="6"/>
@@ -35850,8 +33982,6 @@
       <c r="E936" s="6"/>
       <c r="F936" s="6"/>
       <c r="G936" s="6"/>
-      <c r="H936" s="6"/>
-      <c r="I936" s="6"/>
       <c r="J936" s="6"/>
       <c r="K936" s="6"/>
       <c r="L936" s="6"/>
@@ -35867,8 +33997,6 @@
       <c r="E937" s="6"/>
       <c r="F937" s="6"/>
       <c r="G937" s="6"/>
-      <c r="H937" s="6"/>
-      <c r="I937" s="6"/>
       <c r="J937" s="6"/>
       <c r="K937" s="6"/>
       <c r="L937" s="6"/>
@@ -35884,8 +34012,6 @@
       <c r="E938" s="6"/>
       <c r="F938" s="6"/>
       <c r="G938" s="6"/>
-      <c r="H938" s="6"/>
-      <c r="I938" s="6"/>
       <c r="J938" s="6"/>
       <c r="K938" s="6"/>
       <c r="L938" s="6"/>
@@ -35901,8 +34027,6 @@
       <c r="E939" s="6"/>
       <c r="F939" s="6"/>
       <c r="G939" s="6"/>
-      <c r="H939" s="6"/>
-      <c r="I939" s="6"/>
       <c r="J939" s="6"/>
       <c r="K939" s="6"/>
       <c r="L939" s="6"/>
@@ -35918,8 +34042,6 @@
       <c r="E940" s="6"/>
       <c r="F940" s="6"/>
       <c r="G940" s="6"/>
-      <c r="H940" s="6"/>
-      <c r="I940" s="6"/>
       <c r="J940" s="6"/>
       <c r="K940" s="6"/>
       <c r="L940" s="6"/>
@@ -35935,8 +34057,6 @@
       <c r="E941" s="6"/>
       <c r="F941" s="6"/>
       <c r="G941" s="6"/>
-      <c r="H941" s="6"/>
-      <c r="I941" s="6"/>
       <c r="J941" s="6"/>
       <c r="K941" s="6"/>
       <c r="L941" s="6"/>
@@ -35952,8 +34072,6 @@
       <c r="E942" s="6"/>
       <c r="F942" s="6"/>
       <c r="G942" s="6"/>
-      <c r="H942" s="6"/>
-      <c r="I942" s="6"/>
       <c r="J942" s="6"/>
       <c r="K942" s="6"/>
       <c r="L942" s="6"/>
@@ -35969,8 +34087,6 @@
       <c r="E943" s="6"/>
       <c r="F943" s="6"/>
       <c r="G943" s="6"/>
-      <c r="H943" s="6"/>
-      <c r="I943" s="6"/>
       <c r="J943" s="6"/>
       <c r="K943" s="6"/>
       <c r="L943" s="6"/>
@@ -35986,8 +34102,6 @@
       <c r="E944" s="6"/>
       <c r="F944" s="6"/>
       <c r="G944" s="6"/>
-      <c r="H944" s="6"/>
-      <c r="I944" s="6"/>
       <c r="J944" s="6"/>
       <c r="K944" s="6"/>
       <c r="L944" s="6"/>
@@ -36003,8 +34117,6 @@
       <c r="E945" s="6"/>
       <c r="F945" s="6"/>
       <c r="G945" s="6"/>
-      <c r="H945" s="6"/>
-      <c r="I945" s="6"/>
       <c r="J945" s="6"/>
       <c r="K945" s="6"/>
       <c r="L945" s="6"/>
@@ -36020,8 +34132,6 @@
       <c r="E946" s="6"/>
       <c r="F946" s="6"/>
       <c r="G946" s="6"/>
-      <c r="H946" s="6"/>
-      <c r="I946" s="6"/>
       <c r="J946" s="6"/>
       <c r="K946" s="6"/>
       <c r="L946" s="6"/>
@@ -36037,8 +34147,6 @@
       <c r="E947" s="6"/>
       <c r="F947" s="6"/>
       <c r="G947" s="6"/>
-      <c r="H947" s="6"/>
-      <c r="I947" s="6"/>
       <c r="J947" s="6"/>
       <c r="K947" s="6"/>
       <c r="L947" s="6"/>
@@ -36054,8 +34162,6 @@
       <c r="E948" s="6"/>
       <c r="F948" s="6"/>
       <c r="G948" s="6"/>
-      <c r="H948" s="6"/>
-      <c r="I948" s="6"/>
       <c r="J948" s="6"/>
       <c r="K948" s="6"/>
       <c r="L948" s="6"/>
@@ -36071,8 +34177,6 @@
       <c r="E949" s="6"/>
       <c r="F949" s="6"/>
       <c r="G949" s="6"/>
-      <c r="H949" s="6"/>
-      <c r="I949" s="6"/>
       <c r="J949" s="6"/>
       <c r="K949" s="6"/>
       <c r="L949" s="6"/>
@@ -36088,8 +34192,6 @@
       <c r="E950" s="6"/>
       <c r="F950" s="6"/>
       <c r="G950" s="6"/>
-      <c r="H950" s="6"/>
-      <c r="I950" s="6"/>
       <c r="J950" s="6"/>
       <c r="K950" s="6"/>
       <c r="L950" s="6"/>
@@ -36105,8 +34207,6 @@
       <c r="E951" s="6"/>
       <c r="F951" s="6"/>
       <c r="G951" s="6"/>
-      <c r="H951" s="6"/>
-      <c r="I951" s="6"/>
       <c r="J951" s="6"/>
       <c r="K951" s="6"/>
       <c r="L951" s="6"/>
@@ -36122,8 +34222,6 @@
       <c r="E952" s="6"/>
       <c r="F952" s="6"/>
       <c r="G952" s="6"/>
-      <c r="H952" s="6"/>
-      <c r="I952" s="6"/>
       <c r="J952" s="6"/>
       <c r="K952" s="6"/>
       <c r="L952" s="6"/>
@@ -36139,8 +34237,6 @@
       <c r="E953" s="6"/>
       <c r="F953" s="6"/>
       <c r="G953" s="6"/>
-      <c r="H953" s="6"/>
-      <c r="I953" s="6"/>
       <c r="J953" s="6"/>
       <c r="K953" s="6"/>
       <c r="L953" s="6"/>
@@ -36156,8 +34252,6 @@
       <c r="E954" s="6"/>
       <c r="F954" s="6"/>
       <c r="G954" s="6"/>
-      <c r="H954" s="6"/>
-      <c r="I954" s="6"/>
       <c r="J954" s="6"/>
       <c r="K954" s="6"/>
       <c r="L954" s="6"/>
@@ -36173,8 +34267,6 @@
       <c r="E955" s="6"/>
       <c r="F955" s="6"/>
       <c r="G955" s="6"/>
-      <c r="H955" s="6"/>
-      <c r="I955" s="6"/>
       <c r="J955" s="6"/>
       <c r="K955" s="6"/>
       <c r="L955" s="6"/>
@@ -36190,8 +34282,6 @@
       <c r="E956" s="6"/>
       <c r="F956" s="6"/>
       <c r="G956" s="6"/>
-      <c r="H956" s="6"/>
-      <c r="I956" s="6"/>
       <c r="J956" s="6"/>
       <c r="K956" s="6"/>
       <c r="L956" s="6"/>
@@ -36207,8 +34297,6 @@
       <c r="E957" s="6"/>
       <c r="F957" s="6"/>
       <c r="G957" s="6"/>
-      <c r="H957" s="6"/>
-      <c r="I957" s="6"/>
       <c r="J957" s="6"/>
       <c r="K957" s="6"/>
       <c r="L957" s="6"/>
@@ -36224,8 +34312,6 @@
       <c r="E958" s="6"/>
       <c r="F958" s="6"/>
       <c r="G958" s="6"/>
-      <c r="H958" s="6"/>
-      <c r="I958" s="6"/>
       <c r="J958" s="6"/>
       <c r="K958" s="6"/>
       <c r="L958" s="6"/>
@@ -36241,8 +34327,6 @@
       <c r="E959" s="6"/>
       <c r="F959" s="6"/>
       <c r="G959" s="6"/>
-      <c r="H959" s="6"/>
-      <c r="I959" s="6"/>
       <c r="J959" s="6"/>
       <c r="K959" s="6"/>
       <c r="L959" s="6"/>
@@ -36258,8 +34342,6 @@
       <c r="E960" s="6"/>
       <c r="F960" s="6"/>
       <c r="G960" s="6"/>
-      <c r="H960" s="6"/>
-      <c r="I960" s="6"/>
       <c r="J960" s="6"/>
       <c r="K960" s="6"/>
       <c r="L960" s="6"/>
@@ -36275,8 +34357,6 @@
       <c r="E961" s="6"/>
       <c r="F961" s="6"/>
       <c r="G961" s="6"/>
-      <c r="H961" s="6"/>
-      <c r="I961" s="6"/>
       <c r="J961" s="6"/>
       <c r="K961" s="6"/>
       <c r="L961" s="6"/>
@@ -36292,8 +34372,6 @@
       <c r="E962" s="6"/>
       <c r="F962" s="6"/>
       <c r="G962" s="6"/>
-      <c r="H962" s="6"/>
-      <c r="I962" s="6"/>
       <c r="J962" s="6"/>
       <c r="K962" s="6"/>
       <c r="L962" s="6"/>
@@ -36309,8 +34387,6 @@
       <c r="E963" s="6"/>
       <c r="F963" s="6"/>
       <c r="G963" s="6"/>
-      <c r="H963" s="6"/>
-      <c r="I963" s="6"/>
       <c r="J963" s="6"/>
       <c r="K963" s="6"/>
       <c r="L963" s="6"/>
@@ -36326,8 +34402,6 @@
       <c r="E964" s="6"/>
       <c r="F964" s="6"/>
       <c r="G964" s="6"/>
-      <c r="H964" s="6"/>
-      <c r="I964" s="6"/>
       <c r="J964" s="6"/>
       <c r="K964" s="6"/>
       <c r="L964" s="6"/>
@@ -36343,8 +34417,6 @@
       <c r="E965" s="6"/>
       <c r="F965" s="6"/>
       <c r="G965" s="6"/>
-      <c r="H965" s="6"/>
-      <c r="I965" s="6"/>
       <c r="J965" s="6"/>
       <c r="K965" s="6"/>
       <c r="L965" s="6"/>
@@ -36360,8 +34432,6 @@
       <c r="E966" s="6"/>
       <c r="F966" s="6"/>
       <c r="G966" s="6"/>
-      <c r="H966" s="6"/>
-      <c r="I966" s="6"/>
       <c r="J966" s="6"/>
       <c r="K966" s="6"/>
       <c r="L966" s="6"/>
@@ -36377,8 +34447,6 @@
       <c r="E967" s="6"/>
       <c r="F967" s="6"/>
       <c r="G967" s="6"/>
-      <c r="H967" s="6"/>
-      <c r="I967" s="6"/>
       <c r="J967" s="6"/>
       <c r="K967" s="6"/>
       <c r="L967" s="6"/>
@@ -36394,8 +34462,6 @@
       <c r="E968" s="6"/>
       <c r="F968" s="6"/>
       <c r="G968" s="6"/>
-      <c r="H968" s="6"/>
-      <c r="I968" s="6"/>
       <c r="J968" s="6"/>
       <c r="K968" s="6"/>
       <c r="L968" s="6"/>
@@ -36411,8 +34477,6 @@
       <c r="E969" s="6"/>
       <c r="F969" s="6"/>
       <c r="G969" s="6"/>
-      <c r="H969" s="6"/>
-      <c r="I969" s="6"/>
       <c r="J969" s="6"/>
       <c r="K969" s="6"/>
       <c r="L969" s="6"/>
@@ -36428,8 +34492,6 @@
       <c r="E970" s="6"/>
       <c r="F970" s="6"/>
       <c r="G970" s="6"/>
-      <c r="H970" s="6"/>
-      <c r="I970" s="6"/>
       <c r="J970" s="6"/>
       <c r="K970" s="6"/>
       <c r="L970" s="6"/>
@@ -36445,8 +34507,6 @@
       <c r="E971" s="6"/>
       <c r="F971" s="6"/>
       <c r="G971" s="6"/>
-      <c r="H971" s="6"/>
-      <c r="I971" s="6"/>
       <c r="J971" s="6"/>
       <c r="K971" s="6"/>
       <c r="L971" s="6"/>
@@ -36462,8 +34522,6 @@
       <c r="E972" s="6"/>
       <c r="F972" s="6"/>
       <c r="G972" s="6"/>
-      <c r="H972" s="6"/>
-      <c r="I972" s="6"/>
       <c r="J972" s="6"/>
       <c r="K972" s="6"/>
       <c r="L972" s="6"/>
@@ -36479,8 +34537,6 @@
       <c r="E973" s="6"/>
       <c r="F973" s="6"/>
       <c r="G973" s="6"/>
-      <c r="H973" s="6"/>
-      <c r="I973" s="6"/>
       <c r="J973" s="6"/>
       <c r="K973" s="6"/>
       <c r="L973" s="6"/>
@@ -36496,8 +34552,6 @@
       <c r="E974" s="6"/>
       <c r="F974" s="6"/>
       <c r="G974" s="6"/>
-      <c r="H974" s="6"/>
-      <c r="I974" s="6"/>
       <c r="J974" s="6"/>
       <c r="K974" s="6"/>
       <c r="L974" s="6"/>
@@ -36513,8 +34567,6 @@
       <c r="E975" s="6"/>
       <c r="F975" s="6"/>
       <c r="G975" s="6"/>
-      <c r="H975" s="6"/>
-      <c r="I975" s="6"/>
       <c r="J975" s="6"/>
       <c r="K975" s="6"/>
       <c r="L975" s="6"/>
@@ -36530,8 +34582,6 @@
       <c r="E976" s="6"/>
       <c r="F976" s="6"/>
       <c r="G976" s="6"/>
-      <c r="H976" s="6"/>
-      <c r="I976" s="6"/>
       <c r="J976" s="6"/>
       <c r="K976" s="6"/>
       <c r="L976" s="6"/>
@@ -36547,8 +34597,6 @@
       <c r="E977" s="6"/>
       <c r="F977" s="6"/>
       <c r="G977" s="6"/>
-      <c r="H977" s="6"/>
-      <c r="I977" s="6"/>
       <c r="J977" s="6"/>
       <c r="K977" s="6"/>
       <c r="L977" s="6"/>
@@ -36564,8 +34612,6 @@
       <c r="E978" s="6"/>
       <c r="F978" s="6"/>
       <c r="G978" s="6"/>
-      <c r="H978" s="6"/>
-      <c r="I978" s="6"/>
       <c r="J978" s="6"/>
       <c r="K978" s="6"/>
       <c r="L978" s="6"/>
@@ -36581,8 +34627,6 @@
       <c r="E979" s="6"/>
       <c r="F979" s="6"/>
       <c r="G979" s="6"/>
-      <c r="H979" s="6"/>
-      <c r="I979" s="6"/>
       <c r="J979" s="6"/>
       <c r="K979" s="6"/>
       <c r="L979" s="6"/>
@@ -36598,8 +34642,6 @@
       <c r="E980" s="6"/>
       <c r="F980" s="6"/>
       <c r="G980" s="6"/>
-      <c r="H980" s="6"/>
-      <c r="I980" s="6"/>
       <c r="J980" s="6"/>
       <c r="K980" s="6"/>
       <c r="L980" s="6"/>
@@ -36615,8 +34657,6 @@
       <c r="E981" s="6"/>
       <c r="F981" s="6"/>
       <c r="G981" s="6"/>
-      <c r="H981" s="6"/>
-      <c r="I981" s="6"/>
       <c r="J981" s="6"/>
       <c r="K981" s="6"/>
       <c r="L981" s="6"/>
@@ -36632,8 +34672,6 @@
       <c r="E982" s="6"/>
       <c r="F982" s="6"/>
       <c r="G982" s="6"/>
-      <c r="H982" s="6"/>
-      <c r="I982" s="6"/>
       <c r="J982" s="6"/>
       <c r="K982" s="6"/>
       <c r="L982" s="6"/>
@@ -36649,8 +34687,6 @@
       <c r="E983" s="6"/>
       <c r="F983" s="6"/>
       <c r="G983" s="6"/>
-      <c r="H983" s="6"/>
-      <c r="I983" s="6"/>
       <c r="J983" s="6"/>
       <c r="K983" s="6"/>
       <c r="L983" s="6"/>
@@ -36666,8 +34702,6 @@
       <c r="E984" s="6"/>
       <c r="F984" s="6"/>
       <c r="G984" s="6"/>
-      <c r="H984" s="6"/>
-      <c r="I984" s="6"/>
       <c r="J984" s="6"/>
       <c r="K984" s="6"/>
       <c r="L984" s="6"/>
@@ -36683,8 +34717,6 @@
       <c r="E985" s="6"/>
       <c r="F985" s="6"/>
       <c r="G985" s="6"/>
-      <c r="H985" s="6"/>
-      <c r="I985" s="6"/>
       <c r="J985" s="6"/>
       <c r="K985" s="6"/>
       <c r="L985" s="6"/>
@@ -36700,8 +34732,6 @@
       <c r="E986" s="6"/>
       <c r="F986" s="6"/>
       <c r="G986" s="6"/>
-      <c r="H986" s="6"/>
-      <c r="I986" s="6"/>
       <c r="J986" s="6"/>
       <c r="K986" s="6"/>
       <c r="L986" s="6"/>
@@ -36717,8 +34747,6 @@
       <c r="E987" s="6"/>
       <c r="F987" s="6"/>
       <c r="G987" s="6"/>
-      <c r="H987" s="6"/>
-      <c r="I987" s="6"/>
       <c r="J987" s="6"/>
       <c r="K987" s="6"/>
       <c r="L987" s="6"/>
@@ -36734,8 +34762,6 @@
       <c r="E988" s="6"/>
       <c r="F988" s="6"/>
       <c r="G988" s="6"/>
-      <c r="H988" s="6"/>
-      <c r="I988" s="6"/>
       <c r="J988" s="6"/>
       <c r="K988" s="6"/>
       <c r="L988" s="6"/>
@@ -36751,8 +34777,6 @@
       <c r="E989" s="6"/>
       <c r="F989" s="6"/>
       <c r="G989" s="6"/>
-      <c r="H989" s="6"/>
-      <c r="I989" s="6"/>
       <c r="J989" s="6"/>
       <c r="K989" s="6"/>
       <c r="L989" s="6"/>
@@ -36768,8 +34792,6 @@
       <c r="E990" s="6"/>
       <c r="F990" s="6"/>
       <c r="G990" s="6"/>
-      <c r="H990" s="6"/>
-      <c r="I990" s="6"/>
       <c r="J990" s="6"/>
       <c r="K990" s="6"/>
       <c r="L990" s="6"/>
@@ -36785,8 +34807,6 @@
       <c r="E991" s="6"/>
       <c r="F991" s="6"/>
       <c r="G991" s="6"/>
-      <c r="H991" s="6"/>
-      <c r="I991" s="6"/>
       <c r="J991" s="6"/>
       <c r="K991" s="6"/>
       <c r="L991" s="6"/>
@@ -36802,8 +34822,6 @@
       <c r="E992" s="6"/>
       <c r="F992" s="6"/>
       <c r="G992" s="6"/>
-      <c r="H992" s="6"/>
-      <c r="I992" s="6"/>
       <c r="J992" s="6"/>
       <c r="K992" s="6"/>
       <c r="L992" s="6"/>
@@ -36819,8 +34837,6 @@
       <c r="E993" s="6"/>
       <c r="F993" s="6"/>
       <c r="G993" s="6"/>
-      <c r="H993" s="6"/>
-      <c r="I993" s="6"/>
       <c r="J993" s="6"/>
       <c r="K993" s="6"/>
       <c r="L993" s="6"/>
@@ -36836,8 +34852,6 @@
       <c r="E994" s="6"/>
       <c r="F994" s="6"/>
       <c r="G994" s="6"/>
-      <c r="H994" s="6"/>
-      <c r="I994" s="6"/>
       <c r="J994" s="6"/>
       <c r="K994" s="6"/>
       <c r="L994" s="6"/>
@@ -36853,8 +34867,6 @@
       <c r="E995" s="6"/>
       <c r="F995" s="6"/>
       <c r="G995" s="6"/>
-      <c r="H995" s="6"/>
-      <c r="I995" s="6"/>
       <c r="J995" s="6"/>
       <c r="K995" s="6"/>
       <c r="L995" s="6"/>
@@ -36870,8 +34882,6 @@
       <c r="E996" s="6"/>
       <c r="F996" s="6"/>
       <c r="G996" s="6"/>
-      <c r="H996" s="6"/>
-      <c r="I996" s="6"/>
       <c r="J996" s="6"/>
       <c r="K996" s="6"/>
       <c r="L996" s="6"/>
@@ -36887,8 +34897,6 @@
       <c r="E997" s="6"/>
       <c r="F997" s="6"/>
       <c r="G997" s="6"/>
-      <c r="H997" s="6"/>
-      <c r="I997" s="6"/>
       <c r="J997" s="6"/>
       <c r="K997" s="6"/>
       <c r="L997" s="6"/>
@@ -36904,8 +34912,6 @@
       <c r="E998" s="6"/>
       <c r="F998" s="6"/>
       <c r="G998" s="6"/>
-      <c r="H998" s="6"/>
-      <c r="I998" s="6"/>
       <c r="J998" s="6"/>
       <c r="K998" s="6"/>
       <c r="L998" s="6"/>
@@ -36915,14 +34921,10 @@
       <c r="P998" s="6"/>
       <c r="Q998" s="6"/>
     </row>
+    <row r="1000" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I1000"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q47" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Импост двери"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C15D32B-A49D-5944-8084-362A03CDB4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7071ED20-D789-624C-8F10-9DB90FC1B824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СПРАВОЧНИК -1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'СПРАВОЧНИК -1'!$A$1:$Z$263</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'СПРАВОЧНИК -3'!$A$1:$Q$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'СПРАВОЧНИК -3'!$A$1:$Q$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1591,7 +1591,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1687,6 +1687,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1730,7 +1736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1785,6 +1791,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2007,14 +2014,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z563"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O166" sqref="O166:O254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2047,7 +2054,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -2056,13 +2063,13 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -2071,7 +2078,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="27" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -2093,7 +2100,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -2137,7 +2144,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -2181,7 +2188,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -2225,7 +2232,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -2269,7 +2276,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
@@ -2313,7 +2320,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
@@ -2357,7 +2364,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -2401,7 +2408,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
@@ -2445,7 +2452,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -2489,7 +2496,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
@@ -2533,7 +2540,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
@@ -2577,7 +2584,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -2621,7 +2628,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
@@ -2665,7 +2672,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -2709,7 +2716,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2753,7 +2760,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -2797,7 +2804,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
@@ -2841,7 +2848,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>63</v>
       </c>
@@ -2885,7 +2892,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>63</v>
       </c>
@@ -2929,7 +2936,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>63</v>
       </c>
@@ -2973,7 +2980,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>63</v>
       </c>
@@ -3017,7 +3024,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>63</v>
       </c>
@@ -3061,7 +3068,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>15</v>
       </c>
@@ -3105,7 +3112,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>15</v>
       </c>
@@ -3149,7 +3156,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>15</v>
       </c>
@@ -3193,7 +3200,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
@@ -3237,7 +3244,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>15</v>
       </c>
@@ -3281,7 +3288,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>15</v>
       </c>
@@ -3325,7 +3332,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>15</v>
       </c>
@@ -3369,7 +3376,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>15</v>
       </c>
@@ -3413,7 +3420,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>15</v>
       </c>
@@ -3457,7 +3464,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>15</v>
       </c>
@@ -3501,7 +3508,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>15</v>
       </c>
@@ -3545,7 +3552,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>15</v>
       </c>
@@ -3589,7 +3596,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>63</v>
       </c>
@@ -3633,7 +3640,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>63</v>
       </c>
@@ -3677,7 +3684,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>63</v>
       </c>
@@ -3721,7 +3728,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>63</v>
       </c>
@@ -3765,7 +3772,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>63</v>
       </c>
@@ -3809,7 +3816,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>63</v>
       </c>
@@ -3853,7 +3860,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>63</v>
       </c>
@@ -3897,7 +3904,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>63</v>
       </c>
@@ -3941,7 +3948,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>63</v>
       </c>
@@ -3985,7 +3992,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>63</v>
       </c>
@@ -4029,7 +4036,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>63</v>
       </c>
@@ -4073,7 +4080,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>63</v>
       </c>
@@ -4117,7 +4124,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>63</v>
       </c>
@@ -4161,7 +4168,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>63</v>
       </c>
@@ -4205,7 +4212,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>63</v>
       </c>
@@ -4249,7 +4256,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>63</v>
       </c>
@@ -4293,7 +4300,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>63</v>
       </c>
@@ -4337,7 +4344,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
         <v>63</v>
       </c>
@@ -4381,7 +4388,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>63</v>
       </c>
@@ -4425,7 +4432,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>63</v>
       </c>
@@ -4513,7 +4520,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>63</v>
       </c>
@@ -4557,7 +4564,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>63</v>
       </c>
@@ -4601,7 +4608,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>63</v>
       </c>
@@ -4645,7 +4652,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
         <v>63</v>
       </c>
@@ -4691,7 +4698,7 @@
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
     </row>
-    <row r="61" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
         <v>63</v>
       </c>
@@ -4735,7 +4742,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
         <v>63</v>
       </c>
@@ -4779,7 +4786,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
         <v>63</v>
       </c>
@@ -4823,7 +4830,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
         <v>63</v>
       </c>
@@ -4867,7 +4874,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
         <v>63</v>
       </c>
@@ -4911,7 +4918,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
         <v>63</v>
       </c>
@@ -4955,7 +4962,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
         <v>63</v>
       </c>
@@ -4999,7 +5006,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
         <v>63</v>
       </c>
@@ -5043,7 +5050,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
         <v>63</v>
       </c>
@@ -5087,7 +5094,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
         <v>63</v>
       </c>
@@ -5131,7 +5138,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
         <v>63</v>
       </c>
@@ -5175,7 +5182,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
         <v>63</v>
       </c>
@@ -5219,7 +5226,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
         <v>63</v>
       </c>
@@ -5263,7 +5270,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
         <v>63</v>
       </c>
@@ -5307,7 +5314,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
         <v>63</v>
       </c>
@@ -5351,7 +5358,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>63</v>
       </c>
@@ -5395,7 +5402,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
         <v>63</v>
       </c>
@@ -5439,7 +5446,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
         <v>63</v>
       </c>
@@ -5483,7 +5490,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
         <v>63</v>
       </c>
@@ -5571,7 +5578,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
         <v>63</v>
       </c>
@@ -5615,7 +5622,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
         <v>63</v>
       </c>
@@ -5659,7 +5666,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
         <v>63</v>
       </c>
@@ -5703,7 +5710,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
         <v>63</v>
       </c>
@@ -5747,7 +5754,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
         <v>63</v>
       </c>
@@ -5791,7 +5798,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
         <v>63</v>
       </c>
@@ -5835,7 +5842,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
         <v>63</v>
       </c>
@@ -5879,7 +5886,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
         <v>63</v>
       </c>
@@ -5923,7 +5930,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>63</v>
       </c>
@@ -5967,7 +5974,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
         <v>63</v>
       </c>
@@ -6011,7 +6018,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
         <v>63</v>
       </c>
@@ -6055,7 +6062,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
         <v>63</v>
       </c>
@@ -6099,7 +6106,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="9" t="s">
         <v>63</v>
       </c>
@@ -6145,7 +6152,7 @@
       <c r="S93" s="11"/>
       <c r="T93" s="11"/>
     </row>
-    <row r="94" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
         <v>63</v>
       </c>
@@ -6189,7 +6196,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="9" t="s">
         <v>63</v>
       </c>
@@ -6233,7 +6240,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="9" t="s">
         <v>63</v>
       </c>
@@ -6321,7 +6328,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
         <v>63</v>
       </c>
@@ -6365,7 +6372,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
         <v>63</v>
       </c>
@@ -6409,7 +6416,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="9" t="s">
         <v>63</v>
       </c>
@@ -6453,7 +6460,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="9" t="s">
         <v>63</v>
       </c>
@@ -6497,7 +6504,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="9" t="s">
         <v>63</v>
       </c>
@@ -6541,7 +6548,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="9" t="s">
         <v>63</v>
       </c>
@@ -6585,7 +6592,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="9" t="s">
         <v>63</v>
       </c>
@@ -6629,7 +6636,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="9" t="s">
         <v>63</v>
       </c>
@@ -6673,7 +6680,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="9" t="s">
         <v>63</v>
       </c>
@@ -6717,7 +6724,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="9" t="s">
         <v>63</v>
       </c>
@@ -6761,7 +6768,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="9" t="s">
         <v>63</v>
       </c>
@@ -6805,7 +6812,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="9" t="s">
         <v>63</v>
       </c>
@@ -6849,7 +6856,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="9" t="s">
         <v>63</v>
       </c>
@@ -6893,7 +6900,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="9" t="s">
         <v>63</v>
       </c>
@@ -6937,7 +6944,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="9" t="s">
         <v>63</v>
       </c>
@@ -6981,7 +6988,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="9" t="s">
         <v>63</v>
       </c>
@@ -7025,7 +7032,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="9" t="s">
         <v>63</v>
       </c>
@@ -7069,7 +7076,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="9" t="s">
         <v>63</v>
       </c>
@@ -7113,7 +7120,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="9" t="s">
         <v>63</v>
       </c>
@@ -7157,7 +7164,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="9" t="s">
         <v>63</v>
       </c>
@@ -7201,7 +7208,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="9" t="s">
         <v>63</v>
       </c>
@@ -7245,7 +7252,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="9" t="s">
         <v>63</v>
       </c>
@@ -7289,7 +7296,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="9" t="s">
         <v>63</v>
       </c>
@@ -7333,7 +7340,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="9" t="s">
         <v>63</v>
       </c>
@@ -7377,7 +7384,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="9" t="s">
         <v>63</v>
       </c>
@@ -7421,7 +7428,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="9" t="s">
         <v>63</v>
       </c>
@@ -7465,7 +7472,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="9" t="s">
         <v>63</v>
       </c>
@@ -7509,7 +7516,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="9" t="s">
         <v>63</v>
       </c>
@@ -7553,7 +7560,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="9" t="s">
         <v>63</v>
       </c>
@@ -7597,7 +7604,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="9" t="s">
         <v>63</v>
       </c>
@@ -7641,7 +7648,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="9" t="s">
         <v>63</v>
       </c>
@@ -7685,7 +7692,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="9" t="s">
         <v>63</v>
       </c>
@@ -7729,7 +7736,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="9" t="s">
         <v>63</v>
       </c>
@@ -7775,7 +7782,7 @@
       <c r="S130" s="11"/>
       <c r="T130" s="11"/>
     </row>
-    <row r="131" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="9" t="s">
         <v>63</v>
       </c>
@@ -7819,7 +7826,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="9" t="s">
         <v>63</v>
       </c>
@@ -7863,7 +7870,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="9" t="s">
         <v>63</v>
       </c>
@@ -7907,7 +7914,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="9" t="s">
         <v>63</v>
       </c>
@@ -7951,7 +7958,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="9" t="s">
         <v>63</v>
       </c>
@@ -7995,7 +8002,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="9" t="s">
         <v>63</v>
       </c>
@@ -8039,7 +8046,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="9" t="s">
         <v>63</v>
       </c>
@@ -8083,7 +8090,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="9" t="s">
         <v>63</v>
       </c>
@@ -8127,7 +8134,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="9" t="s">
         <v>63</v>
       </c>
@@ -8171,7 +8178,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="9" t="s">
         <v>63</v>
       </c>
@@ -8215,7 +8222,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="9" t="s">
         <v>63</v>
       </c>
@@ -8259,7 +8266,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="9" t="s">
         <v>63</v>
       </c>
@@ -8303,7 +8310,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="9" t="s">
         <v>63</v>
       </c>
@@ -8347,7 +8354,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="9" t="s">
         <v>15</v>
       </c>
@@ -8391,7 +8398,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="145" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="9" t="s">
         <v>15</v>
       </c>
@@ -8435,7 +8442,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="146" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="9" t="s">
         <v>15</v>
       </c>
@@ -8479,7 +8486,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="147" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="9" t="s">
         <v>15</v>
       </c>
@@ -8528,7 +8535,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:26" s="25" customFormat="1" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="9" t="s">
         <v>325</v>
       </c>
@@ -8583,7 +8590,7 @@
       <c r="Y148" s="9"/>
       <c r="Z148" s="9"/>
     </row>
-    <row r="149" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="9" t="s">
         <v>325</v>
       </c>
@@ -8627,7 +8634,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="9" t="s">
         <v>325</v>
       </c>
@@ -8671,7 +8678,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="151" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="9" t="s">
         <v>325</v>
       </c>
@@ -8715,7 +8722,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="152" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="9" t="s">
         <v>325</v>
       </c>
@@ -8759,7 +8766,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="153" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="9" t="s">
         <v>325</v>
       </c>
@@ -8803,7 +8810,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="154" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="9" t="s">
         <v>325</v>
       </c>
@@ -8847,7 +8854,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="155" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="9" t="s">
         <v>325</v>
       </c>
@@ -8891,7 +8898,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="156" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="9" t="s">
         <v>325</v>
       </c>
@@ -8935,7 +8942,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="157" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="9" t="s">
         <v>325</v>
       </c>
@@ -8979,7 +8986,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="158" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="9" t="s">
         <v>325</v>
       </c>
@@ -9023,7 +9030,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="159" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="9" t="s">
         <v>325</v>
       </c>
@@ -9067,7 +9074,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="160" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:26" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="9" t="s">
         <v>325</v>
       </c>
@@ -9111,7 +9118,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="9" t="s">
         <v>325</v>
       </c>
@@ -9155,7 +9162,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="9" t="s">
         <v>325</v>
       </c>
@@ -9199,7 +9206,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="9" t="s">
         <v>325</v>
       </c>
@@ -9243,7 +9250,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="9" t="s">
         <v>325</v>
       </c>
@@ -9287,7 +9294,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="9" t="s">
         <v>325</v>
       </c>
@@ -9375,7 +9382,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="9" t="s">
         <v>325</v>
       </c>
@@ -9419,7 +9426,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="9" t="s">
         <v>325</v>
       </c>
@@ -9463,7 +9470,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="9" t="s">
         <v>325</v>
       </c>
@@ -9507,7 +9514,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="9" t="s">
         <v>325</v>
       </c>
@@ -9553,7 +9560,7 @@
       <c r="S170" s="11"/>
       <c r="T170" s="11"/>
     </row>
-    <row r="171" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="9" t="s">
         <v>325</v>
       </c>
@@ -9597,7 +9604,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="9" t="s">
         <v>325</v>
       </c>
@@ -9641,7 +9648,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="9" t="s">
         <v>325</v>
       </c>
@@ -9685,7 +9692,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="9" t="s">
         <v>325</v>
       </c>
@@ -9729,7 +9736,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="9" t="s">
         <v>325</v>
       </c>
@@ -9773,7 +9780,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:20" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="9" t="s">
         <v>325</v>
       </c>
@@ -9817,7 +9824,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="9" t="s">
         <v>325</v>
       </c>
@@ -9861,7 +9868,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="9" t="s">
         <v>325</v>
       </c>
@@ -9905,7 +9912,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="9" t="s">
         <v>325</v>
       </c>
@@ -9949,7 +9956,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="9" t="s">
         <v>325</v>
       </c>
@@ -9993,7 +10000,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="9" t="s">
         <v>325</v>
       </c>
@@ -10037,7 +10044,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="9" t="s">
         <v>325</v>
       </c>
@@ -10081,7 +10088,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="9" t="s">
         <v>325</v>
       </c>
@@ -10125,7 +10132,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="9" t="s">
         <v>325</v>
       </c>
@@ -10169,7 +10176,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="9" t="s">
         <v>325</v>
       </c>
@@ -10213,7 +10220,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="9" t="s">
         <v>325</v>
       </c>
@@ -10257,7 +10264,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="9" t="s">
         <v>325</v>
       </c>
@@ -10301,7 +10308,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="9" t="s">
         <v>325</v>
       </c>
@@ -10345,7 +10352,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="9" t="s">
         <v>325</v>
       </c>
@@ -10389,7 +10396,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="9" t="s">
         <v>325</v>
       </c>
@@ -10477,7 +10484,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="9" t="s">
         <v>325</v>
       </c>
@@ -10521,7 +10528,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="193" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:25" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="9" t="s">
         <v>325</v>
       </c>
@@ -10565,7 +10572,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="194" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:25" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="9" t="s">
         <v>325</v>
       </c>
@@ -10609,7 +10616,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="195" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:25" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="9" t="s">
         <v>325</v>
       </c>
@@ -10653,7 +10660,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="196" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:25" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="9" t="s">
         <v>325</v>
       </c>
@@ -10697,7 +10704,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="197" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:25" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="9" t="s">
         <v>325</v>
       </c>
@@ -10741,7 +10748,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="198" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:25" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="9" t="s">
         <v>325</v>
       </c>
@@ -10785,7 +10792,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="199" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:25" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="9" t="s">
         <v>325</v>
       </c>
@@ -10829,7 +10836,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="200" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:25" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="9" t="s">
         <v>325</v>
       </c>
@@ -10874,7 +10881,7 @@
       </c>
       <c r="Y200" s="11"/>
     </row>
-    <row r="201" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:25" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="9" t="s">
         <v>325</v>
       </c>
@@ -10919,7 +10926,7 @@
       </c>
       <c r="U201" s="11"/>
     </row>
-    <row r="202" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:25" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="9" t="s">
         <v>325</v>
       </c>
@@ -10963,7 +10970,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="203" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:25" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="9" t="s">
         <v>325</v>
       </c>
@@ -11007,7 +11014,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="204" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:25" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="9" t="s">
         <v>325</v>
       </c>
@@ -11051,7 +11058,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="205" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:25" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="9" t="s">
         <v>325</v>
       </c>
@@ -11095,7 +11102,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="206" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:25" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="9" t="s">
         <v>325</v>
       </c>
@@ -11139,7 +11146,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="207" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:25" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="9" t="s">
         <v>325</v>
       </c>
@@ -11183,7 +11190,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="208" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:25" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="9" t="s">
         <v>325</v>
       </c>
@@ -11227,7 +11234,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="9" t="s">
         <v>325</v>
       </c>
@@ -11271,7 +11278,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="9" t="s">
         <v>325</v>
       </c>
@@ -11315,7 +11322,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="9" t="s">
         <v>325</v>
       </c>
@@ -11359,7 +11366,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="9" t="s">
         <v>325</v>
       </c>
@@ -11403,7 +11410,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="9" t="s">
         <v>325</v>
       </c>
@@ -11447,7 +11454,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="9" t="s">
         <v>325</v>
       </c>
@@ -11491,7 +11498,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="9" t="s">
         <v>325</v>
       </c>
@@ -11535,7 +11542,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="9" t="s">
         <v>325</v>
       </c>
@@ -11579,7 +11586,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="9" t="s">
         <v>325</v>
       </c>
@@ -11623,7 +11630,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="9" t="s">
         <v>325</v>
       </c>
@@ -11667,7 +11674,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="9" t="s">
         <v>325</v>
       </c>
@@ -11711,7 +11718,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="9" t="s">
         <v>325</v>
       </c>
@@ -11755,7 +11762,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="9" t="s">
         <v>325</v>
       </c>
@@ -11799,7 +11806,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="9" t="s">
         <v>325</v>
       </c>
@@ -11843,7 +11850,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="9" t="s">
         <v>325</v>
       </c>
@@ -11887,7 +11894,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="9" t="s">
         <v>325</v>
       </c>
@@ -11931,7 +11938,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="9" t="s">
         <v>325</v>
       </c>
@@ -11975,7 +11982,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="9" t="s">
         <v>325</v>
       </c>
@@ -12019,7 +12026,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="9" t="s">
         <v>325</v>
       </c>
@@ -12107,7 +12114,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="9" t="s">
         <v>325</v>
       </c>
@@ -12151,7 +12158,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="9" t="s">
         <v>325</v>
       </c>
@@ -12195,7 +12202,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="9" t="s">
         <v>325</v>
       </c>
@@ -12239,7 +12246,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="9" t="s">
         <v>325</v>
       </c>
@@ -12283,7 +12290,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="9" t="s">
         <v>325</v>
       </c>
@@ -12327,7 +12334,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="9" t="s">
         <v>325</v>
       </c>
@@ -12371,7 +12378,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="9" t="s">
         <v>325</v>
       </c>
@@ -12415,7 +12422,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="9" t="s">
         <v>325</v>
       </c>
@@ -12459,7 +12466,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="9" t="s">
         <v>325</v>
       </c>
@@ -12503,7 +12510,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="9" t="s">
         <v>325</v>
       </c>
@@ -12547,7 +12554,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="9" t="s">
         <v>325</v>
       </c>
@@ -12591,7 +12598,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="9" t="s">
         <v>325</v>
       </c>
@@ -12635,7 +12642,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="9" t="s">
         <v>325</v>
       </c>
@@ -12679,7 +12686,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="9" t="s">
         <v>325</v>
       </c>
@@ -12723,7 +12730,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="9" t="s">
         <v>325</v>
       </c>
@@ -12767,7 +12774,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="9" t="s">
         <v>325</v>
       </c>
@@ -12811,7 +12818,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="9" t="s">
         <v>325</v>
       </c>
@@ -12855,7 +12862,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="9" t="s">
         <v>325</v>
       </c>
@@ -12899,7 +12906,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="9" t="s">
         <v>325</v>
       </c>
@@ -12943,7 +12950,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="9" t="s">
         <v>325</v>
       </c>
@@ -12987,7 +12994,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="9" t="s">
         <v>325</v>
       </c>
@@ -13031,7 +13038,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="9" t="s">
         <v>325</v>
       </c>
@@ -13075,7 +13082,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="9" t="s">
         <v>325</v>
       </c>
@@ -13119,7 +13126,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="9" t="s">
         <v>325</v>
       </c>
@@ -13163,7 +13170,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="9" t="s">
         <v>325</v>
       </c>
@@ -13251,7 +13258,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="9" t="s">
         <v>325</v>
       </c>
@@ -13295,7 +13302,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="9" t="s">
         <v>325</v>
       </c>
@@ -13339,7 +13346,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="9" t="s">
         <v>325</v>
       </c>
@@ -13383,7 +13390,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="9" t="s">
         <v>325</v>
       </c>
@@ -13421,7 +13428,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="9" t="s">
         <v>325</v>
       </c>
@@ -13465,7 +13472,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="9" t="s">
         <v>325</v>
       </c>
@@ -13509,7 +13516,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="9" t="s">
         <v>325</v>
       </c>
@@ -13553,7 +13560,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="9" t="s">
         <v>325</v>
       </c>
@@ -13591,7 +13598,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:15" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="9" t="s">
         <v>325</v>
       </c>
@@ -15344,6 +15351,13 @@
       <c r="N563" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z263" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="2-16-0400СТП-00-0500"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -15635,10 +15649,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q1000"/>
+  <dimension ref="A1:Q999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15920,6 +15934,15 @@
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>463</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -15934,13 +15957,13 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -15956,13 +15979,13 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -15978,10 +16001,10 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>463</v>
@@ -16000,13 +16023,13 @@
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -16022,13 +16045,13 @@
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -16044,13 +16067,13 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -16066,13 +16089,13 @@
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -16088,13 +16111,13 @@
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -16110,13 +16133,13 @@
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>478</v>
+        <v>35</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -16132,13 +16155,13 @@
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>35</v>
+        <v>481</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -16157,10 +16180,10 @@
         <v>481</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -16178,11 +16201,8 @@
       <c r="A25" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>484</v>
-      </c>
       <c r="C25" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -16198,10 +16218,13 @@
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>481</v>
+        <v>487</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>488</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -16217,7 +16240,7 @@
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>488</v>
@@ -16239,13 +16262,13 @@
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>490</v>
+        <v>40</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -16261,13 +16284,13 @@
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>40</v>
+        <v>491</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -16283,13 +16306,13 @@
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -16308,10 +16331,10 @@
         <v>492</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -16327,13 +16350,13 @@
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -16349,13 +16372,13 @@
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>497</v>
+        <v>59</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -16369,15 +16392,15 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>59</v>
+        <v>502</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>501</v>
+        <v>493</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>494</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -16393,13 +16416,13 @@
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>502</v>
+        <v>198</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -16415,13 +16438,13 @@
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -16437,13 +16460,13 @@
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>200</v>
+        <v>503</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -16459,13 +16482,13 @@
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>505</v>
+        <v>419</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -16481,13 +16504,13 @@
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>506</v>
+        <v>342</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>419</v>
+        <v>508</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -16503,13 +16526,13 @@
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>342</v>
+        <v>509</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -16524,15 +16547,7 @@
       <c r="Q40" s="5"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>511</v>
-      </c>
+      <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -16603,7 +16618,6 @@
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="J46" s="5"/>
@@ -16617,8 +16631,10 @@
     </row>
     <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
+      <c r="I47"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -16633,7 +16649,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="I48"/>
+      <c r="G48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -16658,7 +16674,7 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
     </row>
-    <row r="50" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -30878,23 +30894,8 @@
       <c r="P997" s="5"/>
       <c r="Q997" s="5"/>
     </row>
-    <row r="998" spans="3:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C998" s="5"/>
-      <c r="D998" s="5"/>
-      <c r="E998" s="5"/>
-      <c r="F998" s="5"/>
-      <c r="G998" s="5"/>
-      <c r="J998" s="5"/>
-      <c r="K998" s="5"/>
-      <c r="L998" s="5"/>
-      <c r="M998" s="5"/>
-      <c r="N998" s="5"/>
-      <c r="O998" s="5"/>
-      <c r="P998" s="5"/>
-      <c r="Q998" s="5"/>
-    </row>
-    <row r="1000" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I1000"/>
+    <row r="999" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I999"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0424FDAC-F1C9-A844-A527-A499826C7C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFAC63B3-B6A0-204E-87EE-991F1A70F475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="513">
   <si>
     <t>Тип изделия:</t>
   </si>
@@ -1569,16 +1569,19 @@
     <t>4*qty</t>
   </si>
   <si>
-    <t>2∗(width+height)/1000∗qty∗(1+n_impost)</t>
-  </si>
-  <si>
-    <t>4*(sash_w+sash_h)/1000*n_sash*qty</t>
-  </si>
-  <si>
     <t>2∗n_sash_passive∗qty</t>
   </si>
   <si>
     <t>2∗(width+height)/1000∗qty∗(1+n_impost+n_sash)</t>
+  </si>
+  <si>
+    <t>2 * (width + height) / 1000 * qty * (1 + n_impost)</t>
+  </si>
+  <si>
+    <t>4 * (sash_w + sash_h) / 1000 * n_sash * qty</t>
+  </si>
+  <si>
+    <t>2 * (width + height) / 1000 * qty * (1 + n_impost + n_sash)</t>
   </si>
 </sst>
 </file>
@@ -2038,7 +2041,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="K183" sqref="K183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2334,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1">
@@ -4402,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="13" customHeight="1">
@@ -9346,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="O165" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="166" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
@@ -9654,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="O172" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="173" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
@@ -9698,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="O173" s="27" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="174" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
@@ -9742,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="O174" s="27" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="175" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
@@ -10535,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="O192" s="27" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="193" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
@@ -10667,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="O195" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="196" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFAC63B3-B6A0-204E-87EE-991F1A70F475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A270D3DA-986E-F54D-9E06-37F84D1AB8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="514">
   <si>
     <t>Тип изделия:</t>
   </si>
@@ -1582,6 +1582,9 @@
   </si>
   <si>
     <t>2 * (width + height) / 1000 * qty * (1 + n_impost + n_sash)</t>
+  </si>
+  <si>
+    <t>(width+100)/1000/6*qty</t>
   </si>
 </sst>
 </file>
@@ -2034,14 +2037,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K183" sqref="K183"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2120,7 +2123,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="27" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" s="27" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A6" s="27" t="s">
         <v>15</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1">
+    <row r="8" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
@@ -2560,7 +2563,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -2648,7 +2651,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
@@ -2692,7 +2695,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2780,7 +2783,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+    <row r="18" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
@@ -2868,7 +2871,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1">
+    <row r="19" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>63</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+    <row r="20" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>63</v>
       </c>
@@ -2956,7 +2959,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>63</v>
       </c>
@@ -3000,7 +3003,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>63</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>63</v>
       </c>
@@ -3088,7 +3091,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>15</v>
       </c>
@@ -3132,7 +3135,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>15</v>
       </c>
@@ -3176,7 +3179,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>15</v>
       </c>
@@ -3220,7 +3223,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
@@ -3264,7 +3267,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>15</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>15</v>
       </c>
@@ -3352,7 +3355,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>15</v>
       </c>
@@ -3396,7 +3399,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>15</v>
       </c>
@@ -3440,7 +3443,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>15</v>
       </c>
@@ -3484,7 +3487,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>15</v>
       </c>
@@ -3528,7 +3531,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>15</v>
       </c>
@@ -3572,7 +3575,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>15</v>
       </c>
@@ -3660,7 +3663,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>63</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>63</v>
       </c>
@@ -3748,7 +3751,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A39" s="9" t="s">
         <v>63</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>63</v>
       </c>
@@ -3836,7 +3839,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1">
+    <row r="41" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>63</v>
       </c>
@@ -3880,7 +3883,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1">
+    <row r="42" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>63</v>
       </c>
@@ -3924,7 +3927,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1">
+    <row r="43" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>63</v>
       </c>
@@ -3968,7 +3971,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1">
+    <row r="44" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>63</v>
       </c>
@@ -4012,7 +4015,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1">
+    <row r="45" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>63</v>
       </c>
@@ -4056,7 +4059,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1">
+    <row r="46" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>63</v>
       </c>
@@ -4100,7 +4103,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1">
+    <row r="47" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>63</v>
       </c>
@@ -4144,7 +4147,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1">
+    <row r="48" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>63</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1">
+    <row r="49" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>63</v>
       </c>
@@ -4232,7 +4235,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1">
+    <row r="50" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>63</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13" customHeight="1">
+    <row r="51" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>63</v>
       </c>
@@ -4320,7 +4323,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13" customHeight="1">
+    <row r="52" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A52" s="9" t="s">
         <v>63</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="53" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A53" s="27" t="s">
         <v>63</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13" customHeight="1">
+    <row r="54" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A54" s="9" t="s">
         <v>63</v>
       </c>
@@ -4452,7 +4455,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13" customHeight="1">
+    <row r="55" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>63</v>
       </c>
@@ -4496,7 +4499,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13" customHeight="1">
+    <row r="56" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A56" s="9" t="s">
         <v>63</v>
       </c>
@@ -4540,7 +4543,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13" customHeight="1">
+    <row r="57" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A57" s="9" t="s">
         <v>63</v>
       </c>
@@ -4584,7 +4587,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13" customHeight="1">
+    <row r="58" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A58" s="9" t="s">
         <v>63</v>
       </c>
@@ -4628,7 +4631,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13" customHeight="1">
+    <row r="59" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A59" s="9" t="s">
         <v>63</v>
       </c>
@@ -4672,7 +4675,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13" customHeight="1">
+    <row r="60" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A60" s="9" t="s">
         <v>63</v>
       </c>
@@ -4716,7 +4719,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13" customHeight="1">
+    <row r="61" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A61" s="9" t="s">
         <v>63</v>
       </c>
@@ -4760,7 +4763,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13" customHeight="1">
+    <row r="62" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A62" s="9" t="s">
         <v>63</v>
       </c>
@@ -4804,7 +4807,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" customHeight="1">
+    <row r="63" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A63" s="9" t="s">
         <v>63</v>
       </c>
@@ -4848,7 +4851,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="13" customHeight="1">
+    <row r="64" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A64" s="9" t="s">
         <v>63</v>
       </c>
@@ -4892,7 +4895,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13" customHeight="1">
+    <row r="65" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A65" s="9" t="s">
         <v>63</v>
       </c>
@@ -4936,7 +4939,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="13" customHeight="1">
+    <row r="66" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A66" s="9" t="s">
         <v>63</v>
       </c>
@@ -4980,7 +4983,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="13" customHeight="1">
+    <row r="67" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A67" s="9" t="s">
         <v>63</v>
       </c>
@@ -5024,7 +5027,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13" customHeight="1">
+    <row r="68" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A68" s="9" t="s">
         <v>63</v>
       </c>
@@ -5068,7 +5071,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="13" customHeight="1">
+    <row r="69" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A69" s="9" t="s">
         <v>63</v>
       </c>
@@ -5112,7 +5115,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13" customHeight="1">
+    <row r="70" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A70" s="9" t="s">
         <v>63</v>
       </c>
@@ -5156,7 +5159,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13" customHeight="1">
+    <row r="71" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A71" s="9" t="s">
         <v>63</v>
       </c>
@@ -5200,7 +5203,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13" customHeight="1">
+    <row r="72" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A72" s="9" t="s">
         <v>63</v>
       </c>
@@ -5244,7 +5247,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13" customHeight="1">
+    <row r="73" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A73" s="9" t="s">
         <v>63</v>
       </c>
@@ -5288,7 +5291,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13" customHeight="1">
+    <row r="74" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A74" s="9" t="s">
         <v>63</v>
       </c>
@@ -5332,7 +5335,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13" customHeight="1">
+    <row r="75" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A75" s="9" t="s">
         <v>63</v>
       </c>
@@ -5376,7 +5379,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="13" customHeight="1">
+    <row r="76" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A76" s="9" t="s">
         <v>63</v>
       </c>
@@ -5420,7 +5423,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="13" customHeight="1">
+    <row r="77" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A77" s="9" t="s">
         <v>63</v>
       </c>
@@ -5464,7 +5467,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="13" customHeight="1">
+    <row r="78" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A78" s="9" t="s">
         <v>63</v>
       </c>
@@ -5508,7 +5511,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="13" customHeight="1">
+    <row r="79" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A79" s="9" t="s">
         <v>63</v>
       </c>
@@ -5552,7 +5555,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="13" customHeight="1">
+    <row r="80" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A80" s="9" t="s">
         <v>63</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="13" customHeight="1">
+    <row r="81" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A81" s="9" t="s">
         <v>63</v>
       </c>
@@ -5640,7 +5643,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="13" customHeight="1">
+    <row r="82" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A82" s="9" t="s">
         <v>63</v>
       </c>
@@ -5684,7 +5687,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="13" customHeight="1">
+    <row r="83" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A83" s="9" t="s">
         <v>63</v>
       </c>
@@ -5728,7 +5731,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="13" customHeight="1">
+    <row r="84" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A84" s="9" t="s">
         <v>63</v>
       </c>
@@ -5772,7 +5775,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="13" customHeight="1">
+    <row r="85" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A85" s="9" t="s">
         <v>63</v>
       </c>
@@ -5816,7 +5819,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="13" customHeight="1">
+    <row r="86" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A86" s="9" t="s">
         <v>63</v>
       </c>
@@ -5860,7 +5863,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="13" customHeight="1">
+    <row r="87" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A87" s="9" t="s">
         <v>63</v>
       </c>
@@ -5904,7 +5907,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="13" customHeight="1">
+    <row r="88" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A88" s="9" t="s">
         <v>63</v>
       </c>
@@ -5948,7 +5951,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="13" customHeight="1">
+    <row r="89" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A89" s="9" t="s">
         <v>63</v>
       </c>
@@ -5992,7 +5995,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="13" customHeight="1">
+    <row r="90" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A90" s="9" t="s">
         <v>63</v>
       </c>
@@ -6036,7 +6039,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="13" customHeight="1">
+    <row r="91" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A91" s="9" t="s">
         <v>63</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="13" customHeight="1">
+    <row r="92" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A92" s="9" t="s">
         <v>63</v>
       </c>
@@ -6124,7 +6127,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="13" customHeight="1">
+    <row r="93" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A93" s="9" t="s">
         <v>63</v>
       </c>
@@ -6168,7 +6171,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="13" customHeight="1">
+    <row r="94" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A94" s="9" t="s">
         <v>63</v>
       </c>
@@ -6212,7 +6215,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="13" customHeight="1">
+    <row r="95" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A95" s="9" t="s">
         <v>63</v>
       </c>
@@ -6256,7 +6259,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="13" customHeight="1">
+    <row r="96" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A96" s="9" t="s">
         <v>63</v>
       </c>
@@ -6300,7 +6303,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="13" customHeight="1">
+    <row r="97" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A97" s="9" t="s">
         <v>63</v>
       </c>
@@ -6344,7 +6347,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="13" customHeight="1">
+    <row r="98" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A98" s="9" t="s">
         <v>63</v>
       </c>
@@ -6388,7 +6391,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="13" customHeight="1">
+    <row r="99" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A99" s="9" t="s">
         <v>63</v>
       </c>
@@ -6432,7 +6435,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="13" customHeight="1">
+    <row r="100" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A100" s="9" t="s">
         <v>63</v>
       </c>
@@ -6476,7 +6479,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="13" customHeight="1">
+    <row r="101" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A101" s="9" t="s">
         <v>63</v>
       </c>
@@ -6520,7 +6523,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="13" customHeight="1">
+    <row r="102" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A102" s="9" t="s">
         <v>63</v>
       </c>
@@ -6564,7 +6567,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="13" customHeight="1">
+    <row r="103" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A103" s="9" t="s">
         <v>63</v>
       </c>
@@ -6608,7 +6611,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="13" customHeight="1">
+    <row r="104" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A104" s="9" t="s">
         <v>63</v>
       </c>
@@ -6652,7 +6655,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="13" customHeight="1">
+    <row r="105" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A105" s="9" t="s">
         <v>63</v>
       </c>
@@ -6696,7 +6699,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="13" customHeight="1">
+    <row r="106" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A106" s="9" t="s">
         <v>63</v>
       </c>
@@ -6740,7 +6743,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="13" customHeight="1">
+    <row r="107" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A107" s="9" t="s">
         <v>63</v>
       </c>
@@ -6784,7 +6787,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="13" customHeight="1">
+    <row r="108" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A108" s="9" t="s">
         <v>63</v>
       </c>
@@ -6828,7 +6831,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="13" customHeight="1">
+    <row r="109" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A109" s="9" t="s">
         <v>63</v>
       </c>
@@ -6872,7 +6875,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="13" customHeight="1">
+    <row r="110" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A110" s="9" t="s">
         <v>63</v>
       </c>
@@ -6916,7 +6919,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="13" customHeight="1">
+    <row r="111" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A111" s="9" t="s">
         <v>63</v>
       </c>
@@ -6960,7 +6963,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="13" customHeight="1">
+    <row r="112" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A112" s="9" t="s">
         <v>63</v>
       </c>
@@ -7004,7 +7007,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="13" customHeight="1">
+    <row r="113" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A113" s="9" t="s">
         <v>63</v>
       </c>
@@ -7048,7 +7051,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="13" customHeight="1">
+    <row r="114" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A114" s="9" t="s">
         <v>63</v>
       </c>
@@ -7092,7 +7095,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="13" customHeight="1">
+    <row r="115" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A115" s="9" t="s">
         <v>63</v>
       </c>
@@ -7136,7 +7139,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="13" customHeight="1">
+    <row r="116" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A116" s="9" t="s">
         <v>63</v>
       </c>
@@ -7180,7 +7183,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="13" customHeight="1">
+    <row r="117" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A117" s="9" t="s">
         <v>63</v>
       </c>
@@ -7224,7 +7227,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="13" customHeight="1">
+    <row r="118" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A118" s="9" t="s">
         <v>63</v>
       </c>
@@ -7268,7 +7271,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="13" customHeight="1">
+    <row r="119" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A119" s="9" t="s">
         <v>63</v>
       </c>
@@ -7312,7 +7315,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="13" customHeight="1">
+    <row r="120" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A120" s="9" t="s">
         <v>63</v>
       </c>
@@ -7356,7 +7359,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="13" customHeight="1">
+    <row r="121" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A121" s="9" t="s">
         <v>63</v>
       </c>
@@ -7400,7 +7403,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="13" customHeight="1">
+    <row r="122" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A122" s="9" t="s">
         <v>63</v>
       </c>
@@ -7444,7 +7447,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="13" customHeight="1">
+    <row r="123" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A123" s="9" t="s">
         <v>63</v>
       </c>
@@ -7488,7 +7491,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="13" customHeight="1">
+    <row r="124" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A124" s="9" t="s">
         <v>63</v>
       </c>
@@ -7532,7 +7535,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="13" customHeight="1">
+    <row r="125" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A125" s="9" t="s">
         <v>15</v>
       </c>
@@ -7576,7 +7579,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="13" customHeight="1">
+    <row r="126" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A126" s="9" t="s">
         <v>15</v>
       </c>
@@ -7620,7 +7623,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="13" customHeight="1">
+    <row r="127" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A127" s="9" t="s">
         <v>15</v>
       </c>
@@ -7664,7 +7667,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="13" customHeight="1">
+    <row r="128" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A128" s="9" t="s">
         <v>15</v>
       </c>
@@ -7708,7 +7711,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="129" spans="1:26" ht="13" customHeight="1">
+    <row r="129" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A129" s="9" t="s">
         <v>324</v>
       </c>
@@ -7752,7 +7755,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="130" spans="1:26" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="130" spans="1:26" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A130" s="27" t="s">
         <v>324</v>
       </c>
@@ -7796,7 +7799,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="131" spans="1:26" ht="13" customHeight="1">
+    <row r="131" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A131" s="9" t="s">
         <v>324</v>
       </c>
@@ -7840,7 +7843,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="132" spans="1:26" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="132" spans="1:26" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A132" s="27" t="s">
         <v>324</v>
       </c>
@@ -7884,7 +7887,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="133" spans="1:26" ht="13" customHeight="1">
+    <row r="133" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A133" s="9" t="s">
         <v>324</v>
       </c>
@@ -7928,7 +7931,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="134" spans="1:26" ht="13" customHeight="1">
+    <row r="134" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A134" s="9" t="s">
         <v>324</v>
       </c>
@@ -7977,7 +7980,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="135" spans="1:26" s="25" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A135" s="9" t="s">
         <v>324</v>
       </c>
@@ -8032,7 +8035,7 @@
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
     </row>
-    <row r="136" spans="1:26" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="136" spans="1:26" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A136" s="27" t="s">
         <v>324</v>
       </c>
@@ -8076,7 +8079,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="137" spans="1:26" ht="13" customHeight="1">
+    <row r="137" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A137" s="9" t="s">
         <v>324</v>
       </c>
@@ -8120,7 +8123,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="138" spans="1:26" ht="13" customHeight="1">
+    <row r="138" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A138" s="9" t="s">
         <v>324</v>
       </c>
@@ -8164,7 +8167,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="139" spans="1:26" ht="13" customHeight="1">
+    <row r="139" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A139" s="9" t="s">
         <v>324</v>
       </c>
@@ -8208,7 +8211,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="140" spans="1:26" ht="13" customHeight="1">
+    <row r="140" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A140" s="9" t="s">
         <v>324</v>
       </c>
@@ -8252,7 +8255,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="141" spans="1:26" ht="13" customHeight="1">
+    <row r="141" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A141" s="9" t="s">
         <v>324</v>
       </c>
@@ -8296,7 +8299,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="142" spans="1:26" ht="13" customHeight="1">
+    <row r="142" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A142" s="9" t="s">
         <v>324</v>
       </c>
@@ -8340,7 +8343,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="143" spans="1:26" ht="13" customHeight="1">
+    <row r="143" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A143" s="9" t="s">
         <v>324</v>
       </c>
@@ -8384,7 +8387,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="144" spans="1:26" ht="13" customHeight="1">
+    <row r="144" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A144" s="9" t="s">
         <v>324</v>
       </c>
@@ -8428,7 +8431,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="13" customHeight="1">
+    <row r="145" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A145" s="9" t="s">
         <v>324</v>
       </c>
@@ -8472,7 +8475,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="13" customHeight="1">
+    <row r="146" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A146" s="9" t="s">
         <v>324</v>
       </c>
@@ -8516,7 +8519,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="13" customHeight="1">
+    <row r="147" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A147" s="9" t="s">
         <v>324</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="13" customHeight="1">
+    <row r="148" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A148" s="9" t="s">
         <v>324</v>
       </c>
@@ -8604,7 +8607,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="13" customHeight="1">
+    <row r="149" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A149" s="9" t="s">
         <v>324</v>
       </c>
@@ -8648,7 +8651,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="13" customHeight="1">
+    <row r="150" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A150" s="9" t="s">
         <v>324</v>
       </c>
@@ -8692,7 +8695,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="13" customHeight="1">
+    <row r="151" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A151" s="9" t="s">
         <v>324</v>
       </c>
@@ -8736,7 +8739,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="152" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="152" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A152" s="27" t="s">
         <v>324</v>
       </c>
@@ -8780,7 +8783,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="13" customHeight="1">
+    <row r="153" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A153" s="9" t="s">
         <v>324</v>
       </c>
@@ -8824,7 +8827,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="13" customHeight="1">
+    <row r="154" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A154" s="9" t="s">
         <v>324</v>
       </c>
@@ -8868,7 +8871,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="155" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="155" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A155" s="27" t="s">
         <v>324</v>
       </c>
@@ -8912,7 +8915,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="13" customHeight="1">
+    <row r="156" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A156" s="9" t="s">
         <v>324</v>
       </c>
@@ -8956,7 +8959,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="157" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="157" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A157" s="27" t="s">
         <v>324</v>
       </c>
@@ -9000,7 +9003,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="158" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="158" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A158" s="27" t="s">
         <v>324</v>
       </c>
@@ -9044,7 +9047,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="159" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="159" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A159" s="27" t="s">
         <v>324</v>
       </c>
@@ -9129,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="O160" s="27" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A161" s="27" t="s">
         <v>324</v>
       </c>
@@ -9176,7 +9179,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="162" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="162" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A162" s="27" t="s">
         <v>324</v>
       </c>
@@ -9220,7 +9223,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="163" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="163" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A163" s="27" t="s">
         <v>324</v>
       </c>
@@ -9264,7 +9267,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="164" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="164" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A164" s="27" t="s">
         <v>324</v>
       </c>
@@ -9308,7 +9311,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="165" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="165" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A165" s="27" t="s">
         <v>324</v>
       </c>
@@ -9352,7 +9355,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="166" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="166" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A166" s="27" t="s">
         <v>324</v>
       </c>
@@ -9396,7 +9399,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="167" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="167" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A167" s="27" t="s">
         <v>324</v>
       </c>
@@ -9440,7 +9443,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="168" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="168" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A168" s="27" t="s">
         <v>324</v>
       </c>
@@ -9484,7 +9487,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="169" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="169" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A169" s="27" t="s">
         <v>324</v>
       </c>
@@ -9528,7 +9531,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="170" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="170" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A170" s="27" t="s">
         <v>324</v>
       </c>
@@ -9572,7 +9575,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="171" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="171" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A171" s="27" t="s">
         <v>324</v>
       </c>
@@ -9616,7 +9619,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="172" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="172" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A172" s="27" t="s">
         <v>324</v>
       </c>
@@ -9660,7 +9663,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="173" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="173" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A173" s="27" t="s">
         <v>324</v>
       </c>
@@ -9704,7 +9707,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="174" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="174" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A174" s="27" t="s">
         <v>324</v>
       </c>
@@ -9748,7 +9751,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="175" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="175" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A175" s="27" t="s">
         <v>324</v>
       </c>
@@ -9792,7 +9795,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="176" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="176" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A176" s="27" t="s">
         <v>324</v>
       </c>
@@ -9836,7 +9839,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="177" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="177" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A177" s="27" t="s">
         <v>324</v>
       </c>
@@ -9880,7 +9883,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="178" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="178" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A178" s="27" t="s">
         <v>324</v>
       </c>
@@ -9924,7 +9927,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="179" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="179" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A179" s="27" t="s">
         <v>324</v>
       </c>
@@ -9968,7 +9971,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="180" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="180" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A180" s="27" t="s">
         <v>324</v>
       </c>
@@ -10012,7 +10015,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="181" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="181" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A181" s="27" t="s">
         <v>324</v>
       </c>
@@ -10056,7 +10059,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="182" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="182" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A182" s="27" t="s">
         <v>324</v>
       </c>
@@ -10100,7 +10103,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="183" spans="1:21" ht="13" customHeight="1">
+    <row r="183" spans="1:21" ht="13" hidden="1" customHeight="1">
       <c r="A183" s="9" t="s">
         <v>324</v>
       </c>
@@ -10144,7 +10147,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="184" spans="1:21" ht="13" customHeight="1">
+    <row r="184" spans="1:21" ht="13" hidden="1" customHeight="1">
       <c r="A184" s="9" t="s">
         <v>324</v>
       </c>
@@ -10188,7 +10191,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="185" spans="1:21" ht="13" customHeight="1">
+    <row r="185" spans="1:21" ht="13" hidden="1" customHeight="1">
       <c r="A185" s="9" t="s">
         <v>324</v>
       </c>
@@ -10232,7 +10235,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="186" spans="1:21" ht="13" customHeight="1">
+    <row r="186" spans="1:21" ht="13" hidden="1" customHeight="1">
       <c r="A186" s="9" t="s">
         <v>324</v>
       </c>
@@ -10277,7 +10280,7 @@
       </c>
       <c r="U186" s="11"/>
     </row>
-    <row r="187" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="187" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A187" s="27" t="s">
         <v>324</v>
       </c>
@@ -10321,7 +10324,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="188" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="188" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A188" s="27" t="s">
         <v>324</v>
       </c>
@@ -10365,7 +10368,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="189" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="189" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A189" s="27" t="s">
         <v>324</v>
       </c>
@@ -10409,7 +10412,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="190" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="190" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A190" s="27" t="s">
         <v>324</v>
       </c>
@@ -10453,7 +10456,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="191" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="191" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A191" s="27" t="s">
         <v>324</v>
       </c>
@@ -10497,7 +10500,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="192" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="192" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A192" s="27" t="s">
         <v>324</v>
       </c>
@@ -10541,7 +10544,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="193" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="193" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A193" s="27" t="s">
         <v>324</v>
       </c>
@@ -10585,7 +10588,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="194" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="194" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A194" s="27" t="s">
         <v>324</v>
       </c>
@@ -10629,7 +10632,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="195" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="195" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A195" s="27" t="s">
         <v>324</v>
       </c>
@@ -10673,7 +10676,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="196" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="196" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A196" s="27" t="s">
         <v>324</v>
       </c>
@@ -10717,7 +10720,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="197" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="197" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A197" s="27" t="s">
         <v>324</v>
       </c>
@@ -12560,6 +12563,13 @@
       <c r="N502" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z197" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="45 Профиль порога компланарной двери NEW"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A270D3DA-986E-F54D-9E06-37F84D1AB8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E60010-A29F-5141-BC66-364E2C9DBCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="515">
   <si>
     <t>Тип изделия:</t>
   </si>
@@ -1563,9 +1563,6 @@
     <t>4*(1+n_sash)*qty</t>
   </si>
   <si>
-    <t>n_imp_hor∗1∗qty</t>
-  </si>
-  <si>
     <t>4*qty</t>
   </si>
   <si>
@@ -1585,6 +1582,12 @@
   </si>
   <si>
     <t>(width+100)/1000/6*qty</t>
+  </si>
+  <si>
+    <t>(2∗(width+height)+4∗(sash_w+sash_h)∗n_sash)/1000∗qty</t>
+  </si>
+  <si>
+    <t>1*n_sash_active*is_door*qty</t>
   </si>
 </sst>
 </file>
@@ -2043,8 +2046,8 @@
   <dimension ref="A1:Z502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C206" sqref="C206"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O202" sqref="O202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2340,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" hidden="1" customHeight="1">
@@ -3619,7 +3622,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>63</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="13" hidden="1" customHeight="1">
@@ -6831,7 +6834,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="109" spans="1:15" ht="13" customHeight="1">
       <c r="A109" s="9" t="s">
         <v>63</v>
       </c>
@@ -6872,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="9" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="13" hidden="1" customHeight="1">
@@ -9091,7 +9094,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="160" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="160" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A160" s="27" t="s">
         <v>324</v>
       </c>
@@ -9132,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="O160" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="161" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
@@ -9352,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="O165" s="27" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="166" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
@@ -9399,7 +9402,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="167" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="167" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A167" s="27" t="s">
         <v>324</v>
       </c>
@@ -9443,7 +9446,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="168" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="168" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A168" s="27" t="s">
         <v>324</v>
       </c>
@@ -9483,8 +9486,8 @@
       <c r="N168" s="27">
         <v>0</v>
       </c>
-      <c r="O168" s="27" t="s">
-        <v>506</v>
+      <c r="O168" s="9" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="169" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
@@ -9528,7 +9531,7 @@
         <v>0</v>
       </c>
       <c r="O169" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="170" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
@@ -9660,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="O172" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="173" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
@@ -9704,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="O173" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="174" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
@@ -9748,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="O174" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="175" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
@@ -10541,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="O192" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="193" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
@@ -10673,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="O195" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="196" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
@@ -12566,7 +12569,8 @@
   <autoFilter ref="A1:Z197" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="45 Профиль порога компланарной двери NEW"/>
+        <filter val="Соединитель импоста 35 мм (2160.2163)"/>
+        <filter val="Сухарь 32,5 мм (2115) новый дизайн"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E60010-A29F-5141-BC66-364E2C9DBCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25652965-D4F6-8746-A09E-16381BB306A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="Итоговый расчет с монтажом" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'СПРАВОЧНИК -1'!$A$1:$Z$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'СПРАВОЧНИК -1'!$A$1:$Z$196</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'СПРАВОЧНИК -3'!$A$1:$D$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="514">
   <si>
     <t>Тип изделия:</t>
   </si>
@@ -1557,9 +1557,6 @@
     <t>(2∗n_impost+4)∗qty</t>
   </si>
   <si>
-    <t>(4+2*n_impost)*qty</t>
-  </si>
-  <si>
     <t>4*(1+n_sash)*qty</t>
   </si>
   <si>
@@ -1572,15 +1569,6 @@
     <t>2∗(width+height)/1000∗qty∗(1+n_impost+n_sash)</t>
   </si>
   <si>
-    <t>2 * (width + height) / 1000 * qty * (1 + n_impost)</t>
-  </si>
-  <si>
-    <t>4 * (sash_w + sash_h) / 1000 * n_sash * qty</t>
-  </si>
-  <si>
-    <t>2 * (width + height) / 1000 * qty * (1 + n_impost + n_sash)</t>
-  </si>
-  <si>
     <t>(width+100)/1000/6*qty</t>
   </si>
   <si>
@@ -1588,6 +1576,15 @@
   </si>
   <si>
     <t>1*n_sash_active*is_door*qty</t>
+  </si>
+  <si>
+    <t>2∗n_sash_active∗is_door∗qty</t>
+  </si>
+  <si>
+    <t>(4∗n_impost+4)∗qty</t>
+  </si>
+  <si>
+    <t>3∗(sash_w+sash_h)/1000∗n_sash∗qty</t>
   </si>
 </sst>
 </file>
@@ -2040,14 +2037,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z502"/>
+  <dimension ref="A1:Z501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O202" sqref="O202"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J207" sqref="J207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2126,7 +2123,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" hidden="1" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -2170,7 +2167,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" hidden="1" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -2214,7 +2211,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" hidden="1" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -2258,7 +2255,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" hidden="1" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -2302,7 +2299,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="27" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="6" spans="1:24" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="27" t="s">
         <v>15</v>
       </c>
@@ -2343,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" hidden="1" customHeight="1">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
@@ -2390,7 +2387,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" hidden="1" customHeight="1">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -2434,7 +2431,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" hidden="1" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
@@ -2478,7 +2475,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" hidden="1" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -2522,7 +2519,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" hidden="1" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
@@ -2566,7 +2563,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" hidden="1" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
@@ -2610,7 +2607,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" hidden="1" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -2654,7 +2651,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" hidden="1" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
@@ -2698,7 +2695,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" hidden="1" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -2742,7 +2739,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" hidden="1" customHeight="1">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2786,7 +2783,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -2830,7 +2827,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
@@ -2874,7 +2871,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>63</v>
       </c>
@@ -2918,7 +2915,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>63</v>
       </c>
@@ -2962,7 +2959,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>63</v>
       </c>
@@ -3006,7 +3003,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>63</v>
       </c>
@@ -3050,7 +3047,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>63</v>
       </c>
@@ -3094,7 +3091,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>15</v>
       </c>
@@ -3138,7 +3135,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>15</v>
       </c>
@@ -3182,7 +3179,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>15</v>
       </c>
@@ -3226,7 +3223,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
@@ -3270,7 +3267,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>15</v>
       </c>
@@ -3314,7 +3311,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>15</v>
       </c>
@@ -3358,7 +3355,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>15</v>
       </c>
@@ -3402,7 +3399,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>15</v>
       </c>
@@ -3446,7 +3443,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>15</v>
       </c>
@@ -3490,7 +3487,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>15</v>
       </c>
@@ -3534,7 +3531,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>15</v>
       </c>
@@ -3578,7 +3575,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>15</v>
       </c>
@@ -3622,7 +3619,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>63</v>
       </c>
@@ -3666,7 +3663,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>63</v>
       </c>
@@ -3710,7 +3707,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>63</v>
       </c>
@@ -3754,7 +3751,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="A39" s="9" t="s">
         <v>63</v>
       </c>
@@ -3798,7 +3795,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>63</v>
       </c>
@@ -3842,7 +3839,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>63</v>
       </c>
@@ -3886,7 +3883,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>63</v>
       </c>
@@ -3930,7 +3927,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="43" spans="1:15" ht="15.75" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>63</v>
       </c>
@@ -3974,7 +3971,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="44" spans="1:15" ht="15.75" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>63</v>
       </c>
@@ -4018,7 +4015,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="45" spans="1:15" ht="15.75" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>63</v>
       </c>
@@ -4062,7 +4059,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="46" spans="1:15" ht="15.75" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>63</v>
       </c>
@@ -4106,7 +4103,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="47" spans="1:15" ht="15.75" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>63</v>
       </c>
@@ -4150,7 +4147,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="48" spans="1:15" ht="15.75" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>63</v>
       </c>
@@ -4194,7 +4191,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="49" spans="1:15" ht="15.75" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>63</v>
       </c>
@@ -4238,7 +4235,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="50" spans="1:15" ht="15.75" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>63</v>
       </c>
@@ -4282,7 +4279,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="51" spans="1:15" ht="13" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>63</v>
       </c>
@@ -4326,7 +4323,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="52" spans="1:15" ht="13" customHeight="1">
       <c r="A52" s="9" t="s">
         <v>63</v>
       </c>
@@ -4370,7 +4367,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="53" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A53" s="27" t="s">
         <v>63</v>
       </c>
@@ -4411,10 +4408,10 @@
         <v>0</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="13" hidden="1" customHeight="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="13" customHeight="1">
       <c r="A54" s="9" t="s">
         <v>63</v>
       </c>
@@ -4458,7 +4455,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="55" spans="1:15" ht="13" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>63</v>
       </c>
@@ -4502,7 +4499,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="56" spans="1:15" ht="13" customHeight="1">
       <c r="A56" s="9" t="s">
         <v>63</v>
       </c>
@@ -4546,7 +4543,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="57" spans="1:15" ht="13" customHeight="1">
       <c r="A57" s="9" t="s">
         <v>63</v>
       </c>
@@ -4590,7 +4587,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="58" spans="1:15" ht="13" customHeight="1">
       <c r="A58" s="9" t="s">
         <v>63</v>
       </c>
@@ -4634,7 +4631,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="59" spans="1:15" ht="13" customHeight="1">
       <c r="A59" s="9" t="s">
         <v>63</v>
       </c>
@@ -4678,7 +4675,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="60" spans="1:15" ht="13" customHeight="1">
       <c r="A60" s="9" t="s">
         <v>63</v>
       </c>
@@ -4722,7 +4719,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="61" spans="1:15" ht="13" customHeight="1">
       <c r="A61" s="9" t="s">
         <v>63</v>
       </c>
@@ -4766,7 +4763,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="62" spans="1:15" ht="13" customHeight="1">
       <c r="A62" s="9" t="s">
         <v>63</v>
       </c>
@@ -4810,7 +4807,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="63" spans="1:15" ht="13" customHeight="1">
       <c r="A63" s="9" t="s">
         <v>63</v>
       </c>
@@ -4854,7 +4851,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="64" spans="1:15" ht="13" customHeight="1">
       <c r="A64" s="9" t="s">
         <v>63</v>
       </c>
@@ -4898,7 +4895,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="65" spans="1:15" ht="13" customHeight="1">
       <c r="A65" s="9" t="s">
         <v>63</v>
       </c>
@@ -4942,7 +4939,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="66" spans="1:15" ht="13" customHeight="1">
       <c r="A66" s="9" t="s">
         <v>63</v>
       </c>
@@ -4986,7 +4983,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="67" spans="1:15" ht="13" customHeight="1">
       <c r="A67" s="9" t="s">
         <v>63</v>
       </c>
@@ -5030,7 +5027,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="68" spans="1:15" ht="13" customHeight="1">
       <c r="A68" s="9" t="s">
         <v>63</v>
       </c>
@@ -5074,7 +5071,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="69" spans="1:15" ht="13" customHeight="1">
       <c r="A69" s="9" t="s">
         <v>63</v>
       </c>
@@ -5118,7 +5115,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="70" spans="1:15" ht="13" customHeight="1">
       <c r="A70" s="9" t="s">
         <v>63</v>
       </c>
@@ -5162,7 +5159,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="71" spans="1:15" ht="13" customHeight="1">
       <c r="A71" s="9" t="s">
         <v>63</v>
       </c>
@@ -5206,7 +5203,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="72" spans="1:15" ht="13" customHeight="1">
       <c r="A72" s="9" t="s">
         <v>63</v>
       </c>
@@ -5250,7 +5247,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="73" spans="1:15" ht="13" customHeight="1">
       <c r="A73" s="9" t="s">
         <v>63</v>
       </c>
@@ -5294,7 +5291,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="74" spans="1:15" ht="13" customHeight="1">
       <c r="A74" s="9" t="s">
         <v>63</v>
       </c>
@@ -5338,7 +5335,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="75" spans="1:15" ht="13" customHeight="1">
       <c r="A75" s="9" t="s">
         <v>63</v>
       </c>
@@ -5382,7 +5379,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="76" spans="1:15" ht="13" customHeight="1">
       <c r="A76" s="9" t="s">
         <v>63</v>
       </c>
@@ -5426,7 +5423,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="77" spans="1:15" ht="13" customHeight="1">
       <c r="A77" s="9" t="s">
         <v>63</v>
       </c>
@@ -5470,7 +5467,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="78" spans="1:15" ht="13" customHeight="1">
       <c r="A78" s="9" t="s">
         <v>63</v>
       </c>
@@ -5514,7 +5511,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="79" spans="1:15" ht="13" customHeight="1">
       <c r="A79" s="9" t="s">
         <v>63</v>
       </c>
@@ -5558,7 +5555,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="80" spans="1:15" ht="13" customHeight="1">
       <c r="A80" s="9" t="s">
         <v>63</v>
       </c>
@@ -5602,7 +5599,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="81" spans="1:15" ht="13" customHeight="1">
       <c r="A81" s="9" t="s">
         <v>63</v>
       </c>
@@ -5646,7 +5643,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="82" spans="1:15" ht="13" customHeight="1">
       <c r="A82" s="9" t="s">
         <v>63</v>
       </c>
@@ -5690,7 +5687,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="83" spans="1:15" ht="13" customHeight="1">
       <c r="A83" s="9" t="s">
         <v>63</v>
       </c>
@@ -5734,7 +5731,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="84" spans="1:15" ht="13" customHeight="1">
       <c r="A84" s="9" t="s">
         <v>63</v>
       </c>
@@ -5778,7 +5775,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="85" spans="1:15" ht="13" customHeight="1">
       <c r="A85" s="9" t="s">
         <v>63</v>
       </c>
@@ -5822,7 +5819,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="86" spans="1:15" ht="13" customHeight="1">
       <c r="A86" s="9" t="s">
         <v>63</v>
       </c>
@@ -5866,7 +5863,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="87" spans="1:15" ht="13" customHeight="1">
       <c r="A87" s="9" t="s">
         <v>63</v>
       </c>
@@ -5910,7 +5907,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="88" spans="1:15" ht="13" customHeight="1">
       <c r="A88" s="9" t="s">
         <v>63</v>
       </c>
@@ -5954,7 +5951,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="89" spans="1:15" ht="13" customHeight="1">
       <c r="A89" s="9" t="s">
         <v>63</v>
       </c>
@@ -5998,7 +5995,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="90" spans="1:15" ht="13" customHeight="1">
       <c r="A90" s="9" t="s">
         <v>63</v>
       </c>
@@ -6042,7 +6039,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="91" spans="1:15" ht="13" customHeight="1">
       <c r="A91" s="9" t="s">
         <v>63</v>
       </c>
@@ -6086,7 +6083,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="92" spans="1:15" ht="13" customHeight="1">
       <c r="A92" s="9" t="s">
         <v>63</v>
       </c>
@@ -6130,7 +6127,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="93" spans="1:15" ht="13" customHeight="1">
       <c r="A93" s="9" t="s">
         <v>63</v>
       </c>
@@ -6174,7 +6171,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="94" spans="1:15" ht="13" customHeight="1">
       <c r="A94" s="9" t="s">
         <v>63</v>
       </c>
@@ -6218,7 +6215,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="95" spans="1:15" ht="13" customHeight="1">
       <c r="A95" s="9" t="s">
         <v>63</v>
       </c>
@@ -6262,7 +6259,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="96" spans="1:15" ht="13" customHeight="1">
       <c r="A96" s="9" t="s">
         <v>63</v>
       </c>
@@ -6306,7 +6303,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="97" spans="1:15" ht="13" customHeight="1">
       <c r="A97" s="9" t="s">
         <v>63</v>
       </c>
@@ -6350,7 +6347,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="98" spans="1:15" ht="13" customHeight="1">
       <c r="A98" s="9" t="s">
         <v>63</v>
       </c>
@@ -6394,7 +6391,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="99" spans="1:15" ht="13" customHeight="1">
       <c r="A99" s="9" t="s">
         <v>63</v>
       </c>
@@ -6438,7 +6435,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="100" spans="1:15" ht="13" customHeight="1">
       <c r="A100" s="9" t="s">
         <v>63</v>
       </c>
@@ -6482,7 +6479,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="101" spans="1:15" ht="13" customHeight="1">
       <c r="A101" s="9" t="s">
         <v>63</v>
       </c>
@@ -6526,7 +6523,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="102" spans="1:15" ht="13" customHeight="1">
       <c r="A102" s="9" t="s">
         <v>63</v>
       </c>
@@ -6570,7 +6567,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="103" spans="1:15" ht="13" customHeight="1">
       <c r="A103" s="9" t="s">
         <v>63</v>
       </c>
@@ -6614,7 +6611,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="104" spans="1:15" ht="13" customHeight="1">
       <c r="A104" s="9" t="s">
         <v>63</v>
       </c>
@@ -6658,7 +6655,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="105" spans="1:15" ht="13" customHeight="1">
       <c r="A105" s="9" t="s">
         <v>63</v>
       </c>
@@ -6702,7 +6699,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="106" spans="1:15" ht="13" customHeight="1">
       <c r="A106" s="9" t="s">
         <v>63</v>
       </c>
@@ -6746,7 +6743,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="107" spans="1:15" ht="13" customHeight="1">
       <c r="A107" s="9" t="s">
         <v>63</v>
       </c>
@@ -6790,7 +6787,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="108" spans="1:15" ht="13" customHeight="1">
       <c r="A108" s="9" t="s">
         <v>63</v>
       </c>
@@ -6875,10 +6872,10 @@
         <v>0</v>
       </c>
       <c r="O109" s="9" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="13" hidden="1" customHeight="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="13" customHeight="1">
       <c r="A110" s="9" t="s">
         <v>63</v>
       </c>
@@ -6922,7 +6919,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="111" spans="1:15" ht="13" customHeight="1">
       <c r="A111" s="9" t="s">
         <v>63</v>
       </c>
@@ -6966,7 +6963,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="112" spans="1:15" ht="13" customHeight="1">
       <c r="A112" s="9" t="s">
         <v>63</v>
       </c>
@@ -7010,7 +7007,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="113" spans="1:15" ht="13" customHeight="1">
       <c r="A113" s="9" t="s">
         <v>63</v>
       </c>
@@ -7054,7 +7051,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="114" spans="1:15" ht="13" customHeight="1">
       <c r="A114" s="9" t="s">
         <v>63</v>
       </c>
@@ -7098,7 +7095,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="115" spans="1:15" ht="13" customHeight="1">
       <c r="A115" s="9" t="s">
         <v>63</v>
       </c>
@@ -7142,7 +7139,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="116" spans="1:15" ht="13" customHeight="1">
       <c r="A116" s="9" t="s">
         <v>63</v>
       </c>
@@ -7186,7 +7183,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="117" spans="1:15" ht="13" customHeight="1">
       <c r="A117" s="9" t="s">
         <v>63</v>
       </c>
@@ -7230,7 +7227,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="118" spans="1:15" ht="13" customHeight="1">
       <c r="A118" s="9" t="s">
         <v>63</v>
       </c>
@@ -7274,7 +7271,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="119" spans="1:15" ht="13" customHeight="1">
       <c r="A119" s="9" t="s">
         <v>63</v>
       </c>
@@ -7318,7 +7315,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="120" spans="1:15" ht="13" customHeight="1">
       <c r="A120" s="9" t="s">
         <v>63</v>
       </c>
@@ -7362,7 +7359,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="121" spans="1:15" ht="13" customHeight="1">
       <c r="A121" s="9" t="s">
         <v>63</v>
       </c>
@@ -7406,7 +7403,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="122" spans="1:15" ht="13" customHeight="1">
       <c r="A122" s="9" t="s">
         <v>63</v>
       </c>
@@ -7450,7 +7447,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="123" spans="1:15" ht="13" customHeight="1">
       <c r="A123" s="9" t="s">
         <v>63</v>
       </c>
@@ -7494,7 +7491,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="124" spans="1:15" ht="13" customHeight="1">
       <c r="A124" s="9" t="s">
         <v>63</v>
       </c>
@@ -7538,7 +7535,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="125" spans="1:15" ht="13" customHeight="1">
       <c r="A125" s="9" t="s">
         <v>15</v>
       </c>
@@ -7582,7 +7579,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="126" spans="1:15" ht="13" customHeight="1">
       <c r="A126" s="9" t="s">
         <v>15</v>
       </c>
@@ -7626,7 +7623,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="127" spans="1:15" ht="13" customHeight="1">
       <c r="A127" s="9" t="s">
         <v>15</v>
       </c>
@@ -7670,7 +7667,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="128" spans="1:15" ht="13" customHeight="1">
       <c r="A128" s="9" t="s">
         <v>15</v>
       </c>
@@ -7714,7 +7711,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="129" spans="1:26" ht="13" hidden="1" customHeight="1">
+    <row r="129" spans="1:26" ht="13" customHeight="1">
       <c r="A129" s="9" t="s">
         <v>324</v>
       </c>
@@ -7758,7 +7755,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="130" spans="1:26" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="130" spans="1:26" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A130" s="27" t="s">
         <v>324</v>
       </c>
@@ -7802,7 +7799,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="131" spans="1:26" ht="13" hidden="1" customHeight="1">
+    <row r="131" spans="1:26" ht="13" customHeight="1">
       <c r="A131" s="9" t="s">
         <v>324</v>
       </c>
@@ -7846,7 +7843,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="132" spans="1:26" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="132" spans="1:26" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A132" s="27" t="s">
         <v>324</v>
       </c>
@@ -7890,7 +7887,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="133" spans="1:26" ht="13" hidden="1" customHeight="1">
+    <row r="133" spans="1:26" ht="13" customHeight="1">
       <c r="A133" s="9" t="s">
         <v>324</v>
       </c>
@@ -7934,7 +7931,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="134" spans="1:26" ht="13" hidden="1" customHeight="1">
+    <row r="134" spans="1:26" ht="13" customHeight="1">
       <c r="A134" s="9" t="s">
         <v>324</v>
       </c>
@@ -7983,7 +7980,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" s="25" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="135" spans="1:26" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A135" s="9" t="s">
         <v>324</v>
       </c>
@@ -8038,7 +8035,7 @@
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
     </row>
-    <row r="136" spans="1:26" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="136" spans="1:26" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A136" s="27" t="s">
         <v>324</v>
       </c>
@@ -8082,7 +8079,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="137" spans="1:26" ht="13" hidden="1" customHeight="1">
+    <row r="137" spans="1:26" ht="13" customHeight="1">
       <c r="A137" s="9" t="s">
         <v>324</v>
       </c>
@@ -8126,7 +8123,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="138" spans="1:26" ht="13" hidden="1" customHeight="1">
+    <row r="138" spans="1:26" ht="13" customHeight="1">
       <c r="A138" s="9" t="s">
         <v>324</v>
       </c>
@@ -8170,7 +8167,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="139" spans="1:26" ht="13" hidden="1" customHeight="1">
+    <row r="139" spans="1:26" ht="13" customHeight="1">
       <c r="A139" s="9" t="s">
         <v>324</v>
       </c>
@@ -8214,7 +8211,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="140" spans="1:26" ht="13" hidden="1" customHeight="1">
+    <row r="140" spans="1:26" ht="13" customHeight="1">
       <c r="A140" s="9" t="s">
         <v>324</v>
       </c>
@@ -8258,7 +8255,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="141" spans="1:26" ht="13" hidden="1" customHeight="1">
+    <row r="141" spans="1:26" ht="13" customHeight="1">
       <c r="A141" s="9" t="s">
         <v>324</v>
       </c>
@@ -8302,7 +8299,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="142" spans="1:26" ht="13" hidden="1" customHeight="1">
+    <row r="142" spans="1:26" ht="13" customHeight="1">
       <c r="A142" s="9" t="s">
         <v>324</v>
       </c>
@@ -8346,7 +8343,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="143" spans="1:26" ht="13" hidden="1" customHeight="1">
+    <row r="143" spans="1:26" ht="13" customHeight="1">
       <c r="A143" s="9" t="s">
         <v>324</v>
       </c>
@@ -8390,7 +8387,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="144" spans="1:26" ht="13" hidden="1" customHeight="1">
+    <row r="144" spans="1:26" ht="13" customHeight="1">
       <c r="A144" s="9" t="s">
         <v>324</v>
       </c>
@@ -8434,7 +8431,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="145" spans="1:15" ht="13" customHeight="1">
       <c r="A145" s="9" t="s">
         <v>324</v>
       </c>
@@ -8478,7 +8475,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="146" spans="1:15" ht="13" customHeight="1">
       <c r="A146" s="9" t="s">
         <v>324</v>
       </c>
@@ -8522,7 +8519,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="147" spans="1:15" ht="13" customHeight="1">
       <c r="A147" s="9" t="s">
         <v>324</v>
       </c>
@@ -8566,7 +8563,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="148" spans="1:15" ht="13" customHeight="1">
       <c r="A148" s="9" t="s">
         <v>324</v>
       </c>
@@ -8610,7 +8607,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="149" spans="1:15" ht="13" customHeight="1">
       <c r="A149" s="9" t="s">
         <v>324</v>
       </c>
@@ -8654,7 +8651,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="150" spans="1:15" ht="13" customHeight="1">
       <c r="A150" s="9" t="s">
         <v>324</v>
       </c>
@@ -8698,7 +8695,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="151" spans="1:15" ht="13" customHeight="1">
       <c r="A151" s="9" t="s">
         <v>324</v>
       </c>
@@ -8742,7 +8739,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="152" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="152" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A152" s="27" t="s">
         <v>324</v>
       </c>
@@ -8786,7 +8783,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="153" spans="1:15" ht="13" customHeight="1">
       <c r="A153" s="9" t="s">
         <v>324</v>
       </c>
@@ -8830,7 +8827,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="154" spans="1:15" ht="13" customHeight="1">
       <c r="A154" s="9" t="s">
         <v>324</v>
       </c>
@@ -8874,7 +8871,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="155" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="155" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A155" s="27" t="s">
         <v>324</v>
       </c>
@@ -8918,7 +8915,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="156" spans="1:15" ht="13" customHeight="1">
       <c r="A156" s="9" t="s">
         <v>324</v>
       </c>
@@ -8962,7 +8959,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="157" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="157" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A157" s="27" t="s">
         <v>324</v>
       </c>
@@ -9006,7 +9003,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="158" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="158" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A158" s="27" t="s">
         <v>324</v>
       </c>
@@ -9050,7 +9047,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="159" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="159" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A159" s="27" t="s">
         <v>324</v>
       </c>
@@ -9094,7 +9091,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="160" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="160" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A160" s="27" t="s">
         <v>324</v>
       </c>
@@ -9135,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="O160" s="27" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A161" s="27" t="s">
         <v>324</v>
       </c>
@@ -9182,7 +9179,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="162" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="162" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A162" s="27" t="s">
         <v>324</v>
       </c>
@@ -9226,7 +9223,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="163" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="163" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A163" s="27" t="s">
         <v>324</v>
       </c>
@@ -9270,7 +9267,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="164" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="164" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A164" s="27" t="s">
         <v>324</v>
       </c>
@@ -9314,7 +9311,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="165" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="165" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A165" s="27" t="s">
         <v>324</v>
       </c>
@@ -9322,22 +9319,22 @@
         <v>16</v>
       </c>
       <c r="C165" s="27" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="D165" s="27" t="s">
-        <v>341</v>
+        <v>431</v>
       </c>
       <c r="E165" s="27" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="F165" s="27" t="s">
-        <v>485</v>
+        <v>422</v>
       </c>
       <c r="G165" s="27" t="s">
         <v>19</v>
       </c>
       <c r="H165" s="27">
-        <v>810</v>
+        <v>384</v>
       </c>
       <c r="I165" s="27" t="s">
         <v>19</v>
@@ -9355,10 +9352,10 @@
         <v>0</v>
       </c>
       <c r="O165" s="27" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A166" s="27" t="s">
         <v>324</v>
       </c>
@@ -9366,31 +9363,31 @@
         <v>16</v>
       </c>
       <c r="C166" s="27" t="s">
-        <v>142</v>
+        <v>370</v>
       </c>
       <c r="D166" s="27" t="s">
-        <v>431</v>
+        <v>35</v>
       </c>
       <c r="E166" s="27" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="F166" s="27" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="G166" s="27" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H166" s="27">
-        <v>384</v>
+        <v>161</v>
       </c>
       <c r="I166" s="27" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K166" s="27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L166" s="27" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M166" s="27">
         <v>0</v>
@@ -9399,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="O166" s="27" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="167" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
@@ -9410,22 +9407,22 @@
         <v>16</v>
       </c>
       <c r="C167" s="27" t="s">
-        <v>370</v>
+        <v>225</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E167" s="27" t="s">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="F167" s="27" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="G167" s="27" t="s">
         <v>32</v>
       </c>
       <c r="H167" s="27">
-        <v>161</v>
+        <v>742</v>
       </c>
       <c r="I167" s="27" t="s">
         <v>32</v>
@@ -9442,8 +9439,8 @@
       <c r="N167" s="27">
         <v>0</v>
       </c>
-      <c r="O167" s="27" t="s">
-        <v>503</v>
+      <c r="O167" s="9" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="168" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
@@ -9454,22 +9451,22 @@
         <v>16</v>
       </c>
       <c r="C168" s="27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D168" s="27" t="s">
         <v>40</v>
       </c>
       <c r="E168" s="27" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F168" s="27" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G168" s="27" t="s">
         <v>32</v>
       </c>
       <c r="H168" s="27">
-        <v>742</v>
+        <v>945</v>
       </c>
       <c r="I168" s="27" t="s">
         <v>32</v>
@@ -9486,11 +9483,11 @@
       <c r="N168" s="27">
         <v>0</v>
       </c>
-      <c r="O168" s="9" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+      <c r="O168" s="27" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A169" s="27" t="s">
         <v>324</v>
       </c>
@@ -9498,22 +9495,22 @@
         <v>16</v>
       </c>
       <c r="C169" s="27" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D169" s="27" t="s">
         <v>40</v>
       </c>
       <c r="E169" s="27" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="F169" s="27" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G169" s="27" t="s">
         <v>32</v>
       </c>
       <c r="H169" s="27">
-        <v>945</v>
+        <v>959</v>
       </c>
       <c r="I169" s="27" t="s">
         <v>32</v>
@@ -9531,10 +9528,10 @@
         <v>0</v>
       </c>
       <c r="O169" s="27" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A170" s="27" t="s">
         <v>324</v>
       </c>
@@ -9542,13 +9539,13 @@
         <v>16</v>
       </c>
       <c r="C170" s="27" t="s">
-        <v>229</v>
+        <v>371</v>
       </c>
       <c r="D170" s="27" t="s">
         <v>459</v>
       </c>
       <c r="E170" s="27" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F170" s="27" t="s">
         <v>462</v>
@@ -9557,7 +9554,7 @@
         <v>32</v>
       </c>
       <c r="H170" s="27">
-        <v>959</v>
+        <v>184</v>
       </c>
       <c r="I170" s="27" t="s">
         <v>32</v>
@@ -9578,7 +9575,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="171" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="171" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A171" s="27" t="s">
         <v>324</v>
       </c>
@@ -9586,31 +9583,31 @@
         <v>16</v>
       </c>
       <c r="C171" s="27" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="D171" s="27" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="E171" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F171" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="G171" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H171" s="27">
+        <v>217</v>
+      </c>
+      <c r="I171" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K171" s="27">
         <v>50</v>
       </c>
-      <c r="F171" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="G171" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H171" s="27">
-        <v>184</v>
-      </c>
-      <c r="I171" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K171" s="27">
-        <v>1</v>
-      </c>
       <c r="L171" s="27" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="M171" s="27">
         <v>0</v>
@@ -9619,10 +9616,10 @@
         <v>0</v>
       </c>
       <c r="O171" s="27" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A172" s="27" t="s">
         <v>324</v>
       </c>
@@ -9630,28 +9627,28 @@
         <v>16</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="D172" s="27" t="s">
-        <v>480</v>
+        <v>59</v>
       </c>
       <c r="E172" s="27" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="F172" s="27" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="G172" s="27" t="s">
         <v>19</v>
       </c>
       <c r="H172" s="27">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="I172" s="27" t="s">
         <v>19</v>
       </c>
       <c r="K172" s="27">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="L172" s="27" t="s">
         <v>54</v>
@@ -9663,10 +9660,10 @@
         <v>0</v>
       </c>
       <c r="O172" s="27" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A173" s="27" t="s">
         <v>324</v>
       </c>
@@ -9674,13 +9671,13 @@
         <v>16</v>
       </c>
       <c r="C173" s="27" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D173" s="27" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="E173" s="27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F173" s="27" t="s">
         <v>478</v>
@@ -9695,7 +9692,7 @@
         <v>19</v>
       </c>
       <c r="K173" s="27">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L173" s="27" t="s">
         <v>54</v>
@@ -9710,7 +9707,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="174" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="174" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A174" s="27" t="s">
         <v>324</v>
       </c>
@@ -9718,31 +9715,31 @@
         <v>16</v>
       </c>
       <c r="C174" s="27" t="s">
-        <v>373</v>
+        <v>496</v>
       </c>
       <c r="D174" s="27" t="s">
-        <v>199</v>
+        <v>437</v>
       </c>
       <c r="E174" s="27" t="s">
-        <v>62</v>
+        <v>374</v>
       </c>
       <c r="F174" s="27" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
       <c r="G174" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H174" s="27">
-        <v>184</v>
+        <v>32</v>
+      </c>
+      <c r="H174" s="31">
+        <v>8959</v>
       </c>
       <c r="I174" s="27" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K174" s="27">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="L174" s="27" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="M174" s="27">
         <v>0</v>
@@ -9751,10 +9748,10 @@
         <v>0</v>
       </c>
       <c r="O174" s="27" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A175" s="27" t="s">
         <v>324</v>
       </c>
@@ -9762,22 +9759,22 @@
         <v>16</v>
       </c>
       <c r="C175" s="27" t="s">
-        <v>496</v>
+        <v>375</v>
       </c>
       <c r="D175" s="27" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E175" s="27" t="s">
-        <v>374</v>
+        <v>153</v>
       </c>
       <c r="F175" s="27" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="G175" s="27" t="s">
         <v>32</v>
       </c>
       <c r="H175" s="31">
-        <v>8959</v>
+        <v>3429</v>
       </c>
       <c r="I175" s="27" t="s">
         <v>32</v>
@@ -9795,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="O175" s="27" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A176" s="27" t="s">
         <v>324</v>
       </c>
@@ -9806,13 +9803,13 @@
         <v>16</v>
       </c>
       <c r="C176" s="27" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D176" s="27" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="E176" s="27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F176" s="27" t="s">
         <v>423</v>
@@ -9821,7 +9818,7 @@
         <v>32</v>
       </c>
       <c r="H176" s="31">
-        <v>3429</v>
+        <v>3247</v>
       </c>
       <c r="I176" s="27" t="s">
         <v>32</v>
@@ -9842,7 +9839,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="177" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="177" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A177" s="27" t="s">
         <v>324</v>
       </c>
@@ -9850,13 +9847,13 @@
         <v>16</v>
       </c>
       <c r="C177" s="27" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D177" s="27" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="E177" s="27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F177" s="27" t="s">
         <v>423</v>
@@ -9865,7 +9862,7 @@
         <v>32</v>
       </c>
       <c r="H177" s="31">
-        <v>3247</v>
+        <v>2699</v>
       </c>
       <c r="I177" s="27" t="s">
         <v>32</v>
@@ -9883,10 +9880,10 @@
         <v>0</v>
       </c>
       <c r="O177" s="27" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="178" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A178" s="27" t="s">
         <v>324</v>
       </c>
@@ -9894,31 +9891,31 @@
         <v>16</v>
       </c>
       <c r="C178" s="27" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D178" s="27" t="s">
-        <v>436</v>
+        <v>159</v>
       </c>
       <c r="E178" s="27" t="s">
-        <v>157</v>
+        <v>378</v>
       </c>
       <c r="F178" s="27" t="s">
         <v>423</v>
       </c>
       <c r="G178" s="27" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H178" s="31">
-        <v>2699</v>
+        <v>1336</v>
       </c>
       <c r="I178" s="27" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="K178" s="27">
         <v>1</v>
       </c>
       <c r="L178" s="27" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="M178" s="27">
         <v>0</v>
@@ -9927,10 +9924,10 @@
         <v>0</v>
       </c>
       <c r="O178" s="27" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="179" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A179" s="27" t="s">
         <v>324</v>
       </c>
@@ -9938,31 +9935,31 @@
         <v>16</v>
       </c>
       <c r="C179" s="27" t="s">
-        <v>377</v>
+        <v>495</v>
       </c>
       <c r="D179" s="27" t="s">
-        <v>159</v>
+        <v>437</v>
       </c>
       <c r="E179" s="27" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F179" s="27" t="s">
-        <v>423</v>
+        <v>490</v>
       </c>
       <c r="G179" s="27" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="H179" s="31">
-        <v>1336</v>
+        <v>6136</v>
       </c>
       <c r="I179" s="27" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="K179" s="27">
         <v>1</v>
       </c>
       <c r="L179" s="27" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="M179" s="27">
         <v>0</v>
@@ -9971,33 +9968,33 @@
         <v>0</v>
       </c>
       <c r="O179" s="27" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="180" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A180" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="B180" s="32" t="s">
+      <c r="B180" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C180" s="27" t="s">
-        <v>495</v>
+        <v>382</v>
       </c>
       <c r="D180" s="27" t="s">
         <v>437</v>
       </c>
       <c r="E180" s="27" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F180" s="27" t="s">
-        <v>490</v>
+        <v>438</v>
       </c>
       <c r="G180" s="27" t="s">
         <v>32</v>
       </c>
       <c r="H180" s="31">
-        <v>6136</v>
+        <v>3800</v>
       </c>
       <c r="I180" s="27" t="s">
         <v>32</v>
@@ -10015,10 +10012,10 @@
         <v>0</v>
       </c>
       <c r="O180" s="27" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="181" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A181" s="27" t="s">
         <v>324</v>
       </c>
@@ -10026,13 +10023,13 @@
         <v>16</v>
       </c>
       <c r="C181" s="27" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D181" s="27" t="s">
         <v>437</v>
       </c>
       <c r="E181" s="27" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F181" s="27" t="s">
         <v>438</v>
@@ -10041,7 +10038,7 @@
         <v>32</v>
       </c>
       <c r="H181" s="31">
-        <v>3800</v>
+        <v>3323</v>
       </c>
       <c r="I181" s="27" t="s">
         <v>32</v>
@@ -10062,51 +10059,51 @@
         <v>354</v>
       </c>
     </row>
-    <row r="182" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
-      <c r="A182" s="27" t="s">
+    <row r="182" spans="1:21" ht="13" customHeight="1">
+      <c r="A182" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="B182" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C182" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="D182" s="27" t="s">
+      <c r="B182" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D182" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="E182" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="F182" s="27" t="s">
+      <c r="E182" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F182" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="G182" s="27" t="s">
+      <c r="G182" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H182" s="31">
-        <v>3323</v>
-      </c>
-      <c r="I182" s="27" t="s">
+      <c r="H182" s="8">
+        <v>8959</v>
+      </c>
+      <c r="I182" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K182" s="27">
+      <c r="K182" s="9">
         <v>1</v>
       </c>
-      <c r="L182" s="27" t="s">
+      <c r="L182" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M182" s="27">
-        <v>0</v>
-      </c>
-      <c r="N182" s="27">
-        <v>0</v>
-      </c>
-      <c r="O182" s="27" t="s">
+      <c r="M182" s="9">
+        <v>0</v>
+      </c>
+      <c r="N182" s="9">
+        <v>0</v>
+      </c>
+      <c r="O182" s="9" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="183" spans="1:21" ht="13" hidden="1" customHeight="1">
+    <row r="183" spans="1:21" ht="13" customHeight="1">
       <c r="A183" s="9" t="s">
         <v>324</v>
       </c>
@@ -10114,22 +10111,22 @@
         <v>64</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>437</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>201</v>
+        <v>381</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="G183" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H183" s="8">
-        <v>8959</v>
+        <v>6136</v>
       </c>
       <c r="I183" s="9" t="s">
         <v>32</v>
@@ -10147,10 +10144,10 @@
         <v>0</v>
       </c>
       <c r="O183" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="184" spans="1:21" ht="13" hidden="1" customHeight="1">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" ht="13" customHeight="1">
       <c r="A184" s="9" t="s">
         <v>324</v>
       </c>
@@ -10158,22 +10155,22 @@
         <v>64</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>495</v>
+        <v>382</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>437</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>490</v>
+        <v>438</v>
       </c>
       <c r="G184" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H184" s="8">
-        <v>6136</v>
+        <v>3800</v>
       </c>
       <c r="I184" s="9" t="s">
         <v>32</v>
@@ -10191,10 +10188,10 @@
         <v>0</v>
       </c>
       <c r="O184" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="185" spans="1:21" ht="13" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" ht="13" customHeight="1">
       <c r="A185" s="9" t="s">
         <v>324</v>
       </c>
@@ -10202,13 +10199,13 @@
         <v>64</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>437</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F185" s="9" t="s">
         <v>438</v>
@@ -10217,7 +10214,7 @@
         <v>32</v>
       </c>
       <c r="H185" s="8">
-        <v>3800</v>
+        <v>3323</v>
       </c>
       <c r="I185" s="9" t="s">
         <v>32</v>
@@ -10237,53 +10234,53 @@
       <c r="O185" s="9" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="186" spans="1:21" ht="13" hidden="1" customHeight="1">
-      <c r="A186" s="9" t="s">
+      <c r="U185" s="11"/>
+    </row>
+    <row r="186" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+      <c r="A186" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="B186" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="D186" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="E186" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="F186" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="G186" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H186" s="8">
-        <v>3323</v>
-      </c>
-      <c r="I186" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K186" s="9">
-        <v>1</v>
-      </c>
-      <c r="L186" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M186" s="9">
-        <v>0</v>
-      </c>
-      <c r="N186" s="9">
-        <v>0</v>
-      </c>
-      <c r="O186" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="U186" s="11"/>
-    </row>
-    <row r="187" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+      <c r="B186" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="D186" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="E186" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F186" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="G186" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H186" s="31">
+        <v>3086</v>
+      </c>
+      <c r="I186" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K186" s="27">
+        <v>6</v>
+      </c>
+      <c r="L186" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M186" s="27">
+        <v>0</v>
+      </c>
+      <c r="N186" s="27">
+        <v>0</v>
+      </c>
+      <c r="O186" s="27" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A187" s="27" t="s">
         <v>324</v>
       </c>
@@ -10291,22 +10288,22 @@
         <v>16</v>
       </c>
       <c r="C187" s="27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D187" s="27" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="E187" s="27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F187" s="27" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="G187" s="27" t="s">
         <v>19</v>
       </c>
       <c r="H187" s="31">
-        <v>3086</v>
+        <v>4078</v>
       </c>
       <c r="I187" s="27" t="s">
         <v>19</v>
@@ -10324,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="O187" s="27" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="188" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A188" s="27" t="s">
         <v>324</v>
       </c>
@@ -10335,28 +10332,28 @@
         <v>16</v>
       </c>
       <c r="C188" s="27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D188" s="27" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="E188" s="27" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="F188" s="27" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="G188" s="27" t="s">
         <v>19</v>
       </c>
       <c r="H188" s="31">
-        <v>4078</v>
+        <v>2186</v>
       </c>
       <c r="I188" s="27" t="s">
         <v>19</v>
       </c>
       <c r="K188" s="27">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="L188" s="27" t="s">
         <v>20</v>
@@ -10368,10 +10365,10 @@
         <v>0</v>
       </c>
       <c r="O188" s="27" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="189" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A189" s="27" t="s">
         <v>324</v>
       </c>
@@ -10379,28 +10376,28 @@
         <v>16</v>
       </c>
       <c r="C189" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D189" s="27" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="E189" s="27" t="s">
-        <v>107</v>
+        <v>411</v>
       </c>
       <c r="F189" s="27" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="G189" s="27" t="s">
         <v>19</v>
       </c>
       <c r="H189" s="31">
-        <v>2186</v>
+        <v>3435</v>
       </c>
       <c r="I189" s="27" t="s">
         <v>19</v>
       </c>
       <c r="K189" s="27">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="L189" s="27" t="s">
         <v>20</v>
@@ -10412,10 +10409,10 @@
         <v>0</v>
       </c>
       <c r="O189" s="27" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="190" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A190" s="27" t="s">
         <v>324</v>
       </c>
@@ -10423,22 +10420,22 @@
         <v>16</v>
       </c>
       <c r="C190" s="27" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>448</v>
+        <v>330</v>
       </c>
       <c r="E190" s="27" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="G190" s="27" t="s">
         <v>19</v>
       </c>
       <c r="H190" s="31">
-        <v>3435</v>
+        <v>4029</v>
       </c>
       <c r="I190" s="27" t="s">
         <v>19</v>
@@ -10456,10 +10453,10 @@
         <v>0</v>
       </c>
       <c r="O190" s="27" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="191" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A191" s="27" t="s">
         <v>324</v>
       </c>
@@ -10467,22 +10464,22 @@
         <v>16</v>
       </c>
       <c r="C191" s="27" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D191" s="27" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="E191" s="27" t="s">
-        <v>413</v>
+        <v>141</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
       <c r="G191" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H191" s="31">
-        <v>4029</v>
+      <c r="H191" s="27">
+        <v>810</v>
       </c>
       <c r="I191" s="27" t="s">
         <v>19</v>
@@ -10500,10 +10497,10 @@
         <v>0</v>
       </c>
       <c r="O191" s="27" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="192" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A192" s="27" t="s">
         <v>324</v>
       </c>
@@ -10511,31 +10508,31 @@
         <v>16</v>
       </c>
       <c r="C192" s="27" t="s">
-        <v>414</v>
+        <v>496</v>
       </c>
       <c r="D192" s="27" t="s">
-        <v>341</v>
+        <v>437</v>
       </c>
       <c r="E192" s="27" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="G192" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H192" s="27">
-        <v>810</v>
+        <v>32</v>
+      </c>
+      <c r="H192" s="31">
+        <v>8959</v>
       </c>
       <c r="I192" s="27" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K192" s="27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L192" s="27" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M192" s="27">
         <v>0</v>
@@ -10544,10 +10541,10 @@
         <v>0</v>
       </c>
       <c r="O192" s="27" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A193" s="27" t="s">
         <v>324</v>
       </c>
@@ -10555,22 +10552,22 @@
         <v>16</v>
       </c>
       <c r="C193" s="27" t="s">
-        <v>496</v>
+        <v>415</v>
       </c>
       <c r="D193" s="27" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E193" s="27" t="s">
-        <v>149</v>
+        <v>416</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="G193" s="27" t="s">
         <v>32</v>
       </c>
       <c r="H193" s="31">
-        <v>8959</v>
+        <v>3429</v>
       </c>
       <c r="I193" s="27" t="s">
         <v>32</v>
@@ -10588,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="O193" s="27" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A194" s="27" t="s">
         <v>324</v>
       </c>
@@ -10599,22 +10596,22 @@
         <v>16</v>
       </c>
       <c r="C194" s="27" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D194" s="27" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="E194" s="27" t="s">
-        <v>416</v>
+        <v>69</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="G194" s="27" t="s">
         <v>32</v>
       </c>
       <c r="H194" s="31">
-        <v>3429</v>
+        <v>2505</v>
       </c>
       <c r="I194" s="27" t="s">
         <v>32</v>
@@ -10632,10 +10629,10 @@
         <v>0</v>
       </c>
       <c r="O194" s="27" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A195" s="27" t="s">
         <v>324</v>
       </c>
@@ -10643,31 +10640,31 @@
         <v>16</v>
       </c>
       <c r="C195" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D195" s="27" t="s">
-        <v>481</v>
+        <v>428</v>
       </c>
       <c r="E195" s="27" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>482</v>
+        <v>429</v>
       </c>
       <c r="G195" s="27" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H195" s="31">
-        <v>2505</v>
+        <v>2448</v>
       </c>
       <c r="I195" s="27" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="K195" s="27">
         <v>1</v>
       </c>
       <c r="L195" s="27" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="M195" s="27">
         <v>0</v>
@@ -10676,10 +10673,10 @@
         <v>0</v>
       </c>
       <c r="O195" s="27" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A196" s="27" t="s">
         <v>324</v>
       </c>
@@ -10687,22 +10684,22 @@
         <v>16</v>
       </c>
       <c r="C196" s="27" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D196" s="27" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E196" s="27" t="s">
-        <v>109</v>
+        <v>418</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G196" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="H196" s="31">
-        <v>2448</v>
+      <c r="H196" s="27">
+        <v>230</v>
       </c>
       <c r="I196" s="27" t="s">
         <v>79</v>
@@ -10719,53 +10716,14 @@
       <c r="N196" s="27">
         <v>0</v>
       </c>
-      <c r="O196" s="27" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
-      <c r="A197" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="B197" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C197" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="D197" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="E197" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="F197" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G197" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="H197" s="27">
-        <v>230</v>
-      </c>
-      <c r="I197" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="K197" s="27">
-        <v>1</v>
-      </c>
-      <c r="L197" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="M197" s="27">
-        <v>0</v>
-      </c>
-      <c r="N197" s="27">
-        <v>0</v>
-      </c>
-      <c r="O197" s="30" t="s">
+      <c r="O196" s="30" t="s">
         <v>497</v>
       </c>
+    </row>
+    <row r="197" spans="1:15" ht="13" customHeight="1">
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
     </row>
     <row r="198" spans="1:15" ht="13" customHeight="1">
       <c r="G198" s="9"/>
@@ -10876,12 +10834,12 @@
       <c r="G219" s="9"/>
       <c r="H219" s="9"/>
       <c r="I219" s="9"/>
+      <c r="T219"/>
     </row>
     <row r="220" spans="7:20" ht="13" customHeight="1">
       <c r="G220" s="9"/>
       <c r="H220" s="9"/>
       <c r="I220" s="9"/>
-      <c r="T220"/>
     </row>
     <row r="221" spans="7:20" ht="13" customHeight="1">
       <c r="G221" s="9"/>
@@ -10929,9 +10887,10 @@
       <c r="I229" s="9"/>
     </row>
     <row r="230" spans="4:14" ht="13" customHeight="1">
-      <c r="G230" s="9"/>
-      <c r="H230" s="9"/>
-      <c r="I230" s="9"/>
+      <c r="D230" s="6"/>
+      <c r="G230" s="6"/>
+      <c r="L230" s="6"/>
+      <c r="N230" s="10"/>
     </row>
     <row r="231" spans="4:14" ht="13" customHeight="1">
       <c r="D231" s="6"/>
@@ -12559,21 +12518,7 @@
       <c r="L501" s="6"/>
       <c r="N501" s="10"/>
     </row>
-    <row r="502" spans="4:14" ht="13" customHeight="1">
-      <c r="D502" s="6"/>
-      <c r="G502" s="6"/>
-      <c r="L502" s="6"/>
-      <c r="N502" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Z197" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Соединитель импоста 35 мм (2160.2163)"/>
-        <filter val="Сухарь 32,5 мм (2115) новый дизайн"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25652965-D4F6-8746-A09E-16381BB306A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80A723F-AB21-AB42-987F-16CC3C02103D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1557,15 +1557,6 @@
     <t>(2∗n_impost+4)∗qty</t>
   </si>
   <si>
-    <t>4*(1+n_sash)*qty</t>
-  </si>
-  <si>
-    <t>4*qty</t>
-  </si>
-  <si>
-    <t>2∗n_sash_passive∗qty</t>
-  </si>
-  <si>
     <t>2∗(width+height)/1000∗qty∗(1+n_impost+n_sash)</t>
   </si>
   <si>
@@ -1578,13 +1569,22 @@
     <t>1*n_sash_active*is_door*qty</t>
   </si>
   <si>
-    <t>2∗n_sash_active∗is_door∗qty</t>
-  </si>
-  <si>
-    <t>(4∗n_impost+4)∗qty</t>
-  </si>
-  <si>
-    <t>3∗(sash_w+sash_h)/1000∗n_sash∗qty</t>
+    <t>(2 * n_impost + 4) * qty</t>
+  </si>
+  <si>
+    <t>2 * n_sash_active * is_door * qty</t>
+  </si>
+  <si>
+    <t>(4 + 2 * n_impost) * qty</t>
+  </si>
+  <si>
+    <t>4 * (1 + n_sash) * qty</t>
+  </si>
+  <si>
+    <t>3 * (sash_w + sash_h) / 1000 * n_sash * qty</t>
+  </si>
+  <si>
+    <t>(2 * (width + height) + 4 * (sash_w + sash_h) * n_sash) / 1000 * qty</t>
   </si>
 </sst>
 </file>
@@ -2037,14 +2037,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J207" sqref="J207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G208" sqref="G208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2123,7 +2123,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="27" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" s="27" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A6" s="27" t="s">
         <v>15</v>
       </c>
@@ -2340,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1">
+    <row r="8" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+    <row r="18" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1">
+    <row r="19" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>63</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+    <row r="20" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>63</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>63</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>63</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>63</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>15</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>15</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>15</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>15</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>15</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>15</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>15</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>15</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>15</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>15</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>15</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>63</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>63</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>63</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A39" s="9" t="s">
         <v>63</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>63</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1">
+    <row r="41" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>63</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1">
+    <row r="42" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>63</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1">
+    <row r="43" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>63</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1">
+    <row r="44" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>63</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1">
+    <row r="45" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>63</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1">
+    <row r="46" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>63</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1">
+    <row r="47" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>63</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1">
+    <row r="48" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>63</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1">
+    <row r="49" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>63</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1">
+    <row r="50" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>63</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13" customHeight="1">
+    <row r="51" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>63</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13" customHeight="1">
+    <row r="52" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A52" s="9" t="s">
         <v>63</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="53" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A53" s="27" t="s">
         <v>63</v>
       </c>
@@ -4408,10 +4408,10 @@
         <v>0</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="13" customHeight="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A54" s="9" t="s">
         <v>63</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13" customHeight="1">
+    <row r="55" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>63</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13" customHeight="1">
+    <row r="56" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A56" s="9" t="s">
         <v>63</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13" customHeight="1">
+    <row r="57" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A57" s="9" t="s">
         <v>63</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13" customHeight="1">
+    <row r="58" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A58" s="9" t="s">
         <v>63</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13" customHeight="1">
+    <row r="59" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A59" s="9" t="s">
         <v>63</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13" customHeight="1">
+    <row r="60" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A60" s="9" t="s">
         <v>63</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13" customHeight="1">
+    <row r="61" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A61" s="9" t="s">
         <v>63</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13" customHeight="1">
+    <row r="62" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A62" s="9" t="s">
         <v>63</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" customHeight="1">
+    <row r="63" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A63" s="9" t="s">
         <v>63</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="13" customHeight="1">
+    <row r="64" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A64" s="9" t="s">
         <v>63</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13" customHeight="1">
+    <row r="65" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A65" s="9" t="s">
         <v>63</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="13" customHeight="1">
+    <row r="66" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A66" s="9" t="s">
         <v>63</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="13" customHeight="1">
+    <row r="67" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A67" s="9" t="s">
         <v>63</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13" customHeight="1">
+    <row r="68" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A68" s="9" t="s">
         <v>63</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="13" customHeight="1">
+    <row r="69" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A69" s="9" t="s">
         <v>63</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13" customHeight="1">
+    <row r="70" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A70" s="9" t="s">
         <v>63</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13" customHeight="1">
+    <row r="71" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A71" s="9" t="s">
         <v>63</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13" customHeight="1">
+    <row r="72" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A72" s="9" t="s">
         <v>63</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13" customHeight="1">
+    <row r="73" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A73" s="9" t="s">
         <v>63</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13" customHeight="1">
+    <row r="74" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A74" s="9" t="s">
         <v>63</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13" customHeight="1">
+    <row r="75" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A75" s="9" t="s">
         <v>63</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="13" customHeight="1">
+    <row r="76" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A76" s="9" t="s">
         <v>63</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="13" customHeight="1">
+    <row r="77" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A77" s="9" t="s">
         <v>63</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="13" customHeight="1">
+    <row r="78" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A78" s="9" t="s">
         <v>63</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="13" customHeight="1">
+    <row r="79" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A79" s="9" t="s">
         <v>63</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="13" customHeight="1">
+    <row r="80" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A80" s="9" t="s">
         <v>63</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="13" customHeight="1">
+    <row r="81" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A81" s="9" t="s">
         <v>63</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="13" customHeight="1">
+    <row r="82" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A82" s="9" t="s">
         <v>63</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="13" customHeight="1">
+    <row r="83" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A83" s="9" t="s">
         <v>63</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="13" customHeight="1">
+    <row r="84" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A84" s="9" t="s">
         <v>63</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="13" customHeight="1">
+    <row r="85" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A85" s="9" t="s">
         <v>63</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="13" customHeight="1">
+    <row r="86" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A86" s="9" t="s">
         <v>63</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="13" customHeight="1">
+    <row r="87" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A87" s="9" t="s">
         <v>63</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="13" customHeight="1">
+    <row r="88" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A88" s="9" t="s">
         <v>63</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="13" customHeight="1">
+    <row r="89" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A89" s="9" t="s">
         <v>63</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="13" customHeight="1">
+    <row r="90" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A90" s="9" t="s">
         <v>63</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="13" customHeight="1">
+    <row r="91" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A91" s="9" t="s">
         <v>63</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="13" customHeight="1">
+    <row r="92" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A92" s="9" t="s">
         <v>63</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="13" customHeight="1">
+    <row r="93" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A93" s="9" t="s">
         <v>63</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="13" customHeight="1">
+    <row r="94" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A94" s="9" t="s">
         <v>63</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="13" customHeight="1">
+    <row r="95" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A95" s="9" t="s">
         <v>63</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="13" customHeight="1">
+    <row r="96" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A96" s="9" t="s">
         <v>63</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="13" customHeight="1">
+    <row r="97" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A97" s="9" t="s">
         <v>63</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="13" customHeight="1">
+    <row r="98" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A98" s="9" t="s">
         <v>63</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="13" customHeight="1">
+    <row r="99" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A99" s="9" t="s">
         <v>63</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="13" customHeight="1">
+    <row r="100" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A100" s="9" t="s">
         <v>63</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="13" customHeight="1">
+    <row r="101" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A101" s="9" t="s">
         <v>63</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="13" customHeight="1">
+    <row r="102" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A102" s="9" t="s">
         <v>63</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="13" customHeight="1">
+    <row r="103" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A103" s="9" t="s">
         <v>63</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="13" customHeight="1">
+    <row r="104" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A104" s="9" t="s">
         <v>63</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="13" customHeight="1">
+    <row r="105" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A105" s="9" t="s">
         <v>63</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="13" customHeight="1">
+    <row r="106" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A106" s="9" t="s">
         <v>63</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="13" customHeight="1">
+    <row r="107" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A107" s="9" t="s">
         <v>63</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="13" customHeight="1">
+    <row r="108" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A108" s="9" t="s">
         <v>63</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="13" customHeight="1">
+    <row r="109" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A109" s="9" t="s">
         <v>63</v>
       </c>
@@ -6872,10 +6872,10 @@
         <v>0</v>
       </c>
       <c r="O109" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="13" customHeight="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A110" s="9" t="s">
         <v>63</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="13" customHeight="1">
+    <row r="111" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A111" s="9" t="s">
         <v>63</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="13" customHeight="1">
+    <row r="112" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A112" s="9" t="s">
         <v>63</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="13" customHeight="1">
+    <row r="113" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A113" s="9" t="s">
         <v>63</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="13" customHeight="1">
+    <row r="114" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A114" s="9" t="s">
         <v>63</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="13" customHeight="1">
+    <row r="115" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A115" s="9" t="s">
         <v>63</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="13" customHeight="1">
+    <row r="116" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A116" s="9" t="s">
         <v>63</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="13" customHeight="1">
+    <row r="117" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A117" s="9" t="s">
         <v>63</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="13" customHeight="1">
+    <row r="118" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A118" s="9" t="s">
         <v>63</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="13" customHeight="1">
+    <row r="119" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A119" s="9" t="s">
         <v>63</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="13" customHeight="1">
+    <row r="120" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A120" s="9" t="s">
         <v>63</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="13" customHeight="1">
+    <row r="121" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A121" s="9" t="s">
         <v>63</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="13" customHeight="1">
+    <row r="122" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A122" s="9" t="s">
         <v>63</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="13" customHeight="1">
+    <row r="123" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A123" s="9" t="s">
         <v>63</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="13" customHeight="1">
+    <row r="124" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A124" s="9" t="s">
         <v>63</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="13" customHeight="1">
+    <row r="125" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A125" s="9" t="s">
         <v>15</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="13" customHeight="1">
+    <row r="126" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A126" s="9" t="s">
         <v>15</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="13" customHeight="1">
+    <row r="127" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A127" s="9" t="s">
         <v>15</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="13" customHeight="1">
+    <row r="128" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A128" s="9" t="s">
         <v>15</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="129" spans="1:26" ht="13" customHeight="1">
+    <row r="129" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A129" s="9" t="s">
         <v>324</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="130" spans="1:26" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="130" spans="1:26" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A130" s="27" t="s">
         <v>324</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="131" spans="1:26" ht="13" customHeight="1">
+    <row r="131" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A131" s="9" t="s">
         <v>324</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="132" spans="1:26" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="132" spans="1:26" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A132" s="27" t="s">
         <v>324</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="133" spans="1:26" ht="13" customHeight="1">
+    <row r="133" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A133" s="9" t="s">
         <v>324</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="134" spans="1:26" ht="13" customHeight="1">
+    <row r="134" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A134" s="9" t="s">
         <v>324</v>
       </c>
@@ -7980,7 +7980,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="135" spans="1:26" s="25" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A135" s="9" t="s">
         <v>324</v>
       </c>
@@ -8035,7 +8035,7 @@
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
     </row>
-    <row r="136" spans="1:26" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="136" spans="1:26" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A136" s="27" t="s">
         <v>324</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="137" spans="1:26" ht="13" customHeight="1">
+    <row r="137" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A137" s="9" t="s">
         <v>324</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="138" spans="1:26" ht="13" customHeight="1">
+    <row r="138" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A138" s="9" t="s">
         <v>324</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="139" spans="1:26" ht="13" customHeight="1">
+    <row r="139" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A139" s="9" t="s">
         <v>324</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="140" spans="1:26" ht="13" customHeight="1">
+    <row r="140" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A140" s="9" t="s">
         <v>324</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="141" spans="1:26" ht="13" customHeight="1">
+    <row r="141" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A141" s="9" t="s">
         <v>324</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="142" spans="1:26" ht="13" customHeight="1">
+    <row r="142" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A142" s="9" t="s">
         <v>324</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="143" spans="1:26" ht="13" customHeight="1">
+    <row r="143" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A143" s="9" t="s">
         <v>324</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="144" spans="1:26" ht="13" customHeight="1">
+    <row r="144" spans="1:26" ht="13" hidden="1" customHeight="1">
       <c r="A144" s="9" t="s">
         <v>324</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="13" customHeight="1">
+    <row r="145" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A145" s="9" t="s">
         <v>324</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="13" customHeight="1">
+    <row r="146" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A146" s="9" t="s">
         <v>324</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="13" customHeight="1">
+    <row r="147" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A147" s="9" t="s">
         <v>324</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="13" customHeight="1">
+    <row r="148" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A148" s="9" t="s">
         <v>324</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="13" customHeight="1">
+    <row r="149" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A149" s="9" t="s">
         <v>324</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="13" customHeight="1">
+    <row r="150" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A150" s="9" t="s">
         <v>324</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="13" customHeight="1">
+    <row r="151" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A151" s="9" t="s">
         <v>324</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="152" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="152" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A152" s="27" t="s">
         <v>324</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="13" customHeight="1">
+    <row r="153" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A153" s="9" t="s">
         <v>324</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="13" customHeight="1">
+    <row r="154" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A154" s="9" t="s">
         <v>324</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="155" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="155" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A155" s="27" t="s">
         <v>324</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="13" customHeight="1">
+    <row r="156" spans="1:15" ht="13" hidden="1" customHeight="1">
       <c r="A156" s="9" t="s">
         <v>324</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="157" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="157" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A157" s="27" t="s">
         <v>324</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="158" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="158" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A158" s="27" t="s">
         <v>324</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="159" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="159" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A159" s="27" t="s">
         <v>324</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="160" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="160" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A160" s="27" t="s">
         <v>324</v>
       </c>
@@ -9132,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="O160" s="27" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A161" s="27" t="s">
         <v>324</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="162" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="162" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A162" s="27" t="s">
         <v>324</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="163" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="163" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A163" s="27" t="s">
         <v>324</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="164" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="164" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A164" s="27" t="s">
         <v>324</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="165" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="165" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A165" s="27" t="s">
         <v>324</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="166" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="166" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A166" s="27" t="s">
         <v>324</v>
       </c>
@@ -9396,10 +9396,10 @@
         <v>0</v>
       </c>
       <c r="O166" s="27" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A167" s="27" t="s">
         <v>324</v>
       </c>
@@ -9439,11 +9439,11 @@
       <c r="N167" s="27">
         <v>0</v>
       </c>
-      <c r="O167" s="9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+      <c r="O167" s="27" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A168" s="27" t="s">
         <v>324</v>
       </c>
@@ -9484,10 +9484,10 @@
         <v>0</v>
       </c>
       <c r="O168" s="27" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A169" s="27" t="s">
         <v>324</v>
       </c>
@@ -9528,10 +9528,10 @@
         <v>0</v>
       </c>
       <c r="O169" s="27" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A170" s="27" t="s">
         <v>324</v>
       </c>
@@ -9572,10 +9572,10 @@
         <v>0</v>
       </c>
       <c r="O170" s="27" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A171" s="27" t="s">
         <v>324</v>
       </c>
@@ -9616,10 +9616,10 @@
         <v>0</v>
       </c>
       <c r="O171" s="27" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A172" s="27" t="s">
         <v>324</v>
       </c>
@@ -9660,10 +9660,10 @@
         <v>0</v>
       </c>
       <c r="O172" s="27" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A173" s="27" t="s">
         <v>324</v>
       </c>
@@ -9704,10 +9704,10 @@
         <v>0</v>
       </c>
       <c r="O173" s="27" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A174" s="27" t="s">
         <v>324</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="175" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="175" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A175" s="27" t="s">
         <v>324</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="176" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="176" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A176" s="27" t="s">
         <v>324</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="177" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="177" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A177" s="27" t="s">
         <v>324</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="178" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="178" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A178" s="27" t="s">
         <v>324</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="179" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="179" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A179" s="27" t="s">
         <v>324</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="180" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="180" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A180" s="27" t="s">
         <v>324</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="181" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="181" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A181" s="27" t="s">
         <v>324</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="182" spans="1:21" ht="13" customHeight="1">
+    <row r="182" spans="1:21" ht="13" hidden="1" customHeight="1">
       <c r="A182" s="9" t="s">
         <v>324</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="183" spans="1:21" ht="13" customHeight="1">
+    <row r="183" spans="1:21" ht="13" hidden="1" customHeight="1">
       <c r="A183" s="9" t="s">
         <v>324</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="184" spans="1:21" ht="13" customHeight="1">
+    <row r="184" spans="1:21" ht="13" hidden="1" customHeight="1">
       <c r="A184" s="9" t="s">
         <v>324</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="185" spans="1:21" ht="13" customHeight="1">
+    <row r="185" spans="1:21" ht="13" hidden="1" customHeight="1">
       <c r="A185" s="9" t="s">
         <v>324</v>
       </c>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="U185" s="11"/>
     </row>
-    <row r="186" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="186" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A186" s="27" t="s">
         <v>324</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="187" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="187" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A187" s="27" t="s">
         <v>324</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="188" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="188" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A188" s="27" t="s">
         <v>324</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="189" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="189" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A189" s="27" t="s">
         <v>324</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="190" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="190" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A190" s="27" t="s">
         <v>324</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="191" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="191" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A191" s="27" t="s">
         <v>324</v>
       </c>
@@ -10497,10 +10497,10 @@
         <v>0</v>
       </c>
       <c r="O191" s="27" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="192" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A192" s="27" t="s">
         <v>324</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="193" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="193" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A193" s="27" t="s">
         <v>324</v>
       </c>
@@ -10629,10 +10629,10 @@
         <v>0</v>
       </c>
       <c r="O194" s="27" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A195" s="27" t="s">
         <v>324</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="196" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="196" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A196" s="27" t="s">
         <v>324</v>
       </c>
@@ -12519,6 +12519,23 @@
       <c r="N501" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z196" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Тамбур"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ALG 2030-45C"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Фиксатор пассивной створки накладной 220*2*8 мм ELEMENTIS с ответной планкой RAL 9016"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80A723F-AB21-AB42-987F-16CC3C02103D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23D072A-CC4C-4240-AF70-2F1D42667BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2044,7 +2044,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G208" sqref="G208"/>
+      <selection pane="bottomLeft" activeCell="I203" sqref="I203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -10456,7 +10456,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="191" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="191" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A191" s="27" t="s">
         <v>324</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="194" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A194" s="27" t="s">
         <v>324</v>
       </c>
@@ -12532,7 +12532,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="Фиксатор пассивной створки накладной 220*2*8 мм ELEMENTIS с ответной планкой RAL 9016"/>
+        <filter val="Руит Штапик 10,7 мм RAL 7024 мат"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23D072A-CC4C-4240-AF70-2F1D42667BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3316E0F6-6591-0E4D-8506-CA7D6430020E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="Итоговый расчет с монтажом" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'СПРАВОЧНИК -1'!$A$1:$Z$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'СПРАВОЧНИК -1'!$A$1:$Z$198</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'СПРАВОЧНИК -3'!$A$1:$D$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="515">
   <si>
     <t>Тип изделия:</t>
   </si>
@@ -1585,6 +1585,9 @@
   </si>
   <si>
     <t>(2 * (width + height) + 4 * (sash_w + sash_h) * n_sash) / 1000 * qty</t>
+  </si>
+  <si>
+    <t>2∗width/1000∗qty</t>
   </si>
 </sst>
 </file>
@@ -2043,8 +2046,8 @@
   <dimension ref="A1:Z501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I203" sqref="I203"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3619,7 +3622,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>63</v>
       </c>
@@ -3660,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>63</v>
       </c>
@@ -3707,7 +3710,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>63</v>
       </c>
@@ -3751,7 +3754,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="A39" s="9" t="s">
         <v>63</v>
       </c>
@@ -3780,10 +3783,10 @@
         <v>19</v>
       </c>
       <c r="K39" s="9">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M39" s="9">
         <v>0</v>
@@ -3795,7 +3798,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>63</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="51" spans="1:15" ht="13" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>63</v>
       </c>
@@ -4323,7 +4326,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="52" spans="1:15" ht="13" customHeight="1">
       <c r="A52" s="9" t="s">
         <v>63</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="53" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A53" s="27" t="s">
         <v>63</v>
       </c>
@@ -4411,7 +4414,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="54" spans="1:15" ht="13" customHeight="1">
       <c r="A54" s="9" t="s">
         <v>63</v>
       </c>
@@ -4455,7 +4458,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="55" spans="1:15" ht="13" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>63</v>
       </c>
@@ -4499,7 +4502,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="56" spans="1:15" ht="13" customHeight="1">
       <c r="A56" s="9" t="s">
         <v>63</v>
       </c>
@@ -4543,7 +4546,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="57" spans="1:15" ht="13" customHeight="1">
       <c r="A57" s="9" t="s">
         <v>63</v>
       </c>
@@ -4587,7 +4590,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="58" spans="1:15" ht="13" customHeight="1">
       <c r="A58" s="9" t="s">
         <v>63</v>
       </c>
@@ -4631,7 +4634,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="59" spans="1:15" ht="13" customHeight="1">
       <c r="A59" s="9" t="s">
         <v>63</v>
       </c>
@@ -4675,7 +4678,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="60" spans="1:15" ht="13" customHeight="1">
       <c r="A60" s="9" t="s">
         <v>63</v>
       </c>
@@ -4719,7 +4722,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="61" spans="1:15" ht="13" customHeight="1">
       <c r="A61" s="9" t="s">
         <v>63</v>
       </c>
@@ -4763,7 +4766,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="62" spans="1:15" ht="13" customHeight="1">
       <c r="A62" s="9" t="s">
         <v>63</v>
       </c>
@@ -4807,7 +4810,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="63" spans="1:15" ht="13" customHeight="1">
       <c r="A63" s="9" t="s">
         <v>63</v>
       </c>
@@ -5203,7 +5206,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="72" spans="1:15" ht="13" customHeight="1">
       <c r="A72" s="9" t="s">
         <v>63</v>
       </c>
@@ -6831,7 +6834,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="109" spans="1:15" ht="13" customHeight="1">
       <c r="A109" s="9" t="s">
         <v>63</v>
       </c>
@@ -6875,7 +6878,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="110" spans="1:15" ht="13" customHeight="1">
       <c r="A110" s="9" t="s">
         <v>63</v>
       </c>
@@ -6919,7 +6922,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="111" spans="1:15" ht="13" customHeight="1">
       <c r="A111" s="9" t="s">
         <v>63</v>
       </c>
@@ -6963,7 +6966,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="112" spans="1:15" ht="13" customHeight="1">
       <c r="A112" s="9" t="s">
         <v>63</v>
       </c>
@@ -7007,7 +7010,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="113" spans="1:15" ht="13" customHeight="1">
       <c r="A113" s="9" t="s">
         <v>63</v>
       </c>
@@ -7051,7 +7054,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="13" hidden="1" customHeight="1">
+    <row r="114" spans="1:15" ht="13" customHeight="1">
       <c r="A114" s="9" t="s">
         <v>63</v>
       </c>
@@ -10456,7 +10459,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="191" spans="1:21" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="191" spans="1:21" s="27" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A191" s="27" t="s">
         <v>324</v>
       </c>
@@ -10720,15 +10723,93 @@
         <v>497</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="13" customHeight="1">
-      <c r="G197" s="9"/>
-      <c r="H197" s="9"/>
-      <c r="I197" s="9"/>
-    </row>
-    <row r="198" spans="1:15" ht="13" customHeight="1">
-      <c r="G198" s="9"/>
-      <c r="H198" s="9"/>
-      <c r="I198" s="9"/>
+    <row r="197" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+      <c r="A197" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B197" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D197" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="E197" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F197" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G197" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H197" s="31">
+        <v>4029</v>
+      </c>
+      <c r="I197" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K197" s="27">
+        <v>6</v>
+      </c>
+      <c r="L197" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M197" s="27">
+        <v>0</v>
+      </c>
+      <c r="N197" s="27">
+        <v>0</v>
+      </c>
+      <c r="O197" s="27" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+      <c r="A198" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B198" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C198" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="D198" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E198" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F198" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="G198" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H198" s="27">
+        <v>161</v>
+      </c>
+      <c r="I198" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K198" s="27">
+        <v>1</v>
+      </c>
+      <c r="L198" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M198" s="27">
+        <v>0</v>
+      </c>
+      <c r="N198" s="27">
+        <v>0</v>
+      </c>
+      <c r="O198" s="27" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="199" spans="1:15" ht="13" customHeight="1">
       <c r="G199" s="9"/>
@@ -12519,20 +12600,15 @@
       <c r="N501" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z196" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:Z198" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Тамбур"/>
+        <filter val="Дверь"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="ALG 2030-45C"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Руит Штапик 10,7 мм RAL 7024 мат"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/axis_pro_gf.xlsx
+++ b/axis_pro_gf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3316E0F6-6591-0E4D-8506-CA7D6430020E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E12BBBC-6D8B-F94D-A41C-FC123562CAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СПРАВОЧНИК -1" sheetId="1" r:id="rId1"/>
@@ -2045,9 +2045,9 @@
   </sheetPr>
   <dimension ref="A1:Z501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
+      <selection pane="bottomLeft" activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3622,223 +3622,223 @@
         <v>474</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A36" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="31">
         <v>2335</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="27">
         <v>1</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M36" s="9">
-        <v>0</v>
-      </c>
-      <c r="N36" s="9">
-        <v>0</v>
-      </c>
-      <c r="O36" s="9" t="s">
+      <c r="M36" s="27">
+        <v>0</v>
+      </c>
+      <c r="N36" s="27">
+        <v>0</v>
+      </c>
+      <c r="O36" s="27" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A37" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="31">
         <v>3086</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="27">
         <v>6</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="L37" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M37" s="9">
-        <v>0</v>
-      </c>
-      <c r="N37" s="9">
-        <v>0</v>
-      </c>
-      <c r="O37" s="9" t="s">
+      <c r="M37" s="27">
+        <v>0</v>
+      </c>
+      <c r="N37" s="27">
+        <v>0</v>
+      </c>
+      <c r="O37" s="27" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A38" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="31">
         <v>4078</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="27">
         <v>6</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="L38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="9">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9">
-        <v>0</v>
-      </c>
-      <c r="O38" s="9" t="s">
+      <c r="M38" s="27">
+        <v>0</v>
+      </c>
+      <c r="N38" s="27">
+        <v>0</v>
+      </c>
+      <c r="O38" s="27" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A39" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="27" t="s">
         <v>488</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="31">
         <v>2448</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="27">
         <v>4.5</v>
       </c>
-      <c r="L39" s="9" t="s">
+      <c r="L39" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="9">
-        <v>0</v>
-      </c>
-      <c r="N39" s="9">
-        <v>0</v>
-      </c>
-      <c r="O39" s="9" t="s">
+      <c r="M39" s="27">
+        <v>0</v>
+      </c>
+      <c r="N39" s="27">
+        <v>0</v>
+      </c>
+      <c r="O39" s="27" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A40" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="31">
         <v>2448</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I40" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="27">
         <v>10</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="L40" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="M40" s="9">
-        <v>0</v>
-      </c>
-      <c r="N40" s="9">
-        <v>0</v>
-      </c>
-      <c r="O40" s="9" t="s">
+      <c r="M40" s="27">
+        <v>0</v>
+      </c>
+      <c r="N40" s="27">
+        <v>0</v>
+      </c>
+      <c r="O40" s="27" t="s">
         <v>430</v>
       </c>
     </row>
@@ -4282,91 +4282,91 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13" customHeight="1">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+      <c r="A51" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="31">
         <v>3086</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="I51" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K51" s="27">
         <v>6</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M51" s="9">
-        <v>0</v>
-      </c>
-      <c r="N51" s="9">
-        <v>0</v>
-      </c>
-      <c r="O51" s="9" t="s">
+      <c r="M51" s="27">
+        <v>0</v>
+      </c>
+      <c r="N51" s="27">
+        <v>0</v>
+      </c>
+      <c r="O51" s="27" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13" customHeight="1">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:15" s="27" customFormat="1" ht="13" customHeight="1">
+      <c r="A52" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="31">
         <v>4078</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="I52" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="27">
         <v>6</v>
       </c>
-      <c r="L52" s="9" t="s">
+      <c r="L52" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M52" s="9">
-        <v>0</v>
-      </c>
-      <c r="N52" s="9">
-        <v>0</v>
-      </c>
-      <c r="O52" s="9" t="s">
+      <c r="M52" s="27">
+        <v>0</v>
+      </c>
+      <c r="N52" s="27">
+        <v>0</v>
+      </c>
+      <c r="O52" s="27" t="s">
         <v>467</v>
       </c>
     </row>
@@ -28139,7 +28139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EC6FB2-1903-0042-ACE8-47D7240CC83A}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
